--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -93,7 +93,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>10000</v>
+            <v>287624</v>
           </cell>
         </row>
       </sheetData>
@@ -407,7 +407,7 @@
       </c>
       <c r="B1" s="1">
         <f>[1]Sheet1!$E$38</f>
-        <v>10000</v>
+        <v>287624</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -13,15 +13,19 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SAGAR UNCLE</t>
+  </si>
+  <si>
+    <t>TOY GALLERY</t>
   </si>
 </sst>
 </file>
@@ -94,6 +98,29 @@
         <row r="38">
           <cell r="E38">
             <v>287624</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>319859</v>
           </cell>
         </row>
       </sheetData>
@@ -389,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -410,9 +437,19 @@
         <v>287624</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>[2]Sheet1!$E$38</f>
+        <v>319859</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="SAM"/>
+    <hyperlink ref="B2" r:id="rId2" display="\2084377289testbysam\IMPORTANT\TOY GALLERY.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <webPublishItems count="1">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -448,7 +448,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="SAM"/>
+    <hyperlink ref="B1" r:id="rId1" display="SAGAR UNCLE.htm"/>
     <hyperlink ref="B2" r:id="rId2" display="\2084377289testbysam\IMPORTANT\TOY GALLERY.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -14,25 +14,77 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>SAGAR UNCLE</t>
-  </si>
-  <si>
-    <t>TOY GALLERY</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>AYUSH</t>
+  </si>
+  <si>
+    <t>BHAWANI</t>
+  </si>
+  <si>
+    <t>KUMAR</t>
+  </si>
+  <si>
+    <t>N.K</t>
+  </si>
+  <si>
+    <t>NOOR</t>
+  </si>
+  <si>
+    <t>OM SAI</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>SAGAR</t>
+  </si>
+  <si>
+    <t>SANJAY TRADERS</t>
+  </si>
+  <si>
+    <t>TOY GALLERT</t>
+  </si>
+  <si>
+    <t>TOY WORLD</t>
+  </si>
+  <si>
+    <t>UP MEERUT</t>
+  </si>
+  <si>
+    <t>VIJAY MALA</t>
+  </si>
+  <si>
+    <t>WALKER BHILAI</t>
+  </si>
+  <si>
+    <t>KIRAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +98,27 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,9 +145,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -108,6 +183,144 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>68430</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>20000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>162877</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>79431</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>38570</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>12810</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -121,6 +334,167 @@
         <row r="38">
           <cell r="E38">
             <v>319859</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>119196</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>11400</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>8960</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>52668</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>24965</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>38988</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>115186</v>
           </cell>
         </row>
       </sheetData>
@@ -416,42 +790,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="23.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
+        <f>[3]Sheet1!$E$38</f>
+        <v>119196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="23.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f>[4]Sheet1!$E$38</f>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <f>[5]Sheet1!$E$38</f>
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>[6]Sheet1!$E$38</f>
+        <v>52668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <f>[7]Sheet1!$E$38</f>
+        <v>24965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="23.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <f>[8]Sheet1!$E$38</f>
+        <v>38988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="23.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <f>[9]Sheet1!$E$38</f>
+        <v>115186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="23.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <f>[10]Sheet1!$E$38</f>
+        <v>68430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="23.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
         <f>[1]Sheet1!$E$38</f>
         <v>287624</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="10" spans="1:2" ht="23.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <f>[11]Sheet1!$E$38</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="23.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
         <f>[2]Sheet1!$E$38</f>
         <v>319859</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="23.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <f>[12]Sheet1!$E$38</f>
+        <v>162877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="23.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <f>[13]Sheet1!$E$38</f>
+        <v>79431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="23.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <f>[14]Sheet1!$E$38</f>
+        <v>38570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="23.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <f>[15]Sheet1!$E$38</f>
+        <v>12810</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="23.25">
+      <c r="B17" s="1">
+        <f>SUM(B1:B15)</f>
+        <v>1360964</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="SAGAR UNCLE.htm"/>
-    <hyperlink ref="B2" r:id="rId2" display="\2084377289testbysam\IMPORTANT\TOY GALLERY.htm"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <webPublishItems count="1">
     <webPublishItem id="14351" divId="main_14351" sourceType="sheet" destinationFile="E:\UPDATE\WEBSITE\2084377289testbysam\IMPORTANT\main.htm" autoRepublish="1"/>
   </webPublishItems>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -172,329 +172,329 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
+            <v>119196</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>20000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>319859</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>162877</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>79431</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>38570</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>12810</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>11400</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>8960</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>19496</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>24965</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>38988</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>115186</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>68430</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
             <v>287624</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>68430</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>20000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>162877</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>79431</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>38570</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>12810</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>319859</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>119196</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>11400</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>8960</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>52668</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>24965</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>38988</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>115186</v>
           </cell>
         </row>
       </sheetData>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3">
-        <f>[3]Sheet1!$E$38</f>
+        <f>[1]Sheet1!$E$38</f>
         <v>119196</v>
       </c>
     </row>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f>[4]Sheet1!$E$38</f>
+        <f>[2]Sheet1!$E$38</f>
         <v>11400</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <f>[5]Sheet1!$E$38</f>
+        <f>[3]Sheet1!$E$38</f>
         <v>8960</v>
       </c>
     </row>
@@ -834,8 +834,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>[6]Sheet1!$E$38</f>
-        <v>52668</v>
+        <f>[4]Sheet1!$E$38</f>
+        <v>19496</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.25">
@@ -843,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <f>[7]Sheet1!$E$38</f>
+        <f>[5]Sheet1!$E$38</f>
         <v>24965</v>
       </c>
     </row>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f>[8]Sheet1!$E$38</f>
+        <f>[6]Sheet1!$E$38</f>
         <v>38988</v>
       </c>
     </row>
@@ -861,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <f>[9]Sheet1!$E$38</f>
+        <f>[7]Sheet1!$E$38</f>
         <v>115186</v>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <f>[10]Sheet1!$E$38</f>
+        <f>[8]Sheet1!$E$38</f>
         <v>68430</v>
       </c>
     </row>
@@ -879,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <f>[1]Sheet1!$E$38</f>
+        <f>[9]Sheet1!$E$38</f>
         <v>287624</v>
       </c>
     </row>
@@ -888,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <f>[11]Sheet1!$E$38</f>
+        <f>[10]Sheet1!$E$38</f>
         <v>20000</v>
       </c>
     </row>
@@ -897,7 +897,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <f>[2]Sheet1!$E$38</f>
+        <f>[11]Sheet1!$E$38</f>
         <v>319859</v>
       </c>
     </row>
@@ -940,7 +940,7 @@
     <row r="17" spans="2:2" ht="23.25">
       <c r="B17" s="1">
         <f>SUM(B1:B15)</f>
-        <v>1360964</v>
+        <v>1327792</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -218,7 +218,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>319859</v>
+            <v>317069</v>
           </cell>
         </row>
       </sheetData>
@@ -333,7 +333,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>11400</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -494,7 +494,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>287624</v>
+            <v>237624</v>
           </cell>
         </row>
       </sheetData>
@@ -817,7 +817,7 @@
       </c>
       <c r="B2" s="3">
         <f>[2]Sheet1!$E$38</f>
-        <v>11400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
@@ -880,7 +880,7 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>287624</v>
+        <v>237624</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="23.25">
@@ -898,7 +898,7 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>319859</v>
+        <v>317069</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="23.25">
@@ -940,7 +940,7 @@
     <row r="17" spans="2:2" ht="23.25">
       <c r="B17" s="1">
         <f>SUM(B1:B15)</f>
-        <v>1327792</v>
+        <v>1263602</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -27,13 +27,14 @@
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>AYUSH</t>
   </si>
@@ -78,13 +79,16 @@
   </si>
   <si>
     <t>KIRAT</t>
+  </si>
+  <si>
+    <t>DIFFRENCE TILL DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +124,14 @@
       <name val="Bookman Old Style"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,11 +157,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -316,6 +334,41 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet7"/>
+      <sheetName val="Sheet6"/>
+      <sheetName val="Sheet8"/>
+      <sheetName val="Sheet9"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="G1">
+            <v>1298113</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -790,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -937,10 +990,25 @@
         <v>12810</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="23.25">
+    <row r="17" spans="1:2" ht="23.25">
       <c r="B17" s="1">
         <f>SUM(B1:B15)</f>
         <v>1263602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23.25">
+      <c r="B18" s="1">
+        <f>[16]Sheet5!$G$1</f>
+        <v>1298113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5">
+        <f>B18-B17</f>
+        <v>34511</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +173,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -354,7 +362,7 @@
       <sheetName val="Sheet9"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
@@ -362,13 +370,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -501,7 +509,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>115186</v>
+            <v>75186</v>
           </cell>
         </row>
       </sheetData>
@@ -915,7 +923,7 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>115186</v>
+        <v>75186</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="23.25">
@@ -993,7 +1001,7 @@
     <row r="17" spans="1:2" ht="23.25">
       <c r="B17" s="1">
         <f>SUM(B1:B15)</f>
-        <v>1263602</v>
+        <v>1223602</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.25">
@@ -1002,13 +1010,13 @@
         <v>1298113</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="21">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="5">
         <f>B18-B17</f>
-        <v>34511</v>
+        <v>74511</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -63,9 +63,6 @@
     <t>SANJAY TRADERS</t>
   </si>
   <si>
-    <t>TOY GALLERT</t>
-  </si>
-  <si>
     <t>TOY WORLD</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>DIFFRENCE TILL DATE</t>
+  </si>
+  <si>
+    <t>TOY GALLERy</t>
   </si>
 </sst>
 </file>
@@ -313,7 +313,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>38570</v>
+            <v>70</v>
           </cell>
         </row>
       </sheetData>
@@ -366,7 +366,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1298113</v>
+            <v>1276996</v>
           </cell>
         </row>
       </sheetData>
@@ -463,7 +463,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>24965</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -854,7 +854,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -883,7 +883,7 @@
     </row>
     <row r="3" spans="1:2" ht="23.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <f>[3]Sheet1!$E$38</f>
@@ -905,7 +905,7 @@
       </c>
       <c r="B5" s="2">
         <f>[5]Sheet1!$E$38</f>
-        <v>24965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
@@ -955,7 +955,7 @@
     </row>
     <row r="11" spans="1:2" ht="23.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
@@ -964,7 +964,7 @@
     </row>
     <row r="12" spans="1:2" ht="23.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
@@ -973,7 +973,7 @@
     </row>
     <row r="13" spans="1:2" ht="23.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <f>[13]Sheet1!$E$38</f>
@@ -982,16 +982,16 @@
     </row>
     <row r="14" spans="1:2" ht="23.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>38570</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
@@ -1001,22 +1001,22 @@
     <row r="17" spans="1:2" ht="23.25">
       <c r="B17" s="1">
         <f>SUM(B1:B15)</f>
-        <v>1223602</v>
+        <v>1160137</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.25">
       <c r="B18" s="1">
         <f>[16]Sheet5!$G$1</f>
-        <v>1298113</v>
+        <v>1276996</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="21">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="5">
         <f>B18-B17</f>
-        <v>74511</v>
+        <v>116859</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -366,7 +366,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1276996</v>
+            <v>1353199</v>
           </cell>
         </row>
       </sheetData>
@@ -1007,7 +1007,7 @@
     <row r="18" spans="1:2" ht="23.25">
       <c r="B18" s="1">
         <f>[16]Sheet5!$G$1</f>
-        <v>1276996</v>
+        <v>1353199</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="21">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B20" s="5">
         <f>B18-B17</f>
-        <v>116859</v>
+        <v>193062</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -81,7 +81,7 @@
     <t>DIFFRENCE TILL DATE</t>
   </si>
   <si>
-    <t>TOY GALLERy</t>
+    <t>TOY GALLERY</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>162877</v>
+            <v>112877</v>
           </cell>
         </row>
       </sheetData>
@@ -854,7 +854,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B1" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>162877</v>
+        <v>112877</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="23.25">
@@ -1001,7 +1001,7 @@
     <row r="17" spans="1:2" ht="23.25">
       <c r="B17" s="1">
         <f>SUM(B1:B15)</f>
-        <v>1160137</v>
+        <v>1110137</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.25">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B20" s="5">
         <f>B18-B17</f>
-        <v>193062</v>
+        <v>243062</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -28,13 +28,15 @@
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>AYUSH</t>
   </si>
@@ -82,6 +84,12 @@
   </si>
   <si>
     <t>TOY GALLERY</t>
+  </si>
+  <si>
+    <t>GAURI SHANKAR</t>
+  </si>
+  <si>
+    <t>GANGA</t>
   </si>
 </sst>
 </file>
@@ -221,7 +229,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>20000</v>
+            <v>33716</v>
           </cell>
         </row>
       </sheetData>
@@ -244,7 +252,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>317069</v>
+            <v>253167</v>
           </cell>
         </row>
       </sheetData>
@@ -267,7 +275,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>112877</v>
+            <v>252258</v>
           </cell>
         </row>
       </sheetData>
@@ -313,7 +321,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>70</v>
+            <v>26350</v>
           </cell>
         </row>
       </sheetData>
@@ -336,7 +344,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>12810</v>
+            <v>40990</v>
           </cell>
         </row>
       </sheetData>
@@ -348,6 +356,52 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>133752</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>17024</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -360,13 +414,14 @@
       <sheetName val="Sheet6"/>
       <sheetName val="Sheet8"/>
       <sheetName val="Sheet9"/>
+      <sheetName val="Sheet10"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1353199</v>
+            <v>1409861</v>
           </cell>
         </row>
       </sheetData>
@@ -377,6 +432,7 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -394,7 +450,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>6600</v>
           </cell>
         </row>
       </sheetData>
@@ -417,7 +473,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>8960</v>
+            <v>28150</v>
           </cell>
         </row>
       </sheetData>
@@ -440,7 +496,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>19496</v>
+            <v>48892</v>
           </cell>
         </row>
       </sheetData>
@@ -463,7 +519,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>16023</v>
           </cell>
         </row>
       </sheetData>
@@ -486,7 +542,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>38988</v>
+            <v>-1012</v>
           </cell>
         </row>
       </sheetData>
@@ -509,7 +565,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>75186</v>
+            <v>219850</v>
           </cell>
         </row>
       </sheetData>
@@ -555,7 +611,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>237624</v>
+            <v>250652</v>
           </cell>
         </row>
       </sheetData>
@@ -851,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,7 +934,7 @@
       </c>
       <c r="B2" s="3">
         <f>[2]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
@@ -887,7 +943,7 @@
       </c>
       <c r="B3" s="3">
         <f>[3]Sheet1!$E$38</f>
-        <v>8960</v>
+        <v>28150</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.25">
@@ -896,7 +952,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>19496</v>
+        <v>48892</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.25">
@@ -905,7 +961,7 @@
       </c>
       <c r="B5" s="2">
         <f>[5]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>16023</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
@@ -914,7 +970,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="23.25">
@@ -923,7 +979,7 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>75186</v>
+        <v>219850</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="23.25">
@@ -941,7 +997,7 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>237624</v>
+        <v>250652</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="23.25">
@@ -950,7 +1006,7 @@
       </c>
       <c r="B10" s="2">
         <f>[10]Sheet1!$E$38</f>
-        <v>20000</v>
+        <v>33716</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="23.25">
@@ -959,7 +1015,7 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>317069</v>
+        <v>253167</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="23.25">
@@ -968,7 +1024,7 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>112877</v>
+        <v>252258</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="23.25">
@@ -986,7 +1042,7 @@
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>70</v>
+        <v>26350</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23.25">
@@ -995,28 +1051,46 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>12810</v>
+        <v>40990</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="23.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <f>[16]Sheet1!$E$38</f>
+        <v>133752</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="23.25">
-      <c r="B17" s="1">
-        <f>SUM(B1:B15)</f>
-        <v>1110137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="23.25">
-      <c r="B18" s="1">
-        <f>[16]Sheet5!$G$1</f>
-        <v>1353199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="21">
-      <c r="A20" s="4" t="s">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <f>[17]Sheet1!$E$38</f>
+        <v>17024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23.25">
+      <c r="B19" s="1">
+        <f>SUM(B1:B17)</f>
+        <v>1593469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23.25">
+      <c r="B20" s="1">
+        <f>[18]Sheet5!$G$1</f>
+        <v>1409861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="21">
+      <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5">
-        <f>B18-B17</f>
-        <v>243062</v>
+      <c r="B22" s="5">
+        <f>B20-B19</f>
+        <v>-183608</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>AYUSH</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>GANGA</t>
+  </si>
+  <si>
+    <t>LM-210</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1409861</v>
+            <v>1452782</v>
           </cell>
         </row>
       </sheetData>
@@ -611,7 +614,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>250652</v>
+            <v>205652</v>
           </cell>
         </row>
       </sheetData>
@@ -909,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -997,7 +1000,7 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>250652</v>
+        <v>205652</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="23.25">
@@ -1075,13 +1078,13 @@
     <row r="19" spans="1:2" ht="23.25">
       <c r="B19" s="1">
         <f>SUM(B1:B17)</f>
-        <v>1593469</v>
+        <v>1548469</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="23.25">
       <c r="B20" s="1">
         <f>[18]Sheet5!$G$1</f>
-        <v>1409861</v>
+        <v>1452782</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="21">
@@ -1090,7 +1093,7 @@
       </c>
       <c r="B22" s="5">
         <f>B20-B19</f>
-        <v>-183608</v>
+        <v>-95687</v>
       </c>
     </row>
   </sheetData>
@@ -1106,10 +1109,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -30,13 +30,14 @@
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>AYUSH</t>
   </si>
@@ -93,13 +94,16 @@
   </si>
   <si>
     <t>LM-210</t>
+  </si>
+  <si>
+    <t>JAI PRAKASH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +155,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +186,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -187,6 +197,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -209,7 +220,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>119196</v>
+            <v>80396</v>
           </cell>
         </row>
       </sheetData>
@@ -232,7 +243,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>33716</v>
+            <v>45032</v>
           </cell>
         </row>
       </sheetData>
@@ -255,7 +266,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>253167</v>
+            <v>325160</v>
           </cell>
         </row>
       </sheetData>
@@ -301,7 +312,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>79431</v>
+            <v>25055</v>
           </cell>
         </row>
       </sheetData>
@@ -324,7 +335,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>26350</v>
+            <v>84335</v>
           </cell>
         </row>
       </sheetData>
@@ -347,7 +358,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>40990</v>
+            <v>55855</v>
           </cell>
         </row>
       </sheetData>
@@ -405,6 +416,29 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>60572</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -424,7 +458,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1452782</v>
+            <v>1559474</v>
           </cell>
         </row>
       </sheetData>
@@ -453,7 +487,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>6600</v>
+            <v>25980</v>
           </cell>
         </row>
       </sheetData>
@@ -499,7 +533,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>48892</v>
+            <v>31841</v>
           </cell>
         </row>
       </sheetData>
@@ -568,7 +602,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>219850</v>
+            <v>178850</v>
           </cell>
         </row>
       </sheetData>
@@ -591,7 +625,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>68430</v>
+            <v>43430</v>
           </cell>
         </row>
       </sheetData>
@@ -910,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -922,25 +956,25 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
+    <row r="1" spans="1:5" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
         <f>[1]Sheet1!$E$38</f>
-        <v>119196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="23.25">
+        <v>80396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <f>[2]Sheet1!$E$38</f>
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="23.25">
+        <v>25980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="23.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -949,16 +983,16 @@
         <v>28150</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="23.25">
+    <row r="4" spans="1:5" ht="23.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>48892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="23.25">
+        <v>31841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -967,7 +1001,7 @@
         <v>16023</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="23.25">
+    <row r="6" spans="1:5" ht="23.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -976,25 +1010,25 @@
         <v>-1012</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="23.25">
+    <row r="7" spans="1:5" ht="23.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>219850</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="23.25">
+        <v>178850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>68430</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="23.25">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="23.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1002,26 +1036,30 @@
         <f>[9]Sheet1!$E$38</f>
         <v>205652</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="23.25">
+      <c r="E9">
+        <f>SUM(B3,B4,B5,B7,B8,B9,B13,B14,B16,B17,B18)</f>
+        <v>824684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
         <f>[10]Sheet1!$E$38</f>
-        <v>33716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="23.25">
+        <v>45032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="23.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>253167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="23.25">
+        <v>325160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="23.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1030,34 +1068,34 @@
         <v>252258</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="23.25">
+    <row r="13" spans="1:5" ht="23.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2">
         <f>[13]Sheet1!$E$38</f>
-        <v>79431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="23.25">
+        <v>25055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>26350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="23.25">
+        <v>84335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>40990</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="23.25">
+        <v>55855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="23.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1075,25 +1113,34 @@
         <v>17024</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="23.25">
-      <c r="B19" s="1">
-        <f>SUM(B1:B17)</f>
-        <v>1548469</v>
+    <row r="18" spans="1:2" ht="23.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="6">
+        <f>[18]Sheet1!$E$38</f>
+        <v>60572</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="23.25">
       <c r="B20" s="1">
-        <f>[18]Sheet5!$G$1</f>
-        <v>1452782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="21">
-      <c r="A22" s="4" t="s">
+        <f>SUM(B1:B18)</f>
+        <v>1608353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23.25">
+      <c r="B21" s="1">
+        <f>[19]Sheet5!$G$1</f>
+        <v>1559474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="21">
+      <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="5">
-        <f>B20-B19</f>
-        <v>-95687</v>
+      <c r="B23" s="5">
+        <f>B21-B20</f>
+        <v>-48879</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -458,7 +458,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1559474</v>
+            <v>1585820</v>
           </cell>
         </row>
       </sheetData>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1049,6 +1049,10 @@
         <f>[10]Sheet1!$E$38</f>
         <v>45032</v>
       </c>
+      <c r="E10">
+        <f>SUM(B6,B12,B11)</f>
+        <v>576406</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="23.25">
       <c r="A11" s="2" t="s">
@@ -1131,7 +1135,7 @@
     <row r="21" spans="1:2" ht="23.25">
       <c r="B21" s="1">
         <f>[19]Sheet5!$G$1</f>
-        <v>1559474</v>
+        <v>1585820</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="21">
@@ -1140,7 +1144,7 @@
       </c>
       <c r="B23" s="5">
         <f>B21-B20</f>
-        <v>-48879</v>
+        <v>-22533</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>AYUSH</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>JAI PRAKASH</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PAKKA</t>
+  </si>
+  <si>
+    <t>BALANCE</t>
+  </si>
+  <si>
+    <t>CASH PURCHASE</t>
   </si>
 </sst>
 </file>
@@ -186,7 +198,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -198,6 +210,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,7 +471,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1585820</v>
+            <v>1561773</v>
           </cell>
         </row>
       </sheetData>
@@ -625,7 +638,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>43430</v>
+            <v>28430</v>
           </cell>
         </row>
       </sheetData>
@@ -944,19 +957,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25">
+    <row r="1" spans="1:14" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -965,7 +980,7 @@
         <v>80396</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="23.25">
+    <row r="2" spans="1:14" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -974,7 +989,7 @@
         <v>25980</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="23.25">
+    <row r="3" spans="1:14" ht="23.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -983,7 +998,7 @@
         <v>28150</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="23.25">
+    <row r="4" spans="1:14" ht="23.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -992,7 +1007,7 @@
         <v>31841</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="23.25">
+    <row r="5" spans="1:14" ht="23.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +1016,7 @@
         <v>16023</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="23.25">
+    <row r="6" spans="1:14" ht="23.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +1025,7 @@
         <v>-1012</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="23.25">
+    <row r="7" spans="1:14" ht="23.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1019,16 +1034,25 @@
         <v>178850</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23.25">
+    <row r="8" spans="1:14" ht="23.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>43430</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="23.25">
+        <v>28430</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="23.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1038,10 +1062,26 @@
       </c>
       <c r="E9">
         <f>SUM(B3,B4,B5,B7,B8,B9,B13,B14,B16,B17,B18)</f>
-        <v>824684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="23.25">
+        <v>809684</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>329580</v>
+      </c>
+      <c r="J9">
+        <v>18323</v>
+      </c>
+      <c r="L9">
+        <v>229580</v>
+      </c>
+      <c r="N9">
+        <f>SUM(I9-L9)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="23.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1053,8 +1093,21 @@
         <f>SUM(B6,B12,B11)</f>
         <v>576406</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="23.25">
+      <c r="H10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>252258</v>
+      </c>
+      <c r="L10">
+        <v>202258</v>
+      </c>
+      <c r="N10">
+        <f>SUM(I10-L10)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="23.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1062,8 +1115,14 @@
         <f>[11]Sheet1!$E$38</f>
         <v>325160</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="23.25">
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="23.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1071,8 +1130,15 @@
         <f>[12]Sheet1!$E$38</f>
         <v>252258</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="23.25">
+      <c r="L12" s="7">
+        <f>SUM(L9:L11)</f>
+        <v>481838</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="23.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1147,7 @@
         <v>25055</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="23.25">
+    <row r="14" spans="1:14" ht="23.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1090,7 +1156,7 @@
         <v>84335</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="23.25">
+    <row r="15" spans="1:14" ht="23.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1099,7 +1165,7 @@
         <v>55855</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="23.25">
+    <row r="16" spans="1:14" ht="23.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1129,13 +1195,13 @@
     <row r="20" spans="1:2" ht="23.25">
       <c r="B20" s="1">
         <f>SUM(B1:B18)</f>
-        <v>1608353</v>
+        <v>1593353</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.25">
       <c r="B21" s="1">
         <f>[19]Sheet5!$G$1</f>
-        <v>1585820</v>
+        <v>1561773</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="21">
@@ -1144,7 +1210,7 @@
       </c>
       <c r="B23" s="5">
         <f>B21-B20</f>
-        <v>-22533</v>
+        <v>-31580</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -30,14 +30,13 @@
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
-    <externalReference r:id="rId22"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>AYUSH</t>
   </si>
@@ -109,13 +108,28 @@
   </si>
   <si>
     <t>CASH PURCHASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>in account</t>
+  </si>
+  <si>
+    <t>in cash</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>we need</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +187,21 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,7 +227,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -211,6 +240,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -256,7 +287,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>45032</v>
+            <v>325160</v>
           </cell>
         </row>
       </sheetData>
@@ -279,7 +310,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>325160</v>
+            <v>252258</v>
           </cell>
         </row>
       </sheetData>
@@ -302,7 +333,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>252258</v>
+            <v>25055</v>
           </cell>
         </row>
       </sheetData>
@@ -325,7 +356,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>25055</v>
+            <v>84335</v>
           </cell>
         </row>
       </sheetData>
@@ -348,7 +379,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>84335</v>
+            <v>55855</v>
           </cell>
         </row>
       </sheetData>
@@ -371,7 +402,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>55855</v>
+            <v>133752</v>
           </cell>
         </row>
       </sheetData>
@@ -394,7 +425,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>133752</v>
+            <v>17024</v>
           </cell>
         </row>
       </sheetData>
@@ -417,7 +448,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>17024</v>
+            <v>60572</v>
           </cell>
         </row>
       </sheetData>
@@ -429,29 +460,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>60572</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -471,7 +479,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1561773</v>
+            <v>1553773</v>
           </cell>
         </row>
       </sheetData>
@@ -523,7 +531,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>28150</v>
+            <v>31841</v>
           </cell>
         </row>
       </sheetData>
@@ -546,7 +554,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>31841</v>
+            <v>16023</v>
           </cell>
         </row>
       </sheetData>
@@ -569,7 +577,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>16023</v>
+            <v>-1012</v>
           </cell>
         </row>
       </sheetData>
@@ -592,7 +600,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>-1012</v>
+            <v>178850</v>
           </cell>
         </row>
       </sheetData>
@@ -615,7 +623,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>178850</v>
+            <v>28430</v>
           </cell>
         </row>
       </sheetData>
@@ -638,7 +646,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>28430</v>
+            <v>205652</v>
           </cell>
         </row>
       </sheetData>
@@ -661,7 +669,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>205652</v>
+            <v>45032</v>
           </cell>
         </row>
       </sheetData>
@@ -959,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -969,6 +977,8 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25">
@@ -993,9 +1003,8 @@
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
-        <f>[3]Sheet1!$E$38</f>
-        <v>28150</v>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="23.25">
@@ -1003,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>[4]Sheet1!$E$38</f>
+        <f>[3]Sheet1!$E$38</f>
         <v>31841</v>
       </c>
     </row>
@@ -1012,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <f>[5]Sheet1!$E$38</f>
+        <f>[4]Sheet1!$E$38</f>
         <v>16023</v>
       </c>
     </row>
@@ -1021,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f>[6]Sheet1!$E$38</f>
+        <f>[5]Sheet1!$E$38</f>
         <v>-1012</v>
       </c>
     </row>
@@ -1030,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <f>[7]Sheet1!$E$38</f>
+        <f>[6]Sheet1!$E$38</f>
         <v>178850</v>
       </c>
     </row>
@@ -1039,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <f>[8]Sheet1!$E$38</f>
+        <f>[7]Sheet1!$E$38</f>
         <v>28430</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -1057,24 +1066,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <f>[9]Sheet1!$E$38</f>
+        <f>[8]Sheet1!$E$38</f>
         <v>205652</v>
       </c>
       <c r="E9">
         <f>SUM(B3,B4,B5,B7,B8,B9,B13,B14,B16,B17,B18)</f>
-        <v>809684</v>
+        <v>781534</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I9">
-        <v>329580</v>
-      </c>
-      <c r="J9">
-        <v>18323</v>
+        <v>311257</v>
       </c>
       <c r="L9">
-        <v>229580</v>
+        <v>211257</v>
       </c>
       <c r="N9">
         <f>SUM(I9-L9)</f>
@@ -1086,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <f>[10]Sheet1!$E$38</f>
+        <f>[9]Sheet1!$E$38</f>
         <v>45032</v>
       </c>
       <c r="E10">
@@ -1112,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <f>[11]Sheet1!$E$38</f>
+        <f>[10]Sheet1!$E$38</f>
         <v>325160</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -1127,12 +1133,12 @@
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <f>[12]Sheet1!$E$38</f>
+        <f>[11]Sheet1!$E$38</f>
         <v>252258</v>
       </c>
       <c r="L12" s="7">
         <f>SUM(L9:L11)</f>
-        <v>481838</v>
+        <v>463515</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>20</v>
@@ -1143,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <f>[13]Sheet1!$E$38</f>
+        <f>[12]Sheet1!$E$38</f>
         <v>25055</v>
       </c>
     </row>
@@ -1152,8 +1158,14 @@
         <v>11</v>
       </c>
       <c r="B14" s="2">
-        <f>[14]Sheet1!$E$38</f>
+        <f>[13]Sheet1!$E$38</f>
         <v>84335</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="7">
+        <v>38850</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="23.25">
@@ -1161,8 +1173,14 @@
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <f>[15]Sheet1!$E$38</f>
+        <f>[14]Sheet1!$E$38</f>
         <v>55855</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7">
+        <v>300000</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="23.25">
@@ -1170,47 +1188,61 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <f>[16]Sheet1!$E$38</f>
+        <f>[15]Sheet1!$E$38</f>
         <v>133752</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="23.25">
+      <c r="K16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="8">
+        <f>SUM(L14:L15)</f>
+        <v>338850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="33.75">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <f>[17]Sheet1!$E$38</f>
+        <f>[16]Sheet1!$E$38</f>
         <v>17024</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="23.25">
+      <c r="K17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="9">
+        <f>SUM(L12-L16)</f>
+        <v>124665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6">
-        <f>[18]Sheet1!$E$38</f>
+        <f>[17]Sheet1!$E$38</f>
         <v>60572</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="23.25">
+    <row r="20" spans="1:12" ht="23.25">
       <c r="B20" s="1">
         <f>SUM(B1:B18)</f>
-        <v>1593353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="23.25">
+        <v>1565203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="23.25">
       <c r="B21" s="1">
-        <f>[19]Sheet5!$G$1</f>
-        <v>1561773</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="21">
+        <f>[18]Sheet5!$G$1</f>
+        <v>1553773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="21">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="5">
         <f>B21-B20</f>
-        <v>-31580</v>
+        <v>-11430</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -30,13 +30,14 @@
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>AYUSH</t>
   </si>
@@ -96,33 +97,6 @@
   </si>
   <si>
     <t>JAI PRAKASH</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>PAKKA</t>
-  </si>
-  <si>
-    <t>BALANCE</t>
-  </si>
-  <si>
-    <t>CASH PURCHASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>in account</t>
-  </si>
-  <si>
-    <t>in cash</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>we need</t>
   </si>
 </sst>
 </file>
@@ -287,7 +261,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>325160</v>
+            <v>25032</v>
           </cell>
         </row>
       </sheetData>
@@ -310,7 +284,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>252258</v>
+            <v>100000</v>
           </cell>
         </row>
       </sheetData>
@@ -333,6 +307,29 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
+            <v>50000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
             <v>25055</v>
           </cell>
         </row>
@@ -344,7 +341,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -367,7 +364,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -390,7 +387,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -413,7 +410,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -436,7 +433,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -459,7 +456,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -531,6 +528,29 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
             <v>31841</v>
           </cell>
         </row>
@@ -542,7 +562,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -565,7 +585,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -588,29 +608,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>178850</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -623,6 +620,29 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
+            <v>202040</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
             <v>28430</v>
           </cell>
         </row>
@@ -634,7 +654,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -647,29 +667,6 @@
         <row r="38">
           <cell r="E38">
             <v>205652</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>45032</v>
           </cell>
         </row>
       </sheetData>
@@ -967,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1003,8 +1000,9 @@
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
+      <c r="B3" s="3">
+        <f>[3]Sheet1!$E$38</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="23.25">
@@ -1012,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>[3]Sheet1!$E$38</f>
+        <f>[4]Sheet1!$E$38</f>
         <v>31841</v>
       </c>
     </row>
@@ -1021,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <f>[4]Sheet1!$E$38</f>
+        <f>[5]Sheet1!$E$38</f>
         <v>16023</v>
       </c>
     </row>
@@ -1030,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f>[5]Sheet1!$E$38</f>
+        <f>[6]Sheet1!$E$38</f>
         <v>-1012</v>
       </c>
     </row>
@@ -1039,8 +1037,8 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <f>[6]Sheet1!$E$38</f>
-        <v>178850</v>
+        <f>[7]Sheet1!$E$38</f>
+        <v>202040</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.25">
@@ -1048,108 +1046,68 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <f>[7]Sheet1!$E$38</f>
+        <f>[8]Sheet1!$E$38</f>
         <v>28430</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" ht="23.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <f>[8]Sheet1!$E$38</f>
+        <f>[9]Sheet1!$E$38</f>
         <v>205652</v>
       </c>
       <c r="E9">
-        <f>SUM(B3,B4,B5,B7,B8,B9,B13,B14,B16,B17,B18)</f>
-        <v>781534</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9">
-        <v>311257</v>
-      </c>
-      <c r="L9">
-        <v>211257</v>
-      </c>
-      <c r="N9">
-        <f>SUM(I9-L9)</f>
-        <v>100000</v>
-      </c>
+        <f>SUM(B1,B2,B3,B4,B5,B7,B8,B9,B13,B14,B16,B17,B18)</f>
+        <v>911100</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:14" ht="23.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <f>[9]Sheet1!$E$38</f>
-        <v>45032</v>
+        <f>[10]Sheet1!$E$38</f>
+        <v>25032</v>
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11)</f>
-        <v>576406</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>252258</v>
-      </c>
-      <c r="L10">
-        <v>202258</v>
-      </c>
-      <c r="N10">
-        <f>SUM(I10-L10)</f>
-        <v>50000</v>
-      </c>
+        <v>148988</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="23.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <f>[10]Sheet1!$E$38</f>
-        <v>325160</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11">
-        <v>50000</v>
-      </c>
+        <f>[11]Sheet1!$E$38</f>
+        <v>100000</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="23.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <f>[11]Sheet1!$E$38</f>
-        <v>252258</v>
-      </c>
-      <c r="L12" s="7">
-        <f>SUM(L9:L11)</f>
-        <v>463515</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>20</v>
-      </c>
+        <f>[12]Sheet1!$E$38</f>
+        <v>50000</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="23.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <f>[12]Sheet1!$E$38</f>
+        <f>[13]Sheet1!$E$38</f>
         <v>25055</v>
       </c>
     </row>
@@ -1158,81 +1116,61 @@
         <v>11</v>
       </c>
       <c r="B14" s="2">
-        <f>[13]Sheet1!$E$38</f>
+        <f>[14]Sheet1!$E$38</f>
         <v>84335</v>
       </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="7">
-        <v>38850</v>
-      </c>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="23.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <f>[14]Sheet1!$E$38</f>
+        <f>[15]Sheet1!$E$38</f>
         <v>55855</v>
       </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="7">
-        <v>300000</v>
-      </c>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:14" ht="23.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <f>[15]Sheet1!$E$38</f>
+        <f>[16]Sheet1!$E$38</f>
         <v>133752</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="8">
-        <f>SUM(L14:L15)</f>
-        <v>338850</v>
-      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="33.75">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <f>[16]Sheet1!$E$38</f>
+        <f>[17]Sheet1!$E$38</f>
         <v>17024</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="9">
-        <f>SUM(L12-L16)</f>
-        <v>124665</v>
-      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6">
-        <f>[17]Sheet1!$E$38</f>
+        <f>[18]Sheet1!$E$38</f>
         <v>60572</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="23.25">
       <c r="B20" s="1">
         <f>SUM(B1:B18)</f>
-        <v>1565203</v>
+        <v>1140975</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25">
       <c r="B21" s="1">
-        <f>[18]Sheet5!$G$1</f>
+        <f>[19]Sheet5!$G$1</f>
         <v>1553773</v>
       </c>
     </row>
@@ -1242,7 +1180,7 @@
       </c>
       <c r="B23" s="5">
         <f>B21-B20</f>
-        <v>-11430</v>
+        <v>412798</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -666,12 +666,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>205652</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+            <v>156652</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -965,7 +965,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1059,11 +1059,11 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>205652</v>
+        <v>156652</v>
       </c>
       <c r="E9">
         <f>SUM(B1,B2,B3,B4,B5,B7,B8,B9,B13,B14,B16,B17,B18)</f>
-        <v>911100</v>
+        <v>862100</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1165,7 +1165,7 @@
     <row r="20" spans="1:12" ht="23.25">
       <c r="B20" s="1">
         <f>SUM(B1:B18)</f>
-        <v>1140975</v>
+        <v>1091975</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B23" s="5">
         <f>B21-B20</f>
-        <v>412798</v>
+        <v>461798</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -238,7 +238,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>80396</v>
+            <v>40396</v>
           </cell>
         </row>
       </sheetData>
@@ -284,12 +284,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>100000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+            <v>185726</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -307,7 +307,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>50000</v>
+            <v>76195</v>
           </cell>
         </row>
       </sheetData>
@@ -670,8 +670,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -984,7 +984,7 @@
       </c>
       <c r="B1" s="3">
         <f>[1]Sheet1!$E$38</f>
-        <v>80396</v>
+        <v>40396</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="23.25">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E9">
         <f>SUM(B1,B2,B3,B4,B5,B7,B8,B9,B13,B14,B16,B17,B18)</f>
-        <v>862100</v>
+        <v>822100</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11)</f>
-        <v>148988</v>
+        <v>260909</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>100000</v>
+        <v>185726</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1165,7 +1165,7 @@
     <row r="20" spans="1:12" ht="23.25">
       <c r="B20" s="1">
         <f>SUM(B1:B18)</f>
-        <v>1091975</v>
+        <v>1163896</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B23" s="5">
         <f>B21-B20</f>
-        <v>461798</v>
+        <v>389877</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -238,7 +238,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>40396</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -288,8 +288,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -399,7 +399,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>133752</v>
+            <v>76200</v>
           </cell>
         </row>
       </sheetData>
@@ -476,7 +476,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1553773</v>
+            <v>1582509</v>
           </cell>
         </row>
       </sheetData>
@@ -666,7 +666,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>156652</v>
+            <v>170554</v>
           </cell>
         </row>
       </sheetData>
@@ -965,7 +965,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -984,7 +984,7 @@
       </c>
       <c r="B1" s="3">
         <f>[1]Sheet1!$E$38</f>
-        <v>40396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="23.25">
@@ -1059,11 +1059,11 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>156652</v>
+        <v>170554</v>
       </c>
       <c r="E9">
         <f>SUM(B1,B2,B3,B4,B5,B7,B8,B9,B13,B14,B16,B17,B18)</f>
-        <v>822100</v>
+        <v>738054</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B16" s="2">
         <f>[16]Sheet1!$E$38</f>
-        <v>133752</v>
+        <v>76200</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="8"/>
@@ -1165,13 +1165,13 @@
     <row r="20" spans="1:12" ht="23.25">
       <c r="B20" s="1">
         <f>SUM(B1:B18)</f>
-        <v>1163896</v>
+        <v>1079850</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25">
       <c r="B21" s="1">
         <f>[19]Sheet5!$G$1</f>
-        <v>1553773</v>
+        <v>1582509</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="21">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B23" s="5">
         <f>B21-B20</f>
-        <v>389877</v>
+        <v>502659</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -261,7 +261,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>25032</v>
+            <v>25044</v>
           </cell>
         </row>
       </sheetData>
@@ -284,7 +284,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>185726</v>
+            <v>185776</v>
           </cell>
         </row>
       </sheetData>
@@ -307,7 +307,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>76195</v>
+            <v>76245</v>
           </cell>
         </row>
       </sheetData>
@@ -330,7 +330,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>25055</v>
+            <v>33840</v>
           </cell>
         </row>
       </sheetData>
@@ -353,7 +353,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>84335</v>
+            <v>174345</v>
           </cell>
         </row>
       </sheetData>
@@ -376,7 +376,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>55855</v>
+            <v>81495</v>
           </cell>
         </row>
       </sheetData>
@@ -422,7 +422,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>17024</v>
+            <v>13261</v>
           </cell>
         </row>
       </sheetData>
@@ -476,7 +476,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1582509</v>
+            <v>1618891</v>
           </cell>
         </row>
       </sheetData>
@@ -597,7 +597,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>-1012</v>
+            <v>166641</v>
           </cell>
         </row>
       </sheetData>
@@ -643,7 +643,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>28430</v>
+            <v>74514</v>
           </cell>
         </row>
       </sheetData>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23.25">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>28430</v>
+        <v>74514</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E9">
         <f>SUM(B1,B2,B3,B4,B5,B7,B8,B9,B13,B14,B16,B17,B18)</f>
-        <v>738054</v>
+        <v>879170</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1073,11 +1073,11 @@
       </c>
       <c r="B10" s="2">
         <f>[10]Sheet1!$E$38</f>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11)</f>
-        <v>260909</v>
+        <v>428662</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B13" s="2">
         <f>[13]Sheet1!$E$38</f>
-        <v>25055</v>
+        <v>33840</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="23.25">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>84335</v>
+        <v>174345</v>
       </c>
       <c r="L14" s="7"/>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="L15" s="7"/>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B17" s="2">
         <f>[17]Sheet1!$E$38</f>
-        <v>17024</v>
+        <v>13261</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="9"/>
@@ -1165,13 +1165,13 @@
     <row r="20" spans="1:12" ht="23.25">
       <c r="B20" s="1">
         <f>SUM(B1:B18)</f>
-        <v>1079850</v>
+        <v>1414371</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25">
       <c r="B21" s="1">
         <f>[19]Sheet5!$G$1</f>
-        <v>1582509</v>
+        <v>1618891</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="21">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B23" s="5">
         <f>B21-B20</f>
-        <v>502659</v>
+        <v>204520</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -284,7 +284,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>185776</v>
+            <v>252941</v>
           </cell>
         </row>
       </sheetData>
@@ -376,7 +376,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>81495</v>
+            <v>70850</v>
           </cell>
         </row>
       </sheetData>
@@ -422,12 +422,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>13261</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -476,7 +476,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1618891</v>
+            <v>1622585</v>
           </cell>
         </row>
       </sheetData>
@@ -509,8 +509,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -574,7 +574,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>16023</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B5" s="2">
         <f>[5]Sheet1!$E$38</f>
-        <v>16023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="23.25">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E9">
         <f>SUM(B1,B2,B3,B4,B5,B7,B8,B9,B13,B14,B16,B17,B18)</f>
-        <v>879170</v>
+        <v>849886</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11)</f>
-        <v>428662</v>
+        <v>495827</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="L15" s="7"/>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B17" s="2">
         <f>[17]Sheet1!$E$38</f>
-        <v>13261</v>
+        <v>0</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="9"/>
@@ -1165,13 +1165,13 @@
     <row r="20" spans="1:12" ht="23.25">
       <c r="B20" s="1">
         <f>SUM(B1:B18)</f>
-        <v>1414371</v>
+        <v>1441607</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25">
       <c r="B21" s="1">
         <f>[19]Sheet5!$G$1</f>
-        <v>1618891</v>
+        <v>1622585</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="21">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B23" s="5">
         <f>B21-B20</f>
-        <v>204520</v>
+        <v>180978</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -284,7 +284,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>252941</v>
+            <v>192752</v>
           </cell>
         </row>
       </sheetData>
@@ -307,7 +307,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>76245</v>
+            <v>59519</v>
           </cell>
         </row>
       </sheetData>
@@ -426,8 +426,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -445,7 +445,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>60572</v>
+            <v>50117</v>
           </cell>
         </row>
       </sheetData>
@@ -476,7 +476,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1622585</v>
+            <v>1802200</v>
           </cell>
         </row>
       </sheetData>
@@ -509,6 +509,98 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>51972</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>66641</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
@@ -516,98 +608,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>31841</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>166641</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -643,7 +643,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>74514</v>
+            <v>98706</v>
           </cell>
         </row>
       </sheetData>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>31841</v>
+        <v>51972</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23.25">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>166641</v>
+        <v>66641</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23.25">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>74514</v>
+        <v>98706</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E9">
         <f>SUM(B1,B2,B3,B4,B5,B7,B8,B9,B13,B14,B16,B17,B18)</f>
-        <v>849886</v>
+        <v>883754</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11)</f>
-        <v>495827</v>
+        <v>318912</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1159,19 +1159,19 @@
       </c>
       <c r="B18" s="6">
         <f>[18]Sheet1!$E$38</f>
-        <v>60572</v>
+        <v>50117</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="23.25">
       <c r="B20" s="1">
         <f>SUM(B1:B18)</f>
-        <v>1441607</v>
+        <v>1298560</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25">
       <c r="B21" s="1">
         <f>[19]Sheet5!$G$1</f>
-        <v>1622585</v>
+        <v>1802200</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="21">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B23" s="5">
         <f>B21-B20</f>
-        <v>180978</v>
+        <v>503640</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -31,13 +31,14 @@
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>AYUSH</t>
   </si>
@@ -97,6 +98,27 @@
   </si>
   <si>
     <t>JAI PRAKASH</t>
+  </si>
+  <si>
+    <t>PALLAVI SPORTS</t>
+  </si>
+  <si>
+    <t>MUMBAI TOYS</t>
+  </si>
+  <si>
+    <t>PAGDI</t>
+  </si>
+  <si>
+    <t>DELHI TOYS</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
   </si>
 </sst>
 </file>
@@ -201,7 +223,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -216,6 +238,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -261,7 +286,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>25044</v>
+            <v>41340</v>
           </cell>
         </row>
       </sheetData>
@@ -284,7 +309,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>192752</v>
+            <v>184483</v>
           </cell>
         </row>
       </sheetData>
@@ -307,7 +332,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>59519</v>
+            <v>76856</v>
           </cell>
         </row>
       </sheetData>
@@ -330,7 +355,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>33840</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -353,7 +378,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>174345</v>
+            <v>230810</v>
           </cell>
         </row>
       </sheetData>
@@ -376,7 +401,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>70850</v>
+            <v>96540</v>
           </cell>
         </row>
       </sheetData>
@@ -399,7 +424,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>76200</v>
+            <v>135677</v>
           </cell>
         </row>
       </sheetData>
@@ -422,7 +447,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>19080</v>
           </cell>
         </row>
       </sheetData>
@@ -445,7 +470,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>50117</v>
+            <v>25911</v>
           </cell>
         </row>
       </sheetData>
@@ -457,6 +482,52 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>36562</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>70720</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -476,7 +547,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1802200</v>
+            <v>1472772</v>
           </cell>
         </row>
       </sheetData>
@@ -493,29 +564,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>25980</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -528,6 +576,52 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
+            <v>36870</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>79497</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
             <v>0</v>
           </cell>
         </row>
@@ -539,30 +633,76 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>51972</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>121240</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>125000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>65706</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -575,98 +715,6 @@
         <row r="38">
           <cell r="E38">
             <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>66641</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>202040</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>98706</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>170554</v>
           </cell>
         </row>
       </sheetData>
@@ -962,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -974,6 +1022,7 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -993,7 +1042,7 @@
       </c>
       <c r="B2" s="3">
         <f>[2]Sheet1!$E$38</f>
-        <v>25980</v>
+        <v>70720</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.25">
@@ -1002,7 +1051,7 @@
       </c>
       <c r="B3" s="3">
         <f>[3]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>36870</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="23.25">
@@ -1011,7 +1060,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>51972</v>
+        <v>79497</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23.25">
@@ -1029,7 +1078,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>66641</v>
+        <v>121240</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23.25">
@@ -1038,7 +1087,7 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>202040</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.25">
@@ -1047,7 +1096,7 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>98706</v>
+        <v>65706</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1059,11 +1108,14 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>170554</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <f>SUM(B1,B2,B3,B4,B5,B7,B8,B9,B13,B14,B16,B17,B18)</f>
-        <v>883754</v>
+        <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19)</f>
+        <v>237715</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1073,11 +1125,14 @@
       </c>
       <c r="B10" s="2">
         <f>[10]Sheet1!$E$38</f>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11)</f>
-        <v>318912</v>
+        <v>382579</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1087,7 +1142,14 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>192752</v>
+        <v>184483</v>
+      </c>
+      <c r="E11">
+        <f>SUM(B18,B16,B14,B7,B2)</f>
+        <v>588118</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1097,7 +1159,20 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>59519</v>
+        <v>76856</v>
+      </c>
+      <c r="E12">
+        <f>SUM(B15,B10)</f>
+        <v>137880</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="10">
+        <v>350000</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1108,7 +1183,7 @@
       </c>
       <c r="B13" s="2">
         <f>[13]Sheet1!$E$38</f>
-        <v>33840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="23.25">
@@ -1117,7 +1192,14 @@
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>174345</v>
+        <v>230810</v>
+      </c>
+      <c r="E14" s="7">
+        <f>SUM(E9:E12)</f>
+        <v>1346292</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="L14" s="7"/>
     </row>
@@ -1127,7 +1209,7 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="L15" s="7"/>
     </row>
@@ -1137,7 +1219,7 @@
       </c>
       <c r="B16" s="2">
         <f>[16]Sheet1!$E$38</f>
-        <v>76200</v>
+        <v>135677</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="8"/>
@@ -1148,7 +1230,7 @@
       </c>
       <c r="B17" s="2">
         <f>[17]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>19080</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="9"/>
@@ -1159,28 +1241,37 @@
       </c>
       <c r="B18" s="6">
         <f>[18]Sheet1!$E$38</f>
-        <v>50117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="23.25">
-      <c r="B20" s="1">
-        <f>SUM(B1:B18)</f>
-        <v>1298560</v>
+        <v>25911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="23.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6">
+        <f>[19]Sheet1!$E$38</f>
+        <v>36562</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25">
       <c r="B21" s="1">
-        <f>[19]Sheet5!$G$1</f>
-        <v>1802200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="21">
-      <c r="A23" s="4" t="s">
+        <f>SUM(B1:B19)</f>
+        <v>1346292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="23.25">
+      <c r="B22" s="1">
+        <f>[20]Sheet5!$G$1</f>
+        <v>1472772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="21">
+      <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="5">
-        <f>B21-B20</f>
-        <v>503640</v>
+      <c r="B24" s="5">
+        <f>B22-B21</f>
+        <v>126480</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -309,7 +309,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>184483</v>
+            <v>134483</v>
           </cell>
         </row>
       </sheetData>
@@ -424,7 +424,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>135677</v>
+            <v>60177</v>
           </cell>
         </row>
       </sheetData>
@@ -547,7 +547,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1472772</v>
+            <v>1446702</v>
           </cell>
         </row>
       </sheetData>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11)</f>
-        <v>382579</v>
+        <v>332579</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1142,11 +1142,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>184483</v>
+        <v>134483</v>
       </c>
       <c r="E11">
         <f>SUM(B18,B16,B14,B7,B2)</f>
-        <v>588118</v>
+        <v>512618</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E14" s="7">
         <f>SUM(E9:E12)</f>
-        <v>1346292</v>
+        <v>1220792</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B16" s="2">
         <f>[16]Sheet1!$E$38</f>
-        <v>135677</v>
+        <v>60177</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="8"/>
@@ -1256,13 +1256,13 @@
     <row r="21" spans="1:12" ht="23.25">
       <c r="B21" s="1">
         <f>SUM(B1:B19)</f>
-        <v>1346292</v>
+        <v>1220792</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="23.25">
       <c r="B22" s="1">
         <f>[20]Sheet5!$G$1</f>
-        <v>1472772</v>
+        <v>1446702</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="21">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B24" s="5">
         <f>B22-B21</f>
-        <v>126480</v>
+        <v>225910</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -286,7 +286,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>41340</v>
+            <v>35384</v>
           </cell>
         </row>
       </sheetData>
@@ -332,7 +332,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>76856</v>
+            <v>76706</v>
           </cell>
         </row>
       </sheetData>
@@ -1125,11 +1125,11 @@
       </c>
       <c r="B10" s="2">
         <f>[10]Sheet1!$E$38</f>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11)</f>
-        <v>332579</v>
+        <v>332429</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1159,11 +1159,11 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="E12">
         <f>SUM(B15,B10)</f>
-        <v>137880</v>
+        <v>131924</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E14" s="7">
         <f>SUM(E9:E12)</f>
-        <v>1220792</v>
+        <v>1214686</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
@@ -1256,7 +1256,7 @@
     <row r="21" spans="1:12" ht="23.25">
       <c r="B21" s="1">
         <f>SUM(B1:B19)</f>
-        <v>1220792</v>
+        <v>1214686</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="23.25">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B24" s="5">
         <f>B22-B21</f>
-        <v>225910</v>
+        <v>232016</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -547,7 +547,7 @@
       <sheetData sheetId="1">
         <row r="1">
           <cell r="G1">
-            <v>1446702</v>
+            <v>1442293</v>
           </cell>
         </row>
       </sheetData>
@@ -668,7 +668,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>125000</v>
+            <v>85000</v>
           </cell>
         </row>
       </sheetData>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>125000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.25">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E11">
         <f>SUM(B18,B16,B14,B7,B2)</f>
-        <v>512618</v>
+        <v>472618</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E14" s="7">
         <f>SUM(E9:E12)</f>
-        <v>1214686</v>
+        <v>1174686</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
@@ -1256,13 +1256,13 @@
     <row r="21" spans="1:12" ht="23.25">
       <c r="B21" s="1">
         <f>SUM(B1:B19)</f>
-        <v>1214686</v>
+        <v>1174686</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="23.25">
       <c r="B22" s="1">
         <f>[20]Sheet5!$G$1</f>
-        <v>1446702</v>
+        <v>1442293</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="21">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B24" s="5">
         <f>B22-B21</f>
-        <v>232016</v>
+        <v>267607</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -32,6 +32,7 @@
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
@@ -118,14 +119,14 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>MUMBAI</t>
+    <t>BALAJI DELHI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +199,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +231,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,6 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -263,6 +272,98 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
+            <v>39582</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>35384</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>203000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>131430</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
             <v>0</v>
           </cell>
         </row>
@@ -274,76 +375,122 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>35384</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>134483</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>76706</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>230810</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>52230</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>60177</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>41757</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>25911</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -366,144 +513,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>230810</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>96540</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>60177</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>19080</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>25911</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>36562</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -532,8 +541,31 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>32030</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
       <sheetName val="Sheet5"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="Sheet3"/>
       <sheetName val="Sheet4"/>
       <sheetName val="Sheet7"/>
@@ -544,14 +576,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1442293</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+            <v>1421839</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -576,7 +608,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>36870</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -599,7 +631,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>79497</v>
+            <v>126745</v>
           </cell>
         </row>
       </sheetData>
@@ -622,6 +654,52 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
+            <v>59459</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>61465</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
             <v>0</v>
           </cell>
         </row>
@@ -633,52 +711,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>121240</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>85000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -691,7 +723,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>65706</v>
+            <v>45706</v>
           </cell>
         </row>
       </sheetData>
@@ -714,7 +746,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>160000</v>
           </cell>
         </row>
       </sheetData>
@@ -1013,7 +1045,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1033,7 +1065,7 @@
       </c>
       <c r="B1" s="3">
         <f>[1]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>39582</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="23.25">
@@ -1051,7 +1083,7 @@
       </c>
       <c r="B3" s="3">
         <f>[3]Sheet1!$E$38</f>
-        <v>36870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="23.25">
@@ -1060,7 +1092,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>79497</v>
+        <v>126745</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23.25">
@@ -1069,7 +1101,7 @@
       </c>
       <c r="B5" s="2">
         <f>[5]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>59459</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="23.25">
@@ -1078,7 +1110,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>121240</v>
+        <v>61465</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23.25">
@@ -1087,7 +1119,7 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>85000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.25">
@@ -1096,7 +1128,7 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>65706</v>
+        <v>45706</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1108,11 +1140,11 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="E9">
-        <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19)</f>
-        <v>237715</v>
+        <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20)</f>
+        <v>505279</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -1129,7 +1161,7 @@
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11)</f>
-        <v>332429</v>
+        <v>395895</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1142,11 +1174,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>134483</v>
+        <v>203000</v>
       </c>
       <c r="E11">
         <f>SUM(B18,B16,B14,B7,B2)</f>
-        <v>472618</v>
+        <v>387618</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1159,21 +1191,17 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="E12">
         <f>SUM(B15,B10)</f>
-        <v>131924</v>
+        <v>87614</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="10">
-        <v>350000</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
@@ -1196,7 +1224,7 @@
       </c>
       <c r="E14" s="7">
         <f>SUM(E9:E12)</f>
-        <v>1174686</v>
+        <v>1376406</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
@@ -1209,7 +1237,7 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="L15" s="7"/>
     </row>
@@ -1230,7 +1258,7 @@
       </c>
       <c r="B17" s="2">
         <f>[17]Sheet1!$E$38</f>
-        <v>19080</v>
+        <v>41757</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="9"/>
@@ -1250,19 +1278,28 @@
       </c>
       <c r="B19" s="6">
         <f>[19]Sheet1!$E$38</f>
-        <v>36562</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="23.25">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11">
+        <f>[20]Sheet1!$E$38</f>
+        <v>32030</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25">
       <c r="B21" s="1">
-        <f>SUM(B1:B19)</f>
-        <v>1174686</v>
+        <f>SUM(B1:B20)</f>
+        <v>1376406</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="23.25">
       <c r="B22" s="1">
-        <f>[20]Sheet5!$G$1</f>
-        <v>1442293</v>
+        <f>[21]Sheet5!$G$1</f>
+        <v>1421839</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="21">
@@ -1271,7 +1308,7 @@
       </c>
       <c r="B24" s="5">
         <f>B22-B21</f>
-        <v>267607</v>
+        <v>45433</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -33,13 +33,17 @@
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>AYUSH</t>
   </si>
@@ -120,6 +124,18 @@
   </si>
   <si>
     <t>BALAJI DELHI</t>
+  </si>
+  <si>
+    <t>TOY  VILLA</t>
+  </si>
+  <si>
+    <t>PRIME DELHI</t>
+  </si>
+  <si>
+    <t>JULIYA</t>
+  </si>
+  <si>
+    <t>SUNIT</t>
   </si>
 </sst>
 </file>
@@ -272,7 +288,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>39582</v>
+            <v>18582</v>
           </cell>
         </row>
       </sheetData>
@@ -295,7 +311,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>35384</v>
+            <v>10000</v>
           </cell>
         </row>
       </sheetData>
@@ -318,7 +334,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>203000</v>
+            <v>235990</v>
           </cell>
         </row>
       </sheetData>
@@ -341,7 +357,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>131430</v>
+            <v>72210</v>
           </cell>
         </row>
       </sheetData>
@@ -387,7 +403,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>230810</v>
+            <v>210810</v>
           </cell>
         </row>
       </sheetData>
@@ -410,7 +426,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>52230</v>
+            <v>71815</v>
           </cell>
         </row>
       </sheetData>
@@ -433,7 +449,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>60177</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -456,7 +472,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>41757</v>
+            <v>15257</v>
           </cell>
         </row>
       </sheetData>
@@ -548,7 +564,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>32030</v>
+            <v>78565</v>
           </cell>
         </row>
       </sheetData>
@@ -560,6 +576,29 @@
 </file>
 
 <file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>30061</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -580,7 +619,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1421839</v>
+            <v>1418735</v>
           </cell>
         </row>
       </sheetData>
@@ -596,6 +635,75 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>15349</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>14740</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>45558</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -631,7 +739,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>126745</v>
+            <v>135011</v>
           </cell>
         </row>
       </sheetData>
@@ -654,12 +762,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>59459</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+            <v>79888</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -677,7 +785,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>61465</v>
+            <v>65804</v>
           </cell>
         </row>
       </sheetData>
@@ -723,7 +831,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>45706</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -746,7 +854,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>160000</v>
+            <v>208043</v>
           </cell>
         </row>
       </sheetData>
@@ -1042,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1065,7 +1173,7 @@
       </c>
       <c r="B1" s="3">
         <f>[1]Sheet1!$E$38</f>
-        <v>39582</v>
+        <v>18582</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="23.25">
@@ -1092,7 +1200,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>126745</v>
+        <v>135011</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23.25">
@@ -1101,7 +1209,7 @@
       </c>
       <c r="B5" s="2">
         <f>[5]Sheet1!$E$38</f>
-        <v>59459</v>
+        <v>79888</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="23.25">
@@ -1110,7 +1218,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>61465</v>
+        <v>65804</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23.25">
@@ -1128,7 +1236,7 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>45706</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1140,11 +1248,11 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>160000</v>
+        <v>208043</v>
       </c>
       <c r="E9">
-        <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20)</f>
-        <v>505279</v>
+        <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
+        <v>565435</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -1157,11 +1265,11 @@
       </c>
       <c r="B10" s="2">
         <f>[10]Sheet1!$E$38</f>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="E10">
-        <f>SUM(B6,B12,B11)</f>
-        <v>395895</v>
+        <f>SUM(B6,B12,B11,B21)</f>
+        <v>404065</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1174,11 +1282,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>203000</v>
+        <v>235990</v>
       </c>
       <c r="E11">
-        <f>SUM(B18,B16,B14,B7,B2)</f>
-        <v>387618</v>
+        <f>SUM(B2,B7,B14,B16,B18)</f>
+        <v>307441</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1191,11 +1299,11 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>131430</v>
+        <v>72210</v>
       </c>
       <c r="E12">
-        <f>SUM(B15,B10)</f>
-        <v>87614</v>
+        <f>SUM(B15,B10,B24)</f>
+        <v>127373</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1220,11 +1328,11 @@
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>230810</v>
+        <v>210810</v>
       </c>
       <c r="E14" s="7">
         <f>SUM(E9:E12)</f>
-        <v>1376406</v>
+        <v>1404314</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
@@ -1237,7 +1345,7 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>52230</v>
+        <v>71815</v>
       </c>
       <c r="L15" s="7"/>
     </row>
@@ -1247,7 +1355,7 @@
       </c>
       <c r="B16" s="2">
         <f>[16]Sheet1!$E$38</f>
-        <v>60177</v>
+        <v>0</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="8"/>
@@ -1258,7 +1366,7 @@
       </c>
       <c r="B17" s="2">
         <f>[17]Sheet1!$E$38</f>
-        <v>41757</v>
+        <v>15257</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="9"/>
@@ -1287,28 +1395,64 @@
       </c>
       <c r="B20" s="11">
         <f>[20]Sheet1!$E$38</f>
-        <v>32030</v>
+        <v>78565</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25">
-      <c r="B21" s="1">
-        <f>SUM(B1:B20)</f>
-        <v>1376406</v>
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="11">
+        <f>[21]Sheet1!$E$38</f>
+        <v>30061</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="23.25">
-      <c r="B22" s="1">
-        <f>[21]Sheet5!$G$1</f>
-        <v>1421839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="21">
-      <c r="A24" s="4" t="s">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="11">
+        <f>[23]Sheet1!$E$38</f>
+        <v>15349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="23.25">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="11">
+        <f>[24]Sheet1!$E$38</f>
+        <v>14740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="23.25">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="11">
+        <f>[25]Sheet1!$E$38</f>
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="23.25">
+      <c r="B25" s="1">
+        <f>SUM(B1:B24)</f>
+        <v>1404314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="23.25">
+      <c r="B26" s="1">
+        <f>[22]Sheet5!$G$1</f>
+        <v>1418735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="21">
+      <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="5">
-        <f>B22-B21</f>
-        <v>45433</v>
+      <c r="B28" s="5">
+        <f>B26-B25</f>
+        <v>14421</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -334,7 +334,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>235990</v>
+            <v>185990</v>
           </cell>
         </row>
       </sheetData>
@@ -357,7 +357,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>72210</v>
+            <v>17119</v>
           </cell>
         </row>
       </sheetData>
@@ -403,7 +403,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>210810</v>
+            <v>153706</v>
           </cell>
         </row>
       </sheetData>
@@ -599,6 +599,75 @@
 </file>
 
 <file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>15349</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>14740</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>45558</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -619,7 +688,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1418735</v>
+            <v>1646711</v>
           </cell>
         </row>
       </sheetData>
@@ -635,75 +704,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>15349</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>14740</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>45558</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -766,8 +766,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>404065</v>
+        <v>298974</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="E11">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>307441</v>
+        <v>250337</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="E12">
         <f>SUM(B15,B10,B24)</f>
@@ -1328,11 +1328,11 @@
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>210810</v>
+        <v>153706</v>
       </c>
       <c r="E14" s="7">
         <f>SUM(E9:E12)</f>
-        <v>1404314</v>
+        <v>1242119</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
@@ -1412,7 +1412,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="11">
-        <f>[23]Sheet1!$E$38</f>
+        <f>[22]Sheet1!$E$38</f>
         <v>15349</v>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="11">
-        <f>[24]Sheet1!$E$38</f>
+        <f>[23]Sheet1!$E$38</f>
         <v>14740</v>
       </c>
     </row>
@@ -1430,20 +1430,20 @@
         <v>30</v>
       </c>
       <c r="B24" s="11">
-        <f>[25]Sheet1!$E$38</f>
+        <f>[24]Sheet1!$E$38</f>
         <v>45558</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>1404314</v>
+        <v>1242119</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="23.25">
       <c r="B26" s="1">
-        <f>[22]Sheet5!$G$1</f>
-        <v>1418735</v>
+        <f>[25]Sheet5!$G$1</f>
+        <v>1646711</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="21">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>14421</v>
+        <v>404592</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -288,7 +288,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>18582</v>
+            <v>331</v>
           </cell>
         </row>
       </sheetData>
@@ -334,7 +334,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>185990</v>
+            <v>100000</v>
           </cell>
         </row>
       </sheetData>
@@ -357,7 +357,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>17119</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -426,7 +426,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>71815</v>
+            <v>61005</v>
           </cell>
         </row>
       </sheetData>
@@ -587,7 +587,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>30061</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -656,12 +656,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>45558</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+            <v>24614</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -688,7 +688,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1646711</v>
+            <v>1537759</v>
           </cell>
         </row>
       </sheetData>
@@ -739,7 +739,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>135011</v>
+            <v>189597</v>
           </cell>
         </row>
       </sheetData>
@@ -785,7 +785,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>65804</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B1" s="3">
         <f>[1]Sheet1!$E$38</f>
-        <v>18582</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="23.25">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>135011</v>
+        <v>189597</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23.25">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>65804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23.25">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="E9">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>565435</v>
+        <v>601770</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>298974</v>
+        <v>100000</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="E11">
         <f>SUM(B2,B7,B14,B16,B18)</f>
@@ -1299,11 +1299,11 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f>SUM(B15,B10,B24)</f>
-        <v>127373</v>
+        <v>95619</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E14" s="7">
         <f>SUM(E9:E12)</f>
-        <v>1242119</v>
+        <v>1047726</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="L15" s="7"/>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B21" s="11">
         <f>[21]Sheet1!$E$38</f>
-        <v>30061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="23.25">
@@ -1431,19 +1431,19 @@
       </c>
       <c r="B24" s="11">
         <f>[24]Sheet1!$E$38</f>
-        <v>45558</v>
+        <v>24614</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>1242119</v>
+        <v>1047726</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1646711</v>
+        <v>1537759</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="21">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>404592</v>
+        <v>490033</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>AYUSH</t>
   </si>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t>SUNIT</t>
+  </si>
+  <si>
+    <t>noor</t>
+  </si>
+  <si>
+    <t>toyworld</t>
+  </si>
+  <si>
+    <t>toy villa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total we need </t>
+  </si>
+  <si>
+    <t>cash we have</t>
+  </si>
+  <si>
+    <t>cash we expect</t>
+  </si>
+  <si>
+    <t>cash we required</t>
+  </si>
+  <si>
+    <t>cash  purchase</t>
   </si>
 </sst>
 </file>
@@ -247,7 +271,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -260,12 +284,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -311,7 +344,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>10000</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -334,7 +367,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>100000</v>
+            <v>123500</v>
           </cell>
         </row>
       </sheetData>
@@ -357,6 +390,29 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
+            <v>23436</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
             <v>0</v>
           </cell>
         </row>
@@ -368,7 +424,53 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>153706</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>96185</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -391,53 +493,53 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>153706</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>61005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>171</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>25911</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -460,53 +562,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>15257</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>25911</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -529,29 +585,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>70720</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -564,7 +597,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>78565</v>
+            <v>48400</v>
           </cell>
         </row>
       </sheetData>
@@ -587,7 +620,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>86138</v>
           </cell>
         </row>
       </sheetData>
@@ -660,8 +693,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -688,7 +721,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1537759</v>
+            <v>1529442</v>
           </cell>
         </row>
       </sheetData>
@@ -739,7 +772,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>189597</v>
+            <v>159775</v>
           </cell>
         </row>
       </sheetData>
@@ -762,7 +795,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>79888</v>
+            <v>49888</v>
           </cell>
         </row>
       </sheetData>
@@ -785,6 +818,29 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
+            <v>50443</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
             <v>0</v>
           </cell>
         </row>
@@ -796,7 +852,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -819,29 +875,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -854,7 +887,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>208043</v>
+            <v>146669</v>
           </cell>
         </row>
       </sheetData>
@@ -1152,18 +1185,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="10" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1182,7 +1215,7 @@
       </c>
       <c r="B2" s="3">
         <f>[2]Sheet1!$E$38</f>
-        <v>70720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.25">
@@ -1200,7 +1233,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>189597</v>
+        <v>159775</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23.25">
@@ -1209,7 +1242,7 @@
       </c>
       <c r="B5" s="2">
         <f>[5]Sheet1!$E$38</f>
-        <v>79888</v>
+        <v>49888</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="23.25">
@@ -1218,7 +1251,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>50443</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23.25">
@@ -1248,11 +1281,11 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>208043</v>
+        <v>146669</v>
       </c>
       <c r="E9">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>601770</v>
+        <v>435323</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -1265,11 +1298,11 @@
       </c>
       <c r="B10" s="2">
         <f>[10]Sheet1!$E$38</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>100000</v>
+        <v>283517</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1282,11 +1315,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="E11">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>250337</v>
+        <v>179617</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1299,17 +1332,17 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="E12">
         <f>SUM(B15,B10,B24)</f>
-        <v>95619</v>
+        <v>120799</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
@@ -1332,7 +1365,7 @@
       </c>
       <c r="E14" s="7">
         <f>SUM(E9:E12)</f>
-        <v>1047726</v>
+        <v>1019256</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
@@ -1345,9 +1378,9 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>61005</v>
-      </c>
-      <c r="L15" s="7"/>
+        <v>96185</v>
+      </c>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:14" ht="23.25">
       <c r="A16" s="2" t="s">
@@ -1357,8 +1390,8 @@
         <f>[16]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="33.75">
       <c r="A17" s="2" t="s">
@@ -1366,10 +1399,10 @@
       </c>
       <c r="B17" s="2">
         <f>[17]Sheet1!$E$38</f>
-        <v>15257</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7"/>
-      <c r="L17" s="9"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="23.25">
       <c r="A18" s="2" t="s">
@@ -1388,62 +1421,113 @@
         <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19">
+        <f>B12-L16</f>
+        <v>23436</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="23.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <f>[20]Sheet1!$E$38</f>
-        <v>78565</v>
+        <v>48400</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20">
+        <f>B21</f>
+        <v>86138</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <f>[21]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>86138</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21">
+        <f>B6-L15</f>
+        <v>50443</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="23.25">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <f>[22]Sheet1!$E$38</f>
         <v>15349</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22">
+        <v>100000</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="23.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <f>[23]Sheet1!$E$38</f>
         <v>14740</v>
       </c>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" ht="23.25">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <f>[24]Sheet1!$E$38</f>
         <v>24614</v>
+      </c>
+      <c r="L24" s="7">
+        <f>SUM(L19:L23)</f>
+        <v>260017</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>1047726</v>
+        <v>1019256</v>
+      </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25">
+        <f>SUM(L24+L17)</f>
+        <v>260017</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1537759</v>
+        <v>1529442</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26">
+        <f>12540+8000+40000</f>
+        <v>60540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="K27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="21">
@@ -1452,7 +1536,14 @@
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>490033</v>
+        <v>510186</v>
+      </c>
+      <c r="K28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28">
+        <f>L25-L26-L27</f>
+        <v>199477</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>AYUSH</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>cash  purchase</t>
+  </si>
+  <si>
+    <t>RAJESH</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>86138</v>
+            <v>36138</v>
           </cell>
         </row>
       </sheetData>
@@ -721,7 +724,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1529442</v>
+            <v>1553227</v>
           </cell>
         </row>
       </sheetData>
@@ -1186,7 +1189,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1302,7 +1305,7 @@
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>283517</v>
+        <v>233517</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1365,7 +1368,7 @@
       </c>
       <c r="E14" s="7">
         <f>SUM(E9:E12)</f>
-        <v>1019256</v>
+        <v>969256</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
@@ -1412,6 +1415,12 @@
         <f>[18]Sheet1!$E$38</f>
         <v>25911</v>
       </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18">
+        <v>25000</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="23.25">
       <c r="A19" s="2" t="s">
@@ -1442,7 +1451,7 @@
       </c>
       <c r="L20">
         <f>B21</f>
-        <v>86138</v>
+        <v>36138</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25">
@@ -1451,7 +1460,7 @@
       </c>
       <c r="B21" s="10">
         <f>[21]Sheet1!$E$38</f>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="K21" t="s">
         <v>31</v>
@@ -1494,41 +1503,41 @@
         <f>[24]Sheet1!$E$38</f>
         <v>24614</v>
       </c>
-      <c r="L24" s="7">
-        <f>SUM(L19:L23)</f>
-        <v>260017</v>
-      </c>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>1019256</v>
+        <v>969256</v>
       </c>
       <c r="K25" t="s">
         <v>34</v>
       </c>
       <c r="L25">
-        <f>SUM(L24+L17)</f>
-        <v>260017</v>
+        <f>SUM(L18:L22)</f>
+        <v>235017</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1529442</v>
+        <v>1553227</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
       </c>
       <c r="L26">
-        <f>12540+8000+40000</f>
-        <v>60540</v>
+        <f>28459+1200</f>
+        <v>29659</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="K27" t="s">
         <v>36</v>
       </c>
+      <c r="L27">
+        <v>17370</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="21">
       <c r="A28" s="4" t="s">
@@ -1536,14 +1545,14 @@
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>510186</v>
+        <v>583971</v>
       </c>
       <c r="K28" t="s">
         <v>37</v>
       </c>
       <c r="L28">
         <f>L25-L26-L27</f>
-        <v>199477</v>
+        <v>187988</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -162,7 +162,7 @@
     <t>cash  purchase</t>
   </si>
   <si>
-    <t>RAJESH</t>
+    <t>papa</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1553227</v>
+            <v>1543427</v>
           </cell>
         </row>
       </sheetData>
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1419,7 +1419,7 @@
         <v>39</v>
       </c>
       <c r="L18">
-        <v>25000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="23.25">
@@ -1515,29 +1515,26 @@
       </c>
       <c r="L25">
         <f>SUM(L18:L22)</f>
-        <v>235017</v>
+        <v>211017</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1553227</v>
+        <v>1543427</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
       </c>
       <c r="L26">
-        <f>28459+1200</f>
-        <v>29659</v>
+        <f>33360+700</f>
+        <v>34060</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="K27" t="s">
         <v>36</v>
       </c>
-      <c r="L27">
-        <v>17370</v>
-      </c>
     </row>
     <row r="28" spans="1:12" ht="21">
       <c r="A28" s="4" t="s">
@@ -1545,14 +1542,14 @@
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>583971</v>
+        <v>574171</v>
       </c>
       <c r="K28" t="s">
         <v>37</v>
       </c>
       <c r="L28">
         <f>L25-L26-L27</f>
-        <v>187988</v>
+        <v>176957</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>AYUSH</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>cash  purchase</t>
-  </si>
-  <si>
-    <t>papa</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1186,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1415,12 +1412,6 @@
         <f>[18]Sheet1!$E$38</f>
         <v>25911</v>
       </c>
-      <c r="K18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18">
-        <v>1000</v>
-      </c>
     </row>
     <row r="19" spans="1:12" ht="23.25">
       <c r="A19" s="2" t="s">
@@ -1515,7 +1506,7 @@
       </c>
       <c r="L25">
         <f>SUM(L18:L22)</f>
-        <v>211017</v>
+        <v>210017</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="23.25">
@@ -1527,8 +1518,8 @@
         <v>35</v>
       </c>
       <c r="L26">
-        <f>33360+700</f>
-        <v>34060</v>
+        <f>38623+10000+18200</f>
+        <v>66823</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1549,7 +1540,7 @@
       </c>
       <c r="L28">
         <f>L25-L26-L27</f>
-        <v>176957</v>
+        <v>143194</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -390,12 +390,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>23436</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+            <v>26436</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>233517</v>
+        <v>236517</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="E12">
         <f>SUM(B15,B10,B24)</f>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="E14" s="7">
         <f>SUM(E9:E12)</f>
-        <v>969256</v>
+        <v>972256</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="L19">
         <f>B12-L16</f>
-        <v>23436</v>
+        <v>26436</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="23.25">
@@ -1499,14 +1499,14 @@
     <row r="25" spans="1:12" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>969256</v>
+        <v>972256</v>
       </c>
       <c r="K25" t="s">
         <v>34</v>
       </c>
       <c r="L25">
         <f>SUM(L18:L22)</f>
-        <v>210017</v>
+        <v>213017</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="23.25">
@@ -1518,8 +1518,8 @@
         <v>35</v>
       </c>
       <c r="L26">
-        <f>38623+10000+18200</f>
-        <v>66823</v>
+        <f>41895+10000+38220</f>
+        <v>90115</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1533,14 +1533,14 @@
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>574171</v>
+        <v>571171</v>
       </c>
       <c r="K28" t="s">
         <v>37</v>
       </c>
       <c r="L28">
         <f>L25-L26-L27</f>
-        <v>143194</v>
+        <v>122902</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>AYUSH</t>
   </si>
@@ -99,9 +99,6 @@
     <t>GANGA</t>
   </si>
   <si>
-    <t>LM-210</t>
-  </si>
-  <si>
     <t>JAI PRAKASH</t>
   </si>
   <si>
@@ -138,35 +135,101 @@
     <t>SUNIT</t>
   </si>
   <si>
-    <t>noor</t>
-  </si>
-  <si>
-    <t>toyworld</t>
-  </si>
-  <si>
-    <t>toy villa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total we need </t>
-  </si>
-  <si>
-    <t>cash we have</t>
-  </si>
-  <si>
-    <t>cash we expect</t>
-  </si>
-  <si>
     <t>cash we required</t>
   </si>
   <si>
-    <t>cash  purchase</t>
+    <t>PRIM  DELHI</t>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>CASH  WE HAVE</t>
+  </si>
+  <si>
+    <t>TOTAL  WE NEED</t>
+  </si>
+  <si>
+    <t>BUILTY NUMBER</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>PARTY NAME</t>
+  </si>
+  <si>
+    <t>DEPART DATE</t>
+  </si>
+  <si>
+    <t>TOY VILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOY MALL  </t>
+  </si>
+  <si>
+    <t>PARADISE SOFT TOYS</t>
+  </si>
+  <si>
+    <t>NOVICE</t>
+  </si>
+  <si>
+    <t>TOY MALL NEW</t>
+  </si>
+  <si>
+    <t>LITTLE SOULS , TIME SQUARE</t>
+  </si>
+  <si>
+    <t>PARADISE STATIONARY</t>
+  </si>
+  <si>
+    <t>SHREE JI  KEY CHAIN , NISAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOODS OF OTHER PARTY </t>
+  </si>
+  <si>
+    <t>NOOR SOFT TOYS</t>
+  </si>
+  <si>
+    <t>REMOTE CAR</t>
+  </si>
+  <si>
+    <t>BIKE</t>
+  </si>
+  <si>
+    <t>RECIVED</t>
+  </si>
+  <si>
+    <t>NOT YET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2 main 1</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>NEFT</t>
+  </si>
+  <si>
+    <t>NEEDED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,21 +288,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -271,7 +319,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -284,27 +332,46 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -390,12 +457,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>26436</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+            <v>22740</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -413,6 +480,75 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
+            <v>12760</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>108706</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>44840</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
             <v>0</v>
           </cell>
         </row>
@@ -424,53 +560,30 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>153706</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>96185</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>171</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -493,52 +606,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>171</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>25911</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -597,7 +664,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>48400</v>
+            <v>26000</v>
           </cell>
         </row>
       </sheetData>
@@ -620,7 +687,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>36138</v>
+            <v>30000</v>
           </cell>
         </row>
       </sheetData>
@@ -643,7 +710,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>15349</v>
+            <v>7829</v>
           </cell>
         </row>
       </sheetData>
@@ -666,7 +733,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>14740</v>
+            <v>5880</v>
           </cell>
         </row>
       </sheetData>
@@ -721,7 +788,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1543427</v>
+            <v>1575858</v>
           </cell>
         </row>
       </sheetData>
@@ -749,6 +816,75 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
+            <v>15775</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>159775</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>49888</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
             <v>0</v>
           </cell>
         </row>
@@ -760,75 +896,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>159775</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>49888</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>50443</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -864,7 +931,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>67080</v>
           </cell>
         </row>
       </sheetData>
@@ -887,7 +954,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>146669</v>
+            <v>106669</v>
           </cell>
         </row>
       </sheetData>
@@ -1183,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1196,11 +1263,12 @@
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="11" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25">
+    <row r="1" spans="1:16" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1208,8 +1276,16 @@
         <f>[1]Sheet1!$E$38</f>
         <v>331</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="23.25">
+      <c r="K1" s="10"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="P1">
+        <f>L1+M1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1217,17 +1293,41 @@
         <f>[2]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="23.25">
+      <c r="K2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="23.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3">
         <f>[3]Sheet1!$E$38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="23.25">
+        <v>15775</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="13">
+        <v>50000</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="O3">
+        <f>L3-L11</f>
+        <v>-8470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="23.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1235,8 +1335,19 @@
         <f>[4]Sheet1!$E$38</f>
         <v>159775</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="23.25">
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13">
+        <v>33201</v>
+      </c>
+      <c r="O4">
+        <f>M4-L12</f>
+        <v>23068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="23.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1244,17 +1355,30 @@
         <f>[5]Sheet1!$E$38</f>
         <v>49888</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="23.25">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" ht="23.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>50443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="23.25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13">
+        <v>7829</v>
+      </c>
+      <c r="O6">
+        <f>M6-L12</f>
+        <v>-2304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="23.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1262,37 +1386,46 @@
         <f>[7]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="23.25">
+      <c r="L7" s="11">
+        <f>SUM(L1:L6)</f>
+        <v>50000</v>
+      </c>
+      <c r="M7" s="11">
+        <f>SUM(M1:M6)</f>
+        <v>41030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="23.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>67080</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="23.25">
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" ht="23.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>146669</v>
+        <v>106669</v>
       </c>
       <c r="E9">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>435323</v>
+        <v>452158</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="23.25">
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="23.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1302,14 +1435,21 @@
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>236517</v>
+        <v>176240</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="23.25">
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <f>SUM(L1:M6)</f>
+        <v>91030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="23.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1319,70 +1459,95 @@
       </c>
       <c r="E11">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>179617</v>
+        <v>108706</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="23.25">
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11">
+        <v>58470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="23.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="E12">
         <f>SUM(B15,B10,B24)</f>
-        <v>120799</v>
+        <v>69454</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="23.25">
+        <v>23</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12">
+        <v>10133</v>
+      </c>
+      <c r="N12">
+        <f>L12-M7</f>
+        <v>-30897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="23.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2">
         <f>[13]Sheet1!$E$38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="23.25">
+        <v>12760</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="23.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>153706</v>
+        <v>108706</v>
       </c>
       <c r="E14" s="7">
         <f>SUM(E9:E12)</f>
-        <v>972256</v>
+        <v>806558</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="23.25">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <f>L7-L11-L13</f>
+        <v>-8470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="23.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>96185</v>
-      </c>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" ht="23.25">
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="23.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1390,10 +1555,8 @@
         <f>[16]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:12" ht="33.75">
+    </row>
+    <row r="17" spans="1:2" ht="23.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1401,146 +1564,89 @@
         <f>[17]Sheet1!$E$38</f>
         <v>171</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" ht="23.25">
+    </row>
+    <row r="18" spans="1:2" ht="23.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6">
         <f>[18]Sheet1!$E$38</f>
-        <v>25911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="23.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23.25">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6">
         <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="K19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19">
-        <f>B12-L16</f>
-        <v>26436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="23.25">
+    </row>
+    <row r="20" spans="1:2" ht="23.25">
       <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="9">
+        <f>[20]Sheet1!$E$38</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23.25">
+      <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="10">
-        <f>[20]Sheet1!$E$38</f>
-        <v>48400</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20">
-        <f>B21</f>
-        <v>36138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="23.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="9">
+        <f>[21]Sheet1!$E$38</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="23.25">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="10">
-        <f>[21]Sheet1!$E$38</f>
-        <v>36138</v>
-      </c>
-      <c r="K21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21">
-        <f>B6-L15</f>
-        <v>50443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="23.25">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="9">
+        <f>[22]Sheet1!$E$38</f>
+        <v>7829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23.25">
+      <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="10">
-        <f>[22]Sheet1!$E$38</f>
-        <v>15349</v>
-      </c>
-      <c r="K22" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="23.25">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="9">
+        <f>[23]Sheet1!$E$38</f>
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="23.25">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="10">
-        <f>[23]Sheet1!$E$38</f>
-        <v>14740</v>
-      </c>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:12" ht="23.25">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <f>[24]Sheet1!$E$38</f>
         <v>24614</v>
       </c>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" ht="23.25">
+    </row>
+    <row r="25" spans="1:2" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>972256</v>
-      </c>
-      <c r="K25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25">
-        <f>SUM(L18:L22)</f>
-        <v>213017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="23.25">
+        <v>806558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1543427</v>
-      </c>
-      <c r="K26" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26">
-        <f>41895+10000+38220</f>
-        <v>90115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="K27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="21">
+        <v>1575858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="21">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>571171</v>
-      </c>
-      <c r="K28" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28">
-        <f>L25-L26-L27</f>
-        <v>122902</v>
+        <v>769300</v>
       </c>
     </row>
   </sheetData>
@@ -1554,35 +1660,429 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
+    <row r="1" spans="1:7">
+      <c r="A1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>6937</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="15">
+        <v>44833</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>839</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="15">
+        <v>44833</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>6938</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="15">
+        <v>44833</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>13597</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="15">
+        <v>44832</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>6972</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>44836</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
+        <v>831</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="15">
+        <v>44832</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>840</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="15">
+        <v>44833</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8">
+        <v>816</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="15">
+        <v>44832</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="15">
+        <v>44831</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
+        <f>SUM(B2:B10)</f>
+        <v>12</v>
+      </c>
+      <c r="C13" s="8">
+        <f>SUM(B3,B4,B5,B7,B8,B9-1)</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="8">
+        <f>C13-B13</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8">
+        <v>180000</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
+        <f>10000+16950+5437+7974+2850+48224+53400+1700+5500+17180+22500+31412+91280</f>
+        <v>314407</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F10">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="RECIVED">
+      <formula>NOT(ISERROR(SEARCH("RECIVED",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NOT YET">
+      <formula>NOT(ISERROR(SEARCH("NOT YET",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>AYUSH</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>cash we required</t>
-  </si>
-  <si>
-    <t>PRIM  DELHI</t>
   </si>
   <si>
     <t>EXPECTED</t>
@@ -434,7 +431,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>123500</v>
+            <v>121824</v>
           </cell>
         </row>
       </sheetData>
@@ -457,7 +454,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>22740</v>
+            <v>22790</v>
           </cell>
         </row>
       </sheetData>
@@ -687,7 +684,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>30000</v>
+            <v>121430</v>
           </cell>
         </row>
       </sheetData>
@@ -710,7 +707,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>7829</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -783,22 +780,22 @@
       <sheetName val="Sheet10"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1575858</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+            <v>1522783</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -839,7 +836,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>159775</v>
+            <v>126574</v>
           </cell>
         </row>
       </sheetData>
@@ -885,7 +882,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>41117</v>
           </cell>
         </row>
       </sheetData>
@@ -1250,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1262,13 +1259,11 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25">
+    <row r="1" spans="1:15" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1276,16 +1271,16 @@
         <f>[1]Sheet1!$E$38</f>
         <v>331</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="P1">
-        <f>L1+M1</f>
+      <c r="I1" s="10"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
+      <c r="N1">
+        <f>J1+K1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:15" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1293,21 +1288,21 @@
         <f>[2]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="I2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>57</v>
       </c>
+      <c r="L2" s="14"/>
       <c r="M2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="23.25">
+    </row>
+    <row r="3" spans="1:15" ht="23.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1315,39 +1310,34 @@
         <f>[3]Sheet1!$E$38</f>
         <v>15775</v>
       </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="13">
-        <v>50000</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="O3">
-        <f>L3-L11</f>
-        <v>-8470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="23.25">
+      <c r="I3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13">
+        <v>24614</v>
+      </c>
+      <c r="M3">
+        <f>K3-J12</f>
+        <v>8382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="23.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>159775</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13">
-        <v>33201</v>
-      </c>
-      <c r="O4">
-        <f>M4-L12</f>
-        <v>23068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="23.25">
+        <v>126574</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="M4">
+        <f>K4-J12</f>
+        <v>-16232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="23.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1355,30 +1345,26 @@
         <f>[5]Sheet1!$E$38</f>
         <v>49888</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" ht="23.25">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" ht="23.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13">
-        <v>7829</v>
-      </c>
-      <c r="O6">
-        <f>M6-L12</f>
-        <v>-2304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="23.25">
+        <v>41117</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="M6">
+        <f>K6-J12</f>
+        <v>-16232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="23.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1386,16 +1372,16 @@
         <f>[7]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="L7" s="11">
-        <f>SUM(L1:L6)</f>
-        <v>50000</v>
-      </c>
-      <c r="M7" s="11">
-        <f>SUM(M1:M6)</f>
-        <v>41030</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="23.25">
+      <c r="J7" s="11">
+        <f>SUM(J1:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <f>SUM(K1:K6)</f>
+        <v>24614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="23.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1403,11 +1389,9 @@
         <f>[8]Sheet1!$E$38</f>
         <v>67080</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:16" ht="23.25">
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" ht="23.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1417,15 +1401,15 @@
       </c>
       <c r="E9">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>452158</v>
+        <v>411128</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" ht="23.25">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" ht="23.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1435,27 +1419,27 @@
       </c>
       <c r="E10">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>176240</v>
+        <v>307161</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="K10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10">
-        <f>SUM(L1:M6)</f>
-        <v>91030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="23.25">
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10">
+        <f>SUM(J1:K6)</f>
+        <v>24614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="23.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="E11">
         <f>SUM(B2,B7,B14,B16,B18)</f>
@@ -1465,20 +1449,21 @@
         <v>21</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11">
-        <v>58470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="23.25">
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <f>30000+1500+95+4000+30000</f>
+        <v>65595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="23.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="E12">
         <f>SUM(B15,B10,B24)</f>
@@ -1487,20 +1472,18 @@
       <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" t="s">
-        <v>33</v>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>16232</v>
       </c>
       <c r="L12">
-        <v>10133</v>
-      </c>
-      <c r="N12">
-        <f>L12-M7</f>
-        <v>-30897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="23.25">
+        <f>J12-K7</f>
+        <v>-8382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="23.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1508,14 +1491,18 @@
         <f>[13]Sheet1!$E$38</f>
         <v>12760</v>
       </c>
-      <c r="K13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="23.25">
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13">
+        <f>J11+J13</f>
+        <v>65595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="23.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1525,20 +1512,20 @@
       </c>
       <c r="E14" s="7">
         <f>SUM(E9:E12)</f>
-        <v>806558</v>
+        <v>896449</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K14" t="s">
+      <c r="I14" t="s">
         <v>30</v>
       </c>
-      <c r="L14">
-        <f>L7-L11-L13</f>
-        <v>-8470</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="23.25">
+      <c r="J14">
+        <f>J7-J11-J13</f>
+        <v>-65595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="23.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1547,7 +1534,7 @@
         <v>44840</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="23.25">
+    <row r="16" spans="1:15" ht="23.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1555,6 +1542,14 @@
         <f>[16]Sheet1!$E$38</f>
         <v>0</v>
       </c>
+      <c r="J16">
+        <f>35000+18000+5000+550+70</f>
+        <v>58620</v>
+      </c>
+      <c r="K16">
+        <f>J16-J11</f>
+        <v>-6975</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="23.25">
       <c r="A17" s="2" t="s">
@@ -1598,7 +1593,7 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>30000</v>
+        <v>121430</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="23.25">
@@ -1607,7 +1602,7 @@
       </c>
       <c r="B22" s="9">
         <f>[22]Sheet1!$E$38</f>
-        <v>7829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="23.25">
@@ -1631,13 +1626,13 @@
     <row r="25" spans="1:2" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>806558</v>
+        <v>896449</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1575858</v>
+        <v>1522783</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="21">
@@ -1646,7 +1641,7 @@
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>769300</v>
+        <v>626334</v>
       </c>
     </row>
   </sheetData>
@@ -1663,7 +1658,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1678,19 +1673,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="E1" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -1702,16 +1697,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="15">
         <v>44833</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1729,10 +1724,10 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1743,14 +1738,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="15">
         <v>44833</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1761,14 +1756,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="15">
         <v>44832</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1786,7 +1781,7 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1797,16 +1792,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="15">
         <v>44832</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1817,16 +1812,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="15">
         <v>44833</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1844,21 +1839,21 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="15">
         <v>44831</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1874,10 +1869,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2062,7 +2057,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -2073,7 +2068,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>2</v>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -8,11 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
@@ -37,13 +37,14 @@
     <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>AYUSH</t>
   </si>
@@ -192,12 +193,6 @@
     <t>NOOR SOFT TOYS</t>
   </si>
   <si>
-    <t>REMOTE CAR</t>
-  </si>
-  <si>
-    <t>BIKE</t>
-  </si>
-  <si>
     <t>RECIVED</t>
   </si>
   <si>
@@ -219,7 +214,28 @@
     <t>NEFT</t>
   </si>
   <si>
-    <t>NEEDED</t>
+    <t>NEEDED IN NEFT</t>
+  </si>
+  <si>
+    <t>NEEDED IN CASH</t>
+  </si>
+  <si>
+    <t>WALKER</t>
+  </si>
+  <si>
+    <t>kahnna</t>
+  </si>
+  <si>
+    <t>pari fancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deepak </t>
+  </si>
+  <si>
+    <t>sri mangalam</t>
+  </si>
+  <si>
+    <t>maa shetla</t>
   </si>
 </sst>
 </file>
@@ -316,7 +332,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -347,6 +363,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,7 +495,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>12760</v>
+            <v>4794</v>
           </cell>
         </row>
       </sheetData>
@@ -684,7 +702,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>121430</v>
+            <v>152824</v>
           </cell>
         </row>
       </sheetData>
@@ -753,7 +771,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>24614</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -780,8 +798,8 @@
       <sheetName val="Sheet10"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
@@ -789,13 +807,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -951,7 +969,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>106669</v>
+            <v>66669</v>
           </cell>
         </row>
       </sheetData>
@@ -1247,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1261,9 +1279,13 @@
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25">
+    <row r="1" spans="1:16" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1274,13 +1296,10 @@
       <c r="I1" s="10"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
-      <c r="N1">
-        <f>J1+K1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="23.25">
+      <c r="L1" s="13"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1292,17 +1311,21 @@
         <v>37</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="23.25">
+    </row>
+    <row r="3" spans="1:16" ht="23.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1310,19 +1333,16 @@
         <f>[3]Sheet1!$E$38</f>
         <v>15775</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="I3" s="8"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="13">
-        <v>24614</v>
-      </c>
-      <c r="M3">
-        <f>K3-J12</f>
-        <v>8382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="23.25">
+      <c r="K3" s="11"/>
+      <c r="L3" s="13"/>
+      <c r="O3" s="8">
+        <f>J3-J12</f>
+        <v>-39000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="23.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1330,14 +1350,20 @@
         <f>[4]Sheet1!$E$38</f>
         <v>126574</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="I4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="13">
+        <v>50000</v>
+      </c>
       <c r="K4" s="13"/>
-      <c r="M4">
-        <f>K4-J12</f>
-        <v>-16232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="23.25">
+      <c r="L4" s="13"/>
+      <c r="O4" s="8">
+        <f>J4-J12</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="23.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1345,10 +1371,20 @@
         <f>[5]Sheet1!$E$38</f>
         <v>49888</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="I5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="13">
+        <v>200000</v>
+      </c>
       <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" ht="23.25">
+      <c r="L5" s="13"/>
+      <c r="O5" s="8">
+        <f>J5-J12</f>
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="23.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1356,15 +1392,16 @@
         <f>[6]Sheet1!$E$38</f>
         <v>41117</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="M6">
-        <f>K6-J12</f>
-        <v>-16232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="23.25">
+      <c r="L6" s="11"/>
+      <c r="O6" s="8">
+        <f>J6-J12</f>
+        <v>-39000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="23.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1372,16 +1409,11 @@
         <f>[7]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="J7" s="11">
-        <f>SUM(J1:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <f>SUM(K1:K6)</f>
-        <v>24614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="23.25">
+      <c r="I7" s="8"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" ht="23.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1389,27 +1421,27 @@
         <f>[8]Sheet1!$E$38</f>
         <v>67080</v>
       </c>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:15" ht="23.25">
+      <c r="I8" s="8"/>
+      <c r="J8" s="11">
+        <f>SUM(J3:J7)</f>
+        <v>250000</v>
+      </c>
+      <c r="K8" s="11">
+        <f>SUM(K1:K5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="23.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>106669</v>
-      </c>
-      <c r="E9">
-        <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>411128</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="23.25">
+        <v>66669</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" ht="23.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1418,22 +1450,20 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUM(B6,B12,B11,B21)</f>
-        <v>307161</v>
+        <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
+        <v>363162</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10">
-        <f>SUM(J1:K6)</f>
-        <v>24614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="23.25">
+      <c r="J10" s="7"/>
+      <c r="O10" s="8">
+        <f>15000+50000-11800+20950+80000</f>
+        <v>154150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="23.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1442,22 +1472,22 @@
         <v>121824</v>
       </c>
       <c r="E11">
-        <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>108706</v>
+        <f>SUM(B6,B12,B11,B21)</f>
+        <v>338555</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11">
-        <f>30000+1500+95+4000+30000</f>
-        <v>65595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="23.25">
+        <f>SUM(J3:J7)</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="23.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1466,43 +1496,52 @@
         <v>22790</v>
       </c>
       <c r="E12">
-        <f>SUM(B15,B10,B24)</f>
-        <v>69454</v>
+        <f>SUM(B2,B7,B14,B16,B18)</f>
+        <v>108706</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J12">
-        <v>16232</v>
-      </c>
-      <c r="L12">
-        <f>J12-K7</f>
-        <v>-8382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="23.25">
+        <f>21000+16000+2000</f>
+        <v>39000</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="23.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2">
         <f>[13]Sheet1!$E$38</f>
-        <v>12760</v>
+        <v>4794</v>
+      </c>
+      <c r="E13">
+        <f>SUM(B15,B10,B24)</f>
+        <v>44840</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13">
-        <f>J11+J13</f>
-        <v>65595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="23.25">
+        <v>32</v>
+      </c>
+      <c r="J13">
+        <f>46118+4090+423</f>
+        <v>50631</v>
+      </c>
+      <c r="P13">
+        <f>J12+J14</f>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="23.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1510,22 +1549,15 @@
         <f>[14]Sheet1!$E$38</f>
         <v>108706</v>
       </c>
-      <c r="E14" s="7">
-        <f>SUM(E9:E12)</f>
-        <v>896449</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14">
-        <f>J7-J11-J13</f>
-        <v>-65595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="23.25">
+        <f>15000+10000</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="23.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1533,8 +1565,18 @@
         <f>[15]Sheet1!$E$38</f>
         <v>44840</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="23.25">
+      <c r="E15" s="7">
+        <f>SUM(E10:E13)</f>
+        <v>855263</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="23.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1542,16 +1584,8 @@
         <f>[16]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="J16">
-        <f>35000+18000+5000+550+70</f>
-        <v>58620</v>
-      </c>
-      <c r="K16">
-        <f>J16-J11</f>
-        <v>-6975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="23.25">
+    </row>
+    <row r="17" spans="1:15" ht="23.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1559,8 +1593,17 @@
         <f>[17]Sheet1!$E$38</f>
         <v>171</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="23.25">
+      <c r="J17" s="8"/>
+      <c r="N17">
+        <f>SUM(J12:J14)</f>
+        <v>114631</v>
+      </c>
+      <c r="O17">
+        <f>J11-N17</f>
+        <v>135369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1569,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="23.25">
+    <row r="19" spans="1:15" ht="23.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1577,8 +1620,14 @@
         <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="23.25">
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="23.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1586,17 +1635,29 @@
         <f>[20]Sheet1!$E$38</f>
         <v>26000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="23.25">
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="23.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>121430</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="23.25">
+        <v>152824</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="23.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1604,8 +1665,14 @@
         <f>[22]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="23.25">
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="23.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1613,35 +1680,41 @@
         <f>[23]Sheet1!$E$38</f>
         <v>5880</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="23.25">
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="23.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="9">
         <f>[24]Sheet1!$E$38</f>
-        <v>24614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="23.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>896449</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="23.25">
+        <v>855263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
         <v>1522783</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="21">
+    <row r="28" spans="1:15" ht="21">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>626334</v>
+        <v>667520</v>
       </c>
     </row>
   </sheetData>
@@ -1655,11 +1728,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1">
+        <v>1540</v>
+      </c>
+      <c r="C1">
+        <v>18</v>
+      </c>
+      <c r="E1">
+        <f>B1*C1</f>
+        <v>27720</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2">
+        <v>1840</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E8" si="0">B2*C2</f>
+        <v>33120</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>1360</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>2130</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>19170</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>4960</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>2900</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>4700</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>1350</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="E10">
+        <f>SUM(E1:E8)</f>
+        <v>126460</v>
+      </c>
+      <c r="G10">
+        <f>E10/2</f>
+        <v>63230</v>
+      </c>
+      <c r="H10" s="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="H12" s="16"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="H14">
+        <f>G10-H10</f>
+        <v>63185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1706,7 +1918,7 @@
         <v>44</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1724,10 +1936,10 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1745,7 +1957,7 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1763,7 +1975,7 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1781,7 +1993,7 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1801,7 +2013,7 @@
         <v>45</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1821,7 +2033,7 @@
         <v>46</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1839,7 +2051,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1853,7 +2065,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1869,10 +2081,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2047,37 +2259,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1">
-        <v>4</v>
-      </c>
-      <c r="D1">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>280</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>AYUSH</t>
   </si>
@@ -221,21 +221,6 @@
   </si>
   <si>
     <t>WALKER</t>
-  </si>
-  <si>
-    <t>kahnna</t>
-  </si>
-  <si>
-    <t>pari fancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deepak </t>
-  </si>
-  <si>
-    <t>sri mangalam</t>
-  </si>
-  <si>
-    <t>maa shetla</t>
   </si>
 </sst>
 </file>
@@ -449,7 +434,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>121824</v>
+            <v>102320</v>
           </cell>
         </row>
       </sheetData>
@@ -541,7 +526,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>44840</v>
+            <v>72630</v>
           </cell>
         </row>
       </sheetData>
@@ -679,7 +664,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>26000</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -702,12 +687,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>152824</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+            <v>156213</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -803,7 +788,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1522783</v>
+            <v>1507019</v>
           </cell>
         </row>
       </sheetData>
@@ -969,7 +954,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>66669</v>
+            <v>89835</v>
           </cell>
         </row>
       </sheetData>
@@ -1267,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1337,10 +1322,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="11"/>
       <c r="L3" s="13"/>
-      <c r="O3" s="8">
-        <f>J3-J12</f>
-        <v>-39000</v>
-      </c>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="23.25">
       <c r="A4" s="2" t="s">
@@ -1350,18 +1332,11 @@
         <f>[4]Sheet1!$E$38</f>
         <v>126574</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="13">
-        <v>50000</v>
-      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="O4" s="8">
-        <f>J4-J12</f>
-        <v>11000</v>
-      </c>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="23.25">
       <c r="A5" s="2" t="s">
@@ -1371,18 +1346,11 @@
         <f>[5]Sheet1!$E$38</f>
         <v>49888</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="13">
-        <v>200000</v>
-      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
-      <c r="O5" s="8">
-        <f>J5-J12</f>
-        <v>161000</v>
-      </c>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:16" ht="23.25">
       <c r="A6" s="2" t="s">
@@ -1396,10 +1364,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="11"/>
-      <c r="O6" s="8">
-        <f>J6-J12</f>
-        <v>-39000</v>
-      </c>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="23.25">
       <c r="A7" s="2" t="s">
@@ -1422,14 +1387,8 @@
         <v>67080</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="11">
-        <f>SUM(J3:J7)</f>
-        <v>250000</v>
-      </c>
-      <c r="K8" s="11">
-        <f>SUM(K1:K5)</f>
-        <v>0</v>
-      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:16" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -1437,7 +1396,7 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>66669</v>
+        <v>89835</v>
       </c>
       <c r="J9" s="12"/>
     </row>
@@ -1451,17 +1410,14 @@
       </c>
       <c r="E10">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>363162</v>
+        <v>360328</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="O10" s="8">
-        <f>15000+50000-11800+20950+80000</f>
-        <v>154150</v>
-      </c>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:16" ht="23.25">
       <c r="A11" s="2" t="s">
@@ -1469,11 +1425,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>338555</v>
+        <v>322440</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1484,7 +1440,7 @@
       </c>
       <c r="J11">
         <f>SUM(J3:J7)</f>
-        <v>250000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="23.25">
@@ -1507,8 +1463,8 @@
         <v>33</v>
       </c>
       <c r="J12">
-        <f>21000+16000+2000</f>
-        <v>39000</v>
+        <f>58500+16000</f>
+        <v>74500</v>
       </c>
       <c r="M12" t="s">
         <v>51</v>
@@ -1524,7 +1480,7 @@
       </c>
       <c r="E13">
         <f>SUM(B15,B10,B24)</f>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -1533,12 +1489,12 @@
         <v>32</v>
       </c>
       <c r="J13">
-        <f>46118+4090+423</f>
-        <v>50631</v>
+        <f>32707+4090+2850+423+10500</f>
+        <v>50570</v>
       </c>
       <c r="P13">
         <f>J12+J14</f>
-        <v>64000</v>
+        <v>74500</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="23.25">
@@ -1552,10 +1508,6 @@
       <c r="I14" t="s">
         <v>31</v>
       </c>
-      <c r="J14">
-        <f>15000+10000</f>
-        <v>25000</v>
-      </c>
     </row>
     <row r="15" spans="1:16" ht="23.25">
       <c r="A15" s="2" t="s">
@@ -1563,11 +1515,11 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>855263</v>
+        <v>864104</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
@@ -1585,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="23.25">
+    <row r="17" spans="1:10" ht="23.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1594,16 +1546,8 @@
         <v>171</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="N17">
-        <f>SUM(J12:J14)</f>
-        <v>114631</v>
-      </c>
-      <c r="O17">
-        <f>J11-N17</f>
-        <v>135369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="23.25">
+    </row>
+    <row r="18" spans="1:10" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1612,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="23.25">
+    <row r="19" spans="1:10" ht="23.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1620,44 +1564,26 @@
         <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="23.25">
+    </row>
+    <row r="20" spans="1:10" ht="23.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="9">
         <f>[20]Sheet1!$E$38</f>
-        <v>26000</v>
-      </c>
-      <c r="I20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="23.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="23.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>152824</v>
-      </c>
-      <c r="I21" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="23.25">
+        <v>156213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="23.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1665,14 +1591,8 @@
         <f>[22]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="23.25">
+    </row>
+    <row r="23" spans="1:10" ht="23.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1680,14 +1600,8 @@
         <f>[23]Sheet1!$E$38</f>
         <v>5880</v>
       </c>
-      <c r="I23" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="23.25">
+    </row>
+    <row r="24" spans="1:10" ht="23.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1696,25 +1610,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="23.25">
+    <row r="25" spans="1:10" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>855263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="23.25">
+        <v>864104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1522783</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="21">
+        <v>1507019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>667520</v>
+        <v>642915</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
@@ -38,13 +38,14 @@
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>AYUSH</t>
   </si>
@@ -221,6 +222,24 @@
   </si>
   <si>
     <t>WALKER</t>
+  </si>
+  <si>
+    <t>toy gallery</t>
+  </si>
+  <si>
+    <t>toy villa</t>
+  </si>
+  <si>
+    <t>toy world</t>
+  </si>
+  <si>
+    <t>noor</t>
+  </si>
+  <si>
+    <t>PAPA</t>
+  </si>
+  <si>
+    <t>racket</t>
   </si>
 </sst>
 </file>
@@ -434,7 +453,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>102320</v>
+            <v>2320</v>
           </cell>
         </row>
       </sheetData>
@@ -503,7 +522,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>108706</v>
+            <v>59706</v>
           </cell>
         </row>
       </sheetData>
@@ -526,7 +545,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>72630</v>
+            <v>39980</v>
           </cell>
         </row>
       </sheetData>
@@ -687,12 +706,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>156213</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+            <v>96786</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -788,7 +807,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1507019</v>
+            <v>1393841</v>
           </cell>
         </row>
       </sheetData>
@@ -839,7 +858,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>126574</v>
+            <v>117972</v>
           </cell>
         </row>
       </sheetData>
@@ -862,7 +881,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>49888</v>
+            <v>13655</v>
           </cell>
         </row>
       </sheetData>
@@ -885,7 +904,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>41117</v>
+            <v>25536</v>
           </cell>
         </row>
       </sheetData>
@@ -931,7 +950,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>67080</v>
+            <v>119124</v>
           </cell>
         </row>
       </sheetData>
@@ -954,7 +973,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>89835</v>
+            <v>49000</v>
           </cell>
         </row>
       </sheetData>
@@ -1252,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1261,6 +1280,7 @@
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -1330,7 +1350,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>126574</v>
+        <v>117972</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="13"/>
@@ -1344,7 +1364,7 @@
       </c>
       <c r="B5" s="2">
         <f>[5]Sheet1!$E$38</f>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="13"/>
@@ -1358,7 +1378,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="13"/>
@@ -1384,7 +1404,7 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>67080</v>
+        <v>119124</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="11"/>
@@ -1396,7 +1416,7 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>89835</v>
+        <v>49000</v>
       </c>
       <c r="J9" s="12"/>
     </row>
@@ -1410,7 +1430,7 @@
       </c>
       <c r="E10">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>360328</v>
+        <v>326702</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1425,11 +1445,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>322440</v>
+        <v>147432</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1453,7 +1473,7 @@
       </c>
       <c r="E12">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -1480,7 +1500,7 @@
       </c>
       <c r="E13">
         <f>SUM(B15,B10,B24)</f>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -1503,7 +1523,7 @@
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>108706</v>
+        <v>59706</v>
       </c>
       <c r="I14" t="s">
         <v>31</v>
@@ -1515,11 +1535,11 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>864104</v>
+        <v>573820</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
@@ -1537,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="23.25">
+    <row r="17" spans="1:14" ht="23.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1547,7 +1567,7 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="23.25">
+    <row r="18" spans="1:14" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1555,8 +1575,14 @@
         <f>[18]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="23.25">
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1564,8 +1590,14 @@
         <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="23.25">
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="23.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1573,17 +1605,39 @@
         <f>[20]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="23.25">
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20">
+        <f>B11</f>
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="23.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>156213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="23.25">
+        <v>96786</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <f>B21</f>
+        <v>96786</v>
+      </c>
+      <c r="J21">
+        <f>120000-50000+20000+15000+82964+27575+7500</f>
+        <v>223039</v>
+      </c>
+      <c r="N21">
+        <f>J21-E11</f>
+        <v>75607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="23.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1591,8 +1645,18 @@
         <f>[22]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="23.25">
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22">
+        <f>B12</f>
+        <v>22790</v>
+      </c>
+      <c r="N22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="23.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1600,8 +1664,15 @@
         <f>[23]Sheet1!$E$38</f>
         <v>5880</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="23.25">
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23">
+        <f>B6</f>
+        <v>25536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1609,26 +1680,38 @@
         <f>[24]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="23.25">
+      <c r="G24" s="7">
+        <f>SUM(G18:G23)</f>
+        <v>277432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>864104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="23.25">
+        <v>573820</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1507019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="21">
+        <v>1393841</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="21">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>642915</v>
+        <v>820021</v>
+      </c>
+      <c r="H28">
+        <f>32000+10567+13935+36185</f>
+        <v>92687</v>
+      </c>
+      <c r="J28">
+        <f>G24-H28</f>
+        <v>184745</v>
       </c>
     </row>
   </sheetData>
@@ -1642,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1653,125 +1736,88 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
       <c r="B1">
-        <v>1540</v>
+        <v>215</v>
       </c>
       <c r="C1">
-        <v>18</v>
-      </c>
-      <c r="E1">
+        <v>41</v>
+      </c>
+      <c r="D1">
         <f>B1*C1</f>
-        <v>27720</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8">
+        <v>8815</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
       <c r="B2">
-        <v>1840</v>
+        <v>220</v>
       </c>
       <c r="C2">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E8" si="0">B2*C2</f>
-        <v>33120</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
       <c r="B3">
-        <v>1360</v>
+        <v>137</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">B3*C3</f>
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="D4">
         <f t="shared" si="0"/>
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4">
-        <v>2130</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>19170</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5">
-        <v>4960</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>14880</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6">
-        <v>2900</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7">
-        <v>4700</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>18800</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8">
-        <v>1350</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="E10">
-        <f>SUM(E1:E8)</f>
-        <v>126460</v>
-      </c>
-      <c r="G10">
-        <f>E10/2</f>
-        <v>63230</v>
-      </c>
-      <c r="H10" s="17">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="D7">
+        <f>B7*C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="D8">
+        <f>SUM(D1:D7)</f>
+        <v>13950</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="H10" s="17"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="H12" s="16"/>
     </row>
-    <row r="14" spans="2:8">
-      <c r="H14">
-        <f>G10-H10</f>
-        <v>63185</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="1:8">
       <c r="H15" t="s">
         <v>51</v>
       </c>
@@ -2197,4 +2243,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,10 +12,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
@@ -39,13 +39,15 @@
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="197">
   <si>
     <t>AYUSH</t>
   </si>
@@ -137,21 +139,6 @@
     <t>SUNIT</t>
   </si>
   <si>
-    <t>cash we required</t>
-  </si>
-  <si>
-    <t>EXPECTED</t>
-  </si>
-  <si>
-    <t>BANK</t>
-  </si>
-  <si>
-    <t>CASH  WE HAVE</t>
-  </si>
-  <si>
-    <t>TOTAL  WE NEED</t>
-  </si>
-  <si>
     <t>BUILTY NUMBER</t>
   </si>
   <si>
@@ -221,32 +208,443 @@
     <t>NEEDED IN CASH</t>
   </si>
   <si>
-    <t>WALKER</t>
-  </si>
-  <si>
-    <t>toy gallery</t>
-  </si>
-  <si>
-    <t>toy villa</t>
-  </si>
-  <si>
-    <t>toy world</t>
-  </si>
-  <si>
-    <t>noor</t>
-  </si>
-  <si>
-    <t>PAPA</t>
-  </si>
-  <si>
     <t>racket</t>
+  </si>
+  <si>
+    <t>COCK</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>SUGAR</t>
+  </si>
+  <si>
+    <t>5kg</t>
+  </si>
+  <si>
+    <t>CHAI PATTI</t>
+  </si>
+  <si>
+    <t>3packt</t>
+  </si>
+  <si>
+    <t>COLGATE TOOTHPASTE</t>
+  </si>
+  <si>
+    <t>2p.</t>
+  </si>
+  <si>
+    <t>TOOTH BRUSH</t>
+  </si>
+  <si>
+    <t>4p</t>
+  </si>
+  <si>
+    <t>ALLOUT REFILE</t>
+  </si>
+  <si>
+    <t>WHEEL SURF</t>
+  </si>
+  <si>
+    <t>3p</t>
+  </si>
+  <si>
+    <t>WHEEL SOAP</t>
+  </si>
+  <si>
+    <t>GHADI SURF</t>
+  </si>
+  <si>
+    <t>LUX SOAP</t>
+  </si>
+  <si>
+    <t>VIM BAR</t>
+  </si>
+  <si>
+    <t>2p</t>
+  </si>
+  <si>
+    <t>HEAD AND SHOLDER SHAMPOO</t>
+  </si>
+  <si>
+    <t>PEARCE SOAP</t>
+  </si>
+  <si>
+    <t>MARIE BISCUIT</t>
+  </si>
+  <si>
+    <t>TOSH</t>
+  </si>
+  <si>
+    <t>TATA NAMAK</t>
+  </si>
+  <si>
+    <t>KALI MIRCH</t>
+  </si>
+  <si>
+    <t>1pav.</t>
+  </si>
+  <si>
+    <t>POHA</t>
+  </si>
+  <si>
+    <t>1p</t>
+  </si>
+  <si>
+    <t>PASTA</t>
+  </si>
+  <si>
+    <t>2pac.</t>
+  </si>
+  <si>
+    <t>MAGGIE MASALA</t>
+  </si>
+  <si>
+    <t>MAGGIE TOMATO SAUCE</t>
+  </si>
+  <si>
+    <t>1bot</t>
+  </si>
+  <si>
+    <t>MAGGIE</t>
+  </si>
+  <si>
+    <t>EVEREST PAV BHAJI MASALA</t>
+  </si>
+  <si>
+    <t>EVEREST SABHAR MASALA</t>
+  </si>
+  <si>
+    <t>UDAD DAAL</t>
+  </si>
+  <si>
+    <t>2kg</t>
+  </si>
+  <si>
+    <t>JEERA</t>
+  </si>
+  <si>
+    <t>1pav</t>
+  </si>
+  <si>
+    <t>KALE CHANE</t>
+  </si>
+  <si>
+    <t>1kg</t>
+  </si>
+  <si>
+    <t>RAJMA</t>
+  </si>
+  <si>
+    <t>SOYABEAN BAADI</t>
+  </si>
+  <si>
+    <t>1 packet</t>
+  </si>
+  <si>
+    <t>GUD</t>
+  </si>
+  <si>
+    <t>FUL PATASHA</t>
+  </si>
+  <si>
+    <t>1pac</t>
+  </si>
+  <si>
+    <t>BADI ELACHI</t>
+  </si>
+  <si>
+    <t>AMCHUR POWDER</t>
+  </si>
+  <si>
+    <t>RIN BAR BLUE</t>
+  </si>
+  <si>
+    <t>KALI URAD DAAL</t>
+  </si>
+  <si>
+    <t>DHULI MOONG DAAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHAS KHAS    </t>
+  </si>
+  <si>
+    <t>25 GM</t>
+  </si>
+  <si>
+    <t>EVEREST CHOLE MASALA</t>
+  </si>
+  <si>
+    <t>1 BOX</t>
+  </si>
+  <si>
+    <t>JHURGA DAAL</t>
+  </si>
+  <si>
+    <t>1 KG</t>
+  </si>
+  <si>
+    <t>SAFED MAATAR</t>
+  </si>
+  <si>
+    <t>2 KG</t>
+  </si>
+  <si>
+    <t>COCONUT OIL MEDIUM</t>
+  </si>
+  <si>
+    <t>SURF EX</t>
+  </si>
+  <si>
+    <t>1 PACKET</t>
+  </si>
+  <si>
+    <t>MARIE BISCUIT BISK FARM</t>
+  </si>
+  <si>
+    <t>Ravina</t>
+  </si>
+  <si>
+    <t>PARACHUTE OIL</t>
+  </si>
+  <si>
+    <t>SUJI</t>
+  </si>
+  <si>
+    <t>1small</t>
+  </si>
+  <si>
+    <t>Half kg</t>
+  </si>
+  <si>
+    <t>GARNIER BLACK COLOR</t>
+  </si>
+  <si>
+    <t>2 packets</t>
+  </si>
+  <si>
+    <t>BHUNJI SEVAI</t>
+  </si>
+  <si>
+    <t>KABULI CHOLE</t>
+  </si>
+  <si>
+    <t>MAGAJ BEEJ</t>
+  </si>
+  <si>
+    <t>50gm</t>
+  </si>
+  <si>
+    <t>KALA NAMAK</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>Sonam</t>
+  </si>
+  <si>
+    <t>3 kg</t>
+  </si>
+  <si>
+    <t>KHAS KHAS</t>
+  </si>
+  <si>
+    <t>25 g</t>
+  </si>
+  <si>
+    <t>3packet</t>
+  </si>
+  <si>
+    <t>AKHAROT</t>
+  </si>
+  <si>
+    <t>BADAM</t>
+  </si>
+  <si>
+    <t>EVEREST CHOLE MASAL</t>
+  </si>
+  <si>
+    <t>1 PAV</t>
+  </si>
+  <si>
+    <t>1 PACKET (GIRI)</t>
+  </si>
+  <si>
+    <t>BLUE HARPIK</t>
+  </si>
+  <si>
+    <t>5pacjet</t>
+  </si>
+  <si>
+    <t>SURF XL</t>
+  </si>
+  <si>
+    <t>1packet</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>4packet</t>
+  </si>
+  <si>
+    <t>CLINIC PLUS SHAMPOO</t>
+  </si>
+  <si>
+    <t>1२ pouch</t>
+  </si>
+  <si>
+    <t>6 packet</t>
+  </si>
+  <si>
+    <t>2 packet</t>
+  </si>
+  <si>
+    <t>GUNJAN MIXTURE</t>
+  </si>
+  <si>
+    <t>2 pouch</t>
+  </si>
+  <si>
+    <t>250 gr</t>
+  </si>
+  <si>
+    <t>MAIDA</t>
+  </si>
+  <si>
+    <t>6packet</t>
+  </si>
+  <si>
+    <t>BORN VITA POUCH</t>
+  </si>
+  <si>
+    <t>RAHAD DAAL</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>KASHMIRI MIRCH</t>
+  </si>
+  <si>
+    <t>Adha kg</t>
+  </si>
+  <si>
+    <t>CHANA DAAL</t>
+  </si>
+  <si>
+    <t>1 pav</t>
+  </si>
+  <si>
+    <t>HAARI MOON</t>
+  </si>
+  <si>
+    <t>250gr</t>
+  </si>
+  <si>
+    <t>MAKKA POHA</t>
+  </si>
+  <si>
+    <t>BIRYANI MASALA</t>
+  </si>
+  <si>
+    <t>SAFFED MATTAR</t>
+  </si>
+  <si>
+    <t>Deepa motwani</t>
+  </si>
+  <si>
+    <t>DETTOL SOAP</t>
+  </si>
+  <si>
+    <t>6 bar</t>
+  </si>
+  <si>
+    <t>3bar</t>
+  </si>
+  <si>
+    <t>2 bar</t>
+  </si>
+  <si>
+    <t>30 pouch</t>
+  </si>
+  <si>
+    <t>10 pkt</t>
+  </si>
+  <si>
+    <t>4pkt</t>
+  </si>
+  <si>
+    <t>3kg</t>
+  </si>
+  <si>
+    <t>50g</t>
+  </si>
+  <si>
+    <t>MURRA</t>
+  </si>
+  <si>
+    <t>CHOWMIN</t>
+  </si>
+  <si>
+    <t>,1pkt</t>
+  </si>
+  <si>
+    <t>1pkt</t>
+  </si>
+  <si>
+    <t>12 pouch</t>
+  </si>
+  <si>
+    <t>2pouch</t>
+  </si>
+  <si>
+    <t>EVERST CHART MASALA</t>
+  </si>
+  <si>
+    <t>150g</t>
+  </si>
+  <si>
+    <t>2pkt</t>
+  </si>
+  <si>
+    <t>1bada pkt</t>
+  </si>
+  <si>
+    <t>PARLE G 65GM</t>
+  </si>
+  <si>
+    <t>6pkt parle gold</t>
+  </si>
+  <si>
+    <t>25gm</t>
+  </si>
+  <si>
+    <t>CORN FLOOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hari moong Dal </t>
+  </si>
+  <si>
+    <t>1/2 KG</t>
+  </si>
+  <si>
+    <t>SAGAR UNCLE</t>
+  </si>
+  <si>
+    <t>HASIM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,16 +709,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -328,15 +745,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,8 +802,19 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -453,7 +897,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>2320</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -476,7 +920,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>22790</v>
+            <v>240</v>
           </cell>
         </row>
       </sheetData>
@@ -706,7 +1150,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>96786</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -807,7 +1251,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1393841</v>
+            <v>1289696</v>
           </cell>
         </row>
       </sheetData>
@@ -904,7 +1348,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>25536</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1269,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1280,7 +1724,7 @@
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -1290,7 +1734,7 @@
     <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25">
+    <row r="1" spans="1:15" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1748,7 @@
       <c r="L1" s="13"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:16" ht="23.25">
+    <row r="2" spans="1:15" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1313,24 +1757,24 @@
         <v>0</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="14"/>
       <c r="N2" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="23.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="23.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1338,13 +1782,17 @@
         <f>[3]Sheet1!$E$38</f>
         <v>15775</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="13">
+        <v>49000</v>
+      </c>
       <c r="K3" s="11"/>
       <c r="L3" s="13"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="23.25">
+    <row r="4" spans="1:15" ht="23.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1352,13 +1800,17 @@
         <f>[4]Sheet1!$E$38</f>
         <v>117972</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13">
+        <v>27000</v>
+      </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="23.25">
+    <row r="5" spans="1:15" ht="23.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1366,19 +1818,23 @@
         <f>[5]Sheet1!$E$38</f>
         <v>13655</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="13">
+        <v>100000</v>
+      </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="23.25">
+    <row r="6" spans="1:15" ht="23.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="13"/>
@@ -1386,7 +1842,7 @@
       <c r="L6" s="11"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="23.25">
+    <row r="7" spans="1:15" ht="23.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1395,10 +1851,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="8">
+        <f>SUM(19000+4000+20000+3500)</f>
+        <v>46500</v>
+      </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="23.25">
+    <row r="8" spans="1:15" ht="23.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +1869,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:16" ht="23.25">
+    <row r="9" spans="1:15" ht="23.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1420,7 +1879,7 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:16" ht="23.25">
+    <row r="10" spans="1:15" ht="23.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1439,37 +1898,30 @@
       <c r="J10" s="7"/>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="23.25">
+    <row r="11" spans="1:15" ht="23.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>147432</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11">
-        <f>SUM(J3:J7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="23.25">
+    </row>
+    <row r="12" spans="1:15" ht="23.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="E12">
         <f>SUM(B2,B7,B14,B16,B18)</f>
@@ -1479,18 +1931,8 @@
         <v>21</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12">
-        <f>58500+16000</f>
-        <v>74500</v>
-      </c>
-      <c r="M12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="23.25">
+    </row>
+    <row r="13" spans="1:15" ht="23.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1505,19 +1947,8 @@
       <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13">
-        <f>32707+4090+2850+423+10500</f>
-        <v>50570</v>
-      </c>
-      <c r="P13">
-        <f>J12+J14</f>
-        <v>74500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="23.25">
+    </row>
+    <row r="14" spans="1:15" ht="23.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1525,11 +1956,8 @@
         <f>[14]Sheet1!$E$38</f>
         <v>59706</v>
       </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="23.25">
+    </row>
+    <row r="15" spans="1:15" ht="23.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1539,16 +1967,13 @@
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>573820</v>
+        <v>426628</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="23.25">
+    </row>
+    <row r="16" spans="1:15" ht="23.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1557,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="23.25">
+    <row r="17" spans="1:10" ht="23.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +1992,7 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="23.25">
+    <row r="18" spans="1:10" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1575,14 +2000,8 @@
         <f>[18]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="23.25">
+    </row>
+    <row r="19" spans="1:10" ht="23.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1590,14 +2009,8 @@
         <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="23.25">
+    </row>
+    <row r="20" spans="1:10" ht="23.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1605,39 +2018,17 @@
         <f>[20]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20">
-        <f>B11</f>
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="23.25">
+    </row>
+    <row r="21" spans="1:10" ht="23.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>96786</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21">
-        <f>B21</f>
-        <v>96786</v>
-      </c>
-      <c r="J21">
-        <f>120000-50000+20000+15000+82964+27575+7500</f>
-        <v>223039</v>
-      </c>
-      <c r="N21">
-        <f>J21-E11</f>
-        <v>75607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="23.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="23.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1645,18 +2036,8 @@
         <f>[22]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22">
-        <f>B12</f>
-        <v>22790</v>
-      </c>
-      <c r="N22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="23.25">
+    </row>
+    <row r="23" spans="1:10" ht="23.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1664,15 +2045,8 @@
         <f>[23]Sheet1!$E$38</f>
         <v>5880</v>
       </c>
-      <c r="F23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23">
-        <f>B6</f>
-        <v>25536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="23.25">
+    </row>
+    <row r="24" spans="1:10" ht="23.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1680,39 +2054,40 @@
         <f>[24]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="G24" s="7">
-        <f>SUM(G18:G23)</f>
-        <v>277432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="23.25">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>573820</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="23.25">
+        <v>426628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1393841</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="21">
+        <v>1289696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>820021</v>
-      </c>
-      <c r="H28">
-        <f>32000+10567+13935+36185</f>
-        <v>92687</v>
-      </c>
-      <c r="J28">
-        <f>G24-H28</f>
-        <v>184745</v>
-      </c>
+        <v>863068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1727,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1738,7 +2113,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B1">
         <v>215</v>
@@ -1753,77 +2128,146 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>220</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <f>14-2-6</f>
+        <v>6</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>3080</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>137</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <f>15-6</f>
+        <v>9</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D6" si="0">B3*C3</f>
-        <v>2055</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>39</v>
+      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>170</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
       <c r="D7">
         <f>B7*C7</f>
-        <v>0</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>185</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
       <c r="D8">
-        <f>SUM(D1:D7)</f>
-        <v>13950</v>
+        <f>B8*C8</f>
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>72</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f>B9*C9</f>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="H10" s="17"/>
     </row>
+    <row r="11" spans="1:8">
+      <c r="D11" s="7">
+        <f>SUM(D1:D9)</f>
+        <v>29128</v>
+      </c>
+    </row>
     <row r="12" spans="1:8">
       <c r="H12" s="16"/>
     </row>
     <row r="15" spans="1:8">
       <c r="H15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1845,19 +2289,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -1869,16 +2313,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D2" s="15">
         <v>44833</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1896,10 +2340,10 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1910,14 +2354,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" s="15">
         <v>44833</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1928,14 +2372,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" s="15">
         <v>44832</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1953,7 +2397,7 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1964,16 +2408,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" s="15">
         <v>44832</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1984,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8" s="15">
         <v>44833</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2011,21 +2455,21 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10" s="15">
         <v>44831</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2041,10 +2485,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2221,24 +2665,509 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A32" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A33" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A38" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A41" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A43" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2247,12 +3176,1242 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A32" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A33" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A38" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C46" sqref="A1:C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A32" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A33" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A38" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A41" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A42" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A43" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A45" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickTop="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="212">
   <si>
     <t>AYUSH</t>
   </si>
@@ -202,21 +202,6 @@
     <t>NEFT</t>
   </si>
   <si>
-    <t>NEEDED IN NEFT</t>
-  </si>
-  <si>
-    <t>NEEDED IN CASH</t>
-  </si>
-  <si>
-    <t>racket</t>
-  </si>
-  <si>
-    <t>COCK</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
     <t>Swati</t>
   </si>
   <si>
@@ -634,10 +619,70 @@
     <t>1/2 KG</t>
   </si>
   <si>
-    <t>SAGAR UNCLE</t>
-  </si>
-  <si>
-    <t>HASIM</t>
+    <t>AMOUNT WE HAVE IN ACCOUNT</t>
+  </si>
+  <si>
+    <t>AMOUNT WE HAVE IN PAYTM</t>
+  </si>
+  <si>
+    <t>WE NEED MORE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>MANOJ POPTANI</t>
+  </si>
+  <si>
+    <t>RAJA SURYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMEER </t>
+  </si>
+  <si>
+    <t>RAKESH</t>
+  </si>
+  <si>
+    <t>AMAR</t>
+  </si>
+  <si>
+    <t>SHANAYA HOSPITAL</t>
+  </si>
+  <si>
+    <t>CAR REPAIR</t>
+  </si>
+  <si>
+    <t>RAVI  RIKSHAW</t>
+  </si>
+  <si>
+    <t>UCHANTIS</t>
+  </si>
+  <si>
+    <t>cash we have</t>
+  </si>
+  <si>
+    <t>ACCORDING TO COMPUTER</t>
+  </si>
+  <si>
+    <t>TRANSFER ,  BIKE REPAIR , REST IS CASH , THROUGH  QR CODE</t>
+  </si>
+  <si>
+    <t>OPEN IN TOMRROW</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>noor</t>
   </si>
 </sst>
 </file>
@@ -769,7 +814,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -812,6 +857,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -851,7 +899,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>331</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -897,7 +945,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>91186</v>
           </cell>
         </row>
       </sheetData>
@@ -920,7 +968,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>240</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -943,7 +991,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>4794</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -966,7 +1014,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>59706</v>
+            <v>29706</v>
           </cell>
         </row>
       </sheetData>
@@ -989,7 +1037,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>39980</v>
+            <v>33790</v>
           </cell>
         </row>
       </sheetData>
@@ -1035,7 +1083,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>171</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1150,7 +1198,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>61151</v>
           </cell>
         </row>
       </sheetData>
@@ -1251,7 +1299,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1289696</v>
+            <v>1106303</v>
           </cell>
         </row>
       </sheetData>
@@ -1279,7 +1327,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>15775</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1302,7 +1350,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>117972</v>
+            <v>115795</v>
           </cell>
         </row>
       </sheetData>
@@ -1325,7 +1373,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>13655</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1348,7 +1396,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>77488</v>
           </cell>
         </row>
       </sheetData>
@@ -1394,7 +1442,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>119124</v>
+            <v>68649</v>
           </cell>
         </row>
       </sheetData>
@@ -1417,7 +1465,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>49000</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1716,7 +1764,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1726,7 +1774,7 @@
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
@@ -1740,7 +1788,7 @@
       </c>
       <c r="B1" s="3">
         <f>[1]Sheet1!$E$38</f>
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="13"/>
@@ -1767,12 +1815,8 @@
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="14"/>
-      <c r="N2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="23.25">
       <c r="A3" s="2" t="s">
@@ -1780,15 +1824,16 @@
       </c>
       <c r="B3" s="3">
         <f>[3]Sheet1!$E$38</f>
-        <v>15775</v>
+        <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="J3" s="13">
-        <v>49000</v>
-      </c>
-      <c r="K3" s="11"/>
+        <f>B11-50000</f>
+        <v>41186</v>
+      </c>
+      <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="O3" s="8"/>
     </row>
@@ -1798,13 +1843,14 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>117972</v>
+        <v>115795</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="J4" s="13">
-        <v>27000</v>
+        <f>B21</f>
+        <v>61151</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -1816,13 +1862,13 @@
       </c>
       <c r="B5" s="2">
         <f>[5]Sheet1!$E$38</f>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J5" s="13">
-        <v>100000</v>
+        <v>49</v>
+      </c>
+      <c r="J5" s="8">
+        <v>150000</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -1834,10 +1880,15 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="13"/>
+        <v>77488</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="8">
+        <f>B6</f>
+        <v>77488</v>
+      </c>
       <c r="K6" s="13"/>
       <c r="L6" s="11"/>
       <c r="O6" s="8"/>
@@ -1850,12 +1901,14 @@
         <f>[7]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8">
-        <f>SUM(19000+4000+20000+3500)</f>
-        <v>46500</v>
-      </c>
-      <c r="K7" s="13"/>
+      <c r="I7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="11">
+        <f>SUM(J3:J6)</f>
+        <v>329825</v>
+      </c>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="23.25">
       <c r="A8" s="2" t="s">
@@ -1863,11 +1916,9 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>119124</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+        <v>68649</v>
+      </c>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:15" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -1875,9 +1926,9 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>49000</v>
-      </c>
-      <c r="J9" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:15" ht="23.25">
       <c r="A10" s="2" t="s">
@@ -1889,13 +1940,12 @@
       </c>
       <c r="E10">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>326702</v>
+        <v>190324</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="J10" s="7"/>
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="23.25">
@@ -1904,11 +1954,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>240</v>
+        <v>229825</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1921,11 +1971,11 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>59706</v>
+        <v>29706</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -1938,14 +1988,20 @@
       </c>
       <c r="B13" s="2">
         <f>[13]Sheet1!$E$38</f>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f>SUM(B15,B10,B24)</f>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" s="8">
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="23.25">
@@ -1954,7 +2010,13 @@
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>59706</v>
+        <v>29706</v>
+      </c>
+      <c r="I14" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="8">
+        <v>40000</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="23.25">
@@ -1963,14 +2025,21 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>426628</v>
+        <v>483645</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>206</v>
+      </c>
+      <c r="J15" s="8">
+        <f>33000-11650+4000+4700+18000-3000</f>
+        <v>45050</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="23.25">
@@ -1981,6 +2050,13 @@
         <f>[16]Sheet1!$E$38</f>
         <v>0</v>
       </c>
+      <c r="I16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="11">
+        <f>SUM(J13:J15)</f>
+        <v>95050</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="23.25">
       <c r="A17" s="2" t="s">
@@ -1988,9 +2064,8 @@
       </c>
       <c r="B17" s="2">
         <f>[17]Sheet1!$E$38</f>
-        <v>171</v>
-      </c>
-      <c r="J17" s="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="23.25">
       <c r="A18" s="2" t="s">
@@ -2000,6 +2075,13 @@
         <f>[18]Sheet1!$E$38</f>
         <v>0</v>
       </c>
+      <c r="I18" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="8">
+        <f>J7-J16</f>
+        <v>234775</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="23.25">
       <c r="A19" s="2" t="s">
@@ -2025,7 +2107,7 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>61151</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="23.25">
@@ -2059,13 +2141,13 @@
     <row r="25" spans="1:10" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>426628</v>
+        <v>483645</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1289696</v>
+        <v>1106303</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21">
@@ -2074,7 +2156,7 @@
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>863068</v>
+        <v>622658</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2100,162 +2182,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A5:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1">
-        <v>215</v>
-      </c>
-      <c r="C1">
-        <v>41</v>
-      </c>
-      <c r="D1">
-        <f>B1*C1</f>
-        <v>8815</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2">
-        <v>220</v>
-      </c>
-      <c r="C2">
-        <f>14-2-6</f>
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <f>B2*C2</f>
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3">
-        <v>137</v>
-      </c>
-      <c r="C3">
-        <f>15-6</f>
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">B3*C3</f>
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1120</v>
-      </c>
-    </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>111</v>
-      </c>
-      <c r="C5">
-        <v>39</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4329</v>
-      </c>
+      <c r="A5" s="18"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6">
-        <v>102</v>
-      </c>
-      <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>2346</v>
-      </c>
+      <c r="A6" s="18"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7">
-        <v>170</v>
-      </c>
-      <c r="C7">
-        <v>38</v>
-      </c>
-      <c r="D7">
-        <f>B7*C7</f>
-        <v>6460</v>
-      </c>
+      <c r="A7" s="18"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8">
-        <v>185</v>
-      </c>
-      <c r="C8">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <f>B8*C8</f>
-        <v>3145</v>
-      </c>
+      <c r="A8" s="18"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9">
-        <v>72</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <f>B9*C9</f>
-        <v>360</v>
-      </c>
+      <c r="A9" s="18"/>
     </row>
     <row r="10" spans="1:8">
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="D11" s="7">
-        <f>SUM(D1:D9)</f>
-        <v>29128</v>
-      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:8">
       <c r="H12" s="16"/>
@@ -2264,6 +2225,307 @@
       <c r="H15" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32">
+        <v>280034</v>
+      </c>
+      <c r="I32">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="8">
+        <v>6985</v>
+      </c>
+      <c r="H33">
+        <v>800</v>
+      </c>
+      <c r="I33">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="8">
+        <f>SUM(55000+570+400+10000+5000+15000+10000+500+12000+2000+15000+15000+6000+14868+7350+2000)</f>
+        <v>170688</v>
+      </c>
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34">
+        <v>600</v>
+      </c>
+      <c r="I34">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="8">
+        <f>8100+500+3360+2900+1328</f>
+        <v>16188</v>
+      </c>
+      <c r="H35">
+        <v>1840</v>
+      </c>
+      <c r="I35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="8">
+        <v>11200</v>
+      </c>
+      <c r="H36">
+        <v>1594</v>
+      </c>
+      <c r="I36">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3627</v>
+      </c>
+      <c r="D37" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37">
+        <v>210</v>
+      </c>
+      <c r="I37">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="8">
+        <f>7000+5300</f>
+        <v>12300</v>
+      </c>
+      <c r="H38">
+        <v>1575</v>
+      </c>
+      <c r="I38">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="8">
+        <v>700</v>
+      </c>
+      <c r="H39">
+        <v>600</v>
+      </c>
+      <c r="I39">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="11">
+        <f>SUM(C33:C39)</f>
+        <v>221688</v>
+      </c>
+      <c r="H40">
+        <v>400</v>
+      </c>
+      <c r="I40">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="H41">
+        <v>320</v>
+      </c>
+      <c r="I41">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="H42">
+        <v>395</v>
+      </c>
+      <c r="I42">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="H43">
+        <v>600</v>
+      </c>
+      <c r="I43">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="H44">
+        <v>575</v>
+      </c>
+      <c r="I44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="C45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45">
+        <f>H65-I65</f>
+        <v>244836</v>
+      </c>
+      <c r="H45">
+        <v>160</v>
+      </c>
+      <c r="I45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="C46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46">
+        <f>C40</f>
+        <v>221688</v>
+      </c>
+      <c r="H46">
+        <v>90</v>
+      </c>
+      <c r="I46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="D47">
+        <f>D45-D46</f>
+        <v>23148</v>
+      </c>
+      <c r="H47">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="D48">
+        <f>16500+800+600+20+230+5000</f>
+        <v>23150</v>
+      </c>
+      <c r="H48">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="H50">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="H51">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="H52">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="H53">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="H54">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="H55">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="H56">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="H57">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="H58">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="H59">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="H60">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9">
+      <c r="H65" s="7">
+        <f>SUM(H32:H64)</f>
+        <v>304630</v>
+      </c>
+      <c r="I65" s="7">
+        <f>SUM(I32:I64)</f>
+        <v>59794</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9">
+      <c r="I66" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2680,54 +2942,54 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C5" s="19">
         <v>1</v>
@@ -2735,65 +2997,65 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C11" s="19">
         <v>12</v>
@@ -2801,21 +3063,21 @@
     </row>
     <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C13" s="19">
         <v>6</v>
@@ -2823,10 +3085,10 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C14" s="19">
         <v>5</v>
@@ -2834,10 +3096,10 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C15" s="19">
         <v>3</v>
@@ -2845,10 +3107,10 @@
     </row>
     <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C16" s="19">
         <v>3</v>
@@ -2856,43 +3118,43 @@
     </row>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C20" s="19">
         <v>12</v>
@@ -2900,21 +3162,21 @@
     </row>
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C22" s="19">
         <v>1</v>
@@ -2922,10 +3184,10 @@
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C23" s="19">
         <v>1</v>
@@ -2933,10 +3195,10 @@
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C24" s="19">
         <v>1</v>
@@ -2944,109 +3206,109 @@
     </row>
     <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C34" s="19">
         <v>3</v>
@@ -3054,87 +3316,87 @@
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C42" s="19">
         <v>1</v>
@@ -3142,24 +3404,24 @@
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
@@ -3192,10 +3454,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C1" s="21">
         <v>2</v>
@@ -3203,10 +3465,10 @@
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" s="21">
         <v>2</v>
@@ -3214,10 +3476,10 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3" s="21">
         <v>2</v>
@@ -3225,10 +3487,10 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" s="21">
         <v>1</v>
@@ -3236,10 +3498,10 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -3247,10 +3509,10 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C6" s="21">
         <v>1</v>
@@ -3258,21 +3520,21 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C8" s="21">
         <v>2</v>
@@ -3280,43 +3542,43 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="C11" s="21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C12" s="21">
         <v>2</v>
@@ -3324,32 +3586,32 @@
     </row>
     <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C15" s="21">
         <v>1</v>
@@ -3357,68 +3619,68 @@
     </row>
     <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickTop="1"/>
@@ -3445,32 +3707,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C3" s="21">
         <v>4</v>
@@ -3478,10 +3740,10 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="21">
         <v>1</v>
@@ -3489,10 +3751,10 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -3500,54 +3762,54 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C10" s="21">
         <v>2</v>
@@ -3555,120 +3817,120 @@
     </row>
     <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C21" s="21">
         <v>1</v>
@@ -3676,21 +3938,21 @@
     </row>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C23" s="21">
         <v>1</v>
@@ -3698,186 +3960,186 @@
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C40" s="21">
         <v>1</v>
@@ -3906,21 +4168,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C2" s="20">
         <v>2</v>
@@ -3928,10 +4190,10 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" s="20">
         <v>2</v>
@@ -3939,230 +4201,230 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>169</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C24" s="20">
         <v>1</v>
@@ -4170,21 +4432,21 @@
     </row>
     <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C26" s="20">
         <v>1</v>
@@ -4192,186 +4454,186 @@
     </row>
     <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C43" s="20">
         <v>1</v>
@@ -4379,35 +4641,35 @@
     </row>
     <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickTop="1"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,10 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
@@ -41,13 +41,15 @@
     <externalReference r:id="rId30"/>
     <externalReference r:id="rId31"/>
     <externalReference r:id="rId32"/>
+    <externalReference r:id="rId33"/>
+    <externalReference r:id="rId34"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="234">
   <si>
     <t>AYUSH</t>
   </si>
@@ -683,6 +685,72 @@
   </si>
   <si>
     <t>noor</t>
+  </si>
+  <si>
+    <t>CAR REPAIRING CHARGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVER  (900) &amp; MATTING (1100)   </t>
+  </si>
+  <si>
+    <t>HT WILL  GIVE</t>
+  </si>
+  <si>
+    <t>SV  WILL  GIVE</t>
+  </si>
+  <si>
+    <t>HT WILL  RECEIVE FROM CLAIM</t>
+  </si>
+  <si>
+    <t>SV WILL RECEIVE FROM CLAIM</t>
+  </si>
+  <si>
+    <t>IF EXPECTED  CLAIM  WILL COME</t>
+  </si>
+  <si>
+    <t>SAMEER HOUSE REGULATOR</t>
+  </si>
+  <si>
+    <t>IRON  REPAIR</t>
+  </si>
+  <si>
+    <t>COOCKER  REPAIR</t>
+  </si>
+  <si>
+    <t>FZ PETROL</t>
+  </si>
+  <si>
+    <t>HT SE LENA HAI</t>
+  </si>
+  <si>
+    <t>TICKET TO RAIPUR</t>
+  </si>
+  <si>
+    <t>TICKET TO BILASPUR</t>
+  </si>
+  <si>
+    <t>DENA 4450 THA JISME SE 2000 PAY  TM  SE AYYA</t>
+  </si>
+  <si>
+    <t>S.V SE LENA HAI</t>
+  </si>
+  <si>
+    <t>CHANDINI  AUR KITTU  SE</t>
+  </si>
+  <si>
+    <t>CHANDINI  AUR KITTU  SE MILA KE</t>
+  </si>
+  <si>
+    <t>PAPA SE LENA HAI</t>
+  </si>
+  <si>
+    <t>HAND  WASH</t>
+  </si>
+  <si>
+    <t>CHOTE  BABU  KE  KAPDE</t>
+  </si>
+  <si>
+    <t>INTERNET RECHARGE</t>
   </si>
 </sst>
 </file>
@@ -814,7 +882,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -859,6 +927,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -945,7 +1019,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>91186</v>
+            <v>41186</v>
           </cell>
         </row>
       </sheetData>
@@ -1198,7 +1272,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>61151</v>
+            <v>46047</v>
           </cell>
         </row>
       </sheetData>
@@ -1299,7 +1373,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1106303</v>
+            <v>1087205</v>
           </cell>
         </row>
       </sheetData>
@@ -1763,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1829,12 +1903,12 @@
       <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="13">
-        <f>B11-50000</f>
-        <v>41186</v>
-      </c>
+      <c r="J3" s="8"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
+      <c r="N3">
+        <v>38744</v>
+      </c>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="23.25">
@@ -1850,7 +1924,7 @@
       </c>
       <c r="J4" s="13">
         <f>B21</f>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -1906,7 +1980,7 @@
       </c>
       <c r="J7" s="11">
         <f>SUM(J3:J6)</f>
-        <v>329825</v>
+        <v>273535</v>
       </c>
       <c r="K7" s="11"/>
     </row>
@@ -1919,6 +1993,10 @@
         <v>68649</v>
       </c>
       <c r="J8" s="12"/>
+      <c r="N8">
+        <f>J4+J5+J6</f>
+        <v>273535</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -1954,11 +2032,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>229825</v>
+        <v>164721</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -2001,7 +2079,7 @@
         <v>191</v>
       </c>
       <c r="J13" s="8">
-        <v>10000</v>
+        <v>9634</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="23.25">
@@ -2016,7 +2094,7 @@
         <v>190</v>
       </c>
       <c r="J14" s="8">
-        <v>40000</v>
+        <v>80689</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="23.25">
@@ -2029,7 +2107,7 @@
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>483645</v>
+        <v>418541</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
@@ -2038,8 +2116,7 @@
         <v>206</v>
       </c>
       <c r="J15" s="8">
-        <f>33000-11650+4000+4700+18000-3000</f>
-        <v>45050</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="23.25">
@@ -2055,7 +2132,7 @@
       </c>
       <c r="J16" s="11">
         <f>SUM(J13:J15)</f>
-        <v>95050</v>
+        <v>140323</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="23.25">
@@ -2080,7 +2157,7 @@
       </c>
       <c r="J18" s="8">
         <f>J7-J16</f>
-        <v>234775</v>
+        <v>133212</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="23.25">
@@ -2107,7 +2184,7 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>61151</v>
+        <v>46047</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="23.25">
@@ -2141,13 +2218,13 @@
     <row r="25" spans="1:10" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>483645</v>
+        <v>418541</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1106303</v>
+        <v>1087205</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21">
@@ -2156,7 +2233,7 @@
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>622658</v>
+        <v>668664</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2185,7 +2262,7 @@
   <dimension ref="A5:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4676,4 +4753,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="7">
+        <f>SUM(B1:B2)</f>
+        <v>8900</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="23">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="F4" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5">
+        <v>4450</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6">
+        <v>4450</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="7">
+        <f>SUM(B5:B6)</f>
+        <v>8900</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="23">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="F8" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="23">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="23">
+        <f>4450-2000</f>
+        <v>2450</v>
+      </c>
+      <c r="H9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="F10" s="23"/>
+      <c r="G10" s="24">
+        <f>SUM(G3:G9)</f>
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11">
+        <v>2500</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12">
+        <v>2500</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="F13" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="10">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="10">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="F15" s="23"/>
+      <c r="G15" s="24">
+        <f>SUM(G13:G14)</f>
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="10">
+        <f>G19</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="23"/>
+      <c r="G19" s="24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="23">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G22" s="23">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" s="23"/>
+      <c r="G23" s="24">
+        <f>SUM(G21:G22)</f>
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="6:7">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="G28" s="24">
+        <f>G10+G15+G19+G23</f>
+        <v>12110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>AYUSH</t>
   </si>
@@ -267,9 +267,6 @@
     <t>SHREEJI KEY  CHAIN</t>
   </si>
   <si>
-    <t>SHEEL SUHAG V.C</t>
-  </si>
-  <si>
     <t>PAPA</t>
   </si>
   <si>
@@ -277,6 +274,12 @@
   </si>
   <si>
     <t>CASH WE HAVE IN PAYTM</t>
+  </si>
+  <si>
+    <t>GUPTA</t>
+  </si>
+  <si>
+    <t>SAISAKTI</t>
   </si>
 </sst>
 </file>
@@ -929,8 +932,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1044,8 +1047,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1338,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1366,12 +1369,8 @@
         <f>[1]Sheet1!$E$38</f>
         <v>19000</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="11">
-        <v>50000</v>
-      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="14"/>
@@ -1385,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="11">
         <v>70000</v>
@@ -1460,7 +1459,7 @@
         <v>70</v>
       </c>
       <c r="J6" s="11">
-        <v>40500</v>
+        <v>8000</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="11"/>
@@ -1475,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="11">
-        <v>2695</v>
+        <v>8195</v>
       </c>
       <c r="K7" s="11"/>
     </row>
@@ -1491,15 +1490,14 @@
         <v>76649</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="11">
-        <f>6215+429</f>
-        <v>6644</v>
+        <v>11288</v>
       </c>
       <c r="K8">
         <f>J8-16000</f>
-        <v>-9356</v>
+        <v>-4712</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="23.25">
@@ -1648,6 +1646,9 @@
         <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="23.25">
       <c r="A20" s="2" t="s">
@@ -1656,6 +1657,9 @@
       <c r="B20" s="9">
         <f>[20]Sheet1!$E$38</f>
         <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="23.25">
@@ -2110,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>AYUSH</t>
   </si>
@@ -261,25 +261,19 @@
     <t>INTERNET RECHARGE</t>
   </si>
   <si>
-    <t>CASH WE HAVE</t>
-  </si>
-  <si>
     <t>SHREEJI KEY  CHAIN</t>
   </si>
   <si>
-    <t>PAPA</t>
-  </si>
-  <si>
-    <t>CASH WE HAVE IN A/C</t>
-  </si>
-  <si>
-    <t>CASH WE HAVE IN PAYTM</t>
-  </si>
-  <si>
-    <t>GUPTA</t>
-  </si>
-  <si>
-    <t>SAISAKTI</t>
+    <t>CASH PURCHASE</t>
+  </si>
+  <si>
+    <t>TOY VILLA</t>
+  </si>
+  <si>
+    <t>INAC</t>
+  </si>
+  <si>
+    <t>CASH</t>
   </si>
 </sst>
 </file>
@@ -523,7 +517,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>88237</v>
+            <v>82528</v>
           </cell>
         </row>
       </sheetData>
@@ -877,7 +871,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1129233</v>
+            <v>1099594</v>
           </cell>
         </row>
       </sheetData>
@@ -928,7 +922,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>107645</v>
+            <v>125677</v>
           </cell>
         </row>
       </sheetData>
@@ -974,7 +968,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>90000</v>
           </cell>
         </row>
       </sheetData>
@@ -1020,7 +1014,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>76649</v>
+            <v>61649</v>
           </cell>
         </row>
       </sheetData>
@@ -1342,7 +1336,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1369,8 +1363,13 @@
         <f>[1]Sheet1!$E$38</f>
         <v>19000</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="11"/>
+      <c r="I1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="11">
+        <f>B11-50000</f>
+        <v>32528</v>
+      </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="14"/>
@@ -1384,10 +1383,11 @@
         <v>0</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="J2" s="11">
-        <v>70000</v>
+        <f>B6</f>
+        <v>90000</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -1404,14 +1404,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="J3" s="11">
-        <v>100000</v>
-      </c>
-      <c r="K3" s="24">
-        <v>44923</v>
-      </c>
+        <f>B21</f>
+        <v>40594</v>
+      </c>
+      <c r="K3" s="24"/>
       <c r="L3" s="13"/>
       <c r="O3" s="8"/>
     </row>
@@ -1421,13 +1420,13 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>107645</v>
+        <v>125677</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="J4" s="11">
-        <v>35000</v>
+        <v>150000</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -1442,7 +1441,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="21"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="11">
+        <f>SUM(J1:J4)</f>
+        <v>313122</v>
+      </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="O5" s="8"/>
@@ -1453,14 +1455,10 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="11">
-        <v>8000</v>
-      </c>
+        <v>90000</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="13"/>
       <c r="L6" s="11"/>
       <c r="O6" s="8"/>
@@ -1477,7 +1475,8 @@
         <v>73</v>
       </c>
       <c r="J7" s="11">
-        <v>8195</v>
+        <f>30000+20000</f>
+        <v>50000</v>
       </c>
       <c r="K7" s="11"/>
     </row>
@@ -1487,17 +1486,14 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>76649</v>
+        <v>61649</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>74</v>
       </c>
       <c r="J8" s="11">
-        <v>11288</v>
-      </c>
-      <c r="K8">
-        <f>J8-16000</f>
-        <v>-4712</v>
+        <f>20000</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="23.25">
@@ -1509,7 +1505,10 @@
         <v>103328</v>
       </c>
       <c r="I9" s="21"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="11">
+        <f>J5-J7-J8</f>
+        <v>243122</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="23.25">
       <c r="A10" s="2" t="s">
@@ -1521,7 +1520,7 @@
       </c>
       <c r="E10">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>325661</v>
+        <v>328693</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1535,11 +1534,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>131974</v>
+        <v>216265</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1600,7 +1599,7 @@
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>521146</v>
+        <v>608469</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
@@ -1646,9 +1645,6 @@
         <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="20" spans="1:10" ht="23.25">
       <c r="A20" s="2" t="s">
@@ -1658,9 +1654,6 @@
         <f>[20]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="21" spans="1:10" ht="23.25">
       <c r="A21" s="2" t="s">
@@ -1702,13 +1695,13 @@
     <row r="25" spans="1:10" ht="23.25">
       <c r="B25" s="1">
         <f>SUM(B1:B24)</f>
-        <v>521146</v>
+        <v>608469</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="23.25">
       <c r="B26" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1129233</v>
+        <v>1099594</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21">
@@ -1717,7 +1710,7 @@
       </c>
       <c r="B28" s="5">
         <f>B26-B25</f>
-        <v>608087</v>
+        <v>491125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1745,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:I68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B20"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1754,7 +1747,7 @@
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2115,7 +2108,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2133,7 +2126,7 @@
         <v>8450</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2197,7 +2190,10 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8">
+        <f>3076360+30+6046+10000+28788+198+1049+700+475+450+418+445+954+886+1190+190+140+850+330+210+440</f>
+        <v>3130149</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
@@ -2207,7 +2203,10 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <f>950+164+696+1080+2000+6046+10000+28788+198+60+475+1600+50+10+954+886+80+550+500+80+50+440</f>
+        <v>55657</v>
+      </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
@@ -2227,7 +2226,10 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <f>E7-E8</f>
+        <v>3074492</v>
+      </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
@@ -2270,6 +2272,10 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
+      <c r="E15">
+        <f>E10+E8</f>
+        <v>3130149</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8">
@@ -2279,19 +2285,19 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="11">
         <f>SUM(A1:A17)</f>
         <v>289149</v>
@@ -2300,79 +2306,91 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <f>306142-236688-200-500-2800-300</f>
+        <v>65654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <f>9000+4900+100</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <f>E23-E22</f>
+        <v>-51654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,13 +43,14 @@
     <externalReference r:id="rId32"/>
     <externalReference r:id="rId33"/>
     <externalReference r:id="rId34"/>
+    <externalReference r:id="rId35"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>AYUSH</t>
   </si>
@@ -274,6 +275,9 @@
   </si>
   <si>
     <t>CASH</t>
+  </si>
+  <si>
+    <t>NOVICE</t>
   </si>
 </sst>
 </file>
@@ -871,7 +875,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1099594</v>
+            <v>1116365</v>
           </cell>
         </row>
       </sheetData>
@@ -882,6 +886,29 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>352</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -968,7 +995,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>90000</v>
+            <v>85559</v>
           </cell>
         </row>
       </sheetData>
@@ -1333,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1387,7 +1414,7 @@
       </c>
       <c r="J2" s="11">
         <f>B6</f>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -1443,7 +1470,7 @@
       <c r="I5" s="21"/>
       <c r="J5" s="11">
         <f>SUM(J1:J4)</f>
-        <v>313122</v>
+        <v>308681</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -1455,7 +1482,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="11"/>
@@ -1507,7 +1534,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="11">
         <f>J5-J7-J8</f>
-        <v>243122</v>
+        <v>238681</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="23.25">
@@ -1538,7 +1565,7 @@
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21)</f>
-        <v>216265</v>
+        <v>211824</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1599,7 +1626,7 @@
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>608469</v>
+        <v>604028</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
@@ -1693,37 +1720,46 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="23.25">
-      <c r="B25" s="1">
-        <f>SUM(B1:B24)</f>
-        <v>608469</v>
+      <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="9">
+        <f>[26]Sheet1!$E$38</f>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="23.25">
       <c r="B26" s="1">
+        <f>SUM(B1:B25)</f>
+        <v>604380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="23.25">
+      <c r="B27" s="1">
         <f>[25]Sheet5!$G$1</f>
-        <v>1099594</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="4" t="s">
+        <v>1116365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21">
+      <c r="A29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="5">
-        <f>B26-B25</f>
-        <v>491125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="B29" s="5">
+        <f>B27-B26</f>
+        <v>511985</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2107,7 +2143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -44,13 +44,14 @@
     <externalReference r:id="rId33"/>
     <externalReference r:id="rId34"/>
     <externalReference r:id="rId35"/>
+    <externalReference r:id="rId36"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>AYUSH</t>
   </si>
@@ -265,19 +266,25 @@
     <t>SHREEJI KEY  CHAIN</t>
   </si>
   <si>
-    <t>CASH PURCHASE</t>
-  </si>
-  <si>
-    <t>TOY VILLA</t>
-  </si>
-  <si>
-    <t>INAC</t>
-  </si>
-  <si>
     <t>CASH</t>
   </si>
   <si>
     <t>NOVICE</t>
+  </si>
+  <si>
+    <t>NISAR STATIONARY</t>
+  </si>
+  <si>
+    <t>A/C</t>
+  </si>
+  <si>
+    <t>CASH WE NEED FOR MUMBAI AFTER EVERYTHING</t>
+  </si>
+  <si>
+    <t>SELF</t>
+  </si>
+  <si>
+    <t>TRANSFER</t>
   </si>
 </sst>
 </file>
@@ -521,7 +528,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>82528</v>
+            <v>50000</v>
           </cell>
         </row>
       </sheetData>
@@ -613,7 +620,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>33805</v>
+            <v>38755</v>
           </cell>
         </row>
       </sheetData>
@@ -774,7 +781,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>40594</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -855,6 +862,52 @@
 </file>
 
 <file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>349</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -891,29 +944,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="38">
-          <cell r="E38">
-            <v>352</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -949,7 +979,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>125677</v>
+            <v>106745</v>
           </cell>
         </row>
       </sheetData>
@@ -995,7 +1025,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>85559</v>
+            <v>-1350</v>
           </cell>
         </row>
       </sheetData>
@@ -1064,7 +1094,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>103328</v>
+            <v>177575</v>
           </cell>
         </row>
       </sheetData>
@@ -1360,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1373,10 +1403,10 @@
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
@@ -1390,13 +1420,8 @@
         <f>[1]Sheet1!$E$38</f>
         <v>19000</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="11">
-        <f>B11-50000</f>
-        <v>32528</v>
-      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="14"/>
@@ -1409,13 +1434,8 @@
         <f>[2]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="11">
-        <f>B6</f>
-        <v>85559</v>
-      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="14"/>
@@ -1430,13 +1450,8 @@
         <f>[3]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="11">
-        <f>B21</f>
-        <v>40594</v>
-      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="24"/>
       <c r="L3" s="13"/>
       <c r="O3" s="8"/>
@@ -1447,14 +1462,10 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>125677</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="11">
-        <v>150000</v>
-      </c>
+        <v>106745</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="O4" s="8"/>
@@ -1467,11 +1478,8 @@
         <f>[5]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="11">
-        <f>SUM(J1:J4)</f>
-        <v>308681</v>
-      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="O5" s="8"/>
@@ -1482,10 +1490,10 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>85559</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="11"/>
+        <v>-1350</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="11"/>
       <c r="O6" s="8"/>
@@ -1499,12 +1507,9 @@
         <v>0</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="11">
-        <f>30000+20000</f>
-        <v>50000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J7" s="13"/>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="23.25">
@@ -1515,12 +1520,10 @@
         <f>[8]Sheet1!$E$38</f>
         <v>61649</v>
       </c>
-      <c r="I8" s="21" t="s">
-        <v>74</v>
-      </c>
+      <c r="I8" s="21"/>
       <c r="J8" s="11">
-        <f>20000</f>
-        <v>20000</v>
+        <f>SUM(J1:J7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="23.25">
@@ -1529,13 +1532,10 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>103328</v>
+        <v>177575</v>
       </c>
       <c r="I9" s="21"/>
-      <c r="J9" s="11">
-        <f>J5-J7-J8</f>
-        <v>238681</v>
-      </c>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:15" ht="23.25">
       <c r="A10" s="2" t="s">
@@ -1547,12 +1547,19 @@
       </c>
       <c r="E10">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>328693</v>
+        <v>384008</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="13">
+        <f>SUM(120000+7400+2400+6800+1800)</f>
+        <v>138400</v>
+      </c>
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="23.25">
@@ -1561,16 +1568,23 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="E11">
-        <f>SUM(B6,B12,B11,B21)</f>
-        <v>211824</v>
+        <f>SUM(B6,B12,B11,B21,B25,B26)</f>
+        <v>52142</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="8">
+        <f>41407+23289</f>
+        <v>64696</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="23.25">
       <c r="A12" s="2" t="s">
@@ -1588,6 +1602,11 @@
         <v>21</v>
       </c>
       <c r="H12" s="7"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="11">
+        <f>SUM(J10:J11)</f>
+        <v>203096</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="23.25">
       <c r="A13" s="2" t="s">
@@ -1599,12 +1618,11 @@
       </c>
       <c r="E13">
         <f>SUM(B15,B10,B24)</f>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="23.25">
       <c r="A14" s="2" t="s">
@@ -1614,7 +1632,13 @@
         <f>[14]Sheet1!$E$38</f>
         <v>29706</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="8">
+        <f>J8-J12</f>
+        <v>-203096</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="23.25">
       <c r="A15" s="2" t="s">
@@ -1622,16 +1646,15 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>604028</v>
+        <v>504611</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="23.25">
       <c r="A16" s="2" t="s">
@@ -1641,8 +1664,7 @@
         <f>[16]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="11"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="23.25">
       <c r="A17" s="2" t="s">
@@ -1652,6 +1674,10 @@
         <f>[17]Sheet1!$E$38</f>
         <v>19039</v>
       </c>
+      <c r="J17" s="8">
+        <f>J8-J11</f>
+        <v>-64696</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="23.25">
       <c r="A18" s="2" t="s">
@@ -1661,8 +1687,10 @@
         <f>[18]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8">
+        <f>J17-150000</f>
+        <v>-214696</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="23.25">
       <c r="A19" s="2" t="s">
@@ -1672,6 +1700,8 @@
         <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="23.25">
       <c r="A20" s="2" t="s">
@@ -1688,7 +1718,13 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>40594</v>
+        <v>0</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="8">
+        <v>15000</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="23.25">
@@ -1699,6 +1735,12 @@
         <f>[22]Sheet1!$E$38</f>
         <v>0</v>
       </c>
+      <c r="I22" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="8">
+        <v>150000</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="23.25">
       <c r="A23" s="2" t="s">
@@ -1708,6 +1750,12 @@
         <f>[23]Sheet1!$E$38</f>
         <v>0</v>
       </c>
+      <c r="I23" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="8">
+        <v>70000</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="23.25">
       <c r="A24" s="2" t="s">
@@ -1718,48 +1766,61 @@
         <v>0</v>
       </c>
       <c r="G24" s="7"/>
+      <c r="J24" s="11">
+        <f>SUM(J21:J23)</f>
+        <v>235000</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="23.25">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" s="9">
+        <f>[25]Sheet1!$E$38</f>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="23.25">
+      <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="9">
         <f>[26]Sheet1!$E$38</f>
-        <v>352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="23.25">
-      <c r="B26" s="1">
-        <f>SUM(B1:B25)</f>
-        <v>604380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="23.25">
       <c r="B27" s="1">
-        <f>[25]Sheet5!$G$1</f>
+        <f>SUM(B1:B26)</f>
+        <v>504611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="23.25">
+      <c r="B28" s="1">
+        <f>[27]Sheet5!$G$1</f>
         <v>1116365</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:10" ht="21">
+      <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="5">
-        <f>B27-B26</f>
-        <v>511985</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="B30" s="5">
+        <f>B28-B27</f>
+        <v>611754</v>
+      </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1774,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1832,7 +1893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
         <v>31</v>
       </c>
@@ -1845,75 +1906,45 @@
       <c r="D34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H34">
-        <v>280034</v>
-      </c>
-      <c r="I34">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="8">
         <v>6985</v>
       </c>
-      <c r="H35">
-        <v>800</v>
-      </c>
-      <c r="I35">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="8">
-        <f>SUM(55000+570+400+10000+5000+15000+10000+500+12000+2000+15000+15000+6000+14868+7350+2000)</f>
-        <v>170688</v>
+        <f>SUM(55000+570+400+10000+5000+15000+10000+500+12000+2000+15000+15000+6000+14868+7350+2000+300)</f>
+        <v>170988</v>
       </c>
       <c r="D36" t="s">
         <v>45</v>
       </c>
-      <c r="H36">
-        <v>600</v>
-      </c>
-      <c r="I36">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="8">
-        <f>8100+500+3360+2900+1328</f>
-        <v>16188</v>
-      </c>
-      <c r="H37">
-        <v>1840</v>
-      </c>
-      <c r="I37">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <f>8100+500+3360+2900+1328+200+500</f>
+        <v>16888</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="8">
         <v>11200</v>
       </c>
-      <c r="H38">
-        <v>1594</v>
-      </c>
-      <c r="I38">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1923,14 +1954,8 @@
       <c r="D39" t="s">
         <v>40</v>
       </c>
-      <c r="H39">
-        <v>210</v>
-      </c>
-      <c r="I39">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1938,196 +1963,70 @@
         <f>7000+5300</f>
         <v>12300</v>
       </c>
-      <c r="H40">
-        <v>1575</v>
-      </c>
-      <c r="I40">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="8">
         <v>700</v>
       </c>
-      <c r="H41">
-        <v>600</v>
-      </c>
-      <c r="I41">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+    </row>
+    <row r="42" spans="1:4">
       <c r="B42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="11">
         <f>SUM(C35:C41)</f>
-        <v>221688</v>
-      </c>
-      <c r="H42">
-        <v>400</v>
-      </c>
-      <c r="I42">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="H43">
-        <v>320</v>
-      </c>
-      <c r="I43">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="H44">
-        <v>395</v>
-      </c>
-      <c r="I44">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="H45">
-        <v>600</v>
-      </c>
-      <c r="I45">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="H46">
-        <v>575</v>
-      </c>
-      <c r="I46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>222688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="C47" t="s">
         <v>44</v>
       </c>
       <c r="D47">
         <f>H67-I67</f>
-        <v>244836</v>
-      </c>
-      <c r="H47">
-        <v>160</v>
-      </c>
-      <c r="I47">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="C48" t="s">
         <v>43</v>
       </c>
       <c r="D48">
         <f>C42</f>
-        <v>221688</v>
-      </c>
-      <c r="H48">
-        <v>90</v>
-      </c>
-      <c r="I48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8">
+        <v>222688</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
       <c r="D49">
         <f>D47-D48</f>
-        <v>23148</v>
-      </c>
-      <c r="H49">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8">
+        <v>-222688</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
       <c r="D50">
         <f>16500+800+600+20+230+5000</f>
         <v>23150</v>
       </c>
-      <c r="H50">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8">
+    </row>
+    <row r="51" spans="3:4">
       <c r="C51" t="s">
         <v>46</v>
       </c>
       <c r="D51" t="s">
         <v>47</v>
-      </c>
-      <c r="H51">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8">
-      <c r="H52">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8">
-      <c r="H53">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="H54">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8">
-      <c r="H55">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8">
-      <c r="H56">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8">
-      <c r="H57">
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8">
-      <c r="H58">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="H59">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8">
-      <c r="H60">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8">
-      <c r="H61">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8">
-      <c r="H62">
-        <v>1010</v>
       </c>
     </row>
     <row r="67" spans="8:9">
       <c r="H67" s="7">
         <f>SUM(H34:H66)</f>
-        <v>304630</v>
+        <v>0</v>
       </c>
       <c r="I67" s="7">
         <f>SUM(I34:I66)</f>
-        <v>59794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="8:9">
@@ -2472,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C45"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2484,7 +2383,153 @@
     <col min="2" max="2" width="40.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>270504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>15009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3010,7 +3055,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -482,7 +482,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>19000</v>
+            <v>14968</v>
           </cell>
         </row>
       </sheetData>
@@ -528,7 +528,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>50000</v>
+            <v>151581</v>
           </cell>
         </row>
       </sheetData>
@@ -597,7 +597,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>29706</v>
+            <v>6</v>
           </cell>
         </row>
       </sheetData>
@@ -620,7 +620,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>38755</v>
+            <v>4950</v>
           </cell>
         </row>
       </sheetData>
@@ -666,7 +666,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>19039</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -735,7 +735,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>13750</v>
           </cell>
         </row>
       </sheetData>
@@ -758,7 +758,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>100412</v>
           </cell>
         </row>
       </sheetData>
@@ -781,7 +781,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>35230</v>
           </cell>
         </row>
       </sheetData>
@@ -928,7 +928,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1116365</v>
+            <v>1130368</v>
           </cell>
         </row>
       </sheetData>
@@ -1002,7 +1002,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>46465</v>
           </cell>
         </row>
       </sheetData>
@@ -1025,7 +1025,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>-1350</v>
+            <v>130896</v>
           </cell>
         </row>
       </sheetData>
@@ -1048,7 +1048,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>22336</v>
           </cell>
         </row>
       </sheetData>
@@ -1071,7 +1071,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>61649</v>
+            <v>34400</v>
           </cell>
         </row>
       </sheetData>
@@ -1094,7 +1094,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>177575</v>
+            <v>108564</v>
           </cell>
         </row>
       </sheetData>
@@ -1393,7 +1393,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B1" s="3">
         <f>[1]Sheet1!$E$38</f>
-        <v>19000</v>
+        <v>14968</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="13"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B2" s="3">
         <f>[2]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="13"/>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B5" s="2">
         <f>[5]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="13"/>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>-1350</v>
+        <v>130896</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="13"/>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>22336</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>2</v>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>61649</v>
+        <v>34400</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="11">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>177575</v>
+        <v>108564</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="11"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="E10">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>384008</v>
+        <v>411554</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1568,11 +1568,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21,B25,B26)</f>
-        <v>52142</v>
+        <v>321199</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1585,6 +1585,10 @@
         <f>41407+23289</f>
         <v>64696</v>
       </c>
+      <c r="N11">
+        <f>321199-50000</f>
+        <v>271199</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="23.25">
       <c r="A12" s="2" t="s">
@@ -1596,7 +1600,7 @@
       </c>
       <c r="E12">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>29706</v>
+        <v>36092</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -1618,7 +1622,7 @@
       </c>
       <c r="E13">
         <f>SUM(B15,B10,B24)</f>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -1630,7 +1634,7 @@
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>29706</v>
+        <v>6</v>
       </c>
       <c r="I14" t="s">
         <v>75</v>
@@ -1646,11 +1650,11 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>504611</v>
+        <v>773795</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
@@ -1672,7 +1676,7 @@
       </c>
       <c r="B17" s="2">
         <f>[17]Sheet1!$E$38</f>
-        <v>19039</v>
+        <v>0</v>
       </c>
       <c r="J17" s="8">
         <f>J8-J11</f>
@@ -1709,7 +1713,7 @@
       </c>
       <c r="B20" s="9">
         <f>[20]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>100412</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="23.25">
@@ -1718,7 +1722,7 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>76</v>
@@ -1792,13 +1796,13 @@
     <row r="27" spans="1:10" ht="23.25">
       <c r="B27" s="1">
         <f>SUM(B1:B26)</f>
-        <v>504611</v>
+        <v>773795</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="23.25">
       <c r="B28" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1116365</v>
+        <v>1130368</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21">
@@ -1807,7 +1811,7 @@
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>611754</v>
+        <v>356573</v>
       </c>
     </row>
     <row r="39" spans="1:2">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="106">
   <si>
     <t>AYUSH</t>
   </si>
@@ -263,9 +263,6 @@
     <t>INTERNET RECHARGE</t>
   </si>
   <si>
-    <t>SHREEJI KEY  CHAIN</t>
-  </si>
-  <si>
     <t>CASH</t>
   </si>
   <si>
@@ -285,13 +282,100 @@
   </si>
   <si>
     <t>TRANSFER</t>
+  </si>
+  <si>
+    <t>TOTAL S TRANSFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOLLO </t>
+  </si>
+  <si>
+    <t>SANJEVNEE</t>
+  </si>
+  <si>
+    <t>VOLINI + TABLET</t>
+  </si>
+  <si>
+    <t>POWDER CASH</t>
+  </si>
+  <si>
+    <t>BY RAKESH</t>
+  </si>
+  <si>
+    <t>GANYARI HOSPITAL</t>
+  </si>
+  <si>
+    <t>APOLLO FILE</t>
+  </si>
+  <si>
+    <t>XRAY</t>
+  </si>
+  <si>
+    <t>BY SAMEER</t>
+  </si>
+  <si>
+    <t>BIKE REPAIR</t>
+  </si>
+  <si>
+    <t>MUNIM VINU</t>
+  </si>
+  <si>
+    <t>RAJA TOLWANI</t>
+  </si>
+  <si>
+    <t>SAMEER MOTWANI</t>
+  </si>
+  <si>
+    <t>SHANAYA HOPITAL</t>
+  </si>
+  <si>
+    <t>WALKIE KA SAMMY</t>
+  </si>
+  <si>
+    <t>HOME EXPENSES</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>RAKESH MOTWANI</t>
+  </si>
+  <si>
+    <t>RAVI RIKSHAW</t>
+  </si>
+  <si>
+    <t>RAJA UNCLE</t>
+  </si>
+  <si>
+    <t>COIN,TYRE, CASH</t>
+  </si>
+  <si>
+    <t>CASH (CASH OF SUNDAY BY SAMMY)</t>
+  </si>
+  <si>
+    <t>RAJA</t>
+  </si>
+  <si>
+    <t>OVER ALL</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HONI CHAYIYE</t>
+  </si>
+  <si>
+    <t>DIFFRENCE</t>
+  </si>
+  <si>
+    <t>GOOD BY RAJA OVERALL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,15 +442,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -396,7 +473,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,7 +506,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -439,17 +515,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -459,11 +539,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -928,7 +1003,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1130368</v>
+            <v>1181248</v>
           </cell>
         </row>
       </sheetData>
@@ -979,7 +1054,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>106745</v>
+            <v>161241</v>
           </cell>
         </row>
       </sheetData>
@@ -1025,7 +1100,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>130896</v>
+            <v>81216</v>
           </cell>
         </row>
       </sheetData>
@@ -1392,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -1452,7 +1527,7 @@
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="24"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="13"/>
       <c r="O3" s="8"/>
     </row>
@@ -1462,7 +1537,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>106745</v>
+        <v>161241</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="13"/>
@@ -1490,7 +1565,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>130896</v>
+        <v>81216</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="13"/>
@@ -1506,7 +1581,7 @@
         <f>[7]Sheet1!$E$38</f>
         <v>22336</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="13"/>
@@ -1520,7 +1595,7 @@
         <f>[8]Sheet1!$E$38</f>
         <v>34400</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="11">
         <f>SUM(J1:J7)</f>
         <v>0</v>
@@ -1534,7 +1609,7 @@
         <f>[9]Sheet1!$E$38</f>
         <v>108564</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:15" ht="23.25">
@@ -1547,14 +1622,14 @@
       </c>
       <c r="E10">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>411554</v>
+        <v>466050</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="13">
         <f>SUM(120000+7400+2400+6800+1800)</f>
@@ -1572,14 +1647,14 @@
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21,B25,B26)</f>
-        <v>321199</v>
+        <v>271519</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="8">
         <f>41407+23289</f>
@@ -1606,7 +1681,7 @@
         <v>21</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="11">
         <f>SUM(J10:J11)</f>
         <v>203096</v>
@@ -1637,7 +1712,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J14" s="8">
         <f>J8-J12</f>
@@ -1654,7 +1729,7 @@
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>773795</v>
+        <v>778611</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
@@ -1724,8 +1799,8 @@
         <f>[21]Sheet1!$E$38</f>
         <v>35230</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>76</v>
+      <c r="I21" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="J21" s="8">
         <v>15000</v>
@@ -1739,8 +1814,8 @@
         <f>[22]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>77</v>
+      <c r="I22" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="J22" s="8">
         <v>150000</v>
@@ -1754,8 +1829,8 @@
         <f>[23]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>74</v>
+      <c r="I23" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="J23" s="8">
         <v>70000</v>
@@ -1777,7 +1852,7 @@
     </row>
     <row r="25" spans="1:10" ht="23.25">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="9">
         <f>[25]Sheet1!$E$38</f>
@@ -1786,7 +1861,7 @@
     </row>
     <row r="26" spans="1:10" ht="23.25">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="9">
         <f>[26]Sheet1!$E$38</f>
@@ -1796,13 +1871,13 @@
     <row r="27" spans="1:10" ht="23.25">
       <c r="B27" s="1">
         <f>SUM(B1:B26)</f>
-        <v>773795</v>
+        <v>778611</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="23.25">
       <c r="B28" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1130368</v>
+        <v>1181248</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21">
@@ -1811,7 +1886,7 @@
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>356573</v>
+        <v>402637</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1837,204 +1912,491 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:I68"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" ht="26.25">
+      <c r="C1" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="8">
+        <v>55000</v>
+      </c>
+      <c r="C2" s="15">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1800</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18"/>
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18"/>
-      <c r="B6" s="22"/>
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="15">
+        <v>44653</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23"/>
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="13">
+        <v>120</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44669</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="18"/>
-      <c r="B8" s="23"/>
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="13">
+        <v>250</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18"/>
-      <c r="B9" s="23"/>
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="13">
+        <v>100</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="18"/>
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1506</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="7"/>
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="13">
+        <v>862</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="H12" s="17"/>
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="13">
+        <v>570</v>
+      </c>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="13">
+        <v>400</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="7"/>
-      <c r="H14" s="16"/>
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C14" s="15">
+        <v>44706</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C15" s="15">
+        <v>44357</v>
+      </c>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="7"/>
-      <c r="H17" t="s">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C16" s="15">
+        <v>44794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="15">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="13">
+        <v>500</v>
+      </c>
+      <c r="C18" s="15">
+        <v>44743</v>
+      </c>
+      <c r="H18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="11" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="13">
+        <v>12000</v>
+      </c>
+      <c r="C19" s="15">
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C21" s="15">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C22" s="15">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C23" s="15">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C24" s="15">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="13">
+        <v>300</v>
+      </c>
+      <c r="C25" s="15">
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C26" s="15">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="13">
+        <v>12000</v>
+      </c>
+      <c r="C27" s="15">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="13">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="13">
+        <v>6838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="7">
+        <f>SUM(B2:B29)</f>
+        <v>199276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="8">
-        <v>6985</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="8">
-        <f>SUM(55000+570+400+10000+5000+15000+10000+500+12000+2000+15000+15000+6000+14868+7350+2000+300)</f>
-        <v>170988</v>
-      </c>
-      <c r="D36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="8">
-        <f>8100+500+3360+2900+1328+200+500</f>
-        <v>16888</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C38" s="8">
-        <v>11200</v>
+        <v>6985</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C39" s="8">
-        <v>3627</v>
+        <f>SUM(55000+570+400+10000+5000+15000+10000+500+12000+2000+15000+15000+6000+16668+7350)</f>
+        <v>170488</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="8">
+        <f>8100+500+3360+2900+1328+200+500+1300</f>
+        <v>18188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="8">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3627</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C43" s="8">
         <f>7000+5300</f>
         <v>12300</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C44" s="8">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="B42" s="4" t="s">
+    <row r="45" spans="1:4">
+      <c r="B45" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="11">
-        <f>SUM(C35:C41)</f>
-        <v>222688</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="C47" t="s">
+      <c r="C45" s="11">
+        <f>SUM(C38:C44)</f>
+        <v>223488</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" t="s">
         <v>44</v>
       </c>
-      <c r="D47">
-        <f>H67-I67</f>
+      <c r="D50">
+        <f>H70-I70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="C48" t="s">
+    <row r="51" spans="3:4">
+      <c r="C51" t="s">
         <v>43</v>
       </c>
-      <c r="D48">
-        <f>C42</f>
-        <v>222688</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="D49">
-        <f>D47-D48</f>
-        <v>-222688</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="D50">
+      <c r="D51">
+        <f>C45</f>
+        <v>223488</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="D52">
+        <f>D50-D51</f>
+        <v>-223488</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="D53">
         <f>16500+800+600+20+230+5000</f>
         <v>23150</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
-      <c r="C51" t="s">
+    <row r="54" spans="3:4">
+      <c r="C54" t="s">
         <v>46</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="8:9">
-      <c r="H67" s="7">
-        <f>SUM(H34:H66)</f>
+    <row r="70" spans="8:9">
+      <c r="H70" s="7">
+        <f>SUM(H37:H69)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="7">
-        <f>SUM(I34:I66)</f>
+      <c r="I70" s="7">
+        <f>SUM(I37:I69)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="8:9">
-      <c r="I68" s="7"/>
+    <row r="71" spans="8:9">
+      <c r="I71" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2044,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2061,11 +2423,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11">
-        <v>8450</v>
-      </c>
+      <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2073,29 +2433,35 @@
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8">
-        <v>36185</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="8">
+        <v>6985</v>
+      </c>
+      <c r="C2" s="15">
+        <v>44828</v>
+      </c>
       <c r="D2" s="15"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8">
-        <v>6600</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="15">
+        <v>44954</v>
+      </c>
       <c r="D3" s="15"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8">
-        <v>2620</v>
-      </c>
+      <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="15"/>
@@ -2103,269 +2469,606 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8">
-        <v>6450</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8">
-        <v>1645</v>
-      </c>
-      <c r="B6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="8">
+        <v>8100</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="15"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8">
-        <v>3180</v>
-      </c>
-      <c r="B7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="8">
+        <v>500</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="8">
-        <f>3076360+30+6046+10000+28788+198+1049+700+475+450+418+445+954+886+1190+190+140+850+330+210+440</f>
-        <v>3130149</v>
-      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8">
-        <v>11070</v>
-      </c>
-      <c r="B8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3360</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="8">
-        <f>950+164+696+1080+2000+6046+10000+28788+198+60+475+1600+50+10+954+886+80+550+500+80+50+440</f>
-        <v>55657</v>
-      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8">
-        <v>11039</v>
-      </c>
-      <c r="B9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2900</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="15"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8">
-        <v>2520</v>
-      </c>
-      <c r="B10" s="8"/>
+      <c r="A10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="8">
+        <v>500</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="8">
-        <f>E7-E8</f>
-        <v>3074492</v>
-      </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8">
-        <v>5943</v>
-      </c>
-      <c r="B11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1328</v>
+      </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8">
-        <v>25282</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="8">
+        <v>500</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8">
-        <v>2625</v>
-      </c>
-      <c r="B13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="8">
+        <v>800</v>
+      </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8">
-        <v>86909</v>
-      </c>
+      <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="8">
+        <f>Sheet3!$B$30</f>
+        <v>199276</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8">
-        <v>40494</v>
-      </c>
-      <c r="B15" s="8"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15">
-        <f>E10+E8</f>
-        <v>3130149</v>
+      <c r="D15" s="15"/>
+      <c r="E15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="8">
+        <f>SUM(B2:B3,B6:B13,B16,B19,B22:B23,B26,B29)</f>
+        <v>56600</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8">
-        <v>38137</v>
-      </c>
-      <c r="B16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="8">
+        <v>11200</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="11">
+        <f>SUM(F14:F15)</f>
+        <v>255876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11">
-        <f>SUM(A1:A17)</f>
-        <v>289149</v>
-      </c>
-      <c r="B19" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="11">
+        <v>256088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3627</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="20">
+        <f>F17-F18</f>
+        <v>-212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="8">
+        <v>7000</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22">
-        <f>306142-236688-200-500-2800-300</f>
-        <v>65654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="8">
+        <v>5300</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23">
-        <f>9000+4900+100</f>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="11"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24">
-        <f>E23-E22</f>
-        <v>-51654</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="8">
+        <v>700</v>
+      </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2800</v>
+      </c>
+      <c r="C29" s="15">
+        <v>44906</v>
+      </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+    <row r="31" spans="1:6">
+      <c r="B31" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="8">
+        <v>55000</v>
+      </c>
+      <c r="C32" s="15">
+        <v>44281</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="8">
+        <v>10000</v>
+      </c>
       <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="A34" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1800</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="8">
+        <v>30</v>
+      </c>
       <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C36" s="15">
+        <v>44653</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="13">
+        <v>120</v>
+      </c>
+      <c r="C37" s="15">
+        <v>44669</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="13">
+        <v>250</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="13">
+        <v>100</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1506</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="13">
+        <v>862</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="13">
+        <v>570</v>
+      </c>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="13">
+        <v>400</v>
+      </c>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C44" s="15">
+        <v>44706</v>
+      </c>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C45" s="15">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C46" s="15">
+        <v>44794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C47" s="15">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="13">
+        <v>500</v>
+      </c>
+      <c r="C48" s="15">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="13">
+        <v>12000</v>
+      </c>
+      <c r="C49" s="15">
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C50" s="15">
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C51" s="15">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C52" s="15">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C53" s="15">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C54" s="15">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="13">
+        <v>300</v>
+      </c>
+      <c r="C55" s="15">
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C56" s="15">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="13">
+        <v>12000</v>
+      </c>
+      <c r="C57" s="15">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="13">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="13">
+        <v>6838</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F10">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="RECIVED">
+  <conditionalFormatting sqref="F1:F15">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NOT YET">
+      <formula>NOT(ISERROR(SEARCH("NOT YET",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="RECIVED">
       <formula>NOT(ISERROR(SEARCH("RECIVED",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NOT YET">
-      <formula>NOT(ISERROR(SEARCH("NOT YET",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2839,18 +3542,18 @@
         <f>SUM(B1:B2)</f>
         <v>8900</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>150</v>
       </c>
     </row>
@@ -2861,10 +3564,10 @@
       <c r="B5">
         <v>4450</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>60</v>
       </c>
     </row>
@@ -2875,10 +3578,10 @@
       <c r="B6">
         <v>4450</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>500</v>
       </c>
     </row>
@@ -2887,18 +3590,18 @@
         <f>SUM(B5:B6)</f>
         <v>8900</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>594</v>
       </c>
     </row>
@@ -2909,10 +3612,10 @@
       <c r="B9" s="7">
         <v>5000</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <f>4450-2000</f>
         <v>2450</v>
       </c>
@@ -2921,8 +3624,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="F10" s="20"/>
-      <c r="G10" s="21">
+      <c r="F10" s="19"/>
+      <c r="G10" s="20">
         <f>SUM(G3:G9)</f>
         <v>4645</v>
       </c>
@@ -2934,8 +3637,8 @@
       <c r="B11">
         <v>2500</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -2944,13 +3647,13 @@
       <c r="B12">
         <v>2500</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="10">
@@ -2958,7 +3661,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>69</v>
       </c>
       <c r="G14" s="10">
@@ -2966,24 +3669,24 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="F15" s="20"/>
-      <c r="G15" s="21">
+      <c r="F15" s="19"/>
+      <c r="G15" s="20">
         <f>SUM(G13:G14)</f>
         <v>4920</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="10">
@@ -2992,58 +3695,58 @@
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="20"/>
-      <c r="G19" s="21">
+      <c r="F19" s="19"/>
+      <c r="G19" s="20">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="19">
         <v>1700</v>
       </c>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="19">
         <v>245</v>
       </c>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="20"/>
-      <c r="G23" s="21">
+      <c r="F23" s="19"/>
+      <c r="G23" s="20">
         <f>SUM(G21:G22)</f>
         <v>1945</v>
       </c>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="6:7">
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="6:7">
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="6:7">
-      <c r="G28" s="21">
+      <c r="G28" s="20">
         <f>G10+G15+G19+G23</f>
         <v>12110</v>
       </c>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,12 +557,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>14968</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -603,7 +603,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>151581</v>
+            <v>98106</v>
           </cell>
         </row>
       </sheetData>
@@ -676,8 +676,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1467,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B1" s="3">
         <f>[1]Sheet1!$E$38</f>
-        <v>14968</v>
+        <v>0</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="13"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="E10">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>466050</v>
+        <v>451082</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1643,11 +1643,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21,B25,B26)</f>
-        <v>271519</v>
+        <v>218044</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1659,10 +1659,6 @@
       <c r="J11" s="8">
         <f>41407+23289</f>
         <v>64696</v>
-      </c>
-      <c r="N11">
-        <f>321199-50000</f>
-        <v>271199</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="23.25">
@@ -1729,7 +1725,7 @@
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>778611</v>
+        <v>710168</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
@@ -1871,7 +1867,7 @@
     <row r="27" spans="1:10" ht="23.25">
       <c r="B27" s="1">
         <f>SUM(B1:B26)</f>
-        <v>778611</v>
+        <v>710168</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="23.25">
@@ -1886,7 +1882,7 @@
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>402637</v>
+        <v>471080</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2408,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,8 +561,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -603,7 +603,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>98106</v>
+            <v>139388</v>
           </cell>
         </row>
       </sheetData>
@@ -676,8 +676,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1003,7 +1003,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1181248</v>
+            <v>1167855</v>
           </cell>
         </row>
       </sheetData>
@@ -1054,7 +1054,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>161241</v>
+            <v>112241</v>
           </cell>
         </row>
       </sheetData>
@@ -1146,7 +1146,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>34400</v>
+            <v>26900</v>
           </cell>
         </row>
       </sheetData>
@@ -1467,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>161241</v>
+        <v>112241</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="13"/>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>34400</v>
+        <v>26900</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="11">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="E10">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>451082</v>
+        <v>394582</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1643,11 +1643,11 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21,B25,B26)</f>
-        <v>218044</v>
+        <v>259326</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>710168</v>
+        <v>694950</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
@@ -1867,13 +1867,13 @@
     <row r="27" spans="1:10" ht="23.25">
       <c r="B27" s="1">
         <f>SUM(B1:B26)</f>
-        <v>710168</v>
+        <v>694950</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="23.25">
       <c r="B28" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1181248</v>
+        <v>1167855</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>471080</v>
+        <v>472905</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2402,10 +2402,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2443,15 +2443,9 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="15">
-        <v>44954</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2571,251 +2565,249 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="8">
+        <v>150</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="8">
-        <f>Sheet3!$B$30</f>
-        <v>199276</v>
-      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8"/>
-      <c r="B15" s="11" t="s">
-        <v>95</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="15"/>
       <c r="E15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="8">
+        <f>Sheet3!$B$30</f>
+        <v>199276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="8">
-        <f>SUM(B2:B3,B6:B13,B16,B19,B22:B23,B26,B29)</f>
-        <v>56600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="F16" s="8">
+        <f>SUM(B2:B3,B6:B13,B17,B20,B23:B24,B27,B30)</f>
+        <v>55600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="8">
         <v>11200</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="11">
-        <f>SUM(F14:F15)</f>
-        <v>255876</v>
-      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="11">
+        <f>SUM(F15:F16)</f>
+        <v>254876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="11">
-        <v>256088</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="8">
-        <v>3627</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="11">
+        <v>256088</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3627</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="20">
-        <f>F17-F18</f>
-        <v>-212</v>
-      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
-      <c r="B21" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="20">
+        <f>F18-F19</f>
+        <v>-1212</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="8">
-        <v>7000</v>
+      <c r="A22" s="8"/>
+      <c r="B22" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="8"/>
+      <c r="A23" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="B23" s="8">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8">
+        <v>5300</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="8"/>
-      <c r="B25" s="11" t="s">
-        <v>96</v>
-      </c>
+      <c r="A25" s="11"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="8">
-        <v>700</v>
+      <c r="A26" s="8"/>
+      <c r="B26" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="8">
+        <v>700</v>
+      </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8"/>
-      <c r="B28" s="11" t="s">
-        <v>97</v>
-      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B30" s="8">
         <v>2800</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C30" s="15">
         <v>44906</v>
       </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="7" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="8">
-        <v>55000</v>
-      </c>
-      <c r="C32" s="15">
-        <v>44281</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="8">
+        <v>55000</v>
+      </c>
+      <c r="C33" s="15">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B34" s="8">
         <v>10000</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="13">
-        <v>1800</v>
-      </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="8"/>
       <c r="D34" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="8">
-        <v>30</v>
-      </c>
-      <c r="C35" s="8"/>
+      <c r="A35" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1800</v>
+      </c>
+      <c r="C35" s="13"/>
       <c r="D35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B36" s="8">
-        <v>2000</v>
-      </c>
-      <c r="C36" s="15">
-        <v>44653</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="13">
-        <v>120</v>
+        <v>70</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2000</v>
       </c>
       <c r="C37" s="15">
-        <v>44669</v>
+        <v>44653</v>
       </c>
       <c r="D37" t="s">
         <v>82</v>
@@ -2823,22 +2815,24 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="13">
-        <v>250</v>
-      </c>
-      <c r="C38" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="C38" s="15">
+        <v>44669</v>
+      </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="13">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" t="s">
@@ -2847,10 +2841,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="13">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" t="s">
@@ -2862,7 +2856,7 @@
         <v>85</v>
       </c>
       <c r="B41" s="13">
-        <v>862</v>
+        <v>1506</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" t="s">
@@ -2871,19 +2865,22 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" s="13">
-        <v>570</v>
+        <v>862</v>
       </c>
       <c r="C42" s="8"/>
+      <c r="D42" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B43" s="13">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="C43" s="8"/>
     </row>
@@ -2892,33 +2889,31 @@
         <v>70</v>
       </c>
       <c r="B44" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C44" s="15">
-        <v>44706</v>
-      </c>
-      <c r="D44" s="7"/>
+        <v>400</v>
+      </c>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="13">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C45" s="15">
-        <v>44357</v>
-      </c>
+        <v>44706</v>
+      </c>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="13">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="C46" s="15">
-        <v>44794</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2926,54 +2921,54 @@
         <v>70</v>
       </c>
       <c r="B47" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C47" s="15">
+        <v>44794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="13">
         <v>10000</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C48" s="15">
         <v>44735</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="13">
+    <row r="49" spans="1:3">
+      <c r="A49" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="13">
         <v>500</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C49" s="15">
         <v>44743</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="13">
-        <v>12000</v>
-      </c>
-      <c r="C49" s="15">
-        <v>44767</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B50" s="13">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="C50" s="15">
-        <v>44814</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B51" s="13">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="C51" s="15">
-        <v>44827</v>
+        <v>44814</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2984,7 +2979,7 @@
         <v>15000</v>
       </c>
       <c r="C52" s="15">
-        <v>44855</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2992,10 +2987,10 @@
         <v>70</v>
       </c>
       <c r="B53" s="13">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="C53" s="15">
-        <v>44916</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3003,10 +2998,10 @@
         <v>70</v>
       </c>
       <c r="B54" s="13">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="C54" s="15">
-        <v>44921</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3014,10 +3009,10 @@
         <v>70</v>
       </c>
       <c r="B55" s="13">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="C55" s="15">
-        <v>44925</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3025,10 +3020,10 @@
         <v>70</v>
       </c>
       <c r="B56" s="13">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="C56" s="15">
-        <v>44938</v>
+        <v>44925</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3036,30 +3031,41 @@
         <v>70</v>
       </c>
       <c r="B57" s="13">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="C57" s="15">
-        <v>44585</v>
+        <v>44938</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B58" s="13">
-        <v>6000</v>
+        <v>12000</v>
+      </c>
+      <c r="C58" s="15">
+        <v>44585</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="13">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B60" s="13">
         <v>6838</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F15">
+  <conditionalFormatting sqref="F1:F16">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NOT YET">
       <formula>NOT(ISERROR(SEARCH("NOT YET",F1)))</formula>
     </cfRule>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -998,22 +998,22 @@
       <sheetName val="Sheet10"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1167855</v>
+            <v>1167509</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1100,12 +1100,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>81216</v>
+            <v>43258</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="13"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21,B25,B26)</f>
-        <v>259326</v>
+        <v>221368</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>694950</v>
+        <v>656992</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
@@ -1867,13 +1867,13 @@
     <row r="27" spans="1:10" ht="23.25">
       <c r="B27" s="1">
         <f>SUM(B1:B26)</f>
-        <v>694950</v>
+        <v>656992</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="23.25">
       <c r="B28" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1167855</v>
+        <v>1167509</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>472905</v>
+        <v>510517</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2404,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
   <si>
     <t>AYUSH</t>
   </si>
@@ -272,18 +272,6 @@
     <t>NISAR STATIONARY</t>
   </si>
   <si>
-    <t>A/C</t>
-  </si>
-  <si>
-    <t>CASH WE NEED FOR MUMBAI AFTER EVERYTHING</t>
-  </si>
-  <si>
-    <t>SELF</t>
-  </si>
-  <si>
-    <t>TRANSFER</t>
-  </si>
-  <si>
     <t>TOTAL S TRANSFER</t>
   </si>
   <si>
@@ -359,16 +347,73 @@
     <t>OVER ALL</t>
   </si>
   <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HONI CHAYIYE</t>
-  </si>
-  <si>
-    <t>DIFFRENCE</t>
-  </si>
-  <si>
     <t>GOOD BY RAJA OVERALL</t>
+  </si>
+  <si>
+    <t>TOY VILLA</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>APROX</t>
+  </si>
+  <si>
+    <t>TOTAL LENA HAI</t>
+  </si>
+  <si>
+    <t>TOTAL HISAB HONE KE BAAD</t>
+  </si>
+  <si>
+    <t>AB TOTAL LENA HAI</t>
+  </si>
+  <si>
+    <t>novice</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>TRANSFERR</t>
+  </si>
+  <si>
+    <t>TRANSFER TO MUMBAI</t>
+  </si>
+  <si>
+    <t>GULABI SAFA</t>
+  </si>
+  <si>
+    <t>BABALJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)BADSHAH TOYS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2)A2Z TOYS (TUB+TFT) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3)TOY KINGDOM </t>
+  </si>
+  <si>
+    <t>4)TOY MALL</t>
+  </si>
+  <si>
+    <t>5)TOY GALLERY</t>
+  </si>
+  <si>
+    <t>6)JUGNU</t>
+  </si>
+  <si>
+    <t>7)TOY VILLA</t>
+  </si>
+  <si>
+    <t>8)NISAR TOYS</t>
+  </si>
+  <si>
+    <t>9)NISAR STATIONARY</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -473,7 +518,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -507,9 +552,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,6 +561,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -603,7 +649,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>139388</v>
+            <v>69728</v>
           </cell>
         </row>
       </sheetData>
@@ -833,7 +879,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>100412</v>
+            <v>66912</v>
           </cell>
         </row>
       </sheetData>
@@ -998,22 +1044,22 @@
       <sheetName val="Sheet10"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1167509</v>
+            <v>1146475</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1100,12 +1146,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>43258</v>
+            <v>5300</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1123,7 +1169,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>22336</v>
+            <v>107294</v>
           </cell>
         </row>
       </sheetData>
@@ -1467,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1495,8 +1541,13 @@
         <f>[1]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="13"/>
+      <c r="I1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="13">
+        <f>B11-50000</f>
+        <v>19728</v>
+      </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="14"/>
@@ -1509,8 +1560,13 @@
         <f>[2]Sheet1!$E$38</f>
         <v>13750</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="13">
+        <f>B6</f>
+        <v>5300</v>
+      </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="14"/>
@@ -1525,9 +1581,14 @@
         <f>[3]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="21"/>
+      <c r="I3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="13">
+        <f>B21</f>
+        <v>35230</v>
+      </c>
+      <c r="K3" s="20"/>
       <c r="L3" s="13"/>
       <c r="O3" s="8"/>
     </row>
@@ -1539,8 +1600,12 @@
         <f>[4]Sheet1!$E$38</f>
         <v>112241</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="13">
+        <v>150000</v>
+      </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="O4" s="8"/>
@@ -1553,8 +1618,13 @@
         <f>[5]Sheet1!$E$38</f>
         <v>46465</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="13">
+        <f>B25</f>
+        <v>349</v>
+      </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="O5" s="8"/>
@@ -1565,7 +1635,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="13"/>
@@ -1579,12 +1649,13 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>22336</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="13"/>
+        <v>107294</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="11">
+        <f>SUM(J1:J6)</f>
+        <v>210607</v>
+      </c>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="23.25">
@@ -1595,11 +1666,8 @@
         <f>[8]Sheet1!$E$38</f>
         <v>26900</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="11">
-        <f>SUM(J1:J7)</f>
-        <v>0</v>
-      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:15" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -1609,8 +1677,12 @@
         <f>[9]Sheet1!$E$38</f>
         <v>108564</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="13">
+        <v>152000</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="23.25">
       <c r="A10" s="2" t="s">
@@ -1622,19 +1694,14 @@
       </c>
       <c r="E10">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>394582</v>
+        <v>361082</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="13">
-        <f>SUM(120000+7400+2400+6800+1800)</f>
-        <v>138400</v>
-      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="11"/>
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="23.25">
@@ -1643,22 +1710,21 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21,B25,B26)</f>
-        <v>221368</v>
+        <v>113750</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="8">
-        <f>41407+23289</f>
-        <v>64696</v>
+      <c r="I11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="11">
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="23.25">
@@ -1671,16 +1737,16 @@
       </c>
       <c r="E12">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>36092</v>
+        <v>121050</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="11">
-        <f>SUM(J10:J11)</f>
-        <v>203096</v>
+        <f>SUM(J9,J11)</f>
+        <v>162000</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="23.25">
@@ -1698,6 +1764,8 @@
       <c r="F13" t="s">
         <v>23</v>
       </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="23.25">
       <c r="A14" s="2" t="s">
@@ -1707,13 +1775,7 @@
         <f>[14]Sheet1!$E$38</f>
         <v>6</v>
       </c>
-      <c r="I14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="8">
-        <f>J8-J12</f>
-        <v>-203096</v>
-      </c>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:15" ht="23.25">
       <c r="A15" s="2" t="s">
@@ -1725,10 +1787,17 @@
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>656992</v>
+        <v>600832</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="J15">
+        <f>J12-J7</f>
+        <v>-48607</v>
+      </c>
+      <c r="N15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="23.25">
@@ -1741,7 +1810,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="23.25">
+    <row r="17" spans="1:14" ht="23.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1749,12 +1818,11 @@
         <f>[17]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="J17" s="8">
-        <f>J8-J11</f>
-        <v>-64696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="23.25">
+      <c r="N17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1762,12 +1830,9 @@
         <f>[18]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="J18" s="8">
-        <f>J17-150000</f>
-        <v>-214696</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="23.25">
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1775,19 +1840,23 @@
         <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" ht="23.25">
+      <c r="J19" s="8"/>
+      <c r="N19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="23.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="9">
         <f>[20]Sheet1!$E$38</f>
-        <v>100412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="23.25">
+        <v>66912</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="23.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1795,14 +1864,17 @@
         <f>[21]Sheet1!$E$38</f>
         <v>35230</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="8">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="23.25">
+      <c r="I21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="11">
+        <v>10000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="23.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1810,14 +1882,14 @@
         <f>[22]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I22" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="8">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="23.25">
+      <c r="I22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="11">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="23.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1825,14 +1897,13 @@
         <f>[23]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="8">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="23.25">
+      <c r="I23" s="4"/>
+      <c r="J23" s="11"/>
+      <c r="N23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1841,12 +1912,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="7"/>
+      <c r="I24" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="J24" s="11">
         <f>SUM(J21:J23)</f>
-        <v>235000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="23.25">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="23.25">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -1854,8 +1928,12 @@
         <f>[25]Sheet1!$E$38</f>
         <v>349</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="23.25">
+      <c r="J25" s="8"/>
+      <c r="N25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="23.25">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -1863,37 +1941,72 @@
         <f>[26]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="23.25">
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" ht="23.25">
       <c r="B27" s="1">
         <f>SUM(B1:B26)</f>
-        <v>656992</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="23.25">
+        <v>600832</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="23.25">
       <c r="B28" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1167509</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="21">
+        <v>1146475</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="7">
+        <v>22300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="J29" t="e">
+        <f>J27:J28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="21">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>510517</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>545643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="N31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="N33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:14">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:14">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
     </row>
@@ -1908,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1925,13 +2038,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25">
-      <c r="C1" s="22" t="s">
-        <v>89</v>
+      <c r="C1" s="21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" s="8">
         <v>55000</v>
@@ -1942,38 +2055,38 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8">
         <v>10000</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="13">
         <v>1800</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="8">
         <v>30</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1987,12 +2100,12 @@
         <v>44653</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7" s="13">
         <v>120</v>
@@ -2001,60 +2114,60 @@
         <v>44669</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B8" s="13">
         <v>250</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B9" s="13">
         <v>100</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B10" s="13">
         <v>1506</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="13">
         <v>862</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="13">
         <v>570</v>
@@ -2144,7 +2257,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B20" s="13">
         <v>2000</v>
@@ -2180,10 +2293,13 @@
         <v>70</v>
       </c>
       <c r="B23" s="13">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C23" s="15">
-        <v>44916</v>
+        <v>44875</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2191,10 +2307,13 @@
         <v>70</v>
       </c>
       <c r="B24" s="13">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="C24" s="15">
-        <v>44921</v>
+        <v>44885</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2202,10 +2321,10 @@
         <v>70</v>
       </c>
       <c r="B25" s="13">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="C25" s="15">
-        <v>44925</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2213,10 +2332,10 @@
         <v>70</v>
       </c>
       <c r="B26" s="13">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="C26" s="15">
-        <v>44938</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2224,175 +2343,200 @@
         <v>70</v>
       </c>
       <c r="B27" s="13">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="C27" s="15">
-        <v>44585</v>
+        <v>44925</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B28" s="13">
-        <v>6000</v>
+        <v>2000</v>
+      </c>
+      <c r="C28" s="15">
+        <v>44938</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B29" s="13">
+        <v>12000</v>
+      </c>
+      <c r="C29" s="15">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="13">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="13">
         <v>6838</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="7">
-        <f>SUM(B2:B29)</f>
-        <v>199276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="12"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
+    <row r="32" spans="1:8">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" s="7">
+        <f>SUM(B2:B31)</f>
+        <v>214276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D40" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C41" s="8">
         <v>6985</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C42" s="8">
         <f>SUM(55000+570+400+10000+5000+15000+10000+500+12000+2000+15000+15000+6000+16668+7350)</f>
         <v>170488</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C43" s="8">
         <f>8100+500+3360+2900+1328+200+500+1300</f>
         <v>18188</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C44" s="8">
         <v>11200</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C45" s="8">
         <v>3627</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C46" s="8">
         <f>7000+5300</f>
         <v>12300</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C47" s="8">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="B45" s="4" t="s">
+    <row r="48" spans="1:4">
+      <c r="B48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="11">
-        <f>SUM(C38:C44)</f>
+      <c r="C48" s="11">
+        <f>SUM(C41:C47)</f>
         <v>223488</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
-      <c r="C50" t="s">
+    <row r="53" spans="3:4">
+      <c r="C53" t="s">
         <v>44</v>
       </c>
-      <c r="D50">
-        <f>H70-I70</f>
+      <c r="D53">
+        <f>H73-I73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
-      <c r="C51" t="s">
+    <row r="54" spans="3:4">
+      <c r="C54" t="s">
         <v>43</v>
       </c>
-      <c r="D51">
-        <f>C45</f>
+      <c r="D54">
+        <f>C48</f>
         <v>223488</v>
       </c>
     </row>
-    <row r="52" spans="3:4">
-      <c r="D52">
-        <f>D50-D51</f>
+    <row r="55" spans="3:4">
+      <c r="D55">
+        <f>D53-D54</f>
         <v>-223488</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
-      <c r="D53">
+    <row r="56" spans="3:4">
+      <c r="D56">
         <f>16500+800+600+20+230+5000</f>
         <v>23150</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
-      <c r="C54" t="s">
+    <row r="57" spans="3:4">
+      <c r="C57" t="s">
         <v>46</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="8:9">
-      <c r="H70" s="7">
-        <f>SUM(H37:H69)</f>
+    <row r="73" spans="8:9">
+      <c r="H73" s="7">
+        <f>SUM(H40:H72)</f>
         <v>0</v>
       </c>
-      <c r="I70" s="7">
-        <f>SUM(I37:I69)</f>
+      <c r="I73" s="7">
+        <f>SUM(I40:I72)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="8:9">
-      <c r="I71" s="7"/>
+    <row r="74" spans="8:9">
+      <c r="I74" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2402,15 +2546,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -2461,7 +2605,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15"/>
@@ -2518,7 +2662,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10" s="8">
         <v>500</v>
@@ -2582,26 +2726,26 @@
       <c r="C15" s="8"/>
       <c r="D15" s="15"/>
       <c r="E15" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F15" s="8">
-        <f>Sheet3!$B$30</f>
-        <v>199276</v>
+        <f>B66</f>
+        <v>28320</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="15"/>
       <c r="E16" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F16" s="8">
-        <f>SUM(B2:B3,B6:B13,B17,B20,B23:B24,B27,B30)</f>
-        <v>55600</v>
+        <f>SUM(B2:B3,B6:B13,B17,B20,B14,B23:B24,B27,B30)</f>
+        <v>55750</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2620,31 +2764,25 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="E18" s="8"/>
       <c r="F18" s="11">
         <f>SUM(F15:F16)</f>
-        <v>254876</v>
+        <v>84070</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="11">
-        <v>256088</v>
-      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B20" s="8">
         <v>3627</v>
@@ -2657,25 +2795,19 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="20">
-        <f>F18-F19</f>
-        <v>-1212</v>
-      </c>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B23" s="8">
         <v>7000</v>
@@ -2700,7 +2832,7 @@
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2724,14 +2856,14 @@
     <row r="29" spans="1:6">
       <c r="A29" s="8"/>
       <c r="B29" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B30" s="8">
         <v>2800</v>
@@ -2749,319 +2881,393 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="A33" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="13">
         <v>55000</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="22">
         <v>44281</v>
       </c>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="A34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" s="8">
-        <v>10000</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B35" s="13">
         <v>1800</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" t="s">
-        <v>82</v>
+      <c r="D35" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="8">
+      <c r="A36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="13">
         <v>30</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" t="s">
-        <v>82</v>
+      <c r="C36" s="13"/>
+      <c r="D36" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="8">
+      <c r="A37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="13">
         <v>2000</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="22">
         <v>44653</v>
       </c>
-      <c r="D37" t="s">
-        <v>82</v>
+      <c r="D37" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>81</v>
+      <c r="A38" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="B38" s="13">
         <v>120</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="22">
         <v>44669</v>
       </c>
-      <c r="D38" t="s">
-        <v>82</v>
+      <c r="D38" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>83</v>
+      <c r="A39" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="B39" s="13">
         <v>250</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" t="s">
-        <v>86</v>
+      <c r="C39" s="13"/>
+      <c r="D39" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>84</v>
+      <c r="A40" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="B40" s="13">
         <v>100</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" t="s">
-        <v>86</v>
+      <c r="C40" s="13"/>
+      <c r="D40" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>85</v>
+      <c r="A41" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="B41" s="13">
         <v>1506</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" t="s">
-        <v>86</v>
+      <c r="C41" s="13"/>
+      <c r="D41" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>85</v>
+      <c r="A42" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="B42" s="13">
         <v>862</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" t="s">
-        <v>86</v>
+      <c r="C42" s="13"/>
+      <c r="D42" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>87</v>
+      <c r="A43" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B43" s="13">
         <v>570</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="A44" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B44" s="13">
         <v>400</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="A45" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="13">
         <v>10000</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="22">
         <v>44706</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="A46" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="13">
         <v>5000</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="22">
         <v>44357</v>
       </c>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="A47" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="13">
         <v>15000</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="22">
         <v>44794</v>
       </c>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="A48" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B48" s="13">
         <v>10000</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="22">
         <v>44735</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="14" t="s">
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="13">
         <v>500</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="22">
         <v>44743</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B50" s="13">
         <v>12000</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="22">
         <v>44767</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>88</v>
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="B51" s="13">
         <v>2000</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="22">
         <v>44814</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B52" s="13">
         <v>15000</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="22">
         <v>44827</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B53" s="13">
         <v>15000</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="22">
         <v>44855</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B54" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C54" s="22">
+        <v>44875</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="13">
         <v>5000</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C55" s="22">
+        <v>44885</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C56" s="22">
         <v>44916</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="13">
+      <c r="D56" s="12"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="13">
         <v>10000</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C57" s="22">
         <v>44921</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="13">
+      <c r="D57" s="12"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="13">
         <v>300</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C58" s="22">
         <v>44925</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="13">
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="13">
         <v>2000</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C59" s="22">
         <v>44938</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="13">
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="13">
         <v>12000</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C60" s="22">
         <v>44585</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="13">
+        <v>6000</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="13">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="13">
+      <c r="B62" s="13">
         <v>6838</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="11">
+        <f>SUM(B33:B62)</f>
+        <v>214276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="13">
+        <v>185956</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="11">
+        <f>B64-B65</f>
+        <v>28320</v>
       </c>
     </row>
   </sheetData>
@@ -3544,18 +3750,18 @@
         <f>SUM(B1:B2)</f>
         <v>8900</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>150</v>
       </c>
     </row>
@@ -3566,10 +3772,10 @@
       <c r="B5">
         <v>4450</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>60</v>
       </c>
     </row>
@@ -3580,10 +3786,10 @@
       <c r="B6">
         <v>4450</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>500</v>
       </c>
     </row>
@@ -3592,18 +3798,18 @@
         <f>SUM(B5:B6)</f>
         <v>8900</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>594</v>
       </c>
     </row>
@@ -3614,10 +3820,10 @@
       <c r="B9" s="7">
         <v>5000</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <f>4450-2000</f>
         <v>2450</v>
       </c>
@@ -3626,8 +3832,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="F10" s="19"/>
-      <c r="G10" s="20">
+      <c r="F10" s="18"/>
+      <c r="G10" s="19">
         <f>SUM(G3:G9)</f>
         <v>4645</v>
       </c>
@@ -3639,8 +3845,8 @@
       <c r="B11">
         <v>2500</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -3649,13 +3855,13 @@
       <c r="B12">
         <v>2500</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="10">
@@ -3663,7 +3869,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>69</v>
       </c>
       <c r="G14" s="10">
@@ -3671,24 +3877,24 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="F15" s="19"/>
-      <c r="G15" s="20">
+      <c r="F15" s="18"/>
+      <c r="G15" s="19">
         <f>SUM(G13:G14)</f>
         <v>4920</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="10">
@@ -3697,58 +3903,58 @@
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="19"/>
-      <c r="G19" s="20">
+      <c r="F19" s="18"/>
+      <c r="G19" s="19">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <v>1700</v>
       </c>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <v>245</v>
       </c>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="19"/>
-      <c r="G23" s="20">
+      <c r="F23" s="18"/>
+      <c r="G23" s="19">
         <f>SUM(G21:G22)</f>
         <v>1945</v>
       </c>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="6:7">
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="6:7">
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="6:7">
-      <c r="G28" s="20">
+      <c r="G28" s="19">
         <f>G10+G15+G19+G23</f>
         <v>12110</v>
       </c>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -1049,7 +1049,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1146475</v>
+            <v>1209568</v>
           </cell>
         </row>
       </sheetData>
@@ -1513,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15:N32"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1961,7 +1961,7 @@
     <row r="28" spans="1:14" ht="23.25">
       <c r="B28" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1146475</v>
+        <v>1209568</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>109</v>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>545643</v>
+        <v>608736</v>
       </c>
     </row>
     <row r="31" spans="1:14">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
   <si>
     <t>AYUSH</t>
   </si>
@@ -350,12 +350,6 @@
     <t>GOOD BY RAJA OVERALL</t>
   </si>
   <si>
-    <t>TOY VILLA</t>
-  </si>
-  <si>
-    <t>SBI</t>
-  </si>
-  <si>
     <t>APROX</t>
   </si>
   <si>
@@ -368,52 +362,7 @@
     <t>AB TOTAL LENA HAI</t>
   </si>
   <si>
-    <t>novice</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>TRANSFERR</t>
-  </si>
-  <si>
-    <t>TRANSFER TO MUMBAI</t>
-  </si>
-  <si>
-    <t>GULABI SAFA</t>
-  </si>
-  <si>
-    <t>BABALJI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)BADSHAH TOYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2)A2Z TOYS (TUB+TFT) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3)TOY KINGDOM </t>
-  </si>
-  <si>
-    <t>4)TOY MALL</t>
-  </si>
-  <si>
-    <t>5)TOY GALLERY</t>
-  </si>
-  <si>
-    <t>6)JUGNU</t>
-  </si>
-  <si>
-    <t>7)TOY VILLA</t>
-  </si>
-  <si>
-    <t>8)NISAR TOYS</t>
-  </si>
-  <si>
-    <t>9)NISAR STATIONARY</t>
-  </si>
-  <si>
-    <t>P</t>
+    <t>cash</t>
   </si>
 </sst>
 </file>
@@ -649,7 +598,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>69728</v>
+            <v>60230</v>
           </cell>
         </row>
       </sheetData>
@@ -879,7 +828,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>66912</v>
+            <v>46912</v>
           </cell>
         </row>
       </sheetData>
@@ -902,7 +851,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>35230</v>
+            <v>88488</v>
           </cell>
         </row>
       </sheetData>
@@ -1146,7 +1095,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>5300</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1169,7 +1118,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>107294</v>
+            <v>82294</v>
           </cell>
         </row>
       </sheetData>
@@ -1514,7 +1463,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J7"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1541,15 +1490,12 @@
         <f>[1]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="13">
-        <f>B11-50000</f>
-        <v>19728</v>
-      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="L1" s="13">
+        <v>45788</v>
+      </c>
       <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:15" ht="23.25">
@@ -1560,15 +1506,11 @@
         <f>[2]Sheet1!$E$38</f>
         <v>13750</v>
       </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="13">
-        <f>B6</f>
-        <v>5300</v>
-      </c>
+      <c r="J2" s="13"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="L2" s="11">
+        <v>36650</v>
+      </c>
       <c r="M2" s="14"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
@@ -1581,15 +1523,12 @@
         <f>[3]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="13">
-        <f>B21</f>
-        <v>35230</v>
-      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="13"/>
+      <c r="L3" s="13">
+        <v>3890</v>
+      </c>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="23.25">
@@ -1600,14 +1539,12 @@
         <f>[4]Sheet1!$E$38</f>
         <v>112241</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="13">
-        <v>150000</v>
-      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="L4" s="13">
+        <v>5690</v>
+      </c>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="23.25">
@@ -1618,15 +1555,12 @@
         <f>[5]Sheet1!$E$38</f>
         <v>46465</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="13">
-        <f>B25</f>
-        <v>349</v>
-      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="L5" s="13">
+        <v>10000</v>
+      </c>
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="23.25">
@@ -1635,12 +1569,14 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="11"/>
+      <c r="L6" s="11">
+        <v>8560</v>
+      </c>
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="23.25">
@@ -1649,14 +1585,14 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>107294</v>
+        <v>82294</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="11">
-        <f>SUM(J1:J6)</f>
-        <v>210607</v>
-      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="11"/>
+      <c r="L7" s="13">
+        <v>4085</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="23.25">
       <c r="A8" s="2" t="s">
@@ -1668,6 +1604,9 @@
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="11"/>
+      <c r="L8" s="13">
+        <v>12460</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -1677,11 +1616,10 @@
         <f>[9]Sheet1!$E$38</f>
         <v>108564</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="13">
-        <v>152000</v>
+      <c r="I9" s="19"/>
+      <c r="J9" s="13"/>
+      <c r="L9" s="13">
+        <v>7730</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="23.25">
@@ -1694,7 +1632,7 @@
       </c>
       <c r="E10">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>361082</v>
+        <v>341082</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1702,6 +1640,9 @@
       <c r="H10" s="7"/>
       <c r="I10" s="19"/>
       <c r="J10" s="11"/>
+      <c r="L10" s="13">
+        <v>8480</v>
+      </c>
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="23.25">
@@ -1710,21 +1651,20 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="E11">
         <f>SUM(B6,B12,B11,B21,B25,B26)</f>
-        <v>113750</v>
+        <v>152210</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="11">
-        <v>10000</v>
+      <c r="I11" s="18"/>
+      <c r="J11" s="11"/>
+      <c r="L11" s="13">
+        <v>10690</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="23.25">
@@ -1737,16 +1677,16 @@
       </c>
       <c r="E12">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>121050</v>
+        <v>96050</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="11">
-        <f>SUM(J9,J11)</f>
-        <v>162000</v>
+      <c r="J12" s="11"/>
+      <c r="L12" s="13">
+        <v>12220</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="23.25">
@@ -1766,6 +1706,9 @@
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="8"/>
+      <c r="L13" s="13">
+        <v>7894</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="23.25">
       <c r="A14" s="2" t="s">
@@ -1776,6 +1719,9 @@
         <v>6</v>
       </c>
       <c r="J14" s="11"/>
+      <c r="L14" s="13">
+        <v>88488</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="23.25">
       <c r="A15" s="2" t="s">
@@ -1787,17 +1733,13 @@
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>600832</v>
+        <v>594292</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J15">
-        <f>J12-J7</f>
-        <v>-48607</v>
-      </c>
-      <c r="N15" t="s">
-        <v>120</v>
+      <c r="L15" s="13">
+        <v>74145</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="23.25">
@@ -1809,8 +1751,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" ht="23.25">
+      <c r="L16" s="13">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="23.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1818,11 +1763,11 @@
         <f>[17]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="N17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="23.25">
+      <c r="L17" s="13">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1832,7 +1777,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="23.25">
+    <row r="19" spans="1:12" ht="23.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1841,40 +1786,30 @@
         <v>0</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="N19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="23.25">
+    </row>
+    <row r="20" spans="1:12" ht="23.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="9">
         <f>[20]Sheet1!$E$38</f>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="23.25">
+    <row r="21" spans="1:12" ht="23.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>35230</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="11">
-        <v>10000</v>
-      </c>
-      <c r="N21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="23.25">
+        <v>88488</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="23.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1882,14 +1817,10 @@
         <f>[22]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J22" s="11">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="23.25">
+      <c r="I22" s="4"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="23.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1899,11 +1830,8 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="11"/>
-      <c r="N23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="23.25">
+    </row>
+    <row r="24" spans="1:12" ht="23.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1912,15 +1840,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="I24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J24" s="11">
-        <f>SUM(J21:J23)</f>
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="23.25">
+      <c r="I24" s="4"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="23.25">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -1929,11 +1852,8 @@
         <v>349</v>
       </c>
       <c r="J25" s="8"/>
-      <c r="N25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="23.25">
+    </row>
+    <row r="26" spans="1:12" ht="23.25">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -1943,70 +1863,40 @@
       </c>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="23.25">
+    <row r="27" spans="1:12" ht="23.25">
       <c r="B27" s="1">
         <f>SUM(B1:B26)</f>
-        <v>600832</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27" s="7">
-        <v>20000</v>
-      </c>
-      <c r="N27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="23.25">
+        <v>594292</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" ht="23.25">
       <c r="B28" s="1">
         <f>[27]Sheet5!$G$1</f>
         <v>1209568</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J28" s="7">
-        <v>22300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="J29" t="e">
-        <f>J27:J28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="21">
+      <c r="I28" s="4"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="21">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>608736</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="N31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="N33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>615276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
     </row>
@@ -2299,7 +2189,7 @@
         <v>44875</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2313,7 +2203,7 @@
         <v>44885</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2546,10 +2436,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2729,8 +2619,8 @@
         <v>96</v>
       </c>
       <c r="F15" s="8">
-        <f>B66</f>
-        <v>28320</v>
+        <f>B68</f>
+        <v>33320</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2767,7 +2657,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="11">
         <f>SUM(F15:F16)</f>
-        <v>84070</v>
+        <v>89070</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3147,7 +3037,7 @@
         <v>44875</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3161,7 +3051,7 @@
         <v>44885</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3244,30 +3134,54 @@
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
     </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="13">
+        <v>1700</v>
+      </c>
+      <c r="C63" s="23">
+        <v>44967</v>
+      </c>
+      <c r="D63" s="12"/>
+    </row>
     <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" s="11">
-        <f>SUM(B33:B62)</f>
-        <v>214276</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="A64" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="13">
-        <v>185956</v>
-      </c>
+      <c r="B64" s="13">
+        <v>3300</v>
+      </c>
+      <c r="C64" s="23">
+        <v>44973</v>
+      </c>
+      <c r="D64" s="12"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B66" s="11">
-        <f>B64-B65</f>
-        <v>28320</v>
+        <f>SUM(B33:B64)</f>
+        <v>219276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="13">
+        <v>185956</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="11">
+        <f>B66-B67</f>
+        <v>33320</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -998,7 +998,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1209568</v>
+            <v>1258971</v>
           </cell>
         </row>
       </sheetData>
@@ -1049,7 +1049,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>112241</v>
+            <v>206103</v>
           </cell>
         </row>
       </sheetData>
@@ -1072,7 +1072,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>46465</v>
+            <v>20025</v>
           </cell>
         </row>
       </sheetData>
@@ -1164,7 +1164,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>108564</v>
+            <v>50000</v>
           </cell>
         </row>
       </sheetData>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>112241</v>
+        <v>206103</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="13"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B5" s="2">
         <f>[5]Sheet1!$E$38</f>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="13"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>108564</v>
+        <v>50000</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="13"/>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E10">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>341082</v>
+        <v>349940</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="E15" s="7">
         <f>SUM(E10:E13)</f>
-        <v>594292</v>
+        <v>603150</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
@@ -1866,7 +1866,7 @@
     <row r="27" spans="1:12" ht="23.25">
       <c r="B27" s="1">
         <f>SUM(B1:B26)</f>
-        <v>594292</v>
+        <v>603150</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="7"/>
@@ -1874,7 +1874,7 @@
     <row r="28" spans="1:12" ht="23.25">
       <c r="B28" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1209568</v>
+        <v>1258971</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="7"/>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>615276</v>
+        <v>655821</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2438,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="F15" s="8">
         <f>B68</f>
-        <v>33320</v>
+        <v>43320</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="F16" s="8">
         <f>SUM(B2:B3,B6:B13,B17,B20,B14,B23:B24,B27,B30)</f>
-        <v>55750</v>
+        <v>55050</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2657,7 +2657,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="11">
         <f>SUM(F15:F16)</f>
-        <v>89070</v>
+        <v>98370</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2728,12 +2728,8 @@
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="8">
-        <v>700</v>
-      </c>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
     </row>
@@ -3158,16 +3154,27 @@
       </c>
       <c r="D64" s="12"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="65" spans="1:3">
+      <c r="A65" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C65" s="14">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>100</v>
       </c>
       <c r="B66" s="11">
-        <f>SUM(B33:B64)</f>
-        <v>219276</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <f>SUM(B33:B65)</f>
+        <v>229276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -3175,13 +3182,13 @@
         <v>185956</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>102</v>
       </c>
       <c r="B68" s="11">
         <f>B66-B67</f>
-        <v>33320</v>
+        <v>43320</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="113">
   <si>
     <t>AYUSH</t>
   </si>
@@ -363,13 +363,40 @@
   </si>
   <si>
     <t>cash</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>AVAILANBLE</t>
+  </si>
+  <si>
+    <t>NEED</t>
+  </si>
+  <si>
+    <t>NEED MORE</t>
+  </si>
+  <si>
+    <t>BALANCE</t>
+  </si>
+  <si>
+    <t>TOY VILLA</t>
+  </si>
+  <si>
+    <t>WE HAVE</t>
+  </si>
+  <si>
+    <t>WE NEED</t>
+  </si>
+  <si>
+    <t>NOOR PAKKA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +469,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -451,7 +508,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -459,15 +516,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -514,8 +581,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -598,12 +691,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>60230</v>
+            <v>53198</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -851,7 +944,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>88488</v>
+            <v>8488</v>
           </cell>
         </row>
       </sheetData>
@@ -943,7 +1036,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>349</v>
+            <v>-46</v>
           </cell>
         </row>
       </sheetData>
@@ -966,7 +1059,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>-595</v>
           </cell>
         </row>
       </sheetData>
@@ -998,7 +1091,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1258971</v>
+            <v>1290493</v>
           </cell>
         </row>
       </sheetData>
@@ -1049,7 +1142,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>206103</v>
+            <v>158103</v>
           </cell>
         </row>
       </sheetData>
@@ -1095,7 +1188,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>46465</v>
           </cell>
         </row>
       </sheetData>
@@ -1118,7 +1211,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>82294</v>
+            <v>130130</v>
           </cell>
         </row>
       </sheetData>
@@ -1462,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1471,13 +1564,14 @@
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="43.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.28515625" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
@@ -1490,12 +1584,15 @@
         <f>[1]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="13"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="13">
-        <v>45788</v>
-      </c>
+      <c r="L1" s="13"/>
       <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:15" ht="23.25">
@@ -1506,11 +1603,15 @@
         <f>[2]Sheet1!$E$38</f>
         <v>13750</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="11">
-        <v>36650</v>
-      </c>
+      <c r="L2" s="11"/>
       <c r="M2" s="14"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
@@ -1523,12 +1624,15 @@
         <f>[3]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="13"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="13">
-        <v>3890</v>
-      </c>
+      <c r="L3" s="13"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="23.25">
@@ -1537,14 +1641,19 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>206103</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13">
-        <v>5690</v>
-      </c>
+        <v>158103</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="13"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="23.25">
@@ -1555,12 +1664,13 @@
         <f>[5]Sheet1!$E$38</f>
         <v>20025</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="13"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="13">
-        <v>10000</v>
-      </c>
+      <c r="L5" s="13"/>
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="23.25">
@@ -1569,14 +1679,15 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="13"/>
+        <v>46465</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="11">
-        <v>8560</v>
-      </c>
+      <c r="L6" s="11"/>
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="23.25">
@@ -1585,14 +1696,15 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>82294</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="11"/>
+        <v>130130</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="13">
-        <v>4085</v>
-      </c>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:15" ht="23.25">
       <c r="A8" s="2" t="s">
@@ -1602,11 +1714,14 @@
         <f>[8]Sheet1!$E$38</f>
         <v>26900</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="11"/>
-      <c r="L8" s="13">
-        <v>12460</v>
-      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:15" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -1616,11 +1731,14 @@
         <f>[9]Sheet1!$E$38</f>
         <v>50000</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="13"/>
-      <c r="L9" s="13">
-        <v>7730</v>
-      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="26"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:15" ht="23.25">
       <c r="A10" s="2" t="s">
@@ -1630,19 +1748,19 @@
         <f>[10]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>349940</v>
-      </c>
-      <c r="F10" t="s">
+        <v>301940</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="11"/>
-      <c r="L10" s="13">
-        <v>8480</v>
-      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="L10" s="13"/>
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="23.25">
@@ -1651,21 +1769,21 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>60230</v>
-      </c>
-      <c r="E11">
+        <v>53198</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24">
         <f>SUM(B6,B12,B11,B21,B25,B26)</f>
-        <v>152210</v>
-      </c>
-      <c r="F11" t="s">
+        <v>110653</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="11"/>
-      <c r="L11" s="13">
-        <v>10690</v>
-      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="28"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:15" ht="23.25">
       <c r="A12" s="2" t="s">
@@ -1675,19 +1793,19 @@
         <f>[12]Sheet1!$E$38</f>
         <v>3143</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>96050</v>
-      </c>
-      <c r="F12" t="s">
+        <v>143886</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="L12" s="13">
-        <v>12220</v>
-      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="28"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:15" ht="23.25">
       <c r="A13" s="2" t="s">
@@ -1697,20 +1815,21 @@
         <f>[13]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24">
         <f>SUM(B15,B10,B24)</f>
         <v>4950</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="8"/>
-      <c r="L13" s="13">
-        <v>7894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="23.25">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="26"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" ht="24" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1718,12 +1837,24 @@
         <f>[14]Sheet1!$E$38</f>
         <v>6</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="L14" s="13">
-        <v>88488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="23.25">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="24" thickTop="1">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1731,16 +1862,25 @@
         <f>[15]Sheet1!$E$38</f>
         <v>4950</v>
       </c>
-      <c r="E15" s="7">
+      <c r="D15" s="24"/>
+      <c r="E15" s="29">
         <f>SUM(E10:E13)</f>
-        <v>603150</v>
-      </c>
-      <c r="F15" s="7" t="s">
+        <v>561429</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="13">
-        <v>74145</v>
-      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="26">
+        <f>B11-50000</f>
+        <v>3198</v>
+      </c>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:15" ht="23.25">
       <c r="A16" s="2" t="s">
@@ -1750,12 +1890,21 @@
         <f>[16]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="L16" s="13">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="23.25">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="J16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="26">
+        <f>B6</f>
+        <v>46465</v>
+      </c>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" ht="23.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1763,11 +1912,21 @@
         <f>[17]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="L17" s="13">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="23.25">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="J17" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="26">
+        <f>B21</f>
+        <v>8488</v>
+      </c>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1775,9 +1934,19 @@
         <f>[18]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="23.25">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="J18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="26">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="23.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1785,9 +1954,28 @@
         <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="23.25">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="26">
+        <f>SUM(K15:K18)</f>
+        <v>208151</v>
+      </c>
+      <c r="L19" s="26">
+        <v>26000</v>
+      </c>
+      <c r="M19" s="28">
+        <f>K19-L19</f>
+        <v>182151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="23.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1795,21 +1983,39 @@
         <f>[20]Sheet1!$E$38</f>
         <v>46912</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="23.25">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:13" ht="24" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>88488</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="23.25">
+        <v>8488</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="30"/>
+      <c r="K21" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="24" thickTop="1">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1817,10 +2023,27 @@
         <f>[22]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" ht="23.25">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="31">
+        <v>102726</v>
+      </c>
+      <c r="L22" s="31">
+        <v>2341</v>
+      </c>
+      <c r="M22" s="31">
+        <f>K22-L22</f>
+        <v>100385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="23.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1829,9 +2052,9 @@
         <v>0</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="23.25">
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:13" ht="23.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1843,49 +2066,52 @@
       <c r="I24" s="4"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:12" ht="23.25">
+    <row r="25" spans="1:13" ht="23.25">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="9">
         <f>[25]Sheet1!$E$38</f>
-        <v>349</v>
-      </c>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" ht="23.25">
+        <v>-46</v>
+      </c>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" ht="23.25">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="9">
         <f>[26]Sheet1!$E$38</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" ht="23.25">
+        <v>-595</v>
+      </c>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" ht="23.25">
       <c r="B27" s="1">
         <f>SUM(B1:B26)</f>
-        <v>603150</v>
+        <v>561429</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" ht="23.25">
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" ht="23.25">
       <c r="B28" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1258971</v>
+        <v>1290493</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="21">
+    <row r="29" spans="1:13">
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" ht="21">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>655821</v>
+        <v>729064</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2438,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="113">
   <si>
     <t>AYUSH</t>
   </si>
@@ -695,8 +695,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1091,7 +1091,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1290493</v>
+            <v>1222881</v>
           </cell>
         </row>
       </sheetData>
@@ -1553,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:13" ht="23.25">
+    <row r="17" spans="1:19" ht="23.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:13" ht="23.25">
+    <row r="18" spans="1:19" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="23.25">
+    <row r="19" spans="1:19" ht="23.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1968,14 +1968,15 @@
         <v>208151</v>
       </c>
       <c r="L19" s="26">
-        <v>26000</v>
+        <f>54700</f>
+        <v>54700</v>
       </c>
       <c r="M19" s="28">
         <f>K19-L19</f>
-        <v>182151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="23.25">
+        <v>153451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="23.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1990,8 +1991,11 @@
       <c r="H20" s="24"/>
       <c r="I20" s="30"/>
       <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" thickBot="1">
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="24" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="24" thickTop="1">
+    <row r="22" spans="1:19" ht="24" thickTop="1">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2032,18 +2036,22 @@
       <c r="J22" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="26">
+        <v>24498</v>
+      </c>
+      <c r="L22" s="31">
+        <v>5048</v>
+      </c>
+      <c r="M22" s="31">
+        <f>S22-L22</f>
+        <v>97678</v>
+      </c>
+      <c r="S22">
+        <f>SUM(K22:K26)</f>
         <v>102726</v>
       </c>
-      <c r="L22" s="31">
-        <v>2341</v>
-      </c>
-      <c r="M22" s="31">
-        <f>K22-L22</f>
-        <v>100385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="23.25">
+    </row>
+    <row r="23" spans="1:19" ht="23.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -2053,8 +2061,11 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:13" ht="23.25">
+      <c r="K23" s="26">
+        <v>9021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="23.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -2065,8 +2076,11 @@
       <c r="G24" s="7"/>
       <c r="I24" s="4"/>
       <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" ht="23.25">
+      <c r="K24" s="26">
+        <v>7837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="23.25">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -2075,8 +2089,11 @@
         <v>-46</v>
       </c>
       <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" ht="23.25">
+      <c r="K25" s="26">
+        <v>23822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="23.25">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -2085,8 +2102,11 @@
         <v>-595</v>
       </c>
       <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" ht="23.25">
+      <c r="K26" s="26">
+        <v>37548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="23.25">
       <c r="B27" s="1">
         <f>SUM(B1:B26)</f>
         <v>561429</v>
@@ -2094,24 +2114,24 @@
       <c r="I27" s="4"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:13" ht="23.25">
+    <row r="28" spans="1:19" ht="23.25">
       <c r="B28" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1290493</v>
+        <v>1222881</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:19">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:13" ht="21">
+    <row r="30" spans="1:19" ht="21">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>729064</v>
+        <v>661452</v>
       </c>
     </row>
     <row r="39" spans="1:2">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="136">
   <si>
     <t>AYUSH</t>
   </si>
@@ -390,6 +390,75 @@
   </si>
   <si>
     <t>NOOR PAKKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALNA </t>
+  </si>
+  <si>
+    <t>RIDDERS</t>
+  </si>
+  <si>
+    <t>TUK TUK SENIOUR</t>
+  </si>
+  <si>
+    <t>DOG CAR</t>
+  </si>
+  <si>
+    <t>PANDA CAR</t>
+  </si>
+  <si>
+    <t>BOOMER CAR</t>
+  </si>
+  <si>
+    <t>ELEPHNAT CAR</t>
+  </si>
+  <si>
+    <t>MINNION CAR</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>WALKERS</t>
+  </si>
+  <si>
+    <t>CHETAK</t>
+  </si>
+  <si>
+    <t>CHETAK  YUVRAJ</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>8 BEBD STAR CP M</t>
+  </si>
+  <si>
+    <t>CHEAP CP (M)</t>
+  </si>
+  <si>
+    <t>S/H GRIP (M)</t>
+  </si>
+  <si>
+    <t>S/H GRIP (PL)</t>
+  </si>
+  <si>
+    <t>SNR C/P PINKY</t>
+  </si>
+  <si>
+    <t>SNR P/C PINKY</t>
+  </si>
+  <si>
+    <t>SNR P/C HOOD</t>
+  </si>
+  <si>
+    <t>SNR P/C</t>
+  </si>
+  <si>
+    <t>JNR P/C CW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR C/P CW </t>
   </si>
 </sst>
 </file>
@@ -691,7 +760,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>53198</v>
+            <v>93198</v>
           </cell>
         </row>
       </sheetData>
@@ -1091,7 +1160,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1222881</v>
+            <v>1245161</v>
           </cell>
         </row>
       </sheetData>
@@ -1142,7 +1211,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>158103</v>
+            <v>203905</v>
           </cell>
         </row>
       </sheetData>
@@ -1188,7 +1257,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>46465</v>
+            <v>6465</v>
           </cell>
         </row>
       </sheetData>
@@ -1555,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1641,7 +1710,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>158103</v>
+        <v>203905</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -1679,7 +1748,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -1751,7 +1820,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>301940</v>
+        <v>347742</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>22</v>
@@ -1769,7 +1838,7 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24">
@@ -1865,7 +1934,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="29">
         <f>SUM(E10:E13)</f>
-        <v>561429</v>
+        <v>607231</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>24</v>
@@ -1878,7 +1947,7 @@
       </c>
       <c r="K15" s="26">
         <f>B11-50000</f>
-        <v>3198</v>
+        <v>43198</v>
       </c>
       <c r="L15" s="13"/>
     </row>
@@ -1900,7 +1969,7 @@
       </c>
       <c r="K16" s="26">
         <f>B6</f>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -1968,12 +2037,12 @@
         <v>208151</v>
       </c>
       <c r="L19" s="26">
-        <f>54700</f>
-        <v>54700</v>
+        <f>125000+31500+24000+20000</f>
+        <v>200500</v>
       </c>
       <c r="M19" s="28">
         <f>K19-L19</f>
-        <v>153451</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="23.25">
@@ -1992,7 +2061,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="26"/>
       <c r="L20" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="24" thickBot="1">
@@ -2040,11 +2109,11 @@
         <v>24498</v>
       </c>
       <c r="L22" s="31">
-        <v>5048</v>
+        <v>45009</v>
       </c>
       <c r="M22" s="31">
         <f>S22-L22</f>
-        <v>97678</v>
+        <v>57717</v>
       </c>
       <c r="S22">
         <f>SUM(K22:K26)</f>
@@ -2109,7 +2178,7 @@
     <row r="27" spans="1:19" ht="23.25">
       <c r="B27" s="1">
         <f>SUM(B1:B26)</f>
-        <v>561429</v>
+        <v>607231</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="11"/>
@@ -2117,7 +2186,7 @@
     <row r="28" spans="1:19" ht="23.25">
       <c r="B28" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1222881</v>
+        <v>1245161</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="7"/>
@@ -2131,7 +2200,7 @@
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>661452</v>
+        <v>637930</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2160,7 +2229,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3453,165 +3522,286 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>270504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8">
+        <v>1360</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8">
+        <v>2120</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8">
+        <v>1970</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
+        <v>1830</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
+        <v>1220</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
+        <v>1320</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8">
+        <v>2950</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8">
+        <v>440</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>6930</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>15009</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>2000</v>
-      </c>
+      <c r="B21" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="8">
+        <v>610</v>
+      </c>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8">
+        <v>800</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8">
+        <v>960</v>
+      </c>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="8">
+        <v>440</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="8">
+        <v>500</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="8">
+        <v>610</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="8">
+        <v>800</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="8">
+        <v>960</v>
+      </c>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
     </row>
   </sheetData>
+  <sortState ref="A20:A24">
+    <sortCondition ref="A20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="138">
   <si>
     <t>AYUSH</t>
   </si>
@@ -459,6 +459,12 @@
   </si>
   <si>
     <t xml:space="preserve">JNR C/P CW </t>
+  </si>
+  <si>
+    <t>41356 payment did</t>
+  </si>
+  <si>
+    <t>23822 payment we did</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1166,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1245161</v>
+            <v>1262809</v>
           </cell>
         </row>
       </sheetData>
@@ -1257,7 +1263,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>6465</v>
+            <v>44013</v>
           </cell>
         </row>
       </sheetData>
@@ -1624,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1748,7 +1754,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -1843,7 +1849,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24">
         <f>SUM(B6,B12,B11,B21,B25,B26)</f>
-        <v>110653</v>
+        <v>148201</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>20</v>
@@ -1934,7 +1940,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="29">
         <f>SUM(E10:E13)</f>
-        <v>607231</v>
+        <v>644779</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>24</v>
@@ -1969,7 +1975,7 @@
       </c>
       <c r="K16" s="26">
         <f>B6</f>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -2034,15 +2040,15 @@
       </c>
       <c r="K19" s="26">
         <f>SUM(K15:K18)</f>
-        <v>208151</v>
+        <v>245699</v>
       </c>
       <c r="L19" s="26">
-        <f>125000+31500+24000+20000</f>
-        <v>200500</v>
+        <f>200000+21500</f>
+        <v>221500</v>
       </c>
       <c r="M19" s="28">
         <f>K19-L19</f>
-        <v>7651</v>
+        <v>24199</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="23.25">
@@ -2105,19 +2111,17 @@
       <c r="J22" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="26">
-        <v>24498</v>
-      </c>
+      <c r="K22" s="26"/>
       <c r="L22" s="31">
-        <v>45009</v>
+        <v>6133</v>
       </c>
       <c r="M22" s="31">
         <f>S22-L22</f>
-        <v>57717</v>
+        <v>31415</v>
       </c>
       <c r="S22">
         <f>SUM(K22:K26)</f>
-        <v>102726</v>
+        <v>37548</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="23.25">
@@ -2129,9 +2133,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="28"/>
+      <c r="J23" s="28" t="s">
+        <v>136</v>
+      </c>
       <c r="K23" s="26">
-        <v>9021</v>
+        <v>37548</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="23.25">
@@ -2144,10 +2150,10 @@
       </c>
       <c r="G24" s="7"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="26">
-        <v>7837</v>
-      </c>
+      <c r="J24" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="1:19" ht="23.25">
       <c r="A25" s="2" t="s">
@@ -2158,9 +2164,7 @@
         <v>-46</v>
       </c>
       <c r="J25" s="11"/>
-      <c r="K25" s="26">
-        <v>23822</v>
-      </c>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:19" ht="23.25">
       <c r="A26" s="2" t="s">
@@ -2171,14 +2175,12 @@
         <v>-595</v>
       </c>
       <c r="J26" s="8"/>
-      <c r="K26" s="26">
-        <v>37548</v>
-      </c>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:19" ht="23.25">
       <c r="B27" s="1">
         <f>SUM(B1:B26)</f>
-        <v>607231</v>
+        <v>644779</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="11"/>
@@ -2186,7 +2188,7 @@
     <row r="28" spans="1:19" ht="23.25">
       <c r="B28" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1245161</v>
+        <v>1262809</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="7"/>
@@ -2200,7 +2202,7 @@
       </c>
       <c r="B30" s="5">
         <f>B28-B27</f>
-        <v>637930</v>
+        <v>618030</v>
       </c>
     </row>
     <row r="39" spans="1:2">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="144">
   <si>
     <t>AYUSH</t>
   </si>
@@ -368,15 +368,6 @@
     <t>.</t>
   </si>
   <si>
-    <t>AVAILANBLE</t>
-  </si>
-  <si>
-    <t>NEED</t>
-  </si>
-  <si>
-    <t>NEED MORE</t>
-  </si>
-  <si>
     <t>BALANCE</t>
   </si>
   <si>
@@ -389,9 +380,6 @@
     <t>WE NEED</t>
   </si>
   <si>
-    <t>NOOR PAKKA</t>
-  </si>
-  <si>
     <t xml:space="preserve">PALNA </t>
   </si>
   <si>
@@ -428,9 +416,6 @@
     <t>CHETAK  YUVRAJ</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>8 BEBD STAR CP M</t>
   </si>
   <si>
@@ -461,10 +446,43 @@
     <t xml:space="preserve">JNR C/P CW </t>
   </si>
   <si>
-    <t>41356 payment did</t>
-  </si>
-  <si>
-    <t>23822 payment we did</t>
+    <t>TINY WALKER</t>
+  </si>
+  <si>
+    <t>GUDDA CP (M)</t>
+  </si>
+  <si>
+    <t>RENT</t>
+  </si>
+  <si>
+    <t>BIKE</t>
+  </si>
+  <si>
+    <t>PANTHER</t>
+  </si>
+  <si>
+    <t>TRICYCLE</t>
+  </si>
+  <si>
+    <t>RAMBO</t>
+  </si>
+  <si>
+    <t>VESPA</t>
+  </si>
+  <si>
+    <t>TOTAL WE REQUIRED</t>
+  </si>
+  <si>
+    <t>CASH WE HAVE</t>
+  </si>
+  <si>
+    <t>IN ACCOUNT WE HAVE</t>
+  </si>
+  <si>
+    <t>WE REQUIRED AFTER EVERYTHING</t>
+  </si>
+  <si>
+    <t>DAILY WE NEED</t>
   </si>
 </sst>
 </file>
@@ -609,7 +627,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -658,13 +676,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,7 +778,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>93198</v>
+            <v>142838</v>
           </cell>
         </row>
       </sheetData>
@@ -1019,7 +1031,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>8488</v>
+            <v>82204</v>
           </cell>
         </row>
       </sheetData>
@@ -1111,7 +1123,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>-46</v>
+            <v>-680</v>
           </cell>
         </row>
       </sheetData>
@@ -1263,7 +1275,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>44013</v>
+            <v>134695</v>
           </cell>
         </row>
       </sheetData>
@@ -1628,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1642,16 +1654,15 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" customWidth="1"/>
-    <col min="10" max="10" width="42.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25">
+    <row r="1" spans="1:14" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1665,12 +1676,11 @@
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" ht="23.25">
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1683,15 +1693,14 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="26"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" ht="23.25">
+    </row>
+    <row r="3" spans="1:14" ht="23.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1705,12 +1714,11 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="13"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" ht="23.25">
+      <c r="J3" s="20"/>
+      <c r="K3" s="13"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="23.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1724,14 +1732,13 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" ht="23.25">
+      <c r="K4" s="13"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="23.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1744,28 +1751,28 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" ht="23.25">
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="23.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="11"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" ht="23.25">
+      <c r="J6" s="13"/>
+      <c r="K6" s="11"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="23.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1778,10 +1785,10 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" ht="23.25">
+      <c r="J7" s="11"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" ht="23.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1794,11 +1801,10 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:15" ht="23.25">
+      <c r="I8" s="26"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" ht="23.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1811,11 +1817,10 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="26"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" ht="23.25">
+      <c r="I9" s="25"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" ht="23.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1832,35 +1837,33 @@
         <v>22</v>
       </c>
       <c r="G10" s="24"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="L10" s="13"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" ht="23.25">
+      <c r="H10" s="27"/>
+      <c r="I10" s="26"/>
+      <c r="K10" s="13"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="23.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24">
-        <f>SUM(B6,B12,B11,B21,B25,B26)</f>
-        <v>148201</v>
+        <f>SUM(B6,B12,B11,B21,B25,B28)</f>
+        <v>361605</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="28"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" ht="23.25">
+      <c r="H11" s="27"/>
+      <c r="I11" s="26"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" ht="23.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1877,12 +1880,11 @@
         <v>21</v>
       </c>
       <c r="G12" s="24"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="28"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" ht="23.25">
+      <c r="H12" s="27"/>
+      <c r="I12" s="26"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" ht="23.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1900,11 +1902,10 @@
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="26"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" ht="24" thickBot="1">
+      <c r="I13" s="25"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" ht="24" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1917,19 +1918,18 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="24" thickTop="1">
+    </row>
+    <row r="15" spans="1:14" ht="24" thickTop="1">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1938,26 +1938,25 @@
         <v>4950</v>
       </c>
       <c r="D15" s="24"/>
-      <c r="E15" s="29">
+      <c r="E15" s="27">
         <f>SUM(E10:E13)</f>
-        <v>644779</v>
-      </c>
-      <c r="F15" s="29" t="s">
+        <v>858183</v>
+      </c>
+      <c r="F15" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24" t="s">
+      <c r="I15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="26">
-        <f>B11-50000</f>
-        <v>43198</v>
-      </c>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" ht="23.25">
+      <c r="J15" s="25">
+        <f>B11</f>
+        <v>142838</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" ht="23.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1970,16 +1969,16 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
-      <c r="J16" s="24" t="s">
+      <c r="I16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="26">
+      <c r="J16" s="25">
         <f>B6</f>
-        <v>44013</v>
-      </c>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:19" ht="23.25">
+        <v>134695</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:18" ht="23.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1992,16 +1991,16 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
-      <c r="J17" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17" s="26">
+      <c r="I17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="25">
         <f>B21</f>
-        <v>8488</v>
-      </c>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:19" ht="23.25">
+        <v>82204</v>
+      </c>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:18" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -2014,14 +2013,14 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
-      <c r="J18" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="26">
+      <c r="I18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="25">
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="23.25">
+    <row r="19" spans="1:18" ht="23.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2035,23 +2034,9 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="26">
-        <f>SUM(K15:K18)</f>
-        <v>245699</v>
-      </c>
-      <c r="L19" s="26">
-        <f>200000+21500</f>
-        <v>221500</v>
-      </c>
-      <c r="M19" s="28">
-        <f>K19-L19</f>
-        <v>24199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="23.25">
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:18" ht="23.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2064,37 +2049,30 @@
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="26"/>
-      <c r="L20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="24" thickBot="1">
+      <c r="I20" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="25">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="23.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="30"/>
-      <c r="K21" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="L21" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="24" thickTop="1">
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:18" ht="23.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2107,24 +2085,14 @@
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="31">
-        <v>6133</v>
-      </c>
-      <c r="M22" s="31">
-        <f>S22-L22</f>
-        <v>31415</v>
-      </c>
-      <c r="S22">
-        <f>SUM(K22:K26)</f>
-        <v>37548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="23.25">
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="R22">
+        <f>SUM(J30:J34)</f>
+        <v>35825.923076923078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="23.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -2132,15 +2100,10 @@
         <f>[23]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="K23" s="26">
-        <v>37548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="23.25">
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:18" ht="23.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -2149,73 +2112,137 @@
         <v>0</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="K24" s="26"/>
-    </row>
-    <row r="25" spans="1:19" ht="23.25">
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:18" ht="23.25">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="9">
         <f>[25]Sheet1!$E$38</f>
-        <v>-46</v>
-      </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="26"/>
-    </row>
-    <row r="26" spans="1:19" ht="23.25">
-      <c r="A26" s="2" t="s">
+        <v>-680</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="11">
+        <f>SUM(J15:J24)</f>
+        <v>584737</v>
+      </c>
+      <c r="K25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="23.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="9"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="11">
+        <v>83000</v>
+      </c>
+      <c r="K26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="23.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="9"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="11">
+        <v>36000</v>
+      </c>
+      <c r="K27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="23.25">
+      <c r="A28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B28" s="9">
         <f>[26]Sheet1!$E$38</f>
         <v>-595</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="1:19" ht="23.25">
-      <c r="B27" s="1">
-        <f>SUM(B1:B26)</f>
-        <v>644779</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:19" ht="23.25">
-      <c r="B28" s="1">
+      <c r="I28" s="24"/>
+      <c r="J28" s="11">
+        <f>SUM(J25-J26-J27)</f>
+        <v>465737</v>
+      </c>
+      <c r="K28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="23.25">
+      <c r="B29" s="1">
+        <f>SUM(B1:B28)</f>
+        <v>858183</v>
+      </c>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:18" ht="23.25">
+      <c r="B30" s="1">
         <f>[27]Sheet5!$G$1</f>
         <v>1262809</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" ht="21">
-      <c r="A30" s="4" t="s">
+      <c r="I30" s="25"/>
+      <c r="J30" s="25">
+        <f>J28/13</f>
+        <v>35825.923076923078</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="29"/>
+    </row>
+    <row r="31" spans="1:18" ht="18.75">
+      <c r="J31" s="25"/>
+    </row>
+    <row r="32" spans="1:18" ht="21">
+      <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="5">
-        <f>B28-B27</f>
-        <v>618030</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+      <c r="B32" s="5">
+        <f>B30-B29</f>
+        <v>404626</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.75">
+      <c r="I33" s="26"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="1:10" ht="18.75">
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="I39" s="7"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2753,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2936,8 +2963,8 @@
         <v>96</v>
       </c>
       <c r="F15" s="8">
-        <f>B68</f>
-        <v>43320</v>
+        <f>B70</f>
+        <v>56320</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2974,7 +3001,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="11">
         <f>SUM(F15:F16)</f>
-        <v>98370</v>
+        <v>111370</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3483,29 +3510,51 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="11">
-        <f>SUM(B33:B65)</f>
-        <v>229276</v>
+      <c r="A66" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="13">
+        <v>3000</v>
+      </c>
+      <c r="C66" s="14">
+        <v>44992</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>101</v>
+      <c r="A67" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B67" s="13">
-        <v>185956</v>
+        <v>10000</v>
+      </c>
+      <c r="C67" s="14">
+        <v>45005</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="11">
+        <f>SUM(B33:B67)</f>
+        <v>242276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="13">
+        <v>185956</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="11">
-        <f>B66-B67</f>
-        <v>43320</v>
+      <c r="B70" s="11">
+        <f>B68-B69</f>
+        <v>56320</v>
       </c>
     </row>
   </sheetData>
@@ -3524,25 +3573,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="8">
         <v>1360</v>
       </c>
@@ -3550,13 +3599,20 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>470</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <f>E2*D2</f>
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="8">
         <v>2120</v>
       </c>
@@ -3564,13 +3620,20 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
         <v>730</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="0">E3*D3</f>
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="8">
         <v>1970</v>
       </c>
@@ -3578,13 +3641,20 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>680</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>8160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="8">
         <v>1830</v>
       </c>
@@ -3592,13 +3662,20 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
         <v>630</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8">
         <v>1220</v>
       </c>
@@ -3606,13 +3683,20 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
         <v>420</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>1320</v>
       </c>
@@ -3620,13 +3704,20 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
         <v>1320</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>15840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="8">
         <v>2950</v>
       </c>
@@ -3634,171 +3725,257 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B12" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B13" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B14" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B15" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B16" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>675</v>
+      </c>
+      <c r="F16">
+        <f>C16*B16</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B17" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2100</v>
+      </c>
+      <c r="F21">
+        <f>C21*B21</f>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="8">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>440</v>
+      </c>
+      <c r="F24">
+        <f>C24*B24</f>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>780</v>
+      </c>
+      <c r="F25">
+        <f>B25*C25</f>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8">
+        <v>440</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>150</v>
+      </c>
+      <c r="F31">
+        <f>D31*C31</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8">
+        <v>500</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>170</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F34" si="1">D32*C32</f>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8">
+        <v>610</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="8">
-        <v>440</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="8">
-        <v>500</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="8">
-        <v>610</v>
-      </c>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8">
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>205</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8">
         <v>800</v>
       </c>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="8">
+      <c r="B34" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>275</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8">
         <v>960</v>
       </c>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8">
-        <v>440</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8">
-        <v>500</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="8">
-        <v>610</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="8">
-        <v>800</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="8">
-        <v>960</v>
-      </c>
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>775</v>
+      </c>
+      <c r="F36">
+        <f>D36*C36</f>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A20:A24">
@@ -3833,13 +4010,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:C40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="123.85546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" style="8" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="8"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="143">
   <si>
     <t>AYUSH</t>
   </si>
@@ -365,21 +365,9 @@
     <t>cash</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>BALANCE</t>
-  </si>
-  <si>
     <t>TOY VILLA</t>
   </si>
   <si>
-    <t>WE HAVE</t>
-  </si>
-  <si>
-    <t>WE NEED</t>
-  </si>
-  <si>
     <t xml:space="preserve">PALNA </t>
   </si>
   <si>
@@ -483,6 +471,15 @@
   </si>
   <si>
     <t>DAILY WE NEED</t>
+  </si>
+  <si>
+    <t>PAKKA</t>
+  </si>
+  <si>
+    <t>CASH WE WILL GIVE THEM</t>
+  </si>
+  <si>
+    <t>WE NEED IN ACCOUNT</t>
   </si>
 </sst>
 </file>
@@ -627,7 +624,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -665,9 +662,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -755,7 +749,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>6336</v>
           </cell>
         </row>
       </sheetData>
@@ -778,7 +772,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>142838</v>
+            <v>162798</v>
           </cell>
         </row>
       </sheetData>
@@ -847,12 +841,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>6</v>
+            <v>102280</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -870,12 +864,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>4950</v>
+            <v>27390</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -893,12 +887,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>100455</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -939,7 +933,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>167449</v>
           </cell>
         </row>
       </sheetData>
@@ -1008,7 +1002,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>46912</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1146,12 +1140,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>-595</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1178,7 +1172,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1262809</v>
+            <v>1321366</v>
           </cell>
         </row>
       </sheetData>
@@ -1229,7 +1223,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>203905</v>
+            <v>223166</v>
           </cell>
         </row>
       </sheetData>
@@ -1252,12 +1246,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>20025</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1275,7 +1269,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>134695</v>
+            <v>135305</v>
           </cell>
         </row>
       </sheetData>
@@ -1298,12 +1292,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>130130</v>
+            <v>189150</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1321,12 +1315,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>26900</v>
+            <v>7000</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1344,12 +1338,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>50000</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1642,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1657,12 +1651,12 @@
     <col min="9" max="9" width="42.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25">
+    <row r="1" spans="1:14" ht="24" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1670,17 +1664,23 @@
         <f>[1]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" ht="23.25">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" thickTop="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1688,16 +1688,25 @@
         <f>[2]Sheet1!$E$38</f>
         <v>13750</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="11"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="24">
+        <f>B11</f>
+        <v>162798</v>
+      </c>
+      <c r="K2" s="13">
+        <v>17657</v>
+      </c>
+      <c r="L2" s="8">
+        <f>J2-K2-50000</f>
+        <v>95141</v>
+      </c>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="23.25">
@@ -1708,14 +1717,25 @@
         <f>[3]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="13"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="24">
+        <f>B6</f>
+        <v>135305</v>
+      </c>
+      <c r="K3" s="13">
+        <v>122995</v>
+      </c>
+      <c r="L3" s="8">
+        <f>J3-K3</f>
+        <v>12310</v>
+      </c>
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="23.25">
@@ -1724,18 +1744,27 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>203905</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="8" t="s">
+        <v>223166</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="13"/>
+      <c r="J4" s="24">
+        <f>B21</f>
+        <v>82204</v>
+      </c>
+      <c r="K4" s="13">
+        <v>42016</v>
+      </c>
+      <c r="L4" s="8">
+        <f>J4-K4</f>
+        <v>40188</v>
+      </c>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="23.25">
@@ -1744,15 +1773,23 @@
       </c>
       <c r="B5" s="2">
         <f>[5]Sheet1!$E$38</f>
-        <v>20025</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="24">
+        <v>150000</v>
+      </c>
+      <c r="L5" s="8">
+        <f>J5</f>
+        <v>150000</v>
+      </c>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="23.25">
@@ -1761,15 +1798,23 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>134695</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="11"/>
+        <v>135305</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="24">
+        <v>75000</v>
+      </c>
+      <c r="L6" s="8">
+        <f>J6</f>
+        <v>75000</v>
+      </c>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="23.25">
@@ -1778,15 +1823,23 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>130130</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="13"/>
+        <v>189150</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="24">
+        <v>45000</v>
+      </c>
+      <c r="L7" s="8">
+        <f>J7</f>
+        <v>45000</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="23.25">
       <c r="A8" s="2" t="s">
@@ -1794,15 +1847,15 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>26900</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="26"/>
-      <c r="K8" s="13"/>
+        <v>7000</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -1810,15 +1863,15 @@
       </c>
       <c r="B9" s="2">
         <f>[9]Sheet1!$E$38</f>
-        <v>50000</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="K9" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="23.25">
       <c r="A10" s="2" t="s">
@@ -1826,20 +1879,20 @@
       </c>
       <c r="B10" s="2">
         <f>[10]Sheet1!$E$38</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24">
+        <v>6336</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>347742</v>
-      </c>
-      <c r="F10" s="24" t="s">
+        <v>230166</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="26"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="23.25">
@@ -1848,20 +1901,22 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>142838</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24">
+        <v>162798</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B25,B28)</f>
-        <v>361605</v>
-      </c>
-      <c r="F11" s="24" t="s">
+        <v>382770</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="26"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:14" ht="23.25">
       <c r="A12" s="2" t="s">
@@ -1871,18 +1926,24 @@
         <f>[12]Sheet1!$E$38</f>
         <v>3143</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>143886</v>
-      </c>
-      <c r="F12" s="24" t="s">
+        <v>573084</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="26"/>
-      <c r="K12" s="13"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="11">
+        <f>SUM(L2,J3,L4,L5,L6,L7)</f>
+        <v>540634</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="23.25">
       <c r="A13" s="2" t="s">
@@ -1892,69 +1953,72 @@
         <f>[13]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23">
         <f>SUM(B15,B10,B24)</f>
-        <v>4950</v>
-      </c>
-      <c r="F13" s="24" t="s">
+        <v>33726</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" ht="24" thickBot="1">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="11">
+        <f>75000+5000+33000</f>
+        <v>113000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="23.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>6</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="24" thickTop="1">
+        <v>102280</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="11">
+        <v>41285</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="23.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>4950</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27">
+        <v>27390</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>858183</v>
-      </c>
-      <c r="F15" s="27" t="s">
+        <v>1219746</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="25">
-        <f>B11</f>
-        <v>142838</v>
-      </c>
-      <c r="K15" s="13"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="11">
+        <f>SUM(J12-J13-J14)</f>
+        <v>386349</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="23.25">
       <c r="A16" s="2" t="s">
@@ -1962,21 +2026,14 @@
       </c>
       <c r="B16" s="2">
         <f>[16]Sheet1!$E$38</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="25">
-        <f>B6</f>
-        <v>134695</v>
-      </c>
-      <c r="K16" s="13"/>
+        <v>100455</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:18" ht="23.25">
       <c r="A17" s="2" t="s">
@@ -1986,19 +2043,20 @@
         <f>[17]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="25">
-        <f>B21</f>
-        <v>82204</v>
-      </c>
-      <c r="K17" s="13"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24">
+        <f>J15/9</f>
+        <v>42927.666666666664</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:18" ht="23.25">
       <c r="A18" s="2" t="s">
@@ -2006,19 +2064,14 @@
       </c>
       <c r="B18" s="6">
         <f>[18]Sheet1!$E$38</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="25">
-        <v>150000</v>
-      </c>
+        <v>167449</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:18" ht="23.25">
       <c r="A19" s="2" t="s">
@@ -2028,13 +2081,13 @@
         <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:18" ht="23.25">
       <c r="A20" s="2" t="s">
@@ -2042,19 +2095,15 @@
       </c>
       <c r="B20" s="9">
         <f>[20]Sheet1!$E$38</f>
-        <v>46912</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="25">
-        <v>75000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:18" ht="23.25">
       <c r="A21" s="2" t="s">
@@ -2064,13 +2113,13 @@
         <f>[21]Sheet1!$E$38</f>
         <v>82204</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:18" ht="23.25">
       <c r="A22" s="2" t="s">
@@ -2080,16 +2129,15 @@
         <f>[22]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="11"/>
       <c r="R22">
-        <f>SUM(J30:J34)</f>
-        <v>35825.923076923078</v>
+        <f>SUM(J17:J21)</f>
+        <v>42927.666666666664</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="23.25">
@@ -2100,8 +2148,7 @@
         <f>[23]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:18" ht="23.25">
       <c r="A24" s="2" t="s">
@@ -2112,10 +2159,14 @@
         <v>0</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="8">
+        <f>J14-K3</f>
+        <v>-81710</v>
+      </c>
+      <c r="K24" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="23.25">
       <c r="A25" s="2" t="s">
@@ -2125,36 +2176,23 @@
         <f>[25]Sheet1!$E$38</f>
         <v>-680</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="11">
-        <f>SUM(J15:J24)</f>
-        <v>584737</v>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8">
+        <f>SUM(L2,L3,L4,L5,L6,L7)-J14</f>
+        <v>376354</v>
       </c>
       <c r="K25" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="23.25">
       <c r="A26" s="2"/>
       <c r="B26" s="9"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="11">
-        <v>83000</v>
-      </c>
-      <c r="K26" t="s">
-        <v>140</v>
-      </c>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:18" ht="23.25">
       <c r="A27" s="2"/>
       <c r="B27" s="9"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="11">
-        <v>36000</v>
-      </c>
-      <c r="K27" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="28" spans="1:18" ht="23.25">
       <c r="A28" s="2" t="s">
@@ -2162,41 +2200,20 @@
       </c>
       <c r="B28" s="9">
         <f>[26]Sheet1!$E$38</f>
-        <v>-595</v>
-      </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="11">
-        <f>SUM(J25-J26-J27)</f>
-        <v>465737</v>
-      </c>
-      <c r="K28" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="23.25">
       <c r="B29" s="1">
         <f>SUM(B1:B28)</f>
-        <v>858183</v>
-      </c>
-      <c r="I29" s="28"/>
+        <v>1219746</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1262809</v>
-      </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25">
-        <f>J28/13</f>
-        <v>35825.923076923078</v>
-      </c>
-      <c r="K30" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="29"/>
-    </row>
-    <row r="31" spans="1:18" ht="18.75">
-      <c r="J31" s="25"/>
+        <v>1321366</v>
+      </c>
     </row>
     <row r="32" spans="1:18" ht="21">
       <c r="A32" s="4" t="s">
@@ -2204,43 +2221,18 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>404626</v>
-      </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="25"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75">
-      <c r="I33" s="26"/>
-      <c r="J33" s="25"/>
-    </row>
-    <row r="34" spans="1:10" ht="18.75">
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="I39" s="7"/>
-    </row>
-    <row r="41" spans="1:10">
+        <v>101620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
     </row>
@@ -2272,7 +2264,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2780,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2963,8 +2955,8 @@
         <v>96</v>
       </c>
       <c r="F15" s="8">
-        <f>B70</f>
-        <v>56320</v>
+        <f>B71</f>
+        <v>67320</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3001,7 +2993,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="11">
         <f>SUM(F15:F16)</f>
-        <v>111370</v>
+        <v>122370</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3121,7 +3113,7 @@
       <c r="B33" s="13">
         <v>55000</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <v>44281</v>
       </c>
       <c r="D33" s="12"/>
@@ -3169,7 +3161,7 @@
       <c r="B37" s="13">
         <v>2000</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="21">
         <v>44653</v>
       </c>
       <c r="D37" s="12" t="s">
@@ -3183,7 +3175,7 @@
       <c r="B38" s="13">
         <v>120</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="21">
         <v>44669</v>
       </c>
       <c r="D38" s="12" t="s">
@@ -3265,7 +3257,7 @@
       <c r="B45" s="13">
         <v>10000</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="21">
         <v>44706</v>
       </c>
       <c r="D45" s="12"/>
@@ -3277,7 +3269,7 @@
       <c r="B46" s="13">
         <v>5000</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="21">
         <v>44357</v>
       </c>
       <c r="D46" s="12"/>
@@ -3289,7 +3281,7 @@
       <c r="B47" s="13">
         <v>15000</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="21">
         <v>44794</v>
       </c>
       <c r="D47" s="12"/>
@@ -3301,19 +3293,19 @@
       <c r="B48" s="13">
         <v>10000</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="21">
         <v>44735</v>
       </c>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="13">
         <v>500</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="21">
         <v>44743</v>
       </c>
       <c r="D49" s="12"/>
@@ -3325,7 +3317,7 @@
       <c r="B50" s="13">
         <v>12000</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="21">
         <v>44767</v>
       </c>
       <c r="D50" s="12"/>
@@ -3337,7 +3329,7 @@
       <c r="B51" s="13">
         <v>2000</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="21">
         <v>44814</v>
       </c>
       <c r="D51" s="12"/>
@@ -3349,7 +3341,7 @@
       <c r="B52" s="13">
         <v>15000</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="21">
         <v>44827</v>
       </c>
       <c r="D52" s="12"/>
@@ -3361,7 +3353,7 @@
       <c r="B53" s="13">
         <v>15000</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="21">
         <v>44855</v>
       </c>
       <c r="D53" s="12"/>
@@ -3373,7 +3365,7 @@
       <c r="B54" s="13">
         <v>10000</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="21">
         <v>44875</v>
       </c>
       <c r="D54" s="12" t="s">
@@ -3387,7 +3379,7 @@
       <c r="B55" s="13">
         <v>5000</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="21">
         <v>44885</v>
       </c>
       <c r="D55" s="12" t="s">
@@ -3401,7 +3393,7 @@
       <c r="B56" s="13">
         <v>5000</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="21">
         <v>44916</v>
       </c>
       <c r="D56" s="12"/>
@@ -3413,7 +3405,7 @@
       <c r="B57" s="13">
         <v>10000</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="21">
         <v>44921</v>
       </c>
       <c r="D57" s="12"/>
@@ -3425,7 +3417,7 @@
       <c r="B58" s="13">
         <v>300</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="21">
         <v>44925</v>
       </c>
       <c r="D58" s="12"/>
@@ -3437,7 +3429,7 @@
       <c r="B59" s="13">
         <v>2000</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="21">
         <v>44938</v>
       </c>
       <c r="D59" s="12"/>
@@ -3449,7 +3441,7 @@
       <c r="B60" s="13">
         <v>12000</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="21">
         <v>44585</v>
       </c>
       <c r="D60" s="12"/>
@@ -3481,7 +3473,7 @@
       <c r="B63" s="13">
         <v>1700</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="22">
         <v>44967</v>
       </c>
       <c r="D63" s="12"/>
@@ -3493,7 +3485,7 @@
       <c r="B64" s="13">
         <v>3300</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="22">
         <v>44973</v>
       </c>
       <c r="D64" s="12"/>
@@ -3532,29 +3524,40 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>100</v>
-      </c>
-      <c r="B68" s="11">
-        <f>SUM(B33:B67)</f>
-        <v>242276</v>
+      <c r="A68" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="13">
+        <v>11000</v>
+      </c>
+      <c r="C68" s="14">
+        <v>45019</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="13">
-        <v>185956</v>
+        <v>100</v>
+      </c>
+      <c r="B69" s="11">
+        <f>SUM(B33:B68)</f>
+        <v>253276</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="13">
+        <v>185956</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="11">
-        <f>B68-B69</f>
-        <v>56320</v>
+      <c r="B71" s="11">
+        <f>B69-B70</f>
+        <v>67320</v>
       </c>
     </row>
   </sheetData>
@@ -3575,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3588,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3599,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -3620,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -3641,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -3662,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -3683,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -3704,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -3727,12 +3730,12 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B11" s="8">
         <v>3</v>
@@ -3740,7 +3743,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B12" s="8">
         <v>8</v>
@@ -3748,7 +3751,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B13" s="8">
         <v>8</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B14" s="8">
         <v>8</v>
@@ -3764,7 +3767,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B15" s="8">
         <v>6</v>
@@ -3772,7 +3775,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B16" s="8">
         <v>4</v>
@@ -3787,7 +3790,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B17" s="8">
         <v>7</v>
@@ -3798,13 +3801,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B21" s="8">
         <v>4</v>
@@ -3823,13 +3826,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B24" s="8">
         <v>15</v>
@@ -3844,7 +3847,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B25" s="8">
         <v>4</v>
@@ -3862,19 +3865,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B28" s="8"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3882,7 +3885,7 @@
         <v>440</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>40</v>
@@ -3900,7 +3903,7 @@
         <v>500</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C32">
         <v>40</v>
@@ -3918,7 +3921,7 @@
         <v>610</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C33">
         <v>20</v>
@@ -3936,7 +3939,7 @@
         <v>800</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C34">
         <v>20</v>
@@ -3954,13 +3957,13 @@
         <v>960</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C36">
         <v>4</v>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -845,8 +845,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -868,8 +868,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -891,8 +891,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1144,8 +1144,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1223,12 +1223,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>223166</v>
+            <v>243768</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1250,8 +1250,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1296,8 +1296,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1319,8 +1319,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1342,8 +1342,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1637,7 +1637,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>223166</v>
+        <v>243768</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -1884,7 +1884,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>230166</v>
+        <v>250768</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>22</v>
@@ -2004,7 +2004,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>1219746</v>
+        <v>1240348</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2206,7 +2206,7 @@
     <row r="29" spans="1:18" ht="23.25">
       <c r="B29" s="1">
         <f>SUM(B1:B28)</f>
-        <v>1219746</v>
+        <v>1240348</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="23.25">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>101620</v>
+        <v>81018</v>
       </c>
     </row>
     <row r="41" spans="1:2">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
   <si>
     <t>AYUSH</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>WE NEED IN ACCOUNT</t>
+  </si>
+  <si>
+    <t>kumar</t>
   </si>
 </sst>
 </file>
@@ -1167,22 +1170,22 @@
       <sheetName val="Sheet10"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1321366</v>
+            <v>1708774</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1227,8 +1230,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1636,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1854,8 +1857,12 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="24">
+        <v>49000</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -1938,8 +1945,8 @@
       <c r="H12" s="26"/>
       <c r="I12" s="23"/>
       <c r="J12" s="11">
-        <f>SUM(L2,J3,L4,L5,L6,L7)</f>
-        <v>540634</v>
+        <f>SUM(L2,J3,L4,L5,L6,L7,J8)</f>
+        <v>589634</v>
       </c>
       <c r="K12" t="s">
         <v>135</v>
@@ -1965,8 +1972,8 @@
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="11">
-        <f>75000+5000+33000</f>
-        <v>113000</v>
+        <f>SUM(75000+33000+31500)</f>
+        <v>139500</v>
       </c>
       <c r="K13" t="s">
         <v>136</v>
@@ -1987,7 +1994,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="11">
-        <v>41285</v>
+        <v>53766</v>
       </c>
       <c r="K14" t="s">
         <v>137</v>
@@ -2014,7 +2021,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="11">
         <f>SUM(J12-J13-J14)</f>
-        <v>386349</v>
+        <v>396368</v>
       </c>
       <c r="K15" t="s">
         <v>138</v>
@@ -2050,8 +2057,8 @@
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24">
-        <f>J15/9</f>
-        <v>42927.666666666664</v>
+        <f>J15/8</f>
+        <v>49546</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>139</v>
@@ -2137,7 +2144,7 @@
       <c r="I22" s="11"/>
       <c r="R22">
         <f>SUM(J17:J21)</f>
-        <v>42927.666666666664</v>
+        <v>49546</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="23.25">
@@ -2162,7 +2169,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="8">
         <f>J14-K3</f>
-        <v>-81710</v>
+        <v>-69229</v>
       </c>
       <c r="K24" t="s">
         <v>142</v>
@@ -2179,7 +2186,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="8">
         <f>SUM(L2,L3,L4,L5,L6,L7)-J14</f>
-        <v>376354</v>
+        <v>363873</v>
       </c>
       <c r="K25" t="s">
         <v>70</v>
@@ -2212,7 +2219,7 @@
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1321366</v>
+        <v>1708774</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
@@ -2221,7 +2228,7 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>81018</v>
+        <v>468426</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3578,8 +3585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3993,18 +4000,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="A1:D24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="163">
   <si>
     <t>AYUSH</t>
   </si>
@@ -365,131 +365,188 @@
     <t>cash</t>
   </si>
   <si>
+    <t>RIDDERS</t>
+  </si>
+  <si>
+    <t>TUK TUK SENIOUR</t>
+  </si>
+  <si>
+    <t>DOG CAR</t>
+  </si>
+  <si>
+    <t>PANDA CAR</t>
+  </si>
+  <si>
+    <t>BOOMER CAR</t>
+  </si>
+  <si>
+    <t>ELEPHNAT CAR</t>
+  </si>
+  <si>
+    <t>MINNION CAR</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>WALKERS</t>
+  </si>
+  <si>
+    <t>CHETAK  YUVRAJ</t>
+  </si>
+  <si>
+    <t>8 BEBD STAR CP M</t>
+  </si>
+  <si>
+    <t>CHEAP CP (M)</t>
+  </si>
+  <si>
+    <t>S/H GRIP (M)</t>
+  </si>
+  <si>
+    <t>S/H GRIP (PL)</t>
+  </si>
+  <si>
+    <t>SNR C/P PINKY</t>
+  </si>
+  <si>
+    <t>SNR P/C PINKY</t>
+  </si>
+  <si>
+    <t>SNR P/C HOOD</t>
+  </si>
+  <si>
+    <t>SNR P/C</t>
+  </si>
+  <si>
+    <t>JNR P/C CW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNR C/P CW </t>
+  </si>
+  <si>
+    <t>TINY WALKER</t>
+  </si>
+  <si>
+    <t>GUDDA CP (M)</t>
+  </si>
+  <si>
+    <t>BIKE</t>
+  </si>
+  <si>
+    <t>PANTHER</t>
+  </si>
+  <si>
+    <t>TRICYCLE</t>
+  </si>
+  <si>
+    <t>RAMBO</t>
+  </si>
+  <si>
+    <t>CASH WE HAVE</t>
+  </si>
+  <si>
+    <t>PAKKA</t>
+  </si>
+  <si>
+    <t>CASH WE WILL GIVE THEM</t>
+  </si>
+  <si>
+    <t>ITEM NAME</t>
+  </si>
+  <si>
+    <t>PURCHASE PRICE</t>
+  </si>
+  <si>
+    <t>OUR NUMBER</t>
+  </si>
+  <si>
+    <t>AVAILABLE QTY</t>
+  </si>
+  <si>
+    <t>PALNA</t>
+  </si>
+  <si>
+    <t>HORSE</t>
+  </si>
+  <si>
+    <t>PINKY DLX HOOD</t>
+  </si>
+  <si>
+    <t>LAMBI</t>
+  </si>
+  <si>
+    <t>SOHAM CHAMPA PAYMENT</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>DINO</t>
+  </si>
+  <si>
+    <t>RAFTAR EVA</t>
+  </si>
+  <si>
+    <t>MINI BOOMER</t>
+  </si>
+  <si>
+    <t>SUPER RIDER</t>
+  </si>
+  <si>
+    <t>NM-555</t>
+  </si>
+  <si>
+    <t>SUPER RAMBO</t>
+  </si>
+  <si>
+    <t>PIANO GLOW WALKER</t>
+  </si>
+  <si>
+    <t>BOOSTER</t>
+  </si>
+  <si>
+    <t>ROBO CAR</t>
+  </si>
+  <si>
+    <t>BIG PANDA CAR</t>
+  </si>
+  <si>
+    <t>bvh</t>
+  </si>
+  <si>
+    <t>pvc</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>BVH</t>
+  </si>
+  <si>
+    <t>BVH + MARGIN</t>
+  </si>
+  <si>
     <t>TOY VILLA</t>
   </si>
   <si>
-    <t xml:space="preserve">PALNA </t>
-  </si>
-  <si>
-    <t>RIDDERS</t>
-  </si>
-  <si>
-    <t>TUK TUK SENIOUR</t>
-  </si>
-  <si>
-    <t>DOG CAR</t>
-  </si>
-  <si>
-    <t>PANDA CAR</t>
-  </si>
-  <si>
-    <t>BOOMER CAR</t>
-  </si>
-  <si>
-    <t>ELEPHNAT CAR</t>
-  </si>
-  <si>
-    <t>MINNION CAR</t>
-  </si>
-  <si>
-    <t>HECTOR</t>
-  </si>
-  <si>
-    <t>WALKERS</t>
-  </si>
-  <si>
-    <t>CHETAK</t>
-  </si>
-  <si>
-    <t>CHETAK  YUVRAJ</t>
-  </si>
-  <si>
-    <t>8 BEBD STAR CP M</t>
-  </si>
-  <si>
-    <t>CHEAP CP (M)</t>
-  </si>
-  <si>
-    <t>S/H GRIP (M)</t>
-  </si>
-  <si>
-    <t>S/H GRIP (PL)</t>
-  </si>
-  <si>
-    <t>SNR C/P PINKY</t>
-  </si>
-  <si>
-    <t>SNR P/C PINKY</t>
-  </si>
-  <si>
-    <t>SNR P/C HOOD</t>
-  </si>
-  <si>
-    <t>SNR P/C</t>
-  </si>
-  <si>
-    <t>JNR P/C CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JNR C/P CW </t>
-  </si>
-  <si>
-    <t>TINY WALKER</t>
-  </si>
-  <si>
-    <t>GUDDA CP (M)</t>
-  </si>
-  <si>
-    <t>RENT</t>
-  </si>
-  <si>
-    <t>BIKE</t>
-  </si>
-  <si>
-    <t>PANTHER</t>
-  </si>
-  <si>
-    <t>TRICYCLE</t>
-  </si>
-  <si>
-    <t>RAMBO</t>
-  </si>
-  <si>
-    <t>VESPA</t>
-  </si>
-  <si>
-    <t>TOTAL WE REQUIRED</t>
-  </si>
-  <si>
-    <t>CASH WE HAVE</t>
-  </si>
-  <si>
-    <t>IN ACCOUNT WE HAVE</t>
-  </si>
-  <si>
-    <t>WE REQUIRED AFTER EVERYTHING</t>
-  </si>
-  <si>
-    <t>DAILY WE NEED</t>
-  </si>
-  <si>
-    <t>PAKKA</t>
-  </si>
-  <si>
-    <t>CASH WE WILL GIVE THEM</t>
-  </si>
-  <si>
-    <t>WE NEED IN ACCOUNT</t>
-  </si>
-  <si>
-    <t>kumar</t>
+    <t>CASH WE REQUIRED</t>
+  </si>
+  <si>
+    <t>IN BANK WE REQUIRED</t>
+  </si>
+  <si>
+    <t>IN BANK WE HAVE</t>
+  </si>
+  <si>
+    <t>CASH REQUIRED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +649,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -619,15 +683,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -690,13 +755,40 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -709,6 +801,54 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -775,12 +915,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>162798</v>
+            <v>125935</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1028,12 +1168,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>82204</v>
+            <v>36600</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1170,22 +1310,22 @@
       <sheetName val="Sheet10"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1708774</v>
+            <v>1429626</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1226,7 +1366,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>243768</v>
+            <v>94679</v>
           </cell>
         </row>
       </sheetData>
@@ -1272,7 +1412,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>135305</v>
+            <v>12630</v>
           </cell>
         </row>
       </sheetData>
@@ -1639,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1677,10 +1817,10 @@
         <v>24</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" thickTop="1">
@@ -1697,20 +1837,18 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J2" s="24">
-        <f>B11</f>
-        <v>162798</v>
-      </c>
-      <c r="K2" s="13">
-        <v>17657</v>
-      </c>
-      <c r="L2" s="8">
-        <f>J2-K2-50000</f>
-        <v>95141</v>
-      </c>
-      <c r="N2" s="11"/>
+        <f>B6</f>
+        <v>12630</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="8"/>
+      <c r="N2" s="11">
+        <f>SUM(L2:L5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="23.25">
       <c r="A3" s="2" t="s">
@@ -1726,19 +1864,14 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J3" s="24">
-        <f>B6</f>
-        <v>135305</v>
-      </c>
-      <c r="K3" s="13">
-        <v>122995</v>
-      </c>
-      <c r="L3" s="8">
-        <f>J3-K3</f>
-        <v>12310</v>
-      </c>
+        <f>B11</f>
+        <v>125935</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="8"/>
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="23.25">
@@ -1747,7 +1880,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>243768</v>
+        <v>94679</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -1755,19 +1888,14 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="J4" s="24">
         <f>B21</f>
-        <v>82204</v>
-      </c>
-      <c r="K4" s="13">
-        <v>42016</v>
-      </c>
-      <c r="L4" s="8">
-        <f>J4-K4</f>
-        <v>40188</v>
-      </c>
+        <v>36600</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="8"/>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="23.25">
@@ -1784,15 +1912,13 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" s="24">
-        <v>150000</v>
-      </c>
-      <c r="L5" s="8">
-        <f>J5</f>
-        <v>150000</v>
-      </c>
+        <f>B25</f>
+        <v>-680</v>
+      </c>
+      <c r="L5" s="8"/>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="23.25">
@@ -1801,7 +1927,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -1809,15 +1935,12 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="J6" s="24">
-        <v>75000</v>
-      </c>
-      <c r="L6" s="8">
-        <f>J6</f>
-        <v>75000</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="L6" s="8"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="23.25">
@@ -1833,16 +1956,9 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24">
-        <v>45000</v>
-      </c>
-      <c r="L7" s="8">
-        <f>J7</f>
-        <v>45000</v>
-      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="23.25">
       <c r="A8" s="2" t="s">
@@ -1857,12 +1973,8 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="J8" s="24">
-        <v>49000</v>
-      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -1891,7 +2003,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>250768</v>
+        <v>101679</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>22</v>
@@ -1908,12 +2020,12 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B25,B28)</f>
-        <v>382770</v>
+        <v>177628</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -1945,11 +2057,11 @@
       <c r="H12" s="26"/>
       <c r="I12" s="23"/>
       <c r="J12" s="11">
-        <f>SUM(L2,J3,L4,L5,L6,L7,J8)</f>
-        <v>589634</v>
+        <f>SUM(J2:J10)</f>
+        <v>374485</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="23.25">
@@ -1972,11 +2084,11 @@
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="11">
-        <f>SUM(75000+33000+31500)</f>
-        <v>139500</v>
+        <f>SUM(K2:K10)</f>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="23.25">
@@ -1993,12 +2105,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="11">
-        <v>53766</v>
-      </c>
-      <c r="K14" t="s">
-        <v>137</v>
-      </c>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:14" ht="23.25">
       <c r="A15" s="2" t="s">
@@ -2011,7 +2118,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>1240348</v>
+        <v>886117</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2020,11 +2127,10 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="11">
-        <f>SUM(J12-J13-J14)</f>
-        <v>396368</v>
+        <v>11000</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="23.25">
@@ -2041,6 +2147,12 @@
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="27"/>
+      <c r="J16" s="11">
+        <v>10701</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="23.25">
       <c r="A17" s="2" t="s">
@@ -2056,13 +2168,8 @@
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="24">
-        <f>J15/8</f>
-        <v>49546</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>139</v>
-      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:18" ht="23.25">
@@ -2078,7 +2185,13 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-      <c r="J18" s="24"/>
+      <c r="J18" s="24">
+        <f>J12-J15</f>
+        <v>363485</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="23.25">
       <c r="A19" s="2" t="s">
@@ -2094,7 +2207,13 @@
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="30"/>
-      <c r="J19" s="24"/>
+      <c r="J19" s="24">
+        <f>J13-J16</f>
+        <v>-10701</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="23.25">
       <c r="A20" s="2" t="s">
@@ -2118,7 +2237,7 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2142,9 +2261,8 @@
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="11"/>
-      <c r="R22">
-        <f>SUM(J17:J21)</f>
-        <v>49546</v>
+      <c r="R22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="23.25">
@@ -2167,13 +2285,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="8">
-        <f>J14-K3</f>
-        <v>-69229</v>
-      </c>
-      <c r="K24" t="s">
-        <v>142</v>
-      </c>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:18" ht="23.25">
       <c r="A25" s="2" t="s">
@@ -2184,13 +2296,7 @@
         <v>-680</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="8">
-        <f>SUM(L2,L3,L4,L5,L6,L7)-J14</f>
-        <v>363873</v>
-      </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:18" ht="23.25">
       <c r="A26" s="2"/>
@@ -2213,13 +2319,13 @@
     <row r="29" spans="1:18" ht="23.25">
       <c r="B29" s="1">
         <f>SUM(B1:B28)</f>
-        <v>1240348</v>
+        <v>886117</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1708774</v>
+        <v>1429626</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
@@ -2228,7 +2334,7 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>468426</v>
+        <v>543509</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2244,6 +2350,22 @@
       <c r="B47" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <webPublishItems count="1">
@@ -2257,7 +2379,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2779,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2962,8 +3084,8 @@
         <v>96</v>
       </c>
       <c r="F15" s="8">
-        <f>B71</f>
-        <v>67320</v>
+        <f>B73</f>
+        <v>72549</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3000,7 +3122,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="11">
         <f>SUM(F15:F16)</f>
-        <v>122370</v>
+        <v>127599</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3542,37 +3664,59 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" s="11">
-        <f>SUM(B33:B68)</f>
-        <v>253276</v>
+      <c r="A69" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="13">
+        <v>229</v>
+      </c>
+      <c r="C69" s="14">
+        <v>45023</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>101</v>
+      <c r="A70" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B70" s="13">
-        <v>185956</v>
+        <v>5000</v>
+      </c>
+      <c r="C70" s="14">
+        <v>45040</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="11">
+        <f>SUM(B33:B70)</f>
+        <v>258505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="13">
+        <v>185956</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="11">
-        <f>B69-B70</f>
-        <v>67320</v>
+      <c r="B73" s="11">
+        <f>B71-B72</f>
+        <v>72549</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F16">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NOT YET">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT YET">
       <formula>NOT(ISERROR(SEARCH("NOT YET",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="RECIVED">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="RECIVED">
       <formula>NOT(ISERROR(SEARCH("RECIVED",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3583,409 +3727,729 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8">
+    <row r="1" spans="1:14" ht="18.75">
+      <c r="A1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75">
+      <c r="A2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="K2" s="7"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="8">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8">
+        <v>470</v>
+      </c>
+      <c r="D3" s="8">
         <v>1360</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>470</v>
-      </c>
-      <c r="F2">
-        <f>E2*D2</f>
-        <v>5640</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8">
+      <c r="F3">
+        <f>B3*C3</f>
+        <v>9400</v>
+      </c>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="8">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8">
+        <v>730</v>
+      </c>
+      <c r="D4" s="8">
         <v>2120</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>730</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F7" si="0">E3*D3</f>
-        <v>8760</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8">
+      <c r="F4">
+        <f>B4*C4</f>
+        <v>14600</v>
+      </c>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="8">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8">
+        <v>680</v>
+      </c>
+      <c r="D5" s="8">
         <v>1970</v>
       </c>
-      <c r="B4" s="8">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F5">
+        <f t="shared" ref="F5:F46" si="0">B5*C5</f>
+        <v>13600</v>
+      </c>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>680</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>8160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8">
+      <c r="B6" s="8">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8">
+        <v>630</v>
+      </c>
+      <c r="D6" s="8">
         <v>1830</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>630</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8">
-        <v>1220</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>420</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8">
-        <v>1320</v>
+        <v>12600</v>
+      </c>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>1320</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="8">
+        <v>420</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1220</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>15840</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8">
+        <v>8400</v>
+      </c>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="8">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8">
+        <v>420</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1320</v>
+      </c>
+      <c r="F8">
+        <f>B8*C8</f>
+        <v>8400</v>
+      </c>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1015</v>
+      </c>
+      <c r="D9" s="8">
         <v>2950</v>
       </c>
-      <c r="B8" s="8">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4060</v>
+      </c>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8" t="s">
+      <c r="C10" s="8">
+        <v>1045</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>4180</v>
+      </c>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8">
+        <v>940</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8">
+        <v>1030</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8">
+        <v>850</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="8">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>675</v>
-      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
+        <v>925</v>
+      </c>
+      <c r="D16" s="8"/>
       <c r="F16">
-        <f>C16*B16</f>
-        <v>2700</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="8">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8">
+        <v>735</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="8">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
+        <v>660</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2640</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
+      <c r="A19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
+        <v>825</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>150</v>
+      </c>
+      <c r="B20" s="8">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8">
+        <v>915</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3660</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B21" s="8">
         <v>4</v>
       </c>
-      <c r="C21">
-        <v>2100</v>
-      </c>
+      <c r="C21" s="8">
+        <v>970</v>
+      </c>
+      <c r="D21" s="8"/>
       <c r="F21">
-        <f>C21*B21</f>
-        <v>8400</v>
+        <f t="shared" si="0"/>
+        <v>3880</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1060</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>4240</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11" t="s">
-        <v>132</v>
-      </c>
+      <c r="A23" s="8"/>
       <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="8">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>440</v>
-      </c>
+      <c r="A24" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="F24">
-        <f>C24*B24</f>
-        <v>6600</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="8">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>780</v>
+        <v>127</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8">
+        <v>2100</v>
       </c>
       <c r="F25">
-        <f>B25*C25</f>
-        <v>3120</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
+      <c r="A26" s="8"/>
       <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="8">
+        <v>4</v>
+      </c>
+      <c r="C29" s="8">
+        <v>750</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="8">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8">
+        <v>825</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="8">
+        <v>4</v>
+      </c>
+      <c r="C31" s="8">
+        <v>450</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="8">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8">
+        <v>675</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="8">
+        <v>15</v>
+      </c>
+      <c r="C33" s="8">
+        <v>450</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="8">
+        <v>21</v>
+      </c>
+      <c r="C36" s="8">
+        <v>290</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="8">
+        <v>4</v>
+      </c>
+      <c r="C37" s="8">
+        <v>425</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="8">
+        <v>40</v>
+      </c>
+      <c r="C40" s="8">
+        <v>150</v>
+      </c>
+      <c r="D40" s="8">
+        <v>440</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="11" t="s">
+      <c r="B41" s="8">
+        <v>40</v>
+      </c>
+      <c r="C41" s="8">
+        <v>170</v>
+      </c>
+      <c r="D41" s="8">
+        <v>500</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>6800</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="8">
+        <v>20</v>
+      </c>
+      <c r="C42" s="8">
+        <v>205</v>
+      </c>
+      <c r="D42" s="8">
+        <v>610</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>4100</v>
+      </c>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="8">
-        <v>440</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31">
-        <v>40</v>
-      </c>
-      <c r="D31">
-        <v>150</v>
-      </c>
-      <c r="F31">
-        <f>D31*C31</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="8">
-        <v>500</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32">
-        <v>40</v>
-      </c>
-      <c r="D32">
-        <v>170</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ref="F32:F34" si="1">D32*C32</f>
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="8">
-        <v>610</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33">
+      <c r="B43" s="8">
         <v>20</v>
       </c>
-      <c r="D33">
-        <v>205</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8">
+      <c r="C43" s="8">
+        <v>275</v>
+      </c>
+      <c r="D43" s="8">
         <v>800</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="8">
         <v>20</v>
       </c>
-      <c r="D34">
-        <v>275</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="8">
+      <c r="C44" s="8">
+        <v>325</v>
+      </c>
+      <c r="D44" s="8">
         <v>960</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="8">
+        <v>8</v>
+      </c>
+      <c r="C45" s="8">
+        <v>775</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>6200</v>
+      </c>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="8">
         <v>4</v>
       </c>
-      <c r="D36">
-        <v>775</v>
-      </c>
-      <c r="F36">
-        <f>D36*C36</f>
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="C46" s="8">
+        <v>495</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="J47" s="8"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A20:A24">
@@ -3998,25 +4462,544 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="3" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:5">
+      <c r="B1" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14">
+        <v>45031</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1561</v>
+      </c>
+      <c r="C2" s="8">
+        <v>260234</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="8">
+        <f>SUM(B2:B556)</f>
+        <v>105440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14">
+        <v>45034</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6800</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="32">
+        <f>E2*1.15</f>
+        <v>121255.99999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14">
+        <v>45030</v>
+      </c>
+      <c r="B4" s="8">
+        <v>8245</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="8">
+        <f>C2</f>
+        <v>260234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14">
+        <v>45031</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9176</v>
+      </c>
+      <c r="E5" s="33">
+        <f>E4-E3</f>
+        <v>138978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14">
+        <v>45034</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14">
+        <v>45031</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14">
+        <v>45033</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="14">
+        <v>45034</v>
+      </c>
+      <c r="B9" s="8">
+        <v>23075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="14">
+        <v>45035</v>
+      </c>
+      <c r="B10" s="8">
+        <v>14075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14">
+        <v>45031</v>
+      </c>
+      <c r="B11" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="8"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="8"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="8"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="8"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="8"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="8"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="8"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="8"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="8"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="8"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="8"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="8"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="8"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="8"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="8"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="8"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="8"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="8"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="8"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="8"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="8"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="8"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="8"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="8"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="8"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="8"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="8"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="8"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="8"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="8"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="8"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="8"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="8"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="8"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="8"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="8"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="8"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="8"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="8"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="8"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="8"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="8"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="8"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="8"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="8"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="aboveAverage" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="163">
   <si>
     <t>AYUSH</t>
   </si>
@@ -919,8 +919,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1172,8 +1172,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1315,7 +1315,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1429626</v>
+            <v>1335013</v>
           </cell>
         </row>
       </sheetData>
@@ -1780,7 +1780,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1956,8 +1956,12 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="24">
+        <v>45000</v>
+      </c>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="23.25">
@@ -2058,7 +2062,7 @@
       <c r="I12" s="23"/>
       <c r="J12" s="11">
         <f>SUM(J2:J10)</f>
-        <v>374485</v>
+        <v>419485</v>
       </c>
       <c r="K12" t="s">
         <v>159</v>
@@ -2148,7 +2152,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="27"/>
       <c r="J16" s="11">
-        <v>10701</v>
+        <v>23300</v>
       </c>
       <c r="K16" t="s">
         <v>161</v>
@@ -2187,7 +2191,7 @@
       <c r="H18" s="23"/>
       <c r="J18" s="24">
         <f>J12-J15</f>
-        <v>363485</v>
+        <v>408485</v>
       </c>
       <c r="K18" t="s">
         <v>162</v>
@@ -2209,7 +2213,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="24">
         <f>J13-J16</f>
-        <v>-10701</v>
+        <v>-23300</v>
       </c>
       <c r="K19" t="s">
         <v>160</v>
@@ -2325,7 +2329,7 @@
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1429626</v>
+        <v>1335013</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
@@ -2334,7 +2338,7 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>543509</v>
+        <v>448896</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4465,7 +4469,7 @@
   <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4500,7 +4504,7 @@
       </c>
       <c r="E2" s="8">
         <f>SUM(B2:B556)</f>
-        <v>105440</v>
+        <v>109786</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4515,7 +4519,7 @@
       </c>
       <c r="E3" s="32">
         <f>E2*1.15</f>
-        <v>121255.99999999999</v>
+        <v>126253.9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4542,7 +4546,7 @@
       </c>
       <c r="E5" s="33">
         <f>E4-E3</f>
-        <v>138978</v>
+        <v>133980.1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4594,7 +4598,12 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="8"/>
+      <c r="A12" s="14">
+        <v>45034</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4346</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="8"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="163">
   <si>
     <t>AYUSH</t>
   </si>
@@ -892,7 +892,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>6336</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -915,7 +915,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>125935</v>
+            <v>118439</v>
           </cell>
         </row>
       </sheetData>
@@ -961,7 +961,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>11716</v>
           </cell>
         </row>
       </sheetData>
@@ -1007,7 +1007,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>27390</v>
+            <v>6800</v>
           </cell>
         </row>
       </sheetData>
@@ -1122,7 +1122,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>13750</v>
+            <v>32165</v>
           </cell>
         </row>
       </sheetData>
@@ -1168,7 +1168,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>36600</v>
+            <v>9584</v>
           </cell>
         </row>
       </sheetData>
@@ -1260,7 +1260,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>-680</v>
+            <v>16688</v>
           </cell>
         </row>
       </sheetData>
@@ -1315,7 +1315,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1335013</v>
+            <v>1351642</v>
           </cell>
         </row>
       </sheetData>
@@ -1366,7 +1366,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>94679</v>
+            <v>82102</v>
           </cell>
         </row>
       </sheetData>
@@ -1412,7 +1412,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>12630</v>
+            <v>11074</v>
           </cell>
         </row>
       </sheetData>
@@ -1435,7 +1435,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>189150</v>
+            <v>99150</v>
           </cell>
         </row>
       </sheetData>
@@ -1458,7 +1458,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>7000</v>
+            <v>2100</v>
           </cell>
         </row>
       </sheetData>
@@ -1779,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1788,9 +1788,10 @@
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
     <col min="9" max="9" width="42.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" customWidth="1"/>
@@ -1829,7 +1830,7 @@
       </c>
       <c r="B2" s="3">
         <f>[2]Sheet1!$E$38</f>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -1841,13 +1842,16 @@
       </c>
       <c r="J2" s="24">
         <f>B6</f>
-        <v>12630</v>
+        <v>11074</v>
       </c>
       <c r="K2" s="13"/>
-      <c r="L2" s="8"/>
+      <c r="L2" s="8">
+        <f>J2-K2</f>
+        <v>11074</v>
+      </c>
       <c r="N2" s="11">
         <f>SUM(L2:L5)</f>
-        <v>0</v>
+        <v>148164</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.25">
@@ -1868,10 +1872,13 @@
       </c>
       <c r="J3" s="24">
         <f>B11</f>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="K3" s="13"/>
-      <c r="L3" s="8"/>
+      <c r="L3" s="8">
+        <f>J3-K3</f>
+        <v>118439</v>
+      </c>
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="23.25">
@@ -1880,7 +1887,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>94679</v>
+        <v>82102</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -1892,10 +1899,13 @@
       </c>
       <c r="J4" s="24">
         <f>B21</f>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="K4" s="13"/>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8">
+        <f t="shared" ref="L4:L6" si="0">J4-K4</f>
+        <v>9584</v>
+      </c>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="23.25">
@@ -1916,9 +1926,15 @@
       </c>
       <c r="J5" s="24">
         <f>B25</f>
-        <v>-680</v>
-      </c>
-      <c r="L5" s="8"/>
+        <v>16688</v>
+      </c>
+      <c r="K5" s="8">
+        <v>7621</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="0"/>
+        <v>9067</v>
+      </c>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="23.25">
@@ -1927,7 +1943,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>12630</v>
+        <v>11074</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -1940,7 +1956,10 @@
       <c r="J6" s="24">
         <v>200000</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="23.25">
@@ -1949,19 +1968,15 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>189150</v>
+        <v>99150</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24">
-        <v>45000</v>
-      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="23.25">
@@ -1970,7 +1985,7 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -2002,12 +2017,12 @@
       </c>
       <c r="B10" s="2">
         <f>[10]Sheet1!$E$38</f>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>101679</v>
+        <v>95918</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>22</v>
@@ -2024,12 +2039,12 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B25,B28)</f>
-        <v>177628</v>
+        <v>158928</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2052,7 +2067,7 @@
       <c r="D12" s="23"/>
       <c r="E12" s="23">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>573084</v>
+        <v>501499</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>21</v>
@@ -2060,10 +2075,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="26"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="11">
-        <f>SUM(J2:J10)</f>
-        <v>419485</v>
-      </c>
+      <c r="J12" s="11"/>
       <c r="K12" t="s">
         <v>159</v>
       </c>
@@ -2074,12 +2086,12 @@
       </c>
       <c r="B13" s="2">
         <f>[13]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23">
         <f>SUM(B15,B10,B24)</f>
-        <v>33726</v>
+        <v>6800</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>23</v>
@@ -2089,7 +2101,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="11">
         <f>SUM(K2:K10)</f>
-        <v>0</v>
+        <v>7621</v>
       </c>
       <c r="K13" t="s">
         <v>160</v>
@@ -2117,12 +2129,12 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>886117</v>
+        <v>763145</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2131,7 +2143,8 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="11">
-        <v>11000</v>
+        <f>SUM(9500+160)</f>
+        <v>9660</v>
       </c>
       <c r="K15" t="s">
         <v>130</v>
@@ -2152,7 +2165,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="27"/>
       <c r="J16" s="11">
-        <v>23300</v>
+        <v>43158</v>
       </c>
       <c r="K16" t="s">
         <v>161</v>
@@ -2190,8 +2203,8 @@
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="J18" s="24">
-        <f>J12-J15</f>
-        <v>408485</v>
+        <f>SUM(L2:L6)-J12</f>
+        <v>348164</v>
       </c>
       <c r="K18" t="s">
         <v>162</v>
@@ -2213,7 +2226,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="24">
         <f>J13-J16</f>
-        <v>-23300</v>
+        <v>-35537</v>
       </c>
       <c r="K19" t="s">
         <v>160</v>
@@ -2241,7 +2254,7 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2297,7 +2310,7 @@
       </c>
       <c r="B25" s="9">
         <f>[25]Sheet1!$E$38</f>
-        <v>-680</v>
+        <v>16688</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
@@ -2323,13 +2336,13 @@
     <row r="29" spans="1:18" ht="23.25">
       <c r="B29" s="1">
         <f>SUM(B1:B28)</f>
-        <v>886117</v>
+        <v>763145</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1335013</v>
+        <v>1351642</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
@@ -2338,7 +2351,7 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>448896</v>
+        <v>588497</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2383,7 +2396,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3733,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3919,7 +3932,9 @@
       <c r="C10" s="8">
         <v>1045</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8">
+        <v>3030</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>4180</v>
@@ -3958,7 +3973,9 @@
       <c r="C13" s="8">
         <v>940</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>2730</v>
+      </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>3760</v>
@@ -4060,7 +4077,9 @@
       <c r="C20" s="8">
         <v>915</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8">
+        <v>915</v>
+      </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>3660</v>
@@ -4076,7 +4095,9 @@
       <c r="C21" s="8">
         <v>970</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8">
+        <v>2820</v>
+      </c>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>3880</v>
@@ -4469,7 +4490,7 @@
   <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4497,14 +4518,14 @@
         <v>1561</v>
       </c>
       <c r="C2" s="8">
-        <v>260234</v>
+        <v>329558</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>156</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(B2:B556)</f>
-        <v>109786</v>
+        <v>136464</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4519,7 +4540,7 @@
       </c>
       <c r="E3" s="32">
         <f>E2*1.15</f>
-        <v>126253.9</v>
+        <v>156933.59999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4534,7 +4555,7 @@
       </c>
       <c r="E4" s="8">
         <f>C2</f>
-        <v>260234</v>
+        <v>329558</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4546,7 +4567,7 @@
       </c>
       <c r="E5" s="33">
         <f>E4-E3</f>
-        <v>133980.1</v>
+        <v>172624.40000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4606,16 +4627,32 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="8"/>
+      <c r="A13" s="14">
+        <v>45040</v>
+      </c>
+      <c r="B13" s="8">
+        <v>16225</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="8"/>
+      <c r="A14" s="14">
+        <v>45043</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4346</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
+      <c r="A15" s="14"/>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="8"/>
+      <c r="A16" s="14">
+        <v>45048</v>
+      </c>
+      <c r="B16" s="8">
+        <v>6107</v>
+      </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="8"/>
@@ -5509,13 +5546,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -915,7 +915,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>118439</v>
+            <v>4284</v>
           </cell>
         </row>
       </sheetData>
@@ -1168,7 +1168,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>9584</v>
+            <v>24596</v>
           </cell>
         </row>
       </sheetData>
@@ -1315,7 +1315,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1351642</v>
+            <v>1381488</v>
           </cell>
         </row>
       </sheetData>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="N2" s="11">
         <f>SUM(L2:L5)</f>
-        <v>148164</v>
+        <v>49021</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.25">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="J3" s="24">
         <f>B11</f>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="N3" s="8"/>
     </row>
@@ -1899,12 +1899,12 @@
       </c>
       <c r="J4" s="24">
         <f>B21</f>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L6" si="0">J4-K4</f>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B25,B28)</f>
-        <v>158928</v>
+        <v>59785</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2134,7 +2134,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>763145</v>
+        <v>664002</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2204,7 +2204,7 @@
       <c r="H18" s="23"/>
       <c r="J18" s="24">
         <f>SUM(L2:L6)-J12</f>
-        <v>348164</v>
+        <v>249021</v>
       </c>
       <c r="K18" t="s">
         <v>162</v>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2336,13 +2336,13 @@
     <row r="29" spans="1:18" ht="23.25">
       <c r="B29" s="1">
         <f>SUM(B1:B28)</f>
-        <v>763145</v>
+        <v>664002</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1351642</v>
+        <v>1381488</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>588497</v>
+        <v>717486</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3747,7 +3747,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="177">
   <si>
     <t>AYUSH</t>
   </si>
@@ -540,13 +540,55 @@
   </si>
   <si>
     <t>CASH REQUIRED</t>
+  </si>
+  <si>
+    <t>KIA CAREN</t>
+  </si>
+  <si>
+    <t>MARUTI SUZUKI XL6</t>
+  </si>
+  <si>
+    <t>HYUNDAI ALCAZAR</t>
+  </si>
+  <si>
+    <t>SEATERS</t>
+  </si>
+  <si>
+    <t>MILAGE</t>
+  </si>
+  <si>
+    <t>FUEL TYPE</t>
+  </si>
+  <si>
+    <t>COMFORT</t>
+  </si>
+  <si>
+    <t>HONDA WRV</t>
+  </si>
+  <si>
+    <t>HONDA BRV</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>RECENT LAUNCHED</t>
+  </si>
+  <si>
+    <t>FUEL TANK CAPACITY</t>
+  </si>
+  <si>
+    <t>MARUTI SUZUKI ERTIGA (ZXI)</t>
+  </si>
+  <si>
+    <t>CAMERA + ELECTRONICS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,16 +698,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -682,8 +750,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -691,8 +783,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -761,8 +854,40 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,7 +1040,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>4284</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1260,12 +1385,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>16688</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1315,7 +1440,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1381488</v>
+            <v>1228197</v>
           </cell>
         </row>
       </sheetData>
@@ -1366,7 +1491,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>82102</v>
+            <v>166636</v>
           </cell>
         </row>
       </sheetData>
@@ -1412,7 +1537,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>11074</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1780,7 +1905,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1842,16 +1967,16 @@
       </c>
       <c r="J2" s="24">
         <f>B6</f>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="N2" s="11">
         <f>SUM(L2:L5)</f>
-        <v>49021</v>
+        <v>24596</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.25">
@@ -1872,12 +1997,12 @@
       </c>
       <c r="J3" s="24">
         <f>B11</f>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="N3" s="8"/>
     </row>
@@ -1887,7 +2012,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>82102</v>
+        <v>166636</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -1926,14 +2051,12 @@
       </c>
       <c r="J5" s="24">
         <f>B25</f>
-        <v>16688</v>
-      </c>
-      <c r="K5" s="8">
-        <v>7621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K5" s="8"/>
       <c r="L5" s="8">
         <f t="shared" si="0"/>
-        <v>9067</v>
+        <v>0</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -1943,7 +2066,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2022,7 +2145,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>95918</v>
+        <v>180452</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>22</v>
@@ -2039,12 +2162,12 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B25,B28)</f>
-        <v>59785</v>
+        <v>27739</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2101,7 +2224,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="11">
         <f>SUM(K2:K10)</f>
-        <v>7621</v>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
         <v>160</v>
@@ -2134,7 +2257,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>664002</v>
+        <v>716490</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2204,7 +2327,7 @@
       <c r="H18" s="23"/>
       <c r="J18" s="24">
         <f>SUM(L2:L6)-J12</f>
-        <v>249021</v>
+        <v>224596</v>
       </c>
       <c r="K18" t="s">
         <v>162</v>
@@ -2226,7 +2349,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="24">
         <f>J13-J16</f>
-        <v>-35537</v>
+        <v>-43158</v>
       </c>
       <c r="K19" t="s">
         <v>160</v>
@@ -2310,7 +2433,7 @@
       </c>
       <c r="B25" s="9">
         <f>[25]Sheet1!$E$38</f>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
@@ -2336,13 +2459,13 @@
     <row r="29" spans="1:18" ht="23.25">
       <c r="B29" s="1">
         <f>SUM(B1:B28)</f>
-        <v>664002</v>
+        <v>716490</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1381488</v>
+        <v>1228197</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
@@ -2351,7 +2474,7 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>717486</v>
+        <v>511707</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3746,7 +3869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4490,7 +4613,7 @@
   <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4518,14 +4641,14 @@
         <v>1561</v>
       </c>
       <c r="C2" s="8">
-        <v>329558</v>
+        <v>549082</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>156</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(B2:B556)</f>
-        <v>136464</v>
+        <v>212616</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4540,7 +4663,7 @@
       </c>
       <c r="E3" s="32">
         <f>E2*1.15</f>
-        <v>156933.59999999998</v>
+        <v>244508.4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4555,7 +4678,7 @@
       </c>
       <c r="E4" s="8">
         <f>C2</f>
-        <v>329558</v>
+        <v>549082</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4567,7 +4690,7 @@
       </c>
       <c r="E5" s="33">
         <f>E4-E3</f>
-        <v>172624.40000000002</v>
+        <v>304573.59999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4654,52 +4777,87 @@
         <v>6107</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="2:2">
+    <row r="17" spans="1:2">
+      <c r="A17" s="14">
+        <v>45048</v>
+      </c>
+      <c r="B17" s="8">
+        <v>32705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14">
+        <v>45052</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14">
+        <v>45052</v>
+      </c>
+      <c r="B19" s="8">
+        <v>21646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="14">
+        <v>45052</v>
+      </c>
+      <c r="B20" s="8">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14">
+        <v>45052</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14">
+        <v>45051</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="14">
+        <v>45050</v>
+      </c>
+      <c r="B23" s="8">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2">
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2">
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2">
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2">
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2">
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="2:2">
@@ -5051,94 +5209,172 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="123.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="3" width="28.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="29" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12"/>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="B1" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="41"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="36"/>
       <c r="B12"/>
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:7">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:7">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:7">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:7">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -5264,7 +5500,8 @@
       <c r="C40"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5272,13 +5509,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C46" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="196">
   <si>
     <t>AYUSH</t>
   </si>
@@ -582,6 +582,63 @@
   </si>
   <si>
     <t>CAMERA + ELECTRONICS</t>
+  </si>
+  <si>
+    <t>DEC-22 TAK</t>
+  </si>
+  <si>
+    <t>BASKET BOARD PVC PACKING</t>
+  </si>
+  <si>
+    <t>2IN1  BASKET BALL</t>
+  </si>
+  <si>
+    <t>LEO DART (PVC PACKING)</t>
+  </si>
+  <si>
+    <t>5 IN  1 EASEL FOR KIDS</t>
+  </si>
+  <si>
+    <t>BALAK</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>INDIA MAP</t>
+  </si>
+  <si>
+    <t>2IN1  PAINTING KIT</t>
+  </si>
+  <si>
+    <t>CHARMIN JWELLERY (MINI)</t>
+  </si>
+  <si>
+    <t>NAIL ART - JUNIOR</t>
+  </si>
+  <si>
+    <t>SMALL  LUDO  TOP</t>
+  </si>
+  <si>
+    <t>BIG LUDO TOP</t>
+  </si>
+  <si>
+    <t>KIDIA LUDO   TOP</t>
+  </si>
+  <si>
+    <t>KELLY WELLY LUDO</t>
+  </si>
+  <si>
+    <t>50+30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROHIT ENTERPRISES </t>
+  </si>
+  <si>
+    <t>HINDI VARNAMALA</t>
+  </si>
+  <si>
+    <t>ALPHABETS + NUMBERS</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1097,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>11658</v>
           </cell>
         </row>
       </sheetData>
@@ -1063,7 +1120,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>3143</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1086,7 +1143,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>11716</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1109,7 +1166,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>102280</v>
+            <v>53280</v>
           </cell>
         </row>
       </sheetData>
@@ -1132,7 +1189,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>6800</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1155,7 +1212,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>100455</v>
+            <v>2455</v>
           </cell>
         </row>
       </sheetData>
@@ -1201,7 +1258,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>167449</v>
+            <v>72349</v>
           </cell>
         </row>
       </sheetData>
@@ -1247,7 +1304,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>32165</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1293,7 +1350,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>24596</v>
+            <v>2522</v>
           </cell>
         </row>
       </sheetData>
@@ -1385,12 +1442,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>57122</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1408,7 +1465,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>11972</v>
           </cell>
         </row>
       </sheetData>
@@ -1440,7 +1497,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1228197</v>
+            <v>1161551</v>
           </cell>
         </row>
       </sheetData>
@@ -1491,7 +1548,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>166636</v>
+            <v>134766</v>
           </cell>
         </row>
       </sheetData>
@@ -1537,7 +1594,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>121216</v>
           </cell>
         </row>
       </sheetData>
@@ -1560,7 +1617,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>99150</v>
+            <v>62940</v>
           </cell>
         </row>
       </sheetData>
@@ -1583,7 +1640,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>2100</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1905,7 +1962,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1955,7 +2012,7 @@
       </c>
       <c r="B2" s="3">
         <f>[2]Sheet1!$E$38</f>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -1967,16 +2024,18 @@
       </c>
       <c r="J2" s="24">
         <f>B6</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="13"/>
+        <v>121216</v>
+      </c>
+      <c r="K2" s="13">
+        <v>118858</v>
+      </c>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>0</v>
+        <v>2358</v>
       </c>
       <c r="N2" s="11">
         <f>SUM(L2:L5)</f>
-        <v>24596</v>
+        <v>50192</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.25">
@@ -1997,12 +2056,14 @@
       </c>
       <c r="J3" s="24">
         <f>B11</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="13"/>
+        <v>11658</v>
+      </c>
+      <c r="K3" s="13">
+        <v>4904</v>
+      </c>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>0</v>
+        <v>6754</v>
       </c>
       <c r="N3" s="8"/>
     </row>
@@ -2012,7 +2073,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>166636</v>
+        <v>134766</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -2024,12 +2085,12 @@
       </c>
       <c r="J4" s="24">
         <f>B21</f>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L6" si="0">J4-K4</f>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -2051,12 +2112,14 @@
       </c>
       <c r="J5" s="24">
         <f>B25</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="8"/>
+        <v>57122</v>
+      </c>
+      <c r="K5" s="8">
+        <v>18564</v>
+      </c>
       <c r="L5" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38558</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -2066,7 +2129,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2091,7 +2154,7 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>99150</v>
+        <v>62940</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -2108,7 +2171,7 @@
       </c>
       <c r="B8" s="2">
         <f>[8]Sheet1!$E$38</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -2145,7 +2208,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>180452</v>
+        <v>134766</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>22</v>
@@ -2162,12 +2225,12 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B25,B28)</f>
-        <v>27739</v>
+        <v>204490</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2185,12 +2248,12 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>501499</v>
+        <v>191024</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>21</v>
@@ -2209,12 +2272,12 @@
       </c>
       <c r="B13" s="2">
         <f>[13]Sheet1!$E$38</f>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23">
         <f>SUM(B15,B10,B24)</f>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>23</v>
@@ -2224,7 +2287,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="11">
         <f>SUM(K2:K10)</f>
-        <v>0</v>
+        <v>142326</v>
       </c>
       <c r="K13" t="s">
         <v>160</v>
@@ -2236,7 +2299,7 @@
       </c>
       <c r="B14" s="2">
         <f>[14]Sheet1!$E$38</f>
-        <v>102280</v>
+        <v>53280</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -2252,12 +2315,12 @@
       </c>
       <c r="B15" s="2">
         <f>[15]Sheet1!$E$38</f>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>716490</v>
+        <v>530280</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2279,7 +2342,7 @@
       </c>
       <c r="B16" s="2">
         <f>[16]Sheet1!$E$38</f>
-        <v>100455</v>
+        <v>2455</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -2318,7 +2381,7 @@
       </c>
       <c r="B18" s="6">
         <f>[18]Sheet1!$E$38</f>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -2327,7 +2390,7 @@
       <c r="H18" s="23"/>
       <c r="J18" s="24">
         <f>SUM(L2:L6)-J12</f>
-        <v>224596</v>
+        <v>250192</v>
       </c>
       <c r="K18" t="s">
         <v>162</v>
@@ -2349,7 +2412,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="24">
         <f>J13-J16</f>
-        <v>-43158</v>
+        <v>99168</v>
       </c>
       <c r="K19" t="s">
         <v>160</v>
@@ -2377,7 +2440,7 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2433,7 +2496,7 @@
       </c>
       <c r="B25" s="9">
         <f>[25]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
@@ -2453,19 +2516,19 @@
       </c>
       <c r="B28" s="9">
         <f>[26]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>11972</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="23.25">
       <c r="B29" s="1">
         <f>SUM(B1:B28)</f>
-        <v>716490</v>
+        <v>530280</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1228197</v>
+        <v>1161551</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
@@ -2474,7 +2537,7 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>511707</v>
+        <v>631271</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2518,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3041,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3224,8 +3287,8 @@
         <v>96</v>
       </c>
       <c r="F15" s="8">
-        <f>B73</f>
-        <v>72549</v>
+        <f>B77</f>
+        <v>84799</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3262,7 +3325,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="11">
         <f>SUM(F15:F16)</f>
-        <v>127599</v>
+        <v>139849</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3311,7 +3374,9 @@
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="B24" s="8">
         <v>5300</v>
       </c>
@@ -3826,29 +3891,76 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="A71" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13">
         <v>100</v>
       </c>
-      <c r="B71" s="11">
-        <f>SUM(B33:B70)</f>
-        <v>258505</v>
+      <c r="C71" s="14">
+        <v>45062</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="A72" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C72" s="14">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C73" s="14">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="13">
+        <v>150</v>
+      </c>
+      <c r="C74" s="14">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="11">
+        <f>SUM(B33:B74)</f>
+        <v>270755</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B76" s="13">
         <v>185956</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="C76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="11">
-        <f>B71-B72</f>
-        <v>72549</v>
+      <c r="B77" s="11">
+        <f>B75-B76</f>
+        <v>84799</v>
       </c>
     </row>
   </sheetData>
@@ -4612,8 +4724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4641,14 +4753,14 @@
         <v>1561</v>
       </c>
       <c r="C2" s="8">
-        <v>549082</v>
+        <v>633108</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>156</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(B2:B556)</f>
-        <v>212616</v>
+        <v>444174</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4663,7 +4775,7 @@
       </c>
       <c r="E3" s="32">
         <f>E2*1.15</f>
-        <v>244508.4</v>
+        <v>510800.1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4678,7 +4790,7 @@
       </c>
       <c r="E4" s="8">
         <f>C2</f>
-        <v>549082</v>
+        <v>633108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4690,7 +4802,7 @@
       </c>
       <c r="E5" s="33">
         <f>E4-E3</f>
-        <v>304573.59999999998</v>
+        <v>122307.90000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4834,78 +4946,168 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" s="8"/>
+      <c r="A24" s="14">
+        <v>45068</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2001</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="B25" s="8"/>
+      <c r="A25" s="14">
+        <v>45066</v>
+      </c>
+      <c r="B25" s="8">
+        <v>32792</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="B26" s="8"/>
+      <c r="A26" s="14">
+        <v>45065</v>
+      </c>
+      <c r="B26" s="8">
+        <v>20772</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="B27" s="8"/>
+      <c r="A27" s="14">
+        <v>45066</v>
+      </c>
+      <c r="B27" s="8">
+        <v>20408</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="B28" s="8"/>
+      <c r="A28" s="14">
+        <v>45066</v>
+      </c>
+      <c r="B28" s="8">
+        <v>18068</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="B29" s="8"/>
+      <c r="A29" s="14">
+        <v>45066</v>
+      </c>
+      <c r="B29" s="8">
+        <v>45897</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="B30" s="8"/>
+      <c r="A30" s="14">
+        <v>45068</v>
+      </c>
+      <c r="B30" s="8">
+        <v>18256</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="B31" s="8"/>
+      <c r="A31" s="14">
+        <v>45064</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3000</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="8"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="2:2">
+      <c r="A32" s="14">
+        <v>45064</v>
+      </c>
+      <c r="B32" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="14">
+        <v>45066</v>
+      </c>
+      <c r="B33" s="8">
+        <v>14414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="14">
+        <v>45063</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="14">
+        <v>45087</v>
+      </c>
+      <c r="B35" s="8">
+        <v>15865</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="14">
+        <v>45080</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="14">
+        <v>45063</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="14">
+        <v>45062</v>
+      </c>
+      <c r="B38" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="14">
+        <v>45086</v>
+      </c>
+      <c r="B39" s="8">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="14">
+        <v>45087</v>
+      </c>
+      <c r="B40" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="14">
+        <v>45087</v>
+      </c>
+      <c r="B41" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="1:2">
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:2">
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="1:2">
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="1:2">
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:2">
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:2">
       <c r="B48" s="8"/>
     </row>
     <row r="49" spans="2:2">
@@ -5507,10 +5709,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5519,7 +5721,132 @@
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="195">
   <si>
     <t>AYUSH</t>
   </si>
@@ -416,9 +416,6 @@
     <t>SNR P/C HOOD</t>
   </si>
   <si>
-    <t>SNR P/C</t>
-  </si>
-  <si>
     <t>JNR P/C CW</t>
   </si>
   <si>
@@ -443,9 +440,6 @@
     <t>RAMBO</t>
   </si>
   <si>
-    <t>CASH WE HAVE</t>
-  </si>
-  <si>
     <t>PAKKA</t>
   </si>
   <si>
@@ -530,18 +524,6 @@
     <t>TOY VILLA</t>
   </si>
   <si>
-    <t>CASH WE REQUIRED</t>
-  </si>
-  <si>
-    <t>IN BANK WE REQUIRED</t>
-  </si>
-  <si>
-    <t>IN BANK WE HAVE</t>
-  </si>
-  <si>
-    <t>CASH REQUIRED</t>
-  </si>
-  <si>
     <t>KIA CAREN</t>
   </si>
   <si>
@@ -639,6 +621,21 @@
   </si>
   <si>
     <t>ALPHABETS + NUMBERS</t>
+  </si>
+  <si>
+    <t>NISAR</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>===</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>8 BEND APPLE</t>
   </si>
 </sst>
 </file>
@@ -842,7 +839,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -942,6 +939,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -994,6 +992,18 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1019,18 +1029,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1442,7 +1440,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>57122</v>
+            <v>-1442</v>
           </cell>
         </row>
       </sheetData>
@@ -1497,7 +1495,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1161551</v>
+            <v>1172351</v>
           </cell>
         </row>
       </sheetData>
@@ -1962,7 +1960,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2000,10 +1998,10 @@
         <v>24</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" thickTop="1">
@@ -2033,10 +2031,7 @@
         <f>J2-K2</f>
         <v>2358</v>
       </c>
-      <c r="N2" s="11">
-        <f>SUM(L2:L5)</f>
-        <v>50192</v>
-      </c>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="23.25">
       <c r="A3" s="2" t="s">
@@ -2081,7 +2076,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J4" s="24">
         <f>B21</f>
@@ -2089,7 +2084,7 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L6" si="0">J4-K4</f>
+        <f t="shared" ref="L4:L7" si="0">J4-K4</f>
         <v>2522</v>
       </c>
       <c r="N4" s="8"/>
@@ -2112,14 +2107,12 @@
       </c>
       <c r="J5" s="24">
         <f>B25</f>
-        <v>57122</v>
-      </c>
-      <c r="K5" s="8">
-        <v>18564</v>
-      </c>
+        <v>-1442</v>
+      </c>
+      <c r="K5" s="8"/>
       <c r="L5" s="8">
         <f t="shared" si="0"/>
-        <v>38558</v>
+        <v>-1442</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -2137,14 +2130,16 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="J6" s="24">
-        <v>200000</v>
-      </c>
+        <f>B28</f>
+        <v>11972</v>
+      </c>
+      <c r="K6" s="8"/>
       <c r="L6" s="8">
-        <f t="shared" si="0"/>
-        <v>200000</v>
+        <f>J6-K6</f>
+        <v>11972</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -2161,9 +2156,16 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="L7" s="8"/>
+      <c r="I7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="24">
+        <v>200000</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="23.25">
       <c r="A8" s="2" t="s">
@@ -2180,6 +2182,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="24"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -2230,7 +2233,7 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B25,B28)</f>
-        <v>204490</v>
+        <v>145926</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2239,8 +2242,6 @@
       <c r="H11" s="26"/>
       <c r="I11" s="23"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:14" ht="23.25">
       <c r="A12" s="2" t="s">
@@ -2261,10 +2262,9 @@
       <c r="G12" s="23"/>
       <c r="H12" s="26"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="11"/>
-      <c r="K12" t="s">
-        <v>159</v>
-      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="23.25">
       <c r="A13" s="2" t="s">
@@ -2285,13 +2285,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="11">
-        <f>SUM(K2:K10)</f>
-        <v>142326</v>
-      </c>
-      <c r="K13" t="s">
-        <v>160</v>
-      </c>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:14" ht="23.25">
       <c r="A14" s="2" t="s">
@@ -2320,7 +2314,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>530280</v>
+        <v>471716</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2328,13 +2322,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="11">
-        <f>SUM(9500+160)</f>
-        <v>9660</v>
-      </c>
-      <c r="K15" t="s">
-        <v>130</v>
-      </c>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="23.25">
       <c r="A16" s="2" t="s">
@@ -2349,13 +2337,8 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="11">
-        <v>43158</v>
-      </c>
-      <c r="K16" t="s">
-        <v>161</v>
-      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:18" ht="23.25">
       <c r="A17" s="2" t="s">
@@ -2370,10 +2353,8 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:18" ht="23.25">
       <c r="A18" s="2" t="s">
@@ -2388,13 +2369,10 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-      <c r="J18" s="24">
-        <f>SUM(L2:L6)-J12</f>
-        <v>250192</v>
-      </c>
-      <c r="K18" t="s">
-        <v>162</v>
-      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:18" ht="23.25">
       <c r="A19" s="2" t="s">
@@ -2409,14 +2387,7 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="24">
-        <f>J13-J16</f>
-        <v>99168</v>
-      </c>
-      <c r="K19" t="s">
-        <v>160</v>
-      </c>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:18" ht="23.25">
       <c r="A20" s="2" t="s">
@@ -2431,7 +2402,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="25"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:18" ht="23.25">
@@ -2447,7 +2418,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:18" ht="23.25">
@@ -2463,9 +2434,10 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
       <c r="R22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="23.25">
@@ -2476,7 +2448,7 @@
         <f>[23]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:18" ht="23.25">
       <c r="A24" s="2" t="s">
@@ -2487,8 +2459,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:18" ht="23.25">
       <c r="A25" s="2" t="s">
@@ -2496,19 +2467,21 @@
       </c>
       <c r="B25" s="9">
         <f>[25]Sheet1!$E$38</f>
-        <v>57122</v>
-      </c>
-      <c r="I25" s="7"/>
+        <v>-1442</v>
+      </c>
+      <c r="I25" s="11"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:18" ht="23.25">
       <c r="A26" s="2"/>
       <c r="B26" s="9"/>
       <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:18" ht="23.25">
       <c r="A27" s="2"/>
       <c r="B27" s="9"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:18" ht="23.25">
       <c r="A28" s="2" t="s">
@@ -2522,13 +2495,13 @@
     <row r="29" spans="1:18" ht="23.25">
       <c r="B29" s="1">
         <f>SUM(B1:B28)</f>
-        <v>530280</v>
+        <v>471716</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1161551</v>
+        <v>1172351</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
@@ -2537,7 +2510,7 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>631271</v>
+        <v>700635</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2553,19 +2526,19 @@
       <c r="B47" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2581,7 +2554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -3106,7 +3079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -3870,7 +3843,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B69" s="13">
         <v>229</v>
@@ -3951,7 +3924,7 @@
         <v>185956</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3979,10 +3952,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3996,17 +3969,17 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>136</v>
       </c>
       <c r="F1" s="26"/>
       <c r="K1" s="7"/>
@@ -4014,7 +3987,7 @@
     </row>
     <row r="2" spans="1:14" ht="18.75">
       <c r="A2" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="25"/>
@@ -4056,6 +4029,9 @@
       <c r="D4" s="8">
         <v>2120</v>
       </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
       <c r="F4">
         <f>B4*C4</f>
         <v>14600</v>
@@ -4075,15 +4051,18 @@
       <c r="D5" s="8">
         <v>1970</v>
       </c>
+      <c r="E5" t="s">
+        <v>191</v>
+      </c>
       <c r="F5">
-        <f t="shared" ref="F5:F46" si="0">B5*C5</f>
+        <f t="shared" ref="F5:F47" si="0">B5*C5</f>
         <v>13600</v>
       </c>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="8">
         <v>20</v>
@@ -4093,6 +4072,9 @@
       </c>
       <c r="D6" s="8">
         <v>1830</v>
+      </c>
+      <c r="E6" t="s">
+        <v>191</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -4102,7 +4084,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="8">
         <v>20</v>
@@ -4112,6 +4094,9 @@
       </c>
       <c r="D7" s="8">
         <v>1220</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>192</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -4121,7 +4106,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="8">
         <v>20</v>
@@ -4131,6 +4116,9 @@
       </c>
       <c r="D8" s="8">
         <v>1320</v>
+      </c>
+      <c r="E8" t="s">
+        <v>191</v>
       </c>
       <c r="F8">
         <f>B8*C8</f>
@@ -4140,7 +4128,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="8">
         <v>4</v>
@@ -4159,7 +4147,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" s="8">
         <v>4</v>
@@ -4304,7 +4292,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B20" s="8">
         <v>4</v>
@@ -4322,7 +4310,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B21" s="8">
         <v>4</v>
@@ -4340,7 +4328,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="8">
         <v>4</v>
@@ -4366,7 +4354,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="8"/>
@@ -4378,7 +4366,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8">
@@ -4401,7 +4389,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="8"/>
@@ -4413,7 +4401,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -4425,7 +4413,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B29" s="8">
         <v>4</v>
@@ -4441,7 +4429,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" s="8">
         <v>4</v>
@@ -4457,7 +4445,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B31" s="8">
         <v>4</v>
@@ -4473,7 +4461,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B32" s="8">
         <v>4</v>
@@ -4489,7 +4477,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B33" s="8">
         <v>15</v>
@@ -4511,7 +4499,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="8"/>
@@ -4539,7 +4527,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B37" s="8">
         <v>4</v>
@@ -4586,6 +4574,9 @@
       <c r="D40" s="8">
         <v>440</v>
       </c>
+      <c r="E40" s="47" t="s">
+        <v>193</v>
+      </c>
       <c r="F40">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -4626,6 +4617,9 @@
       <c r="D42" s="8">
         <v>610</v>
       </c>
+      <c r="E42" s="47" t="s">
+        <v>193</v>
+      </c>
       <c r="F42">
         <f t="shared" si="0"/>
         <v>4100</v>
@@ -4653,20 +4647,23 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="8" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="B44" s="8">
         <v>20</v>
       </c>
       <c r="C44" s="8">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D44" s="8">
-        <v>960</v>
+        <v>900</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>193</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="L44" s="8"/>
     </row>
@@ -4675,41 +4672,69 @@
         <v>124</v>
       </c>
       <c r="B45" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C45" s="8">
-        <v>775</v>
+        <v>325</v>
+      </c>
+      <c r="D45" s="8">
+        <v>960</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>193</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B46" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C46" s="8">
-        <v>495</v>
+        <v>775</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>193</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
+        <v>6200</v>
+      </c>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="8">
+        <v>4</v>
+      </c>
+      <c r="C47" s="8">
+        <v>495</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
         <v>1980</v>
       </c>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="J47" s="8"/>
       <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A20:A24">
@@ -4724,8 +4749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4738,10 +4763,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D1" s="11"/>
     </row>
@@ -4756,11 +4781,11 @@
         <v>633108</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(B2:B556)</f>
-        <v>444174</v>
+        <v>492739</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4771,11 +4796,11 @@
         <v>6800</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" s="32">
         <f>E2*1.15</f>
-        <v>510800.1</v>
+        <v>566649.85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4786,7 +4811,7 @@
         <v>8245</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E4" s="8">
         <f>C2</f>
@@ -4802,7 +4827,7 @@
       </c>
       <c r="E5" s="33">
         <f>E4-E3</f>
-        <v>122307.90000000002</v>
+        <v>66458.150000000023</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5090,10 +5115,20 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="B42" s="8"/>
+      <c r="A42" s="14">
+        <v>45084</v>
+      </c>
+      <c r="B42" s="8">
+        <v>24780</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="B43" s="8"/>
+      <c r="A43" s="14">
+        <v>45085</v>
+      </c>
+      <c r="B43" s="8">
+        <v>23785</v>
+      </c>
     </row>
     <row r="44" spans="1:2">
       <c r="B44" s="8"/>
@@ -5434,27 +5469,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="B1" s="35" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>165</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="45" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -5465,7 +5500,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="45" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -5476,7 +5511,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="45" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -5487,7 +5522,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -5498,7 +5533,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -5509,7 +5544,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="46" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -5520,7 +5555,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="46" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
@@ -5531,7 +5566,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="46" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -5727,7 +5762,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5735,7 +5770,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5743,7 +5778,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5751,7 +5786,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5759,7 +5794,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5767,7 +5802,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5775,7 +5810,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5783,67 +5818,67 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I9">
         <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6111,7 +6146,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A20"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1495,7 +1495,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1172351</v>
+            <v>1150217</v>
           </cell>
         </row>
       </sheetData>
@@ -1619,8 +1619,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1959,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2031,6 +2031,9 @@
         <f>J2-K2</f>
         <v>2358</v>
       </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="23.25">
@@ -2060,6 +2063,9 @@
         <f>J3-K3</f>
         <v>6754</v>
       </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="23.25">
@@ -2087,6 +2093,9 @@
         <f t="shared" ref="L4:L7" si="0">J4-K4</f>
         <v>2522</v>
       </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="23.25">
@@ -2140,6 +2149,9 @@
       <c r="L6" s="8">
         <f>J6-K6</f>
         <v>11972</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -2501,7 +2513,7 @@
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1172351</v>
+        <v>1150217</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
@@ -2510,7 +2522,7 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>700635</v>
+        <v>678501</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2554,7 +2566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -3079,7 +3091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -3954,8 +3966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5452,7 +5464,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="197">
   <si>
     <t>AYUSH</t>
   </si>
@@ -636,6 +636,12 @@
   </si>
   <si>
     <t>8 BEND APPLE</t>
+  </si>
+  <si>
+    <t>BLAZE CAR</t>
+  </si>
+  <si>
+    <t>HARLEY</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1101,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>11658</v>
+            <v>56461</v>
           </cell>
         </row>
       </sheetData>
@@ -1592,7 +1598,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>121216</v>
+            <v>136266</v>
           </cell>
         </row>
       </sheetData>
@@ -1619,8 +1625,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1959,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1977,7 +1983,7 @@
     <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" thickBot="1">
@@ -2022,17 +2028,17 @@
       </c>
       <c r="J2" s="24">
         <f>B6</f>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="K2" s="13">
         <v>118858</v>
       </c>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>2358</v>
+        <v>17408</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>130000</v>
       </c>
       <c r="N2" s="11"/>
     </row>
@@ -2054,17 +2060,17 @@
       </c>
       <c r="J3" s="24">
         <f>B11</f>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="K3" s="13">
         <v>4904</v>
       </c>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>6754</v>
+        <v>51557</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>150000</v>
       </c>
       <c r="N3" s="8"/>
     </row>
@@ -2094,7 +2100,7 @@
         <v>2522</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>100000</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -2131,7 +2137,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2149,9 +2155,6 @@
       <c r="L6" s="8">
         <f>J6-K6</f>
         <v>11972</v>
-      </c>
-      <c r="M6">
-        <v>50</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -2240,12 +2243,12 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B25,B28)</f>
-        <v>145926</v>
+        <v>205779</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2326,7 +2329,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>471716</v>
+        <v>531569</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2507,7 +2510,7 @@
     <row r="29" spans="1:18" ht="23.25">
       <c r="B29" s="1">
         <f>SUM(B1:B28)</f>
-        <v>471716</v>
+        <v>531569</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="23.25">
@@ -2522,7 +2525,7 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>678501</v>
+        <v>618648</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2566,7 +2569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -3964,10 +3967,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4022,10 +4025,6 @@
       <c r="D3" s="8">
         <v>1360</v>
       </c>
-      <c r="F3">
-        <f>B3*C3</f>
-        <v>9400</v>
-      </c>
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14">
@@ -4044,10 +4043,6 @@
       <c r="E4" t="s">
         <v>191</v>
       </c>
-      <c r="F4">
-        <f>B4*C4</f>
-        <v>14600</v>
-      </c>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14">
@@ -4066,10 +4061,6 @@
       <c r="E5" t="s">
         <v>191</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F47" si="0">B5*C5</f>
-        <v>13600</v>
-      </c>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14">
@@ -4088,10 +4079,6 @@
       <c r="E6" t="s">
         <v>191</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>12600</v>
-      </c>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14">
@@ -4110,10 +4097,6 @@
       <c r="E7" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>8400</v>
-      </c>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14">
@@ -4132,10 +4115,6 @@
       <c r="E8" t="s">
         <v>191</v>
       </c>
-      <c r="F8">
-        <f>B8*C8</f>
-        <v>8400</v>
-      </c>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14">
@@ -4151,10 +4130,6 @@
       <c r="D9" s="8">
         <v>2950</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>4060</v>
-      </c>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
@@ -4169,10 +4144,6 @@
       </c>
       <c r="D10" s="8">
         <v>3030</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>4180</v>
       </c>
       <c r="N10" s="8"/>
     </row>
@@ -4181,10 +4152,6 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="11" t="s">
@@ -4193,10 +4160,6 @@
       <c r="B12" s="11"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
@@ -4211,10 +4174,6 @@
       <c r="D13" s="8">
         <v>2730</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>3760</v>
-      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
@@ -4225,10 +4184,6 @@
         <v>1030</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
@@ -4239,10 +4194,6 @@
         <v>850</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
@@ -4253,12 +4204,8 @@
         <v>925</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>110</v>
       </c>
@@ -4267,12 +4214,8 @@
         <v>735</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>111</v>
       </c>
@@ -4283,12 +4226,8 @@
         <v>660</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>106</v>
       </c>
@@ -4297,12 +4236,8 @@
         <v>825</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>148</v>
       </c>
@@ -4315,12 +4250,8 @@
       <c r="D20" s="8">
         <v>915</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>3660</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>149</v>
       </c>
@@ -4333,12 +4264,8 @@
       <c r="D21" s="8">
         <v>2820</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>3880</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>150</v>
       </c>
@@ -4349,404 +4276,321 @@
         <v>1060</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="11"/>
+      <c r="C23" s="8">
+        <v>850</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8">
         <v>2100</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8" t="s">
-        <v>128</v>
-      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2525</v>
+      </c>
+      <c r="C27" s="8">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="B29" s="8">
-        <v>4</v>
-      </c>
-      <c r="C29" s="8">
-        <v>750</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="8">
-        <v>4</v>
-      </c>
-      <c r="C30" s="8">
-        <v>825</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="B31" s="8">
         <v>4</v>
       </c>
       <c r="C31" s="8">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32" s="8">
         <v>4</v>
       </c>
       <c r="C32" s="8">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>2700</v>
-      </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B33" s="8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C33" s="8">
         <v>450</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>6750</v>
-      </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A34" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4</v>
+      </c>
+      <c r="C34" s="8">
+        <v>675</v>
+      </c>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="8">
+        <v>15</v>
+      </c>
+      <c r="C35" s="8">
+        <v>450</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="8" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B38" s="8">
         <v>21</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C38" s="8">
         <v>290</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>6090</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="8" t="s">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B39" s="8">
         <v>4</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C39" s="8">
         <v>425</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="11" t="s">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="8">
-        <v>40</v>
-      </c>
-      <c r="C40" s="8">
-        <v>150</v>
-      </c>
-      <c r="D40" s="8">
-        <v>440</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="8">
-        <v>40</v>
-      </c>
-      <c r="C41" s="8">
-        <v>170</v>
-      </c>
-      <c r="D41" s="8">
-        <v>500</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>6800</v>
-      </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B42" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C42" s="8">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="D42" s="8">
-        <v>610</v>
+        <v>440</v>
       </c>
       <c r="E42" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>4100</v>
-      </c>
-      <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B43" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C43" s="8">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="D43" s="8">
-        <v>800</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>5500</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="8"/>
       <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="8" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="B44" s="8">
         <v>20</v>
       </c>
       <c r="C44" s="8">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="D44" s="8">
-        <v>900</v>
+        <v>610</v>
       </c>
       <c r="E44" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>6100</v>
-      </c>
       <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B45" s="8">
         <v>20</v>
       </c>
       <c r="C45" s="8">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="D45" s="8">
-        <v>960</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>800</v>
       </c>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="B46" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C46" s="8">
-        <v>775</v>
+        <v>305</v>
+      </c>
+      <c r="D46" s="8">
+        <v>900</v>
       </c>
       <c r="E46" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>6200</v>
-      </c>
       <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B47" s="8">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C47" s="8">
-        <v>495</v>
+        <v>325</v>
+      </c>
+      <c r="D47" s="8">
+        <v>960</v>
       </c>
       <c r="E47" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>1980</v>
-      </c>
       <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="J48" s="8"/>
+      <c r="A48" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="8">
+        <v>8</v>
+      </c>
+      <c r="C48" s="8">
+        <v>775</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>193</v>
+      </c>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+    <row r="49" spans="1:12">
+      <c r="A49" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="8">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8">
+        <v>495</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="J50" s="8"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A20:A24">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="200">
   <si>
     <t>AYUSH</t>
   </si>
@@ -642,6 +642,15 @@
   </si>
   <si>
     <t>HARLEY</t>
+  </si>
+  <si>
+    <t>GOOD PURCHASE</t>
+  </si>
+  <si>
+    <t>MIX  DATES</t>
+  </si>
+  <si>
+    <t>UP TO 31-MAY-23</t>
   </si>
 </sst>
 </file>
@@ -845,7 +854,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -946,6 +955,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -1501,7 +1513,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1150217</v>
+            <v>1148802</v>
           </cell>
         </row>
       </sheetData>
@@ -1965,7 +1977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M4"/>
     </sheetView>
   </sheetViews>
@@ -2516,7 +2528,7 @@
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>[27]Sheet5!$G$1</f>
-        <v>1150217</v>
+        <v>1148802</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
@@ -2525,7 +2537,7 @@
       </c>
       <c r="B32" s="5">
         <f>B30-B29</f>
-        <v>618648</v>
+        <v>617233</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3092,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3275,8 +3287,8 @@
         <v>96</v>
       </c>
       <c r="F15" s="8">
-        <f>B77</f>
-        <v>84799</v>
+        <f>B80</f>
+        <v>11881</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3313,7 +3325,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="11">
         <f>SUM(F15:F16)</f>
-        <v>139849</v>
+        <v>66931</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3923,32 +3935,62 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>100</v>
-      </c>
-      <c r="B75" s="11">
-        <f>SUM(B33:B74)</f>
-        <v>270755</v>
+      <c r="A75" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C75" s="14">
+        <v>45093</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="B76" s="13">
-        <v>185956</v>
-      </c>
-      <c r="C76" t="s">
-        <v>171</v>
+        <v>2026</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="11">
+        <f>SUM(B33:B76)</f>
+        <v>274781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="13">
+        <v>185956</v>
+      </c>
+      <c r="C78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" s="13">
+        <v>76944</v>
+      </c>
+      <c r="C79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="11">
-        <f>B75-B76</f>
-        <v>84799</v>
+      <c r="B80" s="11">
+        <f>B77-B78-B79</f>
+        <v>11881</v>
       </c>
     </row>
   </sheetData>
@@ -3970,7 +4012,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4605,8 +4647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4641,7 +4683,7 @@
       </c>
       <c r="E2" s="8">
         <f>SUM(B2:B556)</f>
-        <v>492739</v>
+        <v>554589</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4656,7 +4698,7 @@
       </c>
       <c r="E3" s="32">
         <f>E2*1.15</f>
-        <v>566649.85</v>
+        <v>637777.35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4683,7 +4725,7 @@
       </c>
       <c r="E5" s="33">
         <f>E4-E3</f>
-        <v>66458.150000000023</v>
+        <v>-4669.3499999999767</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4987,66 +5029,91 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="B44" s="8"/>
+      <c r="A44" s="14">
+        <v>45094</v>
+      </c>
+      <c r="B44" s="8">
+        <v>30133</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="B45" s="8"/>
+      <c r="A45" s="14">
+        <v>45092</v>
+      </c>
+      <c r="B45" s="8">
+        <v>13000</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="B46" s="8"/>
+      <c r="A46" s="48">
+        <v>45097</v>
+      </c>
+      <c r="B46" s="8">
+        <v>18717</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
+      <c r="A47" s="14"/>
       <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:2">
+      <c r="A48" s="14"/>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2">
+      <c r="A49" s="14"/>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:2">
+      <c r="A50" s="14"/>
       <c r="B50" s="8"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="1:2">
+      <c r="A51" s="14"/>
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="1:2">
+      <c r="A52" s="14"/>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2">
+      <c r="A53" s="14"/>
       <c r="B53" s="8"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:2">
+      <c r="A54" s="14"/>
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:2">
+      <c r="A55" s="14"/>
       <c r="B55" s="8"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="1:2">
+      <c r="A56" s="14"/>
       <c r="B56" s="8"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:2">
       <c r="B57" s="8"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:2">
       <c r="B58" s="8"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2">
       <c r="B59" s="8"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:2">
       <c r="B60" s="8"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:2">
       <c r="B61" s="8"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2">
       <c r="B62" s="8"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:2">
       <c r="B63" s="8"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="1:2">
       <c r="B64" s="8"/>
     </row>
     <row r="65" spans="2:2">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,14 @@
     <externalReference r:id="rId34"/>
     <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
+    <externalReference r:id="rId37"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="202">
   <si>
     <t>AYUSH</t>
   </si>
@@ -651,6 +652,12 @@
   </si>
   <si>
     <t>UP TO 31-MAY-23</t>
+  </si>
+  <si>
+    <t>PARADISE STATIONERY</t>
+  </si>
+  <si>
+    <t>PST</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1120,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>56461</v>
+            <v>96498</v>
           </cell>
         </row>
       </sheetData>
@@ -1366,7 +1373,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>2522</v>
+            <v>70120</v>
           </cell>
         </row>
       </sheetData>
@@ -1458,7 +1465,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>-1442</v>
+            <v>10190</v>
           </cell>
         </row>
       </sheetData>
@@ -1481,7 +1488,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>11972</v>
+            <v>60668</v>
           </cell>
         </row>
       </sheetData>
@@ -1493,6 +1500,29 @@
 </file>
 
 <file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1513,7 +1543,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1148802</v>
+            <v>1305419</v>
           </cell>
         </row>
       </sheetData>
@@ -1975,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2072,14 +2102,14 @@
       </c>
       <c r="J3" s="24">
         <f>B11</f>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="K3" s="13">
         <v>4904</v>
       </c>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>51557</v>
+        <v>91594</v>
       </c>
       <c r="M3">
         <v>150000</v>
@@ -2104,12 +2134,12 @@
       </c>
       <c r="J4" s="24">
         <f>B21</f>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L7" si="0">J4-K4</f>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="M4">
         <v>100000</v>
@@ -2133,13 +2163,13 @@
         <v>71</v>
       </c>
       <c r="J5" s="24">
-        <f>B25</f>
-        <v>-1442</v>
+        <f>B26</f>
+        <v>60668</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -2160,13 +2190,13 @@
         <v>190</v>
       </c>
       <c r="J6" s="24">
-        <f>B28</f>
-        <v>11972</v>
+        <f>B29</f>
+        <v>0</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8">
         <f>J6-K6</f>
-        <v>11972</v>
+        <v>0</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -2184,15 +2214,13 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="J7" s="24">
-        <v>200000</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
+        <f>$B$25</f>
+        <v>10190</v>
+      </c>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="23.25">
       <c r="A8" s="2" t="s">
@@ -2207,8 +2235,12 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="24">
+        <v>200000</v>
+      </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="23.25">
@@ -2246,7 +2278,10 @@
       <c r="G10" s="23"/>
       <c r="H10" s="26"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="24">
+        <f>SUM(J2:J8)</f>
+        <v>573742</v>
+      </c>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="23.25">
@@ -2255,12 +2290,12 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
-        <f>SUM(B6,B12,B11,B21,B25,B28)</f>
-        <v>205779</v>
+        <f>SUM(B6,B12,B11,B21,B26,B29)</f>
+        <v>363552</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2341,7 +2376,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>531569</v>
+        <v>689342</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2438,7 +2473,7 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2490,67 +2525,78 @@
     </row>
     <row r="25" spans="1:18" ht="23.25">
       <c r="A25" s="2" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="B25" s="9">
         <f>[25]Sheet1!$E$38</f>
-        <v>-1442</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="8"/>
+        <v>10190</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:18" ht="23.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="9"/>
-      <c r="I26" s="7"/>
+      <c r="A26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="9">
+        <f>[26]Sheet1!$E$38</f>
+        <v>60668</v>
+      </c>
+      <c r="I26" s="11"/>
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:18" ht="23.25">
       <c r="A27" s="2"/>
       <c r="B27" s="9"/>
       <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:18" ht="23.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="9"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:18" ht="23.25">
+      <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="9">
-        <f>[26]Sheet1!$E$38</f>
-        <v>11972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="23.25">
-      <c r="B29" s="1">
-        <f>SUM(B1:B28)</f>
-        <v>531569</v>
+      <c r="B29" s="9">
+        <f>[27]Sheet1!$E$38</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
-        <f>[27]Sheet5!$G$1</f>
-        <v>1148802</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="21">
-      <c r="A32" s="4" t="s">
+        <f>SUM(B1:B29)</f>
+        <v>699532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="23.25">
+      <c r="B31" s="1">
+        <f>[28]Sheet5!$G$1</f>
+        <v>1305419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="21">
+      <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="5">
-        <f>B30-B29</f>
-        <v>617233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="B33" s="5">
+        <f>B31-B30</f>
+        <v>605887</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J19">
@@ -3107,7 +3153,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4647,7 +4693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="193">
   <si>
     <t>AYUSH</t>
   </si>
@@ -525,48 +525,6 @@
     <t>TOY VILLA</t>
   </si>
   <si>
-    <t>KIA CAREN</t>
-  </si>
-  <si>
-    <t>MARUTI SUZUKI XL6</t>
-  </si>
-  <si>
-    <t>HYUNDAI ALCAZAR</t>
-  </si>
-  <si>
-    <t>SEATERS</t>
-  </si>
-  <si>
-    <t>MILAGE</t>
-  </si>
-  <si>
-    <t>FUEL TYPE</t>
-  </si>
-  <si>
-    <t>COMFORT</t>
-  </si>
-  <si>
-    <t>HONDA WRV</t>
-  </si>
-  <si>
-    <t>HONDA BRV</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>RECENT LAUNCHED</t>
-  </si>
-  <si>
-    <t>FUEL TANK CAPACITY</t>
-  </si>
-  <si>
-    <t>MARUTI SUZUKI ERTIGA (ZXI)</t>
-  </si>
-  <si>
-    <t>CAMERA + ELECTRONICS</t>
-  </si>
-  <si>
     <t>DEC-22 TAK</t>
   </si>
   <si>
@@ -658,13 +616,28 @@
   </si>
   <si>
     <t>PST</t>
+  </si>
+  <si>
+    <t>CHANDINI</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>SONI</t>
+  </si>
+  <si>
+    <t>KITTU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,17 +756,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="26"/>
       <color theme="1"/>
-      <name val="Arial Black"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -809,7 +776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -841,15 +808,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -861,7 +819,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -930,40 +888,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1543,7 +1478,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1305419</v>
+            <v>1175356</v>
           </cell>
         </row>
       </sheetData>
@@ -2007,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -2138,7 +2073,7 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L7" si="0">J4-K4</f>
+        <f t="shared" ref="L4:L5" si="0">J4-K4</f>
         <v>70120</v>
       </c>
       <c r="M4">
@@ -2187,7 +2122,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J6" s="24">
         <f>B29</f>
@@ -2214,7 +2149,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="J7" s="24">
         <f>$B$25</f>
@@ -2525,7 +2460,7 @@
     </row>
     <row r="25" spans="1:18" ht="23.25">
       <c r="A25" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B25" s="9">
         <f>[25]Sheet1!$E$38</f>
@@ -2574,7 +2509,7 @@
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1305419</v>
+        <v>1175356</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21">
@@ -2583,7 +2518,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>605887</v>
+        <v>475824</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3993,13 +3928,13 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B76" s="13">
         <v>2026</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4019,7 +3954,7 @@
         <v>185956</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4027,7 +3962,7 @@
         <v>76944</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4129,7 +4064,7 @@
         <v>2120</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -4147,7 +4082,7 @@
         <v>1970</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -4165,7 +4100,7 @@
         <v>1830</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -4182,8 +4117,8 @@
       <c r="D7" s="8">
         <v>1220</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>192</v>
+      <c r="E7" s="36" t="s">
+        <v>178</v>
       </c>
       <c r="N7" s="8"/>
     </row>
@@ -4201,7 +4136,7 @@
         <v>1320</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N8" s="8"/>
     </row>
@@ -4367,7 +4302,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8">
@@ -4402,7 +4337,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B27" s="8">
         <v>2525</v>
@@ -4550,8 +4485,8 @@
       <c r="D42" s="8">
         <v>440</v>
       </c>
-      <c r="E42" s="47" t="s">
-        <v>193</v>
+      <c r="E42" s="36" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -4585,8 +4520,8 @@
       <c r="D44" s="8">
         <v>610</v>
       </c>
-      <c r="E44" s="47" t="s">
-        <v>193</v>
+      <c r="E44" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="L44" s="8"/>
     </row>
@@ -4607,7 +4542,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B46" s="8">
         <v>20</v>
@@ -4618,8 +4553,8 @@
       <c r="D46" s="8">
         <v>900</v>
       </c>
-      <c r="E46" s="47" t="s">
-        <v>193</v>
+      <c r="E46" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="L46" s="8"/>
     </row>
@@ -4636,8 +4571,8 @@
       <c r="D47" s="8">
         <v>960</v>
       </c>
-      <c r="E47" s="47" t="s">
-        <v>193</v>
+      <c r="E47" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="L47" s="8"/>
     </row>
@@ -4651,8 +4586,8 @@
       <c r="C48" s="8">
         <v>775</v>
       </c>
-      <c r="E48" s="47" t="s">
-        <v>193</v>
+      <c r="E48" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="L48" s="8"/>
     </row>
@@ -4666,8 +4601,8 @@
       <c r="C49" s="8">
         <v>495</v>
       </c>
-      <c r="E49" s="47" t="s">
-        <v>193</v>
+      <c r="E49" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="L49" s="8"/>
     </row>
@@ -5091,7 +5026,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="48">
+      <c r="A46" s="37">
         <v>45097</v>
       </c>
       <c r="B46" s="8">
@@ -5418,250 +5353,374 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="29" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="8" customWidth="1"/>
+    <col min="3" max="4" width="28.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="8" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
-      <c r="B1" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="41"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="36"/>
-      <c r="B12"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29"/>
+    <row r="1" spans="1:8" ht="33.75">
+      <c r="A1"/>
+      <c r="B1" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2"/>
+      <c r="B2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25">
+      <c r="A3" s="38">
+        <v>45113</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" ht="23.25">
+      <c r="A4" s="38">
+        <v>45114</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" ht="23.25">
+      <c r="A5" s="38">
+        <v>45115</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" ht="23.25">
+      <c r="A6" s="38">
+        <v>45116</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="23.25">
+      <c r="A7" s="38">
+        <v>45117</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="23.25">
+      <c r="A8" s="38">
+        <v>45118</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" ht="23.25">
+      <c r="A9" s="38">
+        <v>45119</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.25">
+      <c r="A10" s="38">
+        <v>45120</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" ht="23.25">
+      <c r="A11" s="38">
+        <v>45121</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25">
+      <c r="A12" s="38">
+        <v>45122</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.25">
+      <c r="A13" s="38">
+        <v>45123</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" ht="23.25">
+      <c r="A14" s="38">
+        <v>45124</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" ht="23.25">
+      <c r="A15" s="38">
+        <v>45125</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.25">
+      <c r="A16" s="38">
+        <v>45126</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" ht="23.25">
+      <c r="A17" s="38">
+        <v>45127</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" ht="23.25">
+      <c r="A18" s="38">
+        <v>45128</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:7" ht="23.25">
+      <c r="A19" s="38">
+        <v>45129</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" ht="23.25">
+      <c r="A20" s="38">
+        <v>45130</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" ht="23.25">
+      <c r="A21" s="38">
+        <v>45131</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:7" ht="23.25">
+      <c r="A22" s="38">
+        <v>45132</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="23.25">
+      <c r="A23" s="38">
+        <v>45133</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" ht="23.25">
+      <c r="A24" s="38">
+        <v>45134</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:7" ht="23.25">
+      <c r="A25" s="38">
+        <v>45135</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="1:7" ht="23.25">
+      <c r="A26" s="38">
+        <v>45136</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" spans="1:7" ht="23.25">
+      <c r="A27" s="38">
+        <v>45137</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="23.25">
+      <c r="A28" s="38">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" ht="23.25">
+      <c r="A29" s="38"/>
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="14"/>
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="14"/>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14"/>
       <c r="B32"/>
       <c r="C32"/>
     </row>
@@ -5705,9 +5764,14 @@
       <c r="B40"/>
       <c r="C40"/>
     </row>
+    <row r="41" spans="1:3">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5731,7 +5795,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5739,7 +5803,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5747,7 +5811,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5755,7 +5819,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5763,7 +5827,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5771,7 +5835,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5779,7 +5843,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5787,67 +5851,67 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="I9">
         <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="I10" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -16,9 +16,9 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
@@ -46,13 +46,14 @@
     <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
     <externalReference r:id="rId37"/>
+    <externalReference r:id="rId38"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="208">
   <si>
     <t>AYUSH</t>
   </si>
@@ -631,13 +632,64 @@
   </si>
   <si>
     <t>KITTU</t>
+  </si>
+  <si>
+    <t>BOX ITEMS</t>
+  </si>
+  <si>
+    <t>SUPER COOL JHOOMER</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>PIECE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>P.P IN DZ</t>
+  </si>
+  <si>
+    <t>P.P IN PCS</t>
+  </si>
+  <si>
+    <t>PARIS JHOOMER</t>
+  </si>
+  <si>
+    <t>POP JHOOMER</t>
+  </si>
+  <si>
+    <t>NOKIA JHOOMER</t>
+  </si>
+  <si>
+    <t>BABY ACCENT CAR</t>
+  </si>
+  <si>
+    <t>MINI ACCENT CAR</t>
+  </si>
+  <si>
+    <t>POLO DUMPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGULAR </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="[$-F400]h\.mm\.ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-14009]hh\.mm\.ss;@"/>
+    <numFmt numFmtId="166" formatCode="h\.mm"/>
+    <numFmt numFmtId="167" formatCode="[$-14009]dd/mm/yy;@"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,6 +814,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -819,7 +899,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -888,16 +968,44 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -995,6 +1103,79 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="WhatsApp Image 2023-07-14 at 10.39.42 AM.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="1981200"/>
+          <a:ext cx="1847850" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1478,7 +1659,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1175356</v>
+            <v>1182493</v>
           </cell>
         </row>
       </sheetData>
@@ -2509,7 +2690,7 @@
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1175356</v>
+        <v>1182493</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21">
@@ -2518,7 +2699,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>475824</v>
+        <v>482961</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2555,6 +2736,18 @@
   <webPublishItems count="1">
     <webPublishItem id="14351" divId="main_14351" sourceType="sheet" destinationFile="E:\UPDATE\WEBSITE\2084377289testbysam\IMPORTANT\main.htm" autoRepublish="1"/>
   </webPublishItems>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4117,7 +4310,7 @@
       <c r="D7" s="8">
         <v>1220</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="34" t="s">
         <v>178</v>
       </c>
       <c r="N7" s="8"/>
@@ -4485,7 +4678,7 @@
       <c r="D42" s="8">
         <v>440</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="34" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4520,7 +4713,7 @@
       <c r="D44" s="8">
         <v>610</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="34" t="s">
         <v>179</v>
       </c>
       <c r="L44" s="8"/>
@@ -4553,7 +4746,7 @@
       <c r="D46" s="8">
         <v>900</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="34" t="s">
         <v>179</v>
       </c>
       <c r="L46" s="8"/>
@@ -4571,7 +4764,7 @@
       <c r="D47" s="8">
         <v>960</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="34" t="s">
         <v>179</v>
       </c>
       <c r="L47" s="8"/>
@@ -4586,7 +4779,7 @@
       <c r="C48" s="8">
         <v>775</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="34" t="s">
         <v>179</v>
       </c>
       <c r="L48" s="8"/>
@@ -4601,7 +4794,7 @@
       <c r="C49" s="8">
         <v>495</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="34" t="s">
         <v>179</v>
       </c>
       <c r="L49" s="8"/>
@@ -5026,7 +5219,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="37">
+      <c r="A46" s="35">
         <v>45097</v>
       </c>
       <c r="B46" s="8">
@@ -5350,13 +5543,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5367,24 +5557,29 @@
     <col min="5" max="5" width="25.5703125" style="8" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="8" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
+    <col min="9" max="9" width="16.85546875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="17" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:20" ht="33.75">
       <c r="A1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>192</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:20">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
         <v>189</v>
@@ -5405,321 +5600,870 @@
         <v>190</v>
       </c>
       <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="38">
+      <c r="T2" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="23.25">
+      <c r="A3" s="36">
         <v>45113</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" ht="23.25">
-      <c r="A4" s="38">
+      <c r="B3" s="38">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="C3" s="38">
+        <v>0.875</v>
+      </c>
+      <c r="D3" s="38">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="E3" s="38">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="F3" s="38">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="G3" s="38">
+        <v>0.375</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="50">
+        <f>IF(S3&gt;T3,S3-T3,0)</f>
+        <v>1.9444444444444431E-2</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="50">
+        <f>C3-B3</f>
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="T3" s="51">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="23.25">
+      <c r="A4" s="36">
         <v>45114</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.25">
-      <c r="A5" s="38">
+      <c r="B4" s="38">
+        <v>0.46875</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0.46875</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F4" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G4" s="38">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="50">
+        <f>IF(S4&gt;T4,S4-T4,0)</f>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="50">
+        <f>C4-B4</f>
+        <v>0.42013888888888884</v>
+      </c>
+      <c r="T4" s="51">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="23.25">
+      <c r="A5" s="36">
         <v>45115</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="23.25">
-      <c r="A6" s="38">
+      <c r="B5" s="38">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="C5" s="38">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0.375</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="50">
+        <f>IF(S5&gt;T5,S5-T5,)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="50">
+        <f>C5-B5</f>
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="T5" s="51">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="23.25">
+      <c r="A6" s="36">
         <v>45116</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" ht="23.25">
-      <c r="A7" s="38">
+      <c r="B6" s="38">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C6" s="38">
+        <v>0.625</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E6" s="38">
+        <v>0.125</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0.125</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="50">
+        <f t="shared" ref="I6:I28" si="0">IF(S6&gt;T6,S6-T6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="50">
+        <f t="shared" ref="S6:S11" si="1">C6-B6</f>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="T6" s="51">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="23.25">
+      <c r="A7" s="36">
         <v>45117</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" ht="23.25">
-      <c r="A8" s="38">
+      <c r="B7" s="38">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="50">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222154E-2</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="50">
+        <f t="shared" si="1"/>
+        <v>0.40972222222222215</v>
+      </c>
+      <c r="T7" s="51">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="23.25">
+      <c r="A8" s="36">
         <v>45118</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" ht="23.25">
-      <c r="A9" s="38">
+      <c r="B8" s="38">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C8" s="38">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D8" s="38">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G8" s="38">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="50">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666574E-2</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="50">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666657</v>
+      </c>
+      <c r="T8" s="51">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="23.25">
+      <c r="A9" s="36">
         <v>45119</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.25">
-      <c r="A10" s="38">
+      <c r="B9" s="38">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0.89722222222222225</v>
+      </c>
+      <c r="D9" s="38">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="50">
+        <f t="shared" si="0"/>
+        <v>4.3055555555555569E-2</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="50">
+        <f t="shared" si="1"/>
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="T9" s="51">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="23.25">
+      <c r="A10" s="36">
         <v>45120</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" ht="23.25">
-      <c r="A11" s="38">
+      <c r="B10" s="38">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="C10" s="38">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D10" s="38">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="50">
+        <f t="shared" si="0"/>
+        <v>4.0277777777777801E-2</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="50">
+        <f t="shared" si="1"/>
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="T10" s="51">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="23.25">
+      <c r="A11" s="36">
         <v>45121</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25">
-      <c r="A12" s="38">
+      <c r="B11" s="38">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="C11" s="38">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G11" s="38">
+        <v>0.8847222222222223</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="50">
+        <f t="shared" si="0"/>
+        <v>2.222222222222231E-2</v>
+      </c>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="50">
+        <f t="shared" si="1"/>
+        <v>0.39722222222222231</v>
+      </c>
+      <c r="T11" s="51">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="23.25">
+      <c r="A12" s="36">
         <v>45122</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" ht="23.25">
-      <c r="A13" s="38">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+    </row>
+    <row r="13" spans="1:20" ht="23.25">
+      <c r="A13" s="36">
         <v>45123</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" ht="23.25">
-      <c r="A14" s="38">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+    </row>
+    <row r="14" spans="1:20" ht="23.25">
+      <c r="A14" s="36">
         <v>45124</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" ht="23.25">
-      <c r="A15" s="38">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+    </row>
+    <row r="15" spans="1:20" ht="23.25">
+      <c r="A15" s="36">
         <v>45125</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" ht="23.25">
-      <c r="A16" s="38">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+    </row>
+    <row r="16" spans="1:20" ht="23.25">
+      <c r="A16" s="36">
         <v>45126</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="1:7" ht="23.25">
-      <c r="A17" s="38">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+    </row>
+    <row r="17" spans="1:19" ht="23.25">
+      <c r="A17" s="36">
         <v>45127</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="1:7" ht="23.25">
-      <c r="A18" s="38">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+    </row>
+    <row r="18" spans="1:19" ht="23.25">
+      <c r="A18" s="36">
         <v>45128</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="38">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+    </row>
+    <row r="19" spans="1:19" ht="23.25">
+      <c r="A19" s="36">
         <v>45129</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="1:7" ht="23.25">
-      <c r="A20" s="38">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+    </row>
+    <row r="20" spans="1:19" ht="23.25">
+      <c r="A20" s="36">
         <v>45130</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" spans="1:7" ht="23.25">
-      <c r="A21" s="38">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+    </row>
+    <row r="21" spans="1:19" ht="23.25">
+      <c r="A21" s="36">
         <v>45131</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:7" ht="23.25">
-      <c r="A22" s="38">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+    </row>
+    <row r="22" spans="1:19" ht="23.25">
+      <c r="A22" s="36">
         <v>45132</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" ht="23.25">
-      <c r="A23" s="38">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+    </row>
+    <row r="23" spans="1:19" ht="23.25">
+      <c r="A23" s="36">
         <v>45133</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" ht="23.25">
-      <c r="A24" s="38">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+    </row>
+    <row r="24" spans="1:19" ht="23.25">
+      <c r="A24" s="36">
         <v>45134</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="1:7" ht="23.25">
-      <c r="A25" s="38">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+    </row>
+    <row r="25" spans="1:19" ht="23.25">
+      <c r="A25" s="36">
         <v>45135</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="26" spans="1:7" ht="23.25">
-      <c r="A26" s="38">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+    </row>
+    <row r="26" spans="1:19" ht="23.25">
+      <c r="A26" s="36">
         <v>45136</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" spans="1:7" ht="23.25">
-      <c r="A27" s="38">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+    </row>
+    <row r="27" spans="1:19" ht="23.25">
+      <c r="A27" s="36">
         <v>45137</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" ht="23.25">
-      <c r="A28" s="38">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+    </row>
+    <row r="28" spans="1:19" ht="23.25">
+      <c r="A28" s="36">
         <v>45138</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" ht="23.25">
-      <c r="A29" s="38"/>
-      <c r="B29"/>
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+    </row>
+    <row r="29" spans="1:19" ht="23.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="14"/>
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:19">
       <c r="A31" s="14"/>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:19">
       <c r="A32" s="14"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -5771,7 +6515,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6176,17 +6920,175 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="26.25">
+      <c r="B1" s="40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="15.75">
+      <c r="B2" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3">
+        <v>492</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4">
+        <v>480</v>
+      </c>
+      <c r="D4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4">
+        <v>120</v>
+      </c>
+      <c r="H4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5">
+        <v>468</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5">
+        <v>118</v>
+      </c>
+      <c r="H5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6">
+        <v>360</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7">
+        <v>228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8">
+        <v>294</v>
+      </c>
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15">
+        <v>168</v>
+      </c>
+      <c r="H15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="210">
   <si>
     <t>AYUSH</t>
   </si>
@@ -677,6 +677,12 @@
   </si>
   <si>
     <t xml:space="preserve">REGULAR </t>
+  </si>
+  <si>
+    <t>9:28:00PM</t>
+  </si>
+  <si>
+    <t>ABSENT</t>
   </si>
 </sst>
 </file>
@@ -1654,22 +1660,22 @@
       <sheetName val="Sheet10"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1182493</v>
+            <v>1115540</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2690,7 +2696,7 @@
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1182493</v>
+        <v>1115540</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21">
@@ -2699,7 +2705,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>482961</v>
+        <v>416008</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4821,8 +4827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4857,7 +4863,7 @@
       </c>
       <c r="E2" s="8">
         <f>SUM(B2:B556)</f>
-        <v>554589</v>
+        <v>625933</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4872,7 +4878,7 @@
       </c>
       <c r="E3" s="32">
         <f>E2*1.15</f>
-        <v>637777.35</v>
+        <v>719822.95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4886,8 +4892,7 @@
         <v>153</v>
       </c>
       <c r="E4" s="8">
-        <f>C2</f>
-        <v>633108</v>
+        <v>656560</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4899,7 +4904,7 @@
       </c>
       <c r="E5" s="33">
         <f>E4-E3</f>
-        <v>-4669.3499999999767</v>
+        <v>-63262.949999999953</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5227,36 +5232,68 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="14">
+        <v>45100</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2500</v>
+      </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="14">
+        <v>45100</v>
+      </c>
+      <c r="B48" s="8">
+        <v>1202</v>
+      </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="14">
+        <v>45104</v>
+      </c>
+      <c r="B49" s="8">
+        <v>2123</v>
+      </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="14">
+        <v>45105</v>
+      </c>
+      <c r="B50" s="8">
+        <v>15887</v>
+      </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="14">
+        <v>45093</v>
+      </c>
+      <c r="B51" s="8">
+        <v>4213</v>
+      </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="14">
+        <v>45100</v>
+      </c>
+      <c r="B52" s="8">
+        <v>14469</v>
+      </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="14">
+        <v>45105</v>
+      </c>
+      <c r="B53" s="8">
+        <v>15421</v>
+      </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="14"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="14">
+        <v>45107</v>
+      </c>
+      <c r="B54" s="8">
+        <v>15529</v>
+      </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="14"/>
@@ -5545,8 +5582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5773,7 +5810,7 @@
       <c r="Q6" s="44"/>
       <c r="R6" s="44"/>
       <c r="S6" s="50">
-        <f t="shared" ref="S6:S11" si="1">C6-B6</f>
+        <f t="shared" ref="S6:S13" si="1">C6-B6</f>
         <v>0.14583333333333331</v>
       </c>
       <c r="T6" s="51">
@@ -6006,16 +6043,28 @@
       <c r="A12" s="36">
         <v>45122</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="38">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="C12" s="38">
+        <v>0.89444444444444438</v>
+      </c>
+      <c r="D12" s="38">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G12" s="38">
+        <v>0.89444444444444438</v>
+      </c>
       <c r="H12" s="17"/>
       <c r="I12" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41319444444444436</v>
       </c>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
@@ -6026,22 +6075,37 @@
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
+      <c r="S12" s="44">
+        <f t="shared" si="1"/>
+        <v>0.41319444444444436</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="23.25">
       <c r="A13" s="36">
         <v>45123</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="38">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="C13" s="38">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="38">
+        <v>0.65138888888888891</v>
+      </c>
       <c r="H13" s="17"/>
       <c r="I13" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12430555555555556</v>
       </c>
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
@@ -6052,17 +6116,28 @@
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
+      <c r="S13" s="44">
+        <f t="shared" si="1"/>
+        <v>0.12430555555555556</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="23.25">
       <c r="A14" s="36">
         <v>45124</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="38">
+        <v>0.48125000000000001</v>
+      </c>
       <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="D14" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="38">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G14" s="38"/>
       <c r="H14" s="17"/>
       <c r="I14" s="50">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>96498</v>
+            <v>137512</v>
           </cell>
         </row>
       </sheetData>
@@ -1269,8 +1269,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1495,12 +1495,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>70120</v>
+            <v>124610</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1660,8 +1660,8 @@
       <sheetName val="Sheet10"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
@@ -1669,13 +1669,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1716,7 +1716,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>134766</v>
+            <v>101730</v>
           </cell>
         </row>
       </sheetData>
@@ -1762,12 +1762,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>136266</v>
+            <v>174538</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2129,7 +2129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -2192,14 +2192,14 @@
       </c>
       <c r="J2" s="24">
         <f>B6</f>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="K2" s="13">
         <v>118858</v>
       </c>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>17408</v>
+        <v>55680</v>
       </c>
       <c r="M2">
         <v>130000</v>
@@ -2224,14 +2224,14 @@
       </c>
       <c r="J3" s="24">
         <f>B11</f>
-        <v>96498</v>
+        <v>137512</v>
       </c>
       <c r="K3" s="13">
         <v>4904</v>
       </c>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>91594</v>
+        <v>132608</v>
       </c>
       <c r="M3">
         <v>150000</v>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -2256,12 +2256,12 @@
       </c>
       <c r="J4" s="24">
         <f>B21</f>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L5" si="0">J4-K4</f>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="M4">
         <v>100000</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2392,7 +2392,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>134766</v>
+        <v>101730</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>22</v>
@@ -2402,7 +2402,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="24">
         <f>SUM(J2:J8)</f>
-        <v>573742</v>
+        <v>707518</v>
       </c>
       <c r="N10" s="8"/>
     </row>
@@ -2412,12 +2412,12 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>96498</v>
+        <v>137512</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B26,B29)</f>
-        <v>363552</v>
+        <v>497328</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2498,7 +2498,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>689342</v>
+        <v>790082</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2690,7 +2690,7 @@
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>SUM(B1:B29)</f>
-        <v>699532</v>
+        <v>800272</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="23.25">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>416008</v>
+        <v>315268</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4827,8 +4827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4877,8 +4877,8 @@
         <v>155</v>
       </c>
       <c r="E3" s="32">
-        <f>E2*1.15</f>
-        <v>719822.95</v>
+        <f>E2*1.1</f>
+        <v>688526.3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="E5" s="33">
         <f>E4-E3</f>
-        <v>-63262.949999999953</v>
+        <v>-31966.300000000047</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -1242,7 +1242,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>137512</v>
+            <v>114772</v>
           </cell>
         </row>
       </sheetData>
@@ -1269,8 +1269,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1499,8 +1499,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1665,7 +1665,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1115540</v>
+            <v>1114336</v>
           </cell>
         </row>
       </sheetData>
@@ -1766,8 +1766,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2130,7 +2130,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2195,11 +2195,11 @@
         <v>174538</v>
       </c>
       <c r="K2" s="13">
-        <v>118858</v>
+        <v>239329</v>
       </c>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>55680</v>
+        <v>-64791</v>
       </c>
       <c r="M2">
         <v>130000</v>
@@ -2224,14 +2224,14 @@
       </c>
       <c r="J3" s="24">
         <f>B11</f>
-        <v>137512</v>
+        <v>114772</v>
       </c>
       <c r="K3" s="13">
         <v>4904</v>
       </c>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>132608</v>
+        <v>109868</v>
       </c>
       <c r="M3">
         <v>150000</v>
@@ -2402,7 +2402,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="24">
         <f>SUM(J2:J8)</f>
-        <v>707518</v>
+        <v>684778</v>
       </c>
       <c r="N10" s="8"/>
     </row>
@@ -2412,12 +2412,12 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>137512</v>
+        <v>114772</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B26,B29)</f>
-        <v>497328</v>
+        <v>474588</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2498,7 +2498,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>790082</v>
+        <v>767342</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2690,13 +2690,13 @@
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>SUM(B1:B29)</f>
-        <v>800272</v>
+        <v>777532</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1115540</v>
+        <v>1114336</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>315268</v>
+        <v>336804</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="210">
   <si>
     <t>AYUSH</t>
   </si>
@@ -1610,7 +1610,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>60668</v>
+            <v>3238</v>
           </cell>
         </row>
       </sheetData>
@@ -1665,7 +1665,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1114336</v>
+            <v>1088506</v>
           </cell>
         </row>
       </sheetData>
@@ -1762,12 +1762,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>174538</v>
+            <v>135698</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2129,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2192,10 +2192,10 @@
       </c>
       <c r="J2" s="24">
         <f>B6</f>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="K2" s="13">
-        <v>239329</v>
+        <v>200489</v>
       </c>
       <c r="L2" s="8">
         <f>J2-K2</f>
@@ -2226,12 +2226,10 @@
         <f>B11</f>
         <v>114772</v>
       </c>
-      <c r="K3" s="13">
-        <v>4904</v>
-      </c>
+      <c r="K3" s="13"/>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>109868</v>
+        <v>114772</v>
       </c>
       <c r="M3">
         <v>150000</v>
@@ -2258,10 +2256,12 @@
         <f>B21</f>
         <v>124610</v>
       </c>
-      <c r="K4" s="13"/>
+      <c r="K4" s="13">
+        <v>90083</v>
+      </c>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L5" si="0">J4-K4</f>
-        <v>124610</v>
+        <v>34527</v>
       </c>
       <c r="M4">
         <v>100000</v>
@@ -2286,12 +2286,12 @@
       </c>
       <c r="J5" s="24">
         <f>B26</f>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2402,7 +2402,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="24">
         <f>SUM(J2:J8)</f>
-        <v>684778</v>
+        <v>588508</v>
       </c>
       <c r="N10" s="8"/>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B26,B29)</f>
-        <v>474588</v>
+        <v>378318</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2498,7 +2498,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>767342</v>
+        <v>671072</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="B26" s="9">
         <f>[26]Sheet1!$E$38</f>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="8"/>
@@ -2690,13 +2690,13 @@
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>SUM(B1:B29)</f>
-        <v>777532</v>
+        <v>681262</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1114336</v>
+        <v>1088506</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>336804</v>
+        <v>407244</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3284,10 +3284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3467,8 +3467,8 @@
         <v>96</v>
       </c>
       <c r="F15" s="8">
-        <f>B80</f>
-        <v>11881</v>
+        <f>B82</f>
+        <v>27881</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3505,7 +3505,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="11">
         <f>SUM(F15:F16)</f>
-        <v>66931</v>
+        <v>82931</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4138,39 +4138,61 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>100</v>
-      </c>
-      <c r="B77" s="11">
-        <f>SUM(B33:B76)</f>
-        <v>274781</v>
+        <v>70</v>
+      </c>
+      <c r="B77" s="13">
+        <v>11000</v>
+      </c>
+      <c r="C77" s="14">
+        <v>45113</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B78" s="13">
-        <v>185956</v>
-      </c>
-      <c r="C78" t="s">
-        <v>157</v>
+        <v>5000</v>
+      </c>
+      <c r="C78" s="14">
+        <v>45132</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="B79" s="13">
-        <v>76944</v>
-      </c>
-      <c r="C79" t="s">
-        <v>185</v>
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="11">
+        <f>SUM(B33:B78)</f>
+        <v>290781</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="13">
+        <v>185956</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="B81" s="13">
+        <v>76944</v>
+      </c>
+      <c r="C81" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="11">
-        <f>B77-B78-B79</f>
-        <v>11881</v>
+      <c r="B82" s="11">
+        <f>B79-B80-B81</f>
+        <v>27881</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -1587,7 +1587,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>10190</v>
+            <v>190</v>
           </cell>
         </row>
       </sheetData>
@@ -1665,7 +1665,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1088506</v>
+            <v>1114948</v>
           </cell>
         </row>
       </sheetData>
@@ -1762,12 +1762,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>135698</v>
+            <v>89801</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2129,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2192,10 +2192,10 @@
       </c>
       <c r="J2" s="24">
         <f>B6</f>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="K2" s="13">
-        <v>200489</v>
+        <v>154592</v>
       </c>
       <c r="L2" s="8">
         <f>J2-K2</f>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="J7" s="24">
         <f>$B$25</f>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="L7" s="8"/>
     </row>
@@ -2402,7 +2402,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="24">
         <f>SUM(J2:J8)</f>
-        <v>588508</v>
+        <v>532611</v>
       </c>
       <c r="N10" s="8"/>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B26,B29)</f>
-        <v>378318</v>
+        <v>332421</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2498,7 +2498,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>671072</v>
+        <v>625175</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B25" s="9">
         <f>[25]Sheet1!$E$38</f>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="G25" s="7"/>
       <c r="I25" s="8"/>
@@ -2690,13 +2690,13 @@
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>SUM(B1:B29)</f>
-        <v>681262</v>
+        <v>625365</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1088506</v>
+        <v>1114948</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>407244</v>
+        <v>489583</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="211">
   <si>
     <t>AYUSH</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>ABSENT</t>
+  </si>
+  <si>
+    <t>inner</t>
   </si>
 </sst>
 </file>
@@ -905,7 +908,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1014,6 +1017,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -1495,12 +1499,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>124610</v>
+            <v>74610</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1716,12 +1720,12 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>101730</v>
+            <v>194472</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2129,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2242,7 +2246,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -2254,14 +2258,14 @@
       </c>
       <c r="J4" s="24">
         <f>B21</f>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="K4" s="13">
         <v>90083</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L5" si="0">J4-K4</f>
-        <v>34527</v>
+        <v>-15473</v>
       </c>
       <c r="M4">
         <v>100000</v>
@@ -2392,7 +2396,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>101730</v>
+        <v>194472</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>22</v>
@@ -2402,7 +2406,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="24">
         <f>SUM(J2:J8)</f>
-        <v>532611</v>
+        <v>482611</v>
       </c>
       <c r="N10" s="8"/>
     </row>
@@ -2417,7 +2421,7 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B26,B29)</f>
-        <v>332421</v>
+        <v>282421</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2498,7 +2502,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>625175</v>
+        <v>667917</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2595,7 +2599,7 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2690,7 +2694,7 @@
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>SUM(B1:B29)</f>
-        <v>625365</v>
+        <v>668107</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="23.25">
@@ -2705,7 +2709,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>489583</v>
+        <v>446841</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2747,12 +2751,178 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="52">
+        <v>9992</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="52">
+        <v>7610</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>9234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>9236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>9234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>9408</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>7516</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>7517</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>7518</v>
+      </c>
+      <c r="B11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>5539</v>
+      </c>
+      <c r="B12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>5540</v>
+      </c>
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>5541</v>
+      </c>
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>5620</v>
+      </c>
+      <c r="B15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>6428</v>
+      </c>
+      <c r="B16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>8885</v>
+      </c>
+      <c r="B17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>7667</v>
+      </c>
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>10604</v>
+      </c>
+      <c r="B19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>10097</v>
+      </c>
+      <c r="B20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>8596</v>
+      </c>
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>7636</v>
+      </c>
+      <c r="B22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2761,7 +2931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -3284,10 +3454,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3467,8 +3637,8 @@
         <v>96</v>
       </c>
       <c r="F15" s="8">
-        <f>B82</f>
-        <v>27881</v>
+        <f>B83</f>
+        <v>42881</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3505,7 +3675,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="11">
         <f>SUM(F15:F16)</f>
-        <v>82931</v>
+        <v>97931</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4160,39 +4330,50 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="11">
-        <f>SUM(B33:B78)</f>
-        <v>290781</v>
+        <v>70</v>
+      </c>
+      <c r="B79" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C79" s="14">
+        <v>45142</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="11">
+        <f>SUM(B33:B79)</f>
+        <v>305781</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
         <v>101</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B81" s="13">
         <v>185956</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="B81" s="13">
+    <row r="82" spans="1:3">
+      <c r="B82" s="13">
         <v>76944</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>102</v>
       </c>
-      <c r="B82" s="11">
-        <f>B79-B80-B81</f>
-        <v>27881</v>
+      <c r="B83" s="11">
+        <f>B80-B81-B82</f>
+        <v>42881</v>
       </c>
     </row>
   </sheetData>
@@ -4213,8 +4394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -17,10 +17,10 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
@@ -47,13 +47,15 @@
     <externalReference r:id="rId36"/>
     <externalReference r:id="rId37"/>
     <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
+    <externalReference r:id="rId40"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="231">
   <si>
     <t>AYUSH</t>
   </si>
@@ -436,9 +438,6 @@
     <t>PANTHER</t>
   </si>
   <si>
-    <t>TRICYCLE</t>
-  </si>
-  <si>
     <t>RAMBO</t>
   </si>
   <si>
@@ -686,6 +685,69 @@
   </si>
   <si>
     <t>inner</t>
+  </si>
+  <si>
+    <t>TRICYCLE &amp; PARENTAL</t>
+  </si>
+  <si>
+    <t>PREM SONI PUNCH</t>
+  </si>
+  <si>
+    <t>JUNGLE CAR</t>
+  </si>
+  <si>
+    <t>CHAMP  BASKET SWING CAR</t>
+  </si>
+  <si>
+    <t>DUCK</t>
+  </si>
+  <si>
+    <t>ELEPHANT</t>
+  </si>
+  <si>
+    <t>UNICORN</t>
+  </si>
+  <si>
+    <t>LOTTO</t>
+  </si>
+  <si>
+    <t>SKY INDIA</t>
+  </si>
+  <si>
+    <t>40+50</t>
+  </si>
+  <si>
+    <t>LEFT FOR FORCLOSER</t>
+  </si>
+  <si>
+    <t>ALREADY DEBITED FROM ACCOUNT</t>
+  </si>
+  <si>
+    <t>NAND ADVANI</t>
+  </si>
+  <si>
+    <t>PREETAM  ADVANI</t>
+  </si>
+  <si>
+    <t>OM ADVANI FOR CONSTURCTION</t>
+  </si>
+  <si>
+    <t>OM ADVANI</t>
+  </si>
+  <si>
+    <t>FIRST CONTACT</t>
+  </si>
+  <si>
+    <t>SECOND CONTACT</t>
+  </si>
+  <si>
+    <t>THIRD CONTACT</t>
+  </si>
+  <si>
+    <t>SOLUTIONS</t>
+  </si>
+  <si>
+    <t>SECOND SOLUTIONS</t>
   </si>
 </sst>
 </file>
@@ -698,7 +760,7 @@
     <numFmt numFmtId="166" formatCode="h\.mm"/>
     <numFmt numFmtId="167" formatCode="[$-14009]dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,6 +913,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -908,7 +978,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1018,6 +1088,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -1246,7 +1317,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>114772</v>
+            <v>88122</v>
           </cell>
         </row>
       </sheetData>
@@ -1342,8 +1413,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1499,7 +1570,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>74610</v>
+            <v>21791</v>
           </cell>
         </row>
       </sheetData>
@@ -1669,7 +1740,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1114948</v>
+            <v>1113743</v>
           </cell>
         </row>
       </sheetData>
@@ -1724,8 +1795,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1766,7 +1837,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>89801</v>
+            <v>118935</v>
           </cell>
         </row>
       </sheetData>
@@ -2134,7 +2205,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2172,10 +2243,10 @@
         <v>24</v>
       </c>
       <c r="K1" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>129</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" thickTop="1">
@@ -2196,14 +2267,14 @@
       </c>
       <c r="J2" s="24">
         <f>B6</f>
-        <v>89801</v>
+        <v>118935</v>
       </c>
       <c r="K2" s="13">
         <v>154592</v>
       </c>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>-64791</v>
+        <v>-35657</v>
       </c>
       <c r="M2">
         <v>130000</v>
@@ -2228,12 +2299,14 @@
       </c>
       <c r="J3" s="24">
         <f>B11</f>
-        <v>114772</v>
-      </c>
-      <c r="K3" s="13"/>
+        <v>88122</v>
+      </c>
+      <c r="K3" s="13">
+        <v>31283</v>
+      </c>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>114772</v>
+        <v>56839</v>
       </c>
       <c r="M3">
         <v>150000</v>
@@ -2254,18 +2327,18 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J4" s="24">
         <f>B21</f>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="K4" s="13">
         <v>90083</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L5" si="0">J4-K4</f>
-        <v>-15473</v>
+        <v>-68292</v>
       </c>
       <c r="M4">
         <v>100000</v>
@@ -2305,7 +2378,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>89801</v>
+        <v>118935</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2313,7 +2386,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J6" s="24">
         <f>B29</f>
@@ -2340,7 +2413,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J7" s="24">
         <f>$B$25</f>
@@ -2406,7 +2479,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="24">
         <f>SUM(J2:J8)</f>
-        <v>482611</v>
+        <v>432276</v>
       </c>
       <c r="N10" s="8"/>
     </row>
@@ -2416,12 +2489,12 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>114772</v>
+        <v>88122</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B21,B26,B29)</f>
-        <v>282421</v>
+        <v>232086</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2502,7 +2575,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>667917</v>
+        <v>617582</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2525,7 +2598,9 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="23" t="s">
+        <v>219</v>
+      </c>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:18" ht="23.25">
@@ -2599,7 +2674,7 @@
       </c>
       <c r="B21" s="9">
         <f>[21]Sheet1!$E$38</f>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2625,7 +2700,7 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="R22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="23.25">
@@ -2651,7 +2726,7 @@
     </row>
     <row r="25" spans="1:18" ht="23.25">
       <c r="A25" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" s="9">
         <f>[25]Sheet1!$E$38</f>
@@ -2694,13 +2769,13 @@
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>SUM(B1:B29)</f>
-        <v>668107</v>
+        <v>617772</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1114948</v>
+        <v>1113743</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21">
@@ -2709,7 +2784,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>446841</v>
+        <v>495971</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2767,7 +2842,7 @@
         <v>9992</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2775,7 +2850,7 @@
         <v>7610</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2783,7 +2858,7 @@
         <v>9234</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2791,7 +2866,7 @@
         <v>9236</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2799,7 +2874,7 @@
         <v>9234</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2807,7 +2882,7 @@
         <v>9408</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2815,7 +2890,7 @@
         <v>7516</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2823,7 +2898,7 @@
         <v>7517</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2831,7 +2906,7 @@
         <v>7518</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2839,7 +2914,7 @@
         <v>5539</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2847,7 +2922,7 @@
         <v>5540</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2855,7 +2930,7 @@
         <v>5541</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2863,7 +2938,7 @@
         <v>5620</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2871,7 +2946,7 @@
         <v>6428</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2879,7 +2954,7 @@
         <v>8885</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2887,7 +2962,7 @@
         <v>7667</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2895,7 +2970,7 @@
         <v>10604</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2903,7 +2978,7 @@
         <v>10097</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2911,7 +2986,7 @@
         <v>8596</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2919,11 +2994,559 @@
         <v>7636</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75">
+      <c r="A1" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8">
+        <v>470</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="8">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8">
+        <v>730</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="8">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8">
+        <v>680</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1970</v>
+      </c>
+      <c r="E4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="8">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8">
+        <v>630</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1830</v>
+      </c>
+      <c r="E5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="8">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8">
+        <v>420</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1220</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="8">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8">
+        <v>420</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1320</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1045</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="13">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>635</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8">
+        <v>660</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="8">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>970</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="8">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8">
+        <v>800</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="8">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="8">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="8">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="8">
+        <v>21</v>
+      </c>
+      <c r="C24" s="8">
+        <v>290</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8">
+        <v>425</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="8">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8">
+        <v>475</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="8">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="8">
+        <v>4</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="8">
+        <v>40</v>
+      </c>
+      <c r="C31" s="8">
+        <v>150</v>
+      </c>
+      <c r="D31" s="8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="8">
+        <v>40</v>
+      </c>
+      <c r="C32" s="8">
+        <v>170</v>
+      </c>
+      <c r="D32" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="8">
+        <v>20</v>
+      </c>
+      <c r="C33" s="8">
+        <v>205</v>
+      </c>
+      <c r="D33" s="8">
+        <v>610</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="8">
+        <v>20</v>
+      </c>
+      <c r="C34" s="8">
+        <v>275</v>
+      </c>
+      <c r="D34" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="8">
+        <v>20</v>
+      </c>
+      <c r="C35" s="8">
+        <v>305</v>
+      </c>
+      <c r="D35" s="8">
+        <v>900</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="8">
+        <v>20</v>
+      </c>
+      <c r="C36" s="8">
+        <v>325</v>
+      </c>
+      <c r="D36" s="8">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="8">
+        <v>8</v>
+      </c>
+      <c r="C37" s="8">
+        <v>775</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="8">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="E39" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="E40" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6">
+        <f>SUM(B1:B5)</f>
+        <v>405200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.5">
+      <c r="A11" s="53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="28.5">
+      <c r="A18" s="53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3456,7 +4079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -4220,7 +4843,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" s="13">
         <v>229</v>
@@ -4297,13 +4920,13 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B76" s="13">
         <v>2026</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4356,7 +4979,7 @@
         <v>185956</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4364,7 +4987,7 @@
         <v>76944</v>
       </c>
       <c r="C82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4392,10 +5015,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B49"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4409,17 +5032,17 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>133</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>134</v>
       </c>
       <c r="F1" s="26"/>
       <c r="K1" s="7"/>
@@ -4427,7 +5050,7 @@
     </row>
     <row r="2" spans="1:14" ht="18.75">
       <c r="A2" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="25"/>
@@ -4466,7 +5089,7 @@
         <v>2120</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -4484,7 +5107,7 @@
         <v>1970</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -4502,7 +5125,7 @@
         <v>1830</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -4520,7 +5143,7 @@
         <v>1220</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N7" s="8"/>
     </row>
@@ -4538,13 +5161,13 @@
         <v>1320</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="8">
         <v>4</v>
@@ -4559,7 +5182,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="8">
         <v>4</v>
@@ -4664,7 +5287,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="8">
         <v>4</v>
@@ -4678,7 +5301,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="8">
         <v>4</v>
@@ -4692,7 +5315,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="8">
         <v>4</v>
@@ -4704,7 +5327,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8">
@@ -4739,7 +5362,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B27" s="8">
         <v>2525</v>
@@ -4756,7 +5379,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="8"/>
@@ -4764,7 +5387,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4772,7 +5395,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="8">
         <v>4</v>
@@ -4784,7 +5407,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="8">
         <v>4</v>
@@ -4796,7 +5419,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="8">
         <v>4</v>
@@ -4808,7 +5431,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="8">
         <v>4</v>
@@ -4820,7 +5443,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35" s="8">
         <v>15</v>
@@ -4830,192 +5453,202 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+    <row r="36" spans="1:13">
+      <c r="A36" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="8">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="8">
-        <v>21</v>
-      </c>
-      <c r="C38" s="8">
-        <v>290</v>
-      </c>
+      <c r="A38" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="8" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="B39" s="8">
+        <v>21</v>
+      </c>
+      <c r="C39" s="8">
+        <v>290</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="8">
         <v>4</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C40" s="8">
         <v>425</v>
       </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="8">
-        <v>40</v>
-      </c>
-      <c r="C42" s="8">
-        <v>150</v>
-      </c>
-      <c r="D42" s="8">
-        <v>440</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>179</v>
-      </c>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B43" s="8">
         <v>40</v>
       </c>
       <c r="C43" s="8">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D43" s="8">
-        <v>500</v>
-      </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
+        <v>440</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B44" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C44" s="8">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="D44" s="8">
-        <v>610</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>179</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="8"/>
       <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45" s="8">
         <v>20</v>
       </c>
       <c r="C45" s="8">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="D45" s="8">
-        <v>800</v>
+        <v>610</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="B46" s="8">
         <v>20</v>
       </c>
       <c r="C46" s="8">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="D46" s="8">
-        <v>900</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>179</v>
+        <v>800</v>
       </c>
       <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="B47" s="8">
         <v>20</v>
       </c>
       <c r="C47" s="8">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D47" s="8">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B48" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C48" s="8">
-        <v>775</v>
+        <v>325</v>
+      </c>
+      <c r="D48" s="8">
+        <v>960</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="8" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B49" s="8">
+        <v>8</v>
+      </c>
+      <c r="C49" s="8">
+        <v>775</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="8">
         <v>4</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C50" s="8">
         <v>495</v>
       </c>
-      <c r="E49" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="J50" s="8"/>
+      <c r="E50" s="34" t="s">
+        <v>178</v>
+      </c>
       <c r="L50" s="8"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A20:A24">
@@ -5044,10 +5677,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="D1" s="11"/>
     </row>
@@ -5062,7 +5695,7 @@
         <v>633108</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(B2:B556)</f>
@@ -5077,7 +5710,7 @@
         <v>6800</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="32">
         <f>E2*1.1</f>
@@ -5092,7 +5725,7 @@
         <v>8245</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E4" s="8">
         <v>656560</v>
@@ -5808,13 +6441,13 @@
     <row r="1" spans="1:20" ht="33.75">
       <c r="A1"/>
       <c r="B1" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>191</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>192</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
@@ -5822,26 +6455,26 @@
     <row r="2" spans="1:20">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="D2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="H2"/>
       <c r="T2" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="23.25">
@@ -6256,7 +6889,7 @@
         <v>0.48125000000000001</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="38">
         <v>0.45833333333333331</v>
@@ -6294,10 +6927,10 @@
         <v>0.65138888888888891</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F13" s="38">
         <v>0.5</v>
@@ -6333,10 +6966,10 @@
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F14" s="38">
         <v>0.95833333333333337</v>
@@ -6817,7 +7450,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -6825,7 +7458,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6833,7 +7466,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6841,7 +7474,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6849,7 +7482,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6857,7 +7490,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6865,7 +7498,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6873,67 +7506,67 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
         <v>173</v>
-      </c>
-      <c r="B9" t="s">
-        <v>174</v>
       </c>
       <c r="I9">
         <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
         <v>163</v>
-      </c>
-      <c r="B11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -7213,155 +7846,155 @@
   <sheetData>
     <row r="1" spans="2:8" ht="26.25">
       <c r="B1" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15.75">
       <c r="B2" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>198</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3">
         <v>492</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E3">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G3">
         <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4">
         <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5">
         <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G5">
         <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6">
         <v>360</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G6">
         <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7">
         <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8">
         <v>294</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G8">
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15">
         <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G15">
         <v>168</v>
       </c>
       <c r="H15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1841,8 +1841,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2204,7 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -5017,7 +5017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="231">
   <si>
     <t>AYUSH</t>
   </si>
@@ -1100,6 +1100,21 @@
   <dxfs count="8">
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -1115,21 +1130,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1413,8 +1413,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1574,8 +1574,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1740,7 +1740,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1113743</v>
+            <v>1029374</v>
           </cell>
         </row>
       </sheetData>
@@ -1841,8 +1841,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1860,7 +1860,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>62940</v>
+            <v>22940</v>
           </cell>
         </row>
       </sheetData>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B7" s="2">
         <f>[7]Sheet1!$E$38</f>
-        <v>62940</v>
+        <v>22940</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -2515,7 +2515,7 @@
       <c r="D12" s="23"/>
       <c r="E12" s="23">
         <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>191024</v>
+        <v>151024</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>21</v>
@@ -2575,7 +2575,7 @@
       <c r="D15" s="23"/>
       <c r="E15" s="26">
         <f>SUM(E10:E13)</f>
-        <v>617582</v>
+        <v>577582</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>24</v>
@@ -2769,13 +2769,13 @@
     <row r="30" spans="1:18" ht="23.25">
       <c r="B30" s="1">
         <f>SUM(B1:B29)</f>
-        <v>617772</v>
+        <v>577772</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1113743</v>
+        <v>1029374</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>495971</v>
+        <v>451602</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4077,10 +4077,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4260,8 +4260,8 @@
         <v>96</v>
       </c>
       <c r="F15" s="8">
-        <f>B83</f>
-        <v>42881</v>
+        <f>B84</f>
+        <v>47881</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4298,7 +4298,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="11">
         <f>SUM(F15:F16)</f>
-        <v>97931</v>
+        <v>102931</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4964,47 +4964,58 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>100</v>
-      </c>
-      <c r="B80" s="11">
-        <f>SUM(B33:B79)</f>
-        <v>305781</v>
+        <v>70</v>
+      </c>
+      <c r="B80" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C80" s="14">
+        <v>45160</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="11">
+        <f>SUM(B33:B80)</f>
+        <v>310781</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>101</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B82" s="13">
         <v>185956</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="B82" s="13">
+    <row r="83" spans="1:3">
+      <c r="B83" s="13">
         <v>76944</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
         <v>102</v>
       </c>
-      <c r="B83" s="11">
-        <f>B80-B81-B82</f>
-        <v>42881</v>
+      <c r="B84" s="11">
+        <f>B81-B82-B83</f>
+        <v>47881</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F16">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT YET">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NOT YET">
       <formula>NOT(ISERROR(SEARCH("NOT YET",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="RECIVED">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="RECIVED">
       <formula>NOT(ISERROR(SEARCH("RECIVED",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5017,8 +5028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5155,7 +5166,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="8">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="D8" s="8">
         <v>1320</v>
@@ -5619,7 +5630,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="8">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="E49" s="34" t="s">
         <v>178</v>
@@ -6402,10 +6413,10 @@
     <cfRule type="aboveAverage" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1100,21 +1100,6 @@
   <dxfs count="8">
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -1130,6 +1115,21 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3555,7 +3555,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4079,7 +4079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
@@ -5012,10 +5012,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F16">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NOT YET">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT YET">
       <formula>NOT(ISERROR(SEARCH("NOT YET",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="RECIVED">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="RECIVED">
       <formula>NOT(ISERROR(SEARCH("RECIVED",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5028,8 +5028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6413,10 +6413,10 @@
     <cfRule type="aboveAverage" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -1740,7 +1740,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1029374</v>
+            <v>1139002</v>
           </cell>
         </row>
       </sheetData>
@@ -2775,7 +2775,7 @@
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1029374</v>
+        <v>1139002</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>451602</v>
+        <v>561230</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5029,7 +5029,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5366,7 +5366,9 @@
       <c r="A26" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8">
+        <v>1825</v>
+      </c>
       <c r="C26" s="8">
         <v>2100</v>
       </c>
@@ -5471,7 +5473,9 @@
       <c r="B36" s="8">
         <v>6</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="8">
+        <v>960</v>
+      </c>
       <c r="D36" s="8"/>
     </row>
     <row r="38" spans="1:13">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1733,6 +1733,8 @@
       <sheetName val="Sheet8"/>
       <sheetName val="Sheet9"/>
       <sheetName val="Sheet10"/>
+      <sheetName val="Sheet11"/>
+      <sheetName val="Sheet12"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1740,7 +1742,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1139002</v>
+            <v>1213111</v>
           </cell>
         </row>
       </sheetData>
@@ -1751,6 +1753,8 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2775,7 +2779,7 @@
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1139002</v>
+        <v>1213111</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21">
@@ -2784,7 +2788,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>561230</v>
+        <v>635339</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="231">
   <si>
     <t>AYUSH</t>
   </si>
@@ -1742,7 +1742,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1213111</v>
+            <v>1157977</v>
           </cell>
         </row>
       </sheetData>
@@ -2779,7 +2779,7 @@
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1213111</v>
+        <v>1157977</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B33" s="5">
         <f>B31-B30</f>
-        <v>635339</v>
+        <v>580205</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4081,10 +4081,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4264,8 +4264,8 @@
         <v>96</v>
       </c>
       <c r="F15" s="8">
-        <f>B84</f>
-        <v>47881</v>
+        <f>B85</f>
+        <v>62881</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4302,7 +4302,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="11">
         <f>SUM(F15:F16)</f>
-        <v>102931</v>
+        <v>117931</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4979,39 +4979,50 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>100</v>
-      </c>
-      <c r="B81" s="11">
-        <f>SUM(B33:B80)</f>
-        <v>310781</v>
+        <v>70</v>
+      </c>
+      <c r="B81" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C81" s="14">
+        <v>45178</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="11">
+        <f>SUM(B33:B81)</f>
+        <v>325781</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B83" s="13">
         <v>185956</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="B83" s="13">
+    <row r="84" spans="1:3">
+      <c r="B84" s="13">
         <v>76944</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
         <v>102</v>
       </c>
-      <c r="B84" s="11">
-        <f>B81-B82-B83</f>
-        <v>47881</v>
+      <c r="B85" s="11">
+        <f>B82-B83-B84</f>
+        <v>62881</v>
       </c>
     </row>
   </sheetData>
@@ -5033,7 +5044,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="234">
   <si>
     <t>AYUSH</t>
   </si>
@@ -714,9 +714,6 @@
     <t>SKY INDIA</t>
   </si>
   <si>
-    <t>40+50</t>
-  </si>
-  <si>
     <t>LEFT FOR FORCLOSER</t>
   </si>
   <si>
@@ -748,6 +745,18 @@
   </si>
   <si>
     <t>SECOND SOLUTIONS</t>
+  </si>
+  <si>
+    <t>CASH WE HAVE</t>
+  </si>
+  <si>
+    <t>CASH WE NEED</t>
+  </si>
+  <si>
+    <t>CASH  WE HAVE IN ACC</t>
+  </si>
+  <si>
+    <t>TOY ILLA</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1326,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>88122</v>
+            <v>282636</v>
           </cell>
         </row>
       </sheetData>
@@ -1340,7 +1349,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>67847</v>
           </cell>
         </row>
       </sheetData>
@@ -1478,7 +1487,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>72349</v>
+            <v>5527</v>
           </cell>
         </row>
       </sheetData>
@@ -1547,7 +1556,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>37590</v>
           </cell>
         </row>
       </sheetData>
@@ -1570,7 +1579,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>21791</v>
+            <v>56312</v>
           </cell>
         </row>
       </sheetData>
@@ -1685,7 +1694,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>3238</v>
+            <v>89003</v>
           </cell>
         </row>
       </sheetData>
@@ -1708,7 +1717,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>0</v>
+            <v>35678</v>
           </cell>
         </row>
       </sheetData>
@@ -1742,7 +1751,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1157977</v>
+            <v>1572685</v>
           </cell>
         </row>
       </sheetData>
@@ -1795,7 +1804,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>194472</v>
+            <v>206111</v>
           </cell>
         </row>
       </sheetData>
@@ -1841,7 +1850,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>118935</v>
+            <v>196917</v>
           </cell>
         </row>
       </sheetData>
@@ -2206,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2271,14 +2280,14 @@
       </c>
       <c r="J2" s="24">
         <f>B6</f>
-        <v>118935</v>
+        <v>196917</v>
       </c>
       <c r="K2" s="13">
         <v>154592</v>
       </c>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>-35657</v>
+        <v>42325</v>
       </c>
       <c r="M2">
         <v>130000</v>
@@ -2303,14 +2312,14 @@
       </c>
       <c r="J3" s="24">
         <f>B11</f>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="K3" s="13">
         <v>31283</v>
       </c>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>56839</v>
+        <v>251353</v>
       </c>
       <c r="M3">
         <v>150000</v>
@@ -2323,7 +2332,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>194472</v>
+        <v>206111</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -2334,15 +2343,15 @@
         <v>155</v>
       </c>
       <c r="J4" s="24">
-        <f>B21</f>
-        <v>21791</v>
+        <f>B22</f>
+        <v>56312</v>
       </c>
       <c r="K4" s="13">
         <v>90083</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L5" si="0">J4-K4</f>
-        <v>-68292</v>
+        <v>-33771</v>
       </c>
       <c r="M4">
         <v>100000</v>
@@ -2366,13 +2375,13 @@
         <v>71</v>
       </c>
       <c r="J5" s="24">
-        <f>B26</f>
-        <v>3238</v>
+        <f>B27</f>
+        <v>89003</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -2382,7 +2391,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>118935</v>
+        <v>196917</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2393,13 +2402,13 @@
         <v>175</v>
       </c>
       <c r="J6" s="24">
-        <f>B29</f>
-        <v>0</v>
+        <f>B30</f>
+        <v>35678</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8">
         <f>J6-K6</f>
-        <v>0</v>
+        <v>35678</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -2420,7 +2429,7 @@
         <v>186</v>
       </c>
       <c r="J7" s="24">
-        <f>$B$25</f>
+        <f>$B$26</f>
         <v>190</v>
       </c>
       <c r="L7" s="8"/>
@@ -2439,10 +2448,11 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="J8" s="24">
-        <v>200000</v>
+        <f>B12</f>
+        <v>67847</v>
       </c>
       <c r="L8" s="8"/>
     </row>
@@ -2459,8 +2469,12 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="24">
+        <v>200000</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="23.25">
       <c r="A10" s="2" t="s">
@@ -2472,8 +2486,8 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23">
-        <f>SUM(B1,B3,B4,B5,B8,B9,B13,B17,B19,B20,B22,B23)</f>
-        <v>194472</v>
+        <f>SUM(B1,B3,B4,B5,B8,B9,B13,B18,B20,B21,B23,B24)</f>
+        <v>243701</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>22</v>
@@ -2483,7 +2497,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="24">
         <f>SUM(J2:J8)</f>
-        <v>432276</v>
+        <v>728583</v>
       </c>
       <c r="N10" s="8"/>
     </row>
@@ -2493,12 +2507,12 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
-        <f>SUM(B6,B12,B11,B21,B26,B29)</f>
-        <v>232086</v>
+        <f>SUM(B6,B12,B11,B22,B27,B30)</f>
+        <v>728393</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2514,12 +2528,12 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23">
-        <f>SUM(B2,B7,B14,B16,B18)</f>
-        <v>151024</v>
+        <f>SUM(B2,B7,B14,B17,B19)</f>
+        <v>84202</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>21</v>
@@ -2541,7 +2555,7 @@
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23">
-        <f>SUM(B15,B10,B24)</f>
+        <f>SUM(B16,B10,B25)</f>
         <v>0</v>
       </c>
       <c r="F13" s="23" t="s">
@@ -2565,103 +2579,110 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J14" s="11">
+        <v>135000</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="23.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" s="11">
+        <v>21163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="23.25">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <f>[15]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="26">
+      <c r="D16" s="23"/>
+      <c r="E16" s="26">
         <f>SUM(E10:E13)</f>
-        <v>577582</v>
-      </c>
-      <c r="F15" s="26" t="s">
+        <v>1056296</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" ht="23.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <f>[16]Sheet1!$E$38</f>
-        <v>2455</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="J16" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="J16" s="11">
+        <f>J10-J14-100000-J15</f>
+        <v>472420</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="23.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <f>[17]Sheet1!$E$38</f>
-        <v>0</v>
+        <f>[16]Sheet1!$E$38</f>
+        <v>2455</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:18" ht="23.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6">
-        <f>[18]Sheet1!$E$38</f>
-        <v>72349</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <f>[17]Sheet1!$E$38</f>
+        <v>0</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:18" ht="23.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
-        <f>[19]Sheet1!$E$38</f>
-        <v>0</v>
+        <f>[18]Sheet1!$E$38</f>
+        <v>5527</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="24"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:18" ht="23.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="9">
-        <f>[20]Sheet1!$E$38</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <f>[19]Sheet1!$E$38</f>
         <v>0</v>
       </c>
       <c r="D20" s="23"/>
@@ -2669,142 +2690,191 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="30"/>
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:18" ht="23.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="9">
-        <f>[21]Sheet1!$E$38</f>
-        <v>21791</v>
+        <f>[20]Sheet1!$E$38</f>
+        <v>37590</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="25"/>
+      <c r="I21" s="30"/>
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:18" ht="23.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="9">
-        <f>[22]Sheet1!$E$38</f>
-        <v>0</v>
+        <f>[21]Sheet1!$E$38</f>
+        <v>56312</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="R22" t="s">
-        <v>139</v>
+      <c r="I22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="24">
+        <v>50000</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="23.25">
       <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="9">
+        <f>[22]Sheet1!$E$38</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="J23" s="24">
+        <v>56312</v>
+      </c>
+      <c r="R23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="23.25">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B24" s="9">
         <f>[23]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:18" ht="23.25">
-      <c r="A24" s="2" t="s">
+      <c r="I24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="13">
+        <v>89003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="23.25">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B25" s="9">
         <f>[24]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:18" ht="23.25">
-      <c r="A25" s="2" t="s">
+      <c r="G25" s="7"/>
+      <c r="I25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="13">
+        <f>J8</f>
+        <v>67847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="23.25">
+      <c r="A26" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B26" s="9">
         <f>[25]Sheet1!$E$38</f>
         <v>190</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:18" ht="23.25">
-      <c r="A26" s="2" t="s">
+      <c r="G26" s="7"/>
+      <c r="I26" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" s="13">
+        <f>J6</f>
+        <v>35678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="23.25">
+      <c r="A27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B27" s="9">
         <f>[26]Sheet1!$E$38</f>
-        <v>3238</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:18" ht="23.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="9"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
+        <v>89003</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="13">
+        <f>J2</f>
+        <v>196917</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="23.25">
       <c r="A28" s="2"/>
       <c r="B28" s="9"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="8">
+        <v>200000</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="23.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="9"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" ht="23.25">
+      <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B30" s="9">
         <f>[27]Sheet1!$E$38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="23.25">
-      <c r="B30" s="1">
-        <f>SUM(B1:B29)</f>
-        <v>577772</v>
+        <v>35678</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
+        <f>SUM(B1:B30)</f>
+        <v>1056486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="23.25">
+      <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1157977</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="21">
-      <c r="A33" s="4" t="s">
+        <v>1572685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="21">
+      <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="5">
-        <f>B31-B30</f>
-        <v>580205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="B34" s="5">
+        <f>B32-B31</f>
+        <v>516199</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="J20">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -2812,7 +2882,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J21">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3486,7 +3556,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1">
         <v>200000</v>
@@ -3494,7 +3564,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2">
         <v>198000</v>
@@ -3502,7 +3572,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3">
         <v>7200</v>
@@ -3516,36 +3586,36 @@
     </row>
     <row r="11" spans="1:2" ht="28.5">
       <c r="A11" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
         <v>225</v>
-      </c>
-      <c r="B12" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28.5">
       <c r="A18" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3558,7 +3628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -5043,7 +5113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
@@ -49,13 +49,14 @@
     <externalReference r:id="rId38"/>
     <externalReference r:id="rId39"/>
     <externalReference r:id="rId40"/>
+    <externalReference r:id="rId41"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="253">
   <si>
     <t>AYUSH</t>
   </si>
@@ -757,6 +758,63 @@
   </si>
   <si>
     <t>TOY ILLA</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>JUGNU</t>
+  </si>
+  <si>
+    <t>TOY  WORLD</t>
+  </si>
+  <si>
+    <t>NISAR STATIONERY</t>
+  </si>
+  <si>
+    <t>total ok</t>
+  </si>
+  <si>
+    <t>cash  we  have</t>
+  </si>
+  <si>
+    <t>cash we need</t>
+  </si>
+  <si>
+    <t>amount we need in bank</t>
+  </si>
+  <si>
+    <t>amount we have in bank</t>
+  </si>
+  <si>
+    <t>novice</t>
+  </si>
+  <si>
+    <t>jugnu</t>
+  </si>
+  <si>
+    <t>toygallery</t>
+  </si>
+  <si>
+    <t>toworld</t>
+  </si>
+  <si>
+    <t>nisar</t>
+  </si>
+  <si>
+    <t>noor</t>
+  </si>
+  <si>
+    <t>toy villa</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>cash we have</t>
+  </si>
+  <si>
+    <t>extra</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1045,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1098,6 +1156,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -1326,7 +1387,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>282636</v>
+            <v>332229</v>
           </cell>
         </row>
       </sheetData>
@@ -1349,7 +1410,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>67847</v>
+            <v>134668</v>
           </cell>
         </row>
       </sheetData>
@@ -1717,7 +1778,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>35678</v>
+            <v>26956</v>
           </cell>
         </row>
       </sheetData>
@@ -1751,7 +1812,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1572685</v>
+            <v>1350309</v>
           </cell>
         </row>
       </sheetData>
@@ -1804,7 +1865,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>206111</v>
+            <v>134244</v>
           </cell>
         </row>
       </sheetData>
@@ -1850,7 +1911,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>196917</v>
+            <v>133629</v>
           </cell>
         </row>
       </sheetData>
@@ -2217,7 +2278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -2280,14 +2341,14 @@
       </c>
       <c r="J2" s="24">
         <f>B6</f>
-        <v>196917</v>
+        <v>133629</v>
       </c>
       <c r="K2" s="13">
         <v>154592</v>
       </c>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>42325</v>
+        <v>-20963</v>
       </c>
       <c r="M2">
         <v>130000</v>
@@ -2312,14 +2373,14 @@
       </c>
       <c r="J3" s="24">
         <f>B11</f>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="K3" s="13">
         <v>31283</v>
       </c>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>251353</v>
+        <v>300946</v>
       </c>
       <c r="M3">
         <v>150000</v>
@@ -2332,7 +2393,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>206111</v>
+        <v>134244</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -2391,7 +2452,7 @@
       </c>
       <c r="B6" s="2">
         <f>[6]Sheet1!$E$38</f>
-        <v>196917</v>
+        <v>133629</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -2403,12 +2464,12 @@
       </c>
       <c r="J6" s="24">
         <f>B30</f>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8">
         <f>J6-K6</f>
-        <v>35678</v>
+        <v>26956</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -2452,7 +2513,7 @@
       </c>
       <c r="J8" s="24">
         <f>B12</f>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="L8" s="8"/>
     </row>
@@ -2487,7 +2548,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B18,B20,B21,B23,B24)</f>
-        <v>243701</v>
+        <v>171834</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>22</v>
@@ -2497,7 +2558,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="24">
         <f>SUM(J2:J8)</f>
-        <v>728583</v>
+        <v>772987</v>
       </c>
       <c r="N10" s="8"/>
     </row>
@@ -2507,12 +2568,12 @@
       </c>
       <c r="B11" s="2">
         <f>[11]Sheet1!$E$38</f>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
         <f>SUM(B6,B12,B11,B22,B27,B30)</f>
-        <v>728393</v>
+        <v>772797</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>20</v>
@@ -2528,7 +2589,7 @@
       </c>
       <c r="B12" s="2">
         <f>[12]Sheet1!$E$38</f>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23">
@@ -2612,7 +2673,7 @@
       <c r="D16" s="23"/>
       <c r="E16" s="26">
         <f>SUM(E10:E13)</f>
-        <v>1056296</v>
+        <v>1028833</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>24</v>
@@ -2624,7 +2685,7 @@
       </c>
       <c r="J16" s="11">
         <f>J10-J14-100000-J15</f>
-        <v>472420</v>
+        <v>516824</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="23.25">
@@ -2780,7 +2841,7 @@
       </c>
       <c r="J25" s="13">
         <f>J8</f>
-        <v>67847</v>
+        <v>134668</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="23.25">
@@ -2797,7 +2858,7 @@
       </c>
       <c r="J26" s="13">
         <f>J6</f>
-        <v>35678</v>
+        <v>26956</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="23.25">
@@ -2813,7 +2874,7 @@
       </c>
       <c r="J27" s="13">
         <f>J2</f>
-        <v>196917</v>
+        <v>133629</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="23.25">
@@ -2837,19 +2898,19 @@
       </c>
       <c r="B30" s="9">
         <f>[27]Sheet1!$E$38</f>
-        <v>35678</v>
+        <v>26956</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>SUM(B1:B30)</f>
-        <v>1056486</v>
+        <v>1029023</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1572685</v>
+        <v>1350309</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -2858,7 +2919,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>516199</v>
+        <v>321286</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3545,7 +3606,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3616,6 +3677,330 @@
     <row r="18" spans="1:1" ht="28.5">
       <c r="A18" s="53" t="s">
         <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="8">
+        <f>D2-C2</f>
+        <v>81064</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <f>SUM(111971-30907)</f>
+        <v>81064</v>
+      </c>
+      <c r="F2" t="s">
+        <v>238</v>
+      </c>
+      <c r="M2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N2">
+        <f>B2</f>
+        <v>81064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="8">
+        <f t="shared" ref="B3:B8" si="0">D3-C3</f>
+        <v>11545</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
+        <f>SUM(21820-10275)</f>
+        <v>11545</v>
+      </c>
+      <c r="F3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N9" si="1">B3</f>
+        <v>11545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8">
+        <f>D4-C4</f>
+        <v>168597</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <f>SUM(332329-50000-13732-100000)</f>
+        <v>168597</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="M4" t="s">
+        <v>245</v>
+      </c>
+      <c r="N4">
+        <f>B4</f>
+        <v>168597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="0"/>
+        <v>19317</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15051</v>
+      </c>
+      <c r="D5" s="8">
+        <f>SUM(134368-50000-50000)</f>
+        <v>34368</v>
+      </c>
+      <c r="F5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" t="s">
+        <v>246</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>19317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="0"/>
+        <v>26956</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>26956</v>
+      </c>
+      <c r="F6" t="s">
+        <v>238</v>
+      </c>
+      <c r="M6" t="s">
+        <v>247</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>26956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>87289</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <f>SUM(121344-34055)</f>
+        <v>87289</v>
+      </c>
+      <c r="F7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>87289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>41009</v>
+      </c>
+      <c r="D8" s="8">
+        <f>SUM(70386-29377)</f>
+        <v>41009</v>
+      </c>
+      <c r="F8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M8" t="s">
+        <v>249</v>
+      </c>
+      <c r="N8">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="8">
+        <f>D9-C9</f>
+        <v>200000</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>200000</v>
+      </c>
+      <c r="M9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="52"/>
+      <c r="M10" t="s">
+        <v>252</v>
+      </c>
+      <c r="N10">
+        <v>25232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="23.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="54">
+        <f>SUM(B2:B10)</f>
+        <v>594768</v>
+      </c>
+      <c r="C11" s="54">
+        <f>SUM(C2:C10)</f>
+        <v>56060</v>
+      </c>
+      <c r="D11" s="54">
+        <f>SUM(D2:D10)</f>
+        <v>650828</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="52"/>
+      <c r="M12" t="s">
+        <v>250</v>
+      </c>
+      <c r="N12">
+        <f>SUM(N2:N10)</f>
+        <v>620000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="52"/>
+      <c r="M13" t="s">
+        <v>251</v>
+      </c>
+      <c r="N13">
+        <f>SUM(9000+100000+11000)</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="52"/>
+      <c r="M14" t="s">
+        <v>240</v>
+      </c>
+      <c r="N14">
+        <f>N12-N13</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="52"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="52"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17">
+        <v>215000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="7">
+        <f>B11-C17-100000</f>
+        <v>279768</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20">
+        <f>SUM(31307+3000)</f>
+        <v>34307</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="7">
+        <f>C11-C20</f>
+        <v>21753</v>
       </c>
     </row>
   </sheetData>
@@ -5114,7 +5499,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="255">
   <si>
     <t>AYUSH</t>
   </si>
@@ -616,9 +616,6 @@
     <t>PARADISE STATIONERY</t>
   </si>
   <si>
-    <t>PST</t>
-  </si>
-  <si>
     <t>CHANDINI</t>
   </si>
   <si>
@@ -748,18 +745,6 @@
     <t>SECOND SOLUTIONS</t>
   </si>
   <si>
-    <t>CASH WE HAVE</t>
-  </si>
-  <si>
-    <t>CASH WE NEED</t>
-  </si>
-  <si>
-    <t>CASH  WE HAVE IN ACC</t>
-  </si>
-  <si>
-    <t>TOY ILLA</t>
-  </si>
-  <si>
     <t>BANK</t>
   </si>
   <si>
@@ -815,6 +800,27 @@
   </si>
   <si>
     <t>extra</t>
+  </si>
+  <si>
+    <t>CUSTOMER KA KUM</t>
+  </si>
+  <si>
+    <t>TANMYA BASNA KA</t>
+  </si>
+  <si>
+    <t>AKASH JIA</t>
+  </si>
+  <si>
+    <t>TIE PURCHASE</t>
+  </si>
+  <si>
+    <t>SHOP PURCHASE</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>RTGS</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1051,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1157,6 +1163,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1812,7 +1821,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1350309</v>
+            <v>1160078</v>
           </cell>
         </row>
       </sheetData>
@@ -2278,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2340,18 +2349,17 @@
         <v>4</v>
       </c>
       <c r="J2" s="24">
-        <f>B6</f>
-        <v>133629</v>
+        <v>102706</v>
       </c>
       <c r="K2" s="13">
-        <v>154592</v>
+        <v>27919</v>
       </c>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>-20963</v>
-      </c>
-      <c r="M2">
-        <v>130000</v>
+        <v>74787</v>
+      </c>
+      <c r="M2" t="s">
+        <v>253</v>
       </c>
       <c r="N2" s="11"/>
     </row>
@@ -2372,18 +2380,18 @@
         <v>15</v>
       </c>
       <c r="J3" s="24">
-        <f>B11</f>
-        <v>332229</v>
+        <f>139782-50000-50000</f>
+        <v>39782</v>
       </c>
       <c r="K3" s="13">
-        <v>31283</v>
+        <v>15929</v>
       </c>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>300946</v>
-      </c>
-      <c r="M3">
-        <v>150000</v>
+        <v>23853</v>
+      </c>
+      <c r="M3" t="s">
+        <v>253</v>
       </c>
       <c r="N3" s="8"/>
     </row>
@@ -2404,18 +2412,17 @@
         <v>155</v>
       </c>
       <c r="J4" s="24">
-        <f>B22</f>
-        <v>56312</v>
+        <v>57263</v>
       </c>
       <c r="K4" s="13">
-        <v>90083</v>
+        <v>18023</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L5" si="0">J4-K4</f>
-        <v>-33771</v>
-      </c>
-      <c r="M4">
-        <v>100000</v>
+        <f>J4-K4</f>
+        <v>39240</v>
+      </c>
+      <c r="M4" t="s">
+        <v>253</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -2436,13 +2443,17 @@
         <v>71</v>
       </c>
       <c r="J5" s="24">
-        <f>B27</f>
-        <v>89003</v>
-      </c>
-      <c r="K5" s="8"/>
+        <v>46770</v>
+      </c>
+      <c r="K5" s="8">
+        <v>11750</v>
+      </c>
       <c r="L5" s="8">
-        <f t="shared" si="0"/>
-        <v>89003</v>
+        <f>J5-K5</f>
+        <v>35020</v>
+      </c>
+      <c r="M5" t="s">
+        <v>253</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -2463,13 +2474,15 @@
         <v>175</v>
       </c>
       <c r="J6" s="24">
-        <f>B30</f>
-        <v>26956</v>
+        <v>16656</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8">
-        <f>J6-K6</f>
-        <v>26956</v>
+        <f>J6</f>
+        <v>16656</v>
+      </c>
+      <c r="M6" t="s">
+        <v>253</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -2487,13 +2500,21 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="J7" s="24">
-        <f>$B$26</f>
-        <v>190</v>
-      </c>
-      <c r="L7" s="8"/>
+        <v>20655</v>
+      </c>
+      <c r="K7" s="8">
+        <v>13019</v>
+      </c>
+      <c r="L7" s="8">
+        <f>J7-K7</f>
+        <v>7636</v>
+      </c>
+      <c r="M7" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="23.25">
       <c r="A8" s="2" t="s">
@@ -2512,10 +2533,18 @@
         <v>9</v>
       </c>
       <c r="J8" s="24">
-        <f>B12</f>
-        <v>134668</v>
-      </c>
-      <c r="L8" s="8"/>
+        <v>125026</v>
+      </c>
+      <c r="K8" s="8">
+        <v>26388</v>
+      </c>
+      <c r="L8" s="8">
+        <f>J8-K8</f>
+        <v>98638</v>
+      </c>
+      <c r="M8" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -2536,8 +2565,12 @@
       <c r="J9" s="24">
         <v>200000</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="23.25">
+      <c r="L9" s="8">
+        <f>J9</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="26.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2556,9 +2589,14 @@
       <c r="G10" s="23"/>
       <c r="H10" s="26"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="24">
-        <f>SUM(J2:J8)</f>
-        <v>772987</v>
+      <c r="J10" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>70</v>
       </c>
       <c r="N10" s="8"/>
     </row>
@@ -2581,7 +2619,18 @@
       <c r="G11" s="23"/>
       <c r="H11" s="26"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="24">
+        <f>SUM(J2:J9)</f>
+        <v>608858</v>
+      </c>
+      <c r="K11" s="24">
+        <f>SUM(K2:K9)</f>
+        <v>113028</v>
+      </c>
+      <c r="L11" s="24">
+        <f>SUM(L2:L9)</f>
+        <v>495830</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="23.25">
       <c r="A12" s="2" t="s">
@@ -2603,8 +2652,6 @@
       <c r="H12" s="26"/>
       <c r="I12" s="23"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="23.25">
       <c r="A13" s="2" t="s">
@@ -2640,12 +2687,8 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="J14" s="11">
-        <v>135000</v>
-      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:14" ht="23.25">
       <c r="A15" s="2"/>
@@ -2655,12 +2698,8 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="J15" s="11">
-        <v>21163</v>
-      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="23.25">
       <c r="A16" s="2" t="s">
@@ -2680,13 +2719,8 @@
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="J16" s="11">
-        <f>J10-J14-100000-J15</f>
-        <v>516824</v>
-      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:18" ht="23.25">
       <c r="A17" s="2" t="s">
@@ -2719,6 +2753,8 @@
       <c r="H18" s="23"/>
       <c r="I18" s="27"/>
       <c r="J18" s="11"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:18" ht="23.25">
       <c r="A19" s="2" t="s">
@@ -2735,8 +2771,6 @@
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:18" ht="23.25">
       <c r="A20" s="2" t="s">
@@ -2782,12 +2816,8 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="24">
-        <v>50000</v>
-      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:18" ht="23.25">
       <c r="A23" s="2" t="s">
@@ -2802,12 +2832,8 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="J23" s="24">
-        <v>56312</v>
-      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
       <c r="R23" t="s">
         <v>139</v>
       </c>
@@ -2820,12 +2846,8 @@
         <f>[23]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="13">
-        <v>89003</v>
-      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:18" ht="23.25">
       <c r="A25" s="2" t="s">
@@ -2836,13 +2858,8 @@
         <v>0</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="I25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="13">
-        <f>J8</f>
-        <v>134668</v>
-      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:18" ht="23.25">
       <c r="A26" s="2" t="s">
@@ -2853,13 +2870,8 @@
         <v>190</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="I26" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J26" s="13">
-        <f>J6</f>
-        <v>26956</v>
-      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="23.25">
       <c r="A27" s="2" t="s">
@@ -2869,23 +2881,14 @@
         <f>[26]Sheet1!$E$38</f>
         <v>89003</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="13">
-        <f>J2</f>
-        <v>133629</v>
-      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:18" ht="23.25">
       <c r="A28" s="2"/>
       <c r="B28" s="9"/>
-      <c r="I28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J28" s="8">
-        <v>200000</v>
-      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:18" ht="23.25">
       <c r="A29" s="2"/>
@@ -2910,7 +2913,7 @@
     <row r="32" spans="1:18" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1350309</v>
+        <v>1160078</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -2919,7 +2922,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>321286</v>
+        <v>131055</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2977,7 +2980,7 @@
         <v>9992</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2985,7 +2988,7 @@
         <v>7610</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2993,7 +2996,7 @@
         <v>9234</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3001,7 +3004,7 @@
         <v>9236</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3009,7 +3012,7 @@
         <v>9234</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3017,7 +3020,7 @@
         <v>9408</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3025,7 +3028,7 @@
         <v>7516</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3033,7 +3036,7 @@
         <v>7517</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3041,7 +3044,7 @@
         <v>7518</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3049,7 +3052,7 @@
         <v>5539</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3057,7 +3060,7 @@
         <v>5540</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3065,7 +3068,7 @@
         <v>5541</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3073,7 +3076,7 @@
         <v>5620</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3081,7 +3084,7 @@
         <v>6428</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3089,7 +3092,7 @@
         <v>8885</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3097,7 +3100,7 @@
         <v>7667</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3105,7 +3108,7 @@
         <v>10604</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3113,7 +3116,7 @@
         <v>10097</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3121,7 +3124,7 @@
         <v>8596</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3129,7 +3132,7 @@
         <v>7636</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3291,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" s="13">
         <v>8</v>
@@ -3326,7 +3329,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" s="8">
         <v>8</v>
@@ -3369,7 +3372,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="8"/>
@@ -3377,7 +3380,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" s="8">
         <v>6</v>
@@ -3387,7 +3390,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B21" s="8">
         <v>6</v>
@@ -3429,7 +3432,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="8">
         <v>4</v>
@@ -3441,7 +3444,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="8">
         <v>4</v>
@@ -3451,7 +3454,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="8">
         <v>4</v>
@@ -3577,7 +3580,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B38" s="8">
         <v>4</v>
@@ -3617,7 +3620,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1">
         <v>200000</v>
@@ -3625,7 +3628,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2">
         <v>198000</v>
@@ -3633,7 +3636,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3">
         <v>7200</v>
@@ -3647,36 +3650,36 @@
     </row>
     <row r="11" spans="1:2" ht="28.5">
       <c r="A11" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" t="s">
         <v>224</v>
-      </c>
-      <c r="B12" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28.5">
       <c r="A18" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3689,7 +3692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -3706,7 +3709,7 @@
         <v>70</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>24</v>
@@ -3726,10 +3729,10 @@
         <v>81064</v>
       </c>
       <c r="F2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" t="s">
         <v>238</v>
-      </c>
-      <c r="M2" t="s">
-        <v>243</v>
       </c>
       <c r="N2">
         <f>B2</f>
@@ -3738,7 +3741,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="52" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B3" s="8">
         <f t="shared" ref="B3:B8" si="0">D3-C3</f>
@@ -3750,10 +3753,10 @@
         <v>11545</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N9" si="1">B3</f>
@@ -3774,10 +3777,10 @@
         <v>168597</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N4">
         <f>B4</f>
@@ -3786,7 +3789,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="52" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
@@ -3800,10 +3803,10 @@
         <v>34368</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
@@ -3812,7 +3815,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="52" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
@@ -3823,10 +3826,10 @@
         <v>26956</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
@@ -3847,10 +3850,10 @@
         <v>87289</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
@@ -3873,10 +3876,10 @@
         <v>41009</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N8">
         <f>B8</f>
@@ -3906,7 +3909,7 @@
     <row r="10" spans="1:14">
       <c r="A10" s="52"/>
       <c r="M10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="N10">
         <v>25232</v>
@@ -3932,7 +3935,7 @@
     <row r="12" spans="1:14">
       <c r="A12" s="52"/>
       <c r="M12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="N12">
         <f>SUM(N2:N10)</f>
@@ -3942,7 +3945,7 @@
     <row r="13" spans="1:14">
       <c r="A13" s="52"/>
       <c r="M13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N13">
         <f>SUM(9000+100000+11000)</f>
@@ -3952,7 +3955,7 @@
     <row r="14" spans="1:14">
       <c r="A14" s="52"/>
       <c r="M14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N14">
         <f>N12-N13</f>
@@ -3967,7 +3970,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C17">
         <v>215000</v>
@@ -3978,7 +3981,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C18" s="7">
         <f>B11-C17-100000</f>
@@ -3987,7 +3990,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C20">
         <f>SUM(31307+3000)</f>
@@ -3996,7 +3999,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C21" s="7">
         <f>C11-C20</f>
@@ -4536,10 +4539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection sqref="A1:F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4553,77 +4556,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="14">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>1035</v>
+      </c>
+      <c r="C5" s="14">
+        <v>45097</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="8">
-        <v>6985</v>
-      </c>
-      <c r="C2" s="15">
-        <v>44828</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="8">
-        <v>8100</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="8">
-        <v>500</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
@@ -4631,43 +4605,35 @@
         <v>70</v>
       </c>
       <c r="B8" s="8">
-        <v>3360</v>
-      </c>
-      <c r="C8" s="8"/>
+        <v>6985</v>
+      </c>
+      <c r="C8" s="15">
+        <v>44828</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2900</v>
-      </c>
-      <c r="C9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="8">
-        <v>500</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="15"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1328</v>
+      <c r="A11" s="8"/>
+      <c r="B11" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="15"/>
@@ -4679,7 +4645,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="8">
-        <v>500</v>
+        <v>8100</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="15"/>
@@ -4691,7 +4657,7 @@
         <v>70</v>
       </c>
       <c r="B13" s="8">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="15"/>
@@ -4703,7 +4669,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="8">
-        <v>150</v>
+        <v>3360</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="15"/>
@@ -4711,120 +4677,143 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2900</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="8">
-        <f>B85</f>
-        <v>62881</v>
-      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11" t="s">
-        <v>91</v>
+      <c r="A16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="8">
+        <v>500</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="8">
-        <f>SUM(B2:B3,B6:B13,B17,B20,B14,B23:B24,B27,B30)</f>
-        <v>55050</v>
-      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="8">
-        <v>11200</v>
+        <v>1328</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="8">
+        <v>500</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="11">
-        <f>SUM(F15:F16)</f>
-        <v>117931</v>
-      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11" t="s">
-        <v>39</v>
+      <c r="A19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="8">
+        <v>800</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B20" s="8">
-        <v>3627</v>
+        <v>150</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="F21" s="19"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="8">
+        <f>B96</f>
+        <v>96731</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="8">
+        <f>SUM(B8:B9,B12:B19,B23,B26,B20,B29:B30,B33,B36,B5,B2)</f>
+        <v>106085</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B23" s="8">
-        <v>7000</v>
+        <v>11200</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="8">
-        <v>5300</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="11">
+        <f>SUM(F21:F22)</f>
+        <v>202816</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="8"/>
-      <c r="B26" s="11" t="s">
-        <v>92</v>
+      <c r="A26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3627</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -4834,246 +4823,225 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11" t="s">
-        <v>93</v>
+      <c r="A29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="8">
+        <v>7000</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B30" s="8">
-        <v>2800</v>
-      </c>
-      <c r="C30" s="15">
-        <v>44906</v>
-      </c>
+        <v>5300</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="8"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2800</v>
+      </c>
+      <c r="C36" s="15">
+        <v>44906</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="7" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="13">
-        <v>55000</v>
-      </c>
-      <c r="C33" s="21">
-        <v>44281</v>
-      </c>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="13">
-        <v>1800</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="13">
-        <v>30</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C37" s="21">
-        <v>44653</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="13">
-        <v>120</v>
-      </c>
-      <c r="C38" s="21">
-        <v>44669</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B39" s="13">
-        <v>250</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12" t="s">
-        <v>82</v>
-      </c>
+        <v>55000</v>
+      </c>
+      <c r="C39" s="21">
+        <v>44281</v>
+      </c>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B40" s="13">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B41" s="13">
-        <v>1506</v>
+        <v>1800</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B42" s="13">
-        <v>862</v>
+        <v>30</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="12" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B43" s="13">
-        <v>570</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="12"/>
+        <v>2000</v>
+      </c>
+      <c r="C43" s="21">
+        <v>44653</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B44" s="13">
-        <v>400</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="C44" s="21">
+        <v>44669</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B45" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C45" s="21">
-        <v>44706</v>
-      </c>
-      <c r="D45" s="12"/>
+        <v>250</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B46" s="13">
-        <v>5000</v>
-      </c>
-      <c r="C46" s="21">
-        <v>44357</v>
-      </c>
-      <c r="D46" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B47" s="13">
-        <v>15000</v>
-      </c>
-      <c r="C47" s="21">
-        <v>44794</v>
-      </c>
-      <c r="D47" s="12"/>
+        <v>1506</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B48" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C48" s="21">
-        <v>44735</v>
-      </c>
-      <c r="D48" s="12"/>
+        <v>862</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="22" t="s">
-        <v>70</v>
+      <c r="A49" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B49" s="13">
-        <v>500</v>
-      </c>
-      <c r="C49" s="21">
-        <v>44743</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4">
@@ -5081,22 +5049,20 @@
         <v>70</v>
       </c>
       <c r="B50" s="13">
-        <v>12000</v>
-      </c>
-      <c r="C50" s="21">
-        <v>44767</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C50" s="13"/>
       <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B51" s="13">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="C51" s="21">
-        <v>44814</v>
+        <v>44706</v>
       </c>
       <c r="D51" s="12"/>
     </row>
@@ -5105,10 +5071,10 @@
         <v>70</v>
       </c>
       <c r="B52" s="13">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="C52" s="21">
-        <v>44827</v>
+        <v>44357</v>
       </c>
       <c r="D52" s="12"/>
     </row>
@@ -5120,7 +5086,7 @@
         <v>15000</v>
       </c>
       <c r="C53" s="21">
-        <v>44855</v>
+        <v>44794</v>
       </c>
       <c r="D53" s="12"/>
     </row>
@@ -5132,47 +5098,43 @@
         <v>10000</v>
       </c>
       <c r="C54" s="21">
-        <v>44875</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>99</v>
-      </c>
+        <v>44735</v>
+      </c>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B55" s="13">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="C55" s="21">
-        <v>44885</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>99</v>
-      </c>
+        <v>44743</v>
+      </c>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B56" s="13">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="C56" s="21">
-        <v>44916</v>
+        <v>44767</v>
       </c>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="12" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B57" s="13">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C57" s="21">
-        <v>44921</v>
+        <v>44814</v>
       </c>
       <c r="D57" s="12"/>
     </row>
@@ -5181,10 +5143,10 @@
         <v>70</v>
       </c>
       <c r="B58" s="13">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="C58" s="21">
-        <v>44925</v>
+        <v>44827</v>
       </c>
       <c r="D58" s="12"/>
     </row>
@@ -5193,10 +5155,10 @@
         <v>70</v>
       </c>
       <c r="B59" s="13">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="C59" s="21">
-        <v>44938</v>
+        <v>44855</v>
       </c>
       <c r="D59" s="12"/>
     </row>
@@ -5205,146 +5167,156 @@
         <v>70</v>
       </c>
       <c r="B60" s="13">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="C60" s="21">
-        <v>44585</v>
-      </c>
-      <c r="D60" s="12"/>
+        <v>44875</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="12" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B61" s="13">
-        <v>6000</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
+        <v>5000</v>
+      </c>
+      <c r="C61" s="21">
+        <v>44885</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="12" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B62" s="13">
-        <v>6838</v>
-      </c>
-      <c r="C62" s="12"/>
+        <v>5000</v>
+      </c>
+      <c r="C62" s="21">
+        <v>44916</v>
+      </c>
       <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="12" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B63" s="13">
-        <v>1700</v>
-      </c>
-      <c r="C63" s="22">
-        <v>44967</v>
+        <v>10000</v>
+      </c>
+      <c r="C63" s="21">
+        <v>44921</v>
       </c>
       <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="12" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B64" s="13">
-        <v>3300</v>
-      </c>
-      <c r="C64" s="22">
-        <v>44973</v>
+        <v>300</v>
+      </c>
+      <c r="C64" s="21">
+        <v>44925</v>
       </c>
       <c r="D64" s="12"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" s="12" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B65" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C65" s="14">
-        <v>44981</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>2000</v>
+      </c>
+      <c r="C65" s="21">
+        <v>44938</v>
+      </c>
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B66" s="13">
-        <v>3000</v>
-      </c>
-      <c r="C66" s="14">
-        <v>44992</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>12000</v>
+      </c>
+      <c r="C66" s="21">
+        <v>44585</v>
+      </c>
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="12" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B67" s="13">
+        <v>6000</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="13">
+        <v>6838</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="13">
+        <v>1700</v>
+      </c>
+      <c r="C69" s="22">
+        <v>44967</v>
+      </c>
+      <c r="D69" s="12"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="13">
+        <v>3300</v>
+      </c>
+      <c r="C70" s="22">
+        <v>44973</v>
+      </c>
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="13">
         <v>10000</v>
       </c>
-      <c r="C67" s="14">
-        <v>45005</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="13">
-        <v>11000</v>
-      </c>
-      <c r="C68" s="14">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="13">
-        <v>229</v>
-      </c>
-      <c r="C69" s="14">
-        <v>45023</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="13">
-        <v>5000</v>
-      </c>
-      <c r="C70" s="14">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="13">
-        <v>100</v>
-      </c>
       <c r="C71" s="14">
-        <v>45062</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="13">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C72" s="14">
-        <v>45065</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="12" t="s">
         <v>70</v>
       </c>
@@ -5352,141 +5324,268 @@
         <v>10000</v>
       </c>
       <c r="C73" s="14">
-        <v>45079</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="13">
+        <v>11000</v>
+      </c>
+      <c r="C74" s="14">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="13">
+        <v>229</v>
+      </c>
+      <c r="C75" s="14">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C76" s="14">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="13">
+        <v>100</v>
+      </c>
+      <c r="C77" s="14">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C78" s="14">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C79" s="14">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="13">
         <v>150</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C80" s="14">
         <v>45079</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="12" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B81" s="13">
         <v>2000</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C81" s="14">
         <v>45093</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>182</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B82" s="13">
         <v>2026</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B83" s="13">
         <v>11000</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C83" s="14">
         <v>45113</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B84" s="13">
         <v>5000</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C84" s="14">
         <v>45132</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B85" s="13">
         <v>15000</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C85" s="14">
         <v>45142</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>70</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B86" s="13">
         <v>5000</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C86" s="14">
         <v>45160</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B87" s="13">
         <v>15000</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C87" s="14">
         <v>45178</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C88" s="14">
+        <v>45213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="13">
+        <v>12000</v>
+      </c>
+      <c r="C89" s="14">
+        <v>45242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="13">
+        <v>1300</v>
+      </c>
+      <c r="C90" s="14">
+        <v>45266</v>
+      </c>
+      <c r="D90" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="13">
+        <v>550</v>
+      </c>
+      <c r="C91" s="14">
+        <v>45268</v>
+      </c>
+      <c r="D91" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C92" s="14">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
         <v>100</v>
       </c>
-      <c r="B82" s="11">
-        <f>SUM(B33:B81)</f>
-        <v>325781</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="B93" s="11">
+        <f>SUM(B39:B92)</f>
+        <v>359631</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
         <v>101</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B94" s="13">
         <v>185956</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C94" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="B84" s="13">
+    <row r="95" spans="1:4">
+      <c r="B95" s="13">
         <v>76944</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C95" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
         <v>102</v>
       </c>
-      <c r="B85" s="11">
-        <f>B82-B83-B84</f>
-        <v>62881</v>
+      <c r="B96" s="11">
+        <f>B93-B94-B95</f>
+        <v>96731</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F16">
+  <conditionalFormatting sqref="F7:F22">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT YET">
-      <formula>NOT(ISERROR(SEARCH("NOT YET",F1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NOT YET",F7)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="RECIVED">
-      <formula>NOT(ISERROR(SEARCH("RECIVED",F1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("RECIVED",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5862,7 +5961,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="8"/>
@@ -5938,7 +6037,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B36" s="8">
         <v>6</v>
@@ -6926,13 +7025,13 @@
     <row r="1" spans="1:20" ht="33.75">
       <c r="A1"/>
       <c r="B1" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>190</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>191</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
@@ -6940,26 +7039,26 @@
     <row r="2" spans="1:20">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="D2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="H2"/>
       <c r="T2" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="23.25">
@@ -7374,7 +7473,7 @@
         <v>0.48125000000000001</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F12" s="38">
         <v>0.45833333333333331</v>
@@ -7412,10 +7511,10 @@
         <v>0.65138888888888891</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F13" s="38">
         <v>0.5</v>
@@ -7451,10 +7550,10 @@
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="38">
         <v>0.95833333333333337</v>
@@ -8331,19 +8430,19 @@
   <sheetData>
     <row r="1" spans="2:8" ht="26.25">
       <c r="B1" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15.75">
       <c r="B2" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>197</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>198</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42" t="s">
@@ -8353,133 +8452,133 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3">
         <v>492</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G3">
         <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4">
         <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G4">
         <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G5">
         <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6">
         <v>360</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G6">
         <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7">
         <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8">
         <v>294</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8">
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E15">
         <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G15">
         <v>168</v>
       </c>
       <c r="H15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -1821,7 +1821,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1160078</v>
+            <v>1427706</v>
           </cell>
         </row>
       </sheetData>
@@ -2288,7 +2288,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2913,7 +2913,7 @@
     <row r="32" spans="1:18" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1160078</v>
+        <v>1427706</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>131055</v>
+        <v>398683</v>
       </c>
     </row>
     <row r="43" spans="1:2">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="260">
   <si>
     <t>AYUSH</t>
   </si>
@@ -821,6 +821,21 @@
   </si>
   <si>
     <t>RTGS</t>
+  </si>
+  <si>
+    <t>1KG</t>
+  </si>
+  <si>
+    <t>BALANCE</t>
+  </si>
+  <si>
+    <t>35k</t>
+  </si>
+  <si>
+    <t>in ac</t>
+  </si>
+  <si>
+    <t>1.6 KG</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1836,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1427706</v>
+            <v>1353057</v>
           </cell>
         </row>
       </sheetData>
@@ -2287,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2505,12 +2520,10 @@
       <c r="J7" s="24">
         <v>20655</v>
       </c>
-      <c r="K7" s="8">
-        <v>13019</v>
-      </c>
+      <c r="K7" s="8"/>
       <c r="L7" s="8">
         <f>J7-K7</f>
-        <v>7636</v>
+        <v>20655</v>
       </c>
       <c r="M7" t="s">
         <v>253</v>
@@ -2533,14 +2546,15 @@
         <v>9</v>
       </c>
       <c r="J8" s="24">
-        <v>125026</v>
+        <f>125026-50000</f>
+        <v>75026</v>
       </c>
       <c r="K8" s="8">
         <v>26388</v>
       </c>
       <c r="L8" s="8">
         <f>J8-K8</f>
-        <v>98638</v>
+        <v>48638</v>
       </c>
       <c r="M8" t="s">
         <v>253</v>
@@ -2621,15 +2635,15 @@
       <c r="I11" s="23"/>
       <c r="J11" s="24">
         <f>SUM(J2:J9)</f>
-        <v>608858</v>
+        <v>558858</v>
       </c>
       <c r="K11" s="24">
         <f>SUM(K2:K9)</f>
-        <v>113028</v>
+        <v>100009</v>
       </c>
       <c r="L11" s="24">
         <f>SUM(L2:L9)</f>
-        <v>495830</v>
+        <v>458849</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="23.25">
@@ -2689,6 +2703,12 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="11"/>
+      <c r="L14" t="s">
+        <v>255</v>
+      </c>
+      <c r="M14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="23.25">
       <c r="A15" s="2"/>
@@ -2700,6 +2720,12 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="11"/>
+      <c r="L15" t="s">
+        <v>255</v>
+      </c>
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="23.25">
       <c r="A16" s="2" t="s">
@@ -2721,6 +2747,9 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="11"/>
+      <c r="L16" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="23.25">
       <c r="A17" s="2" t="s">
@@ -2737,6 +2766,12 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="11"/>
+      <c r="L17" s="11">
+        <v>260000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="23.25">
       <c r="A18" s="2" t="s">
@@ -2754,7 +2789,12 @@
       <c r="I18" s="27"/>
       <c r="J18" s="11"/>
       <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="L18" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="M18" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="23.25">
       <c r="A19" s="2" t="s">
@@ -2913,7 +2953,7 @@
     <row r="32" spans="1:18" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1427706</v>
+        <v>1353057</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -2922,7 +2962,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>398683</v>
+        <v>324034</v>
       </c>
     </row>
     <row r="43" spans="1:2">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -1836,7 +1836,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1353057</v>
+            <v>1278860</v>
           </cell>
         </row>
       </sheetData>
@@ -2303,7 +2303,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I1" sqref="I1:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2953,7 +2953,7 @@
     <row r="32" spans="1:18" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1353057</v>
+        <v>1278860</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>324034</v>
+        <v>249837</v>
       </c>
     </row>
     <row r="43" spans="1:2">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="263">
   <si>
     <t>AYUSH</t>
   </si>
@@ -836,6 +836,15 @@
   </si>
   <si>
     <t>1.6 KG</t>
+  </si>
+  <si>
+    <t>de diye 8-1-24 ko</t>
+  </si>
+  <si>
+    <t>1june 23 se 30nov 23 tk</t>
+  </si>
+  <si>
+    <t>1 dec ko advance</t>
   </si>
 </sst>
 </file>
@@ -1194,6 +1203,21 @@
   <dxfs count="8">
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -1209,21 +1233,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2302,7 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:M19"/>
     </sheetView>
   </sheetViews>
@@ -4579,10 +4588,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection sqref="A1:F96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4797,8 +4806,8 @@
         <v>96</v>
       </c>
       <c r="F21" s="8">
-        <f>B96</f>
-        <v>96731</v>
+        <f>B98</f>
+        <v>16154</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4835,7 +4844,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="11">
         <f>SUM(F21:F22)</f>
-        <v>202816</v>
+        <v>122239</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5619,12 +5628,32 @@
         <v>96731</v>
       </c>
     </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="13">
+        <v>80577</v>
+      </c>
+      <c r="C97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" s="11">
+        <f>B96-B97</f>
+        <v>16154</v>
+      </c>
+      <c r="C98" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT YET">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NOT YET">
       <formula>NOT(ISERROR(SEARCH("NOT YET",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="RECIVED">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="RECIVED">
       <formula>NOT(ISERROR(SEARCH("RECIVED",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7026,10 +7055,10 @@
     <cfRule type="aboveAverage" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -1203,21 +1203,6 @@
   <dxfs count="8">
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -1233,6 +1218,21 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1845,7 +1845,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1278860</v>
+            <v>1228935</v>
           </cell>
         </row>
       </sheetData>
@@ -2962,7 +2962,7 @@
     <row r="32" spans="1:18" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1278860</v>
+        <v>1228935</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>249837</v>
+        <v>199912</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4591,7 +4591,7 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F98"/>
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5650,10 +5650,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F22">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NOT YET">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT YET">
       <formula>NOT(ISERROR(SEARCH("NOT YET",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="RECIVED">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="RECIVED">
       <formula>NOT(ISERROR(SEARCH("RECIVED",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7055,10 +7055,10 @@
     <cfRule type="aboveAverage" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="260">
   <si>
     <t>AYUSH</t>
   </si>
@@ -823,21 +823,6 @@
     <t>RTGS</t>
   </si>
   <si>
-    <t>1KG</t>
-  </si>
-  <si>
-    <t>BALANCE</t>
-  </si>
-  <si>
-    <t>35k</t>
-  </si>
-  <si>
-    <t>in ac</t>
-  </si>
-  <si>
-    <t>1.6 KG</t>
-  </si>
-  <si>
     <t>de diye 8-1-24 ko</t>
   </si>
   <si>
@@ -845,6 +830,12 @@
   </si>
   <si>
     <t>1 dec ko advance</t>
+  </si>
+  <si>
+    <t>A2Z</t>
+  </si>
+  <si>
+    <t>NISAR TOYS</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1836,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1228935</v>
+            <v>1239832</v>
           </cell>
         </row>
       </sheetData>
@@ -2311,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2373,14 +2364,12 @@
         <v>4</v>
       </c>
       <c r="J2" s="24">
-        <v>102706</v>
-      </c>
-      <c r="K2" s="13">
-        <v>27919</v>
-      </c>
+        <v>126199</v>
+      </c>
+      <c r="K2" s="13"/>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>74787</v>
+        <v>126199</v>
       </c>
       <c r="M2" t="s">
         <v>253</v>
@@ -2404,15 +2393,13 @@
         <v>15</v>
       </c>
       <c r="J3" s="24">
-        <f>139782-50000-50000</f>
-        <v>39782</v>
-      </c>
-      <c r="K3" s="13">
-        <v>15929</v>
-      </c>
+        <f>SUM(50000+89544+15929)</f>
+        <v>155473</v>
+      </c>
+      <c r="K3" s="13"/>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>23853</v>
+        <v>155473</v>
       </c>
       <c r="M3" t="s">
         <v>253</v>
@@ -2436,15 +2423,10 @@
         <v>155</v>
       </c>
       <c r="J4" s="24">
-        <v>57263</v>
-      </c>
-      <c r="K4" s="13">
-        <v>18023</v>
-      </c>
-      <c r="L4" s="8">
-        <f>J4-K4</f>
-        <v>39240</v>
-      </c>
+        <v>98864</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="8"/>
       <c r="M4" t="s">
         <v>253</v>
       </c>
@@ -2466,15 +2448,11 @@
       <c r="I5" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="24">
-        <v>46770</v>
-      </c>
-      <c r="K5" s="8">
-        <v>11750</v>
-      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="8">
         <f>J5-K5</f>
-        <v>35020</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
         <v>253</v>
@@ -2498,12 +2476,12 @@
         <v>175</v>
       </c>
       <c r="J6" s="24">
-        <v>16656</v>
+        <v>36824</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8">
         <f>J6</f>
-        <v>16656</v>
+        <v>36824</v>
       </c>
       <c r="M6" t="s">
         <v>253</v>
@@ -2527,12 +2505,12 @@
         <v>230</v>
       </c>
       <c r="J7" s="24">
-        <v>20655</v>
+        <v>32870</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8">
         <f>J7-K7</f>
-        <v>20655</v>
+        <v>32870</v>
       </c>
       <c r="M7" t="s">
         <v>253</v>
@@ -2583,17 +2561,17 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="J9" s="24">
-        <v>200000</v>
-      </c>
-      <c r="L9" s="8">
-        <f>J9</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="26.25">
+        <v>17530</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="23.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2611,19 +2589,16 @@
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="L10" s="55" t="s">
-        <v>70</v>
-      </c>
+      <c r="I10" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="J10" s="24">
+        <v>2320</v>
+      </c>
+      <c r="L10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="23.25">
+    <row r="11" spans="1:14" ht="26.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2642,17 +2617,14 @@
       <c r="G11" s="23"/>
       <c r="H11" s="26"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="24">
-        <f>SUM(J2:J9)</f>
-        <v>558858</v>
-      </c>
-      <c r="K11" s="24">
-        <f>SUM(K2:K9)</f>
-        <v>100009</v>
-      </c>
-      <c r="L11" s="24">
-        <f>SUM(L2:L9)</f>
-        <v>458849</v>
+      <c r="J11" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="23.25">
@@ -2674,7 +2646,18 @@
       <c r="G12" s="23"/>
       <c r="H12" s="26"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="24">
+        <f>SUM(J2:J9)</f>
+        <v>542786</v>
+      </c>
+      <c r="K12" s="24">
+        <f>SUM(K2:K9)</f>
+        <v>26388</v>
+      </c>
+      <c r="L12" s="24">
+        <f>SUM(L2:L9)</f>
+        <v>400004</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="23.25">
       <c r="A13" s="2" t="s">
@@ -2695,7 +2678,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="23.25">
       <c r="A14" s="2" t="s">
@@ -2712,12 +2695,6 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="11"/>
-      <c r="L14" t="s">
-        <v>255</v>
-      </c>
-      <c r="M14" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="15" spans="1:14" ht="23.25">
       <c r="A15" s="2"/>
@@ -2729,12 +2706,6 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="11"/>
-      <c r="L15" t="s">
-        <v>255</v>
-      </c>
-      <c r="M15" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="16" spans="1:14" ht="23.25">
       <c r="A16" s="2" t="s">
@@ -2756,9 +2727,6 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="11"/>
-      <c r="L16" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="17" spans="1:18" ht="23.25">
       <c r="A17" s="2" t="s">
@@ -2775,12 +2743,6 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="11"/>
-      <c r="L17" s="11">
-        <v>260000</v>
-      </c>
-      <c r="M17" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="18" spans="1:18" ht="23.25">
       <c r="A18" s="2" t="s">
@@ -2795,15 +2757,9 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="27"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="M18" t="s">
-        <v>258</v>
-      </c>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:18" ht="23.25">
       <c r="A19" s="2" t="s">
@@ -2818,8 +2774,10 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:18" ht="23.25">
       <c r="A20" s="2" t="s">
@@ -2834,6 +2792,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:18" ht="23.25">
@@ -2849,7 +2808,6 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="30"/>
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:18" ht="23.25">
@@ -2865,7 +2823,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:18" ht="23.25">
@@ -2895,8 +2853,8 @@
         <f>[23]Sheet1!$E$38</f>
         <v>0</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:18" ht="23.25">
       <c r="A25" s="2" t="s">
@@ -2907,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="I25" s="8"/>
+      <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:18" ht="23.25">
@@ -2930,19 +2888,20 @@
         <f>[26]Sheet1!$E$38</f>
         <v>89003</v>
       </c>
-      <c r="I27" s="11"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:18" ht="23.25">
       <c r="A28" s="2"/>
       <c r="B28" s="9"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="8"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:18" ht="23.25">
       <c r="A29" s="2"/>
       <c r="B29" s="9"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:18" ht="23.25">
       <c r="A30" s="2" t="s">
@@ -2952,6 +2911,7 @@
         <f>[27]Sheet1!$E$38</f>
         <v>26956</v>
       </c>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
@@ -2962,7 +2922,7 @@
     <row r="32" spans="1:18" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1228935</v>
+        <v>1239832</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -2971,7 +2931,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>199912</v>
+        <v>210809</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2987,7 +2947,7 @@
       <c r="B49" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J21">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -2995,7 +2955,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="J22">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4590,7 +4550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
@@ -5630,13 +5590,13 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B97" s="13">
         <v>80577</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -5645,7 +5605,7 @@
         <v>16154</v>
       </c>
       <c r="C98" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="260">
   <si>
     <t>AYUSH</t>
   </si>
@@ -2302,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2393,13 +2393,13 @@
         <v>15</v>
       </c>
       <c r="J3" s="24">
-        <f>SUM(50000+89544+15929)</f>
-        <v>155473</v>
+        <f>SUM(36474+89544+19810+4960+350-50000)</f>
+        <v>101138</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>155473</v>
+        <v>101138</v>
       </c>
       <c r="M3" t="s">
         <v>253</v>
@@ -2426,7 +2426,10 @@
         <v>98864</v>
       </c>
       <c r="K4" s="13"/>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8">
+        <f>J4</f>
+        <v>98864</v>
+      </c>
       <c r="M4" t="s">
         <v>253</v>
       </c>
@@ -2448,11 +2451,13 @@
       <c r="I5" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="24">
+        <v>89244</v>
+      </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8">
         <f>J5-K5</f>
-        <v>0</v>
+        <v>89244</v>
       </c>
       <c r="M5" t="s">
         <v>253</v>
@@ -2505,12 +2510,13 @@
         <v>230</v>
       </c>
       <c r="J7" s="24">
-        <v>32870</v>
+        <f>SUM(32870-14150-12800)</f>
+        <v>5920</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8">
         <f>J7-K7</f>
-        <v>32870</v>
+        <v>5920</v>
       </c>
       <c r="M7" t="s">
         <v>253</v>
@@ -2533,12 +2539,10 @@
         <v>9</v>
       </c>
       <c r="J8" s="24">
-        <f>125026-50000</f>
-        <v>75026</v>
-      </c>
-      <c r="K8" s="8">
-        <v>26388</v>
-      </c>
+        <f>125026-50000-26388</f>
+        <v>48638</v>
+      </c>
+      <c r="K8" s="8"/>
       <c r="L8" s="8">
         <f>J8-K8</f>
         <v>48638</v>
@@ -2566,7 +2570,10 @@
       <c r="J9" s="24">
         <v>17530</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8">
+        <f>J9</f>
+        <v>17530</v>
+      </c>
       <c r="M9" t="s">
         <v>176</v>
       </c>
@@ -2595,10 +2602,13 @@
       <c r="J10" s="24">
         <v>2320</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8">
+        <f>J10</f>
+        <v>2320</v>
+      </c>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="26.25">
+    <row r="11" spans="1:14" ht="23.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2616,18 +2626,15 @@
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="26"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="L11" s="55" t="s">
+      <c r="I11" s="23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="23.25">
+      <c r="J11" s="24">
+        <v>200000</v>
+      </c>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="26.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2646,17 +2653,14 @@
       <c r="G12" s="23"/>
       <c r="H12" s="26"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="24">
-        <f>SUM(J2:J9)</f>
-        <v>542786</v>
-      </c>
-      <c r="K12" s="24">
-        <f>SUM(K2:K9)</f>
-        <v>26388</v>
-      </c>
-      <c r="L12" s="24">
-        <f>SUM(L2:L9)</f>
-        <v>400004</v>
+      <c r="J12" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="23.25">
@@ -2678,7 +2682,18 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="24">
+        <f>SUM(J2:J11)</f>
+        <v>726677</v>
+      </c>
+      <c r="K13" s="24">
+        <f>SUM(K2:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="24">
+        <f>SUM(L2:L9)</f>
+        <v>524357</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="23.25">
       <c r="A14" s="2" t="s">
@@ -2694,7 +2709,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="23.25">
       <c r="A15" s="2"/>
@@ -2759,7 +2774,6 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="11"/>
-      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:18" ht="23.25">
       <c r="A19" s="2" t="s">
@@ -2774,10 +2788,9 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="27"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:18" ht="23.25">
       <c r="A20" s="2" t="s">
@@ -2792,8 +2805,10 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:18" ht="23.25">
       <c r="A21" s="2" t="s">
@@ -2808,6 +2823,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:18" ht="23.25">
@@ -2823,7 +2839,6 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="30"/>
       <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:18" ht="23.25">
@@ -2839,7 +2854,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="24"/>
       <c r="R23" t="s">
         <v>139</v>
@@ -2865,8 +2880,8 @@
         <v>0</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:18" ht="23.25">
       <c r="A26" s="2" t="s">
@@ -2877,7 +2892,7 @@
         <v>190</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="I26" s="8"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="23.25">
@@ -2894,14 +2909,14 @@
     <row r="28" spans="1:18" ht="23.25">
       <c r="A28" s="2"/>
       <c r="B28" s="9"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:18" ht="23.25">
       <c r="A29" s="2"/>
       <c r="B29" s="9"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:18" ht="23.25">
       <c r="A30" s="2" t="s">
@@ -2911,13 +2926,15 @@
         <f>[27]Sheet1!$E$38</f>
         <v>26956</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:18" ht="23.25">
       <c r="B31" s="1">
         <f>SUM(B1:B30)</f>
         <v>1029023</v>
       </c>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="23.25">
       <c r="B32" s="1">
@@ -2947,7 +2964,7 @@
       <c r="B49" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="J22">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -2955,7 +2972,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J23">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5627,7 +5644,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="266">
   <si>
     <t>AYUSH</t>
   </si>
@@ -583,9 +583,6 @@
     <t>ALPHABETS + NUMBERS</t>
   </si>
   <si>
-    <t>NISAR</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -832,10 +829,31 @@
     <t>1 dec ko advance</t>
   </si>
   <si>
-    <t>A2Z</t>
-  </si>
-  <si>
-    <t>NISAR TOYS</t>
+    <t>NISAR OK</t>
+  </si>
+  <si>
+    <t>TOY WORLD OK</t>
+  </si>
+  <si>
+    <t>NISAR TOYS OK</t>
+  </si>
+  <si>
+    <t>JUGNU OK</t>
+  </si>
+  <si>
+    <t>TOY VILLA OK</t>
+  </si>
+  <si>
+    <t>NOVICE OK</t>
+  </si>
+  <si>
+    <t>A2Z  OK</t>
+  </si>
+  <si>
+    <t>TOY GALLERY OK</t>
+  </si>
+  <si>
+    <t>NOOR OK</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1854,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1239832</v>
+            <v>1239149</v>
           </cell>
         </row>
       </sheetData>
@@ -2302,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2361,18 +2379,19 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23" t="s">
-        <v>4</v>
+        <v>265</v>
       </c>
       <c r="J2" s="24">
-        <v>126199</v>
+        <f>2706+126199+15796</f>
+        <v>144701</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>126199</v>
+        <v>144701</v>
       </c>
       <c r="M2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N2" s="11"/>
     </row>
@@ -2390,19 +2409,19 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c r="J3" s="24">
-        <f>SUM(36474+89544+19810+4960+350-50000)</f>
-        <v>101138</v>
+        <f>SUM(36474+89544+19810+4960+350-50000-50000-50000)</f>
+        <v>1138</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>101138</v>
+        <v>1138</v>
       </c>
       <c r="M3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N3" s="8"/>
     </row>
@@ -2420,18 +2439,18 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="J4" s="24">
-        <v>98864</v>
+        <v>16297</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8">
         <f>J4</f>
-        <v>98864</v>
+        <v>16297</v>
       </c>
       <c r="M4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -2449,18 +2468,19 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="J5" s="24">
-        <v>89244</v>
+        <f>89244-23891</f>
+        <v>65353</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8">
         <f>J5-K5</f>
-        <v>89244</v>
+        <v>65353</v>
       </c>
       <c r="M5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -2478,18 +2498,19 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="J6" s="24">
-        <v>36824</v>
+        <f>SUM(36824-20000)</f>
+        <v>16824</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8">
         <f>J6</f>
-        <v>36824</v>
+        <v>16824</v>
       </c>
       <c r="M6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -2507,19 +2528,19 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="J7" s="24">
-        <f>SUM(32870-14150-12800)</f>
-        <v>5920</v>
+        <f>SUM(32870+100-14150-12800)</f>
+        <v>6020</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8">
         <f>J7-K7</f>
-        <v>5920</v>
+        <v>6020</v>
       </c>
       <c r="M7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.25">
@@ -2536,19 +2557,19 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
-        <v>9</v>
+        <v>258</v>
       </c>
       <c r="J8" s="24">
-        <f>125026-50000-26388</f>
-        <v>48638</v>
+        <f>98768-49000</f>
+        <v>49768</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8">
         <f>J8-K8</f>
-        <v>48638</v>
+        <v>49768</v>
       </c>
       <c r="M8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25">
@@ -2565,17 +2586,18 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J9" s="24">
-        <v>17530</v>
+        <f>17530+50</f>
+        <v>17580</v>
       </c>
       <c r="L9" s="8">
         <f>J9</f>
-        <v>17530</v>
+        <v>17580</v>
       </c>
       <c r="M9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="23.25">
@@ -2629,9 +2651,7 @@
       <c r="I11" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="24">
-        <v>200000</v>
-      </c>
+      <c r="J11" s="24"/>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="26.25">
@@ -2657,7 +2677,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L12" s="55" t="s">
         <v>70</v>
@@ -2684,7 +2704,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="24">
         <f>SUM(J2:J11)</f>
-        <v>726677</v>
+        <v>320001</v>
       </c>
       <c r="K13" s="24">
         <f>SUM(K2:K9)</f>
@@ -2692,7 +2712,7 @@
       </c>
       <c r="L13" s="24">
         <f>SUM(L2:L9)</f>
-        <v>524357</v>
+        <v>317681</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="23.25">
@@ -2885,7 +2905,7 @@
     </row>
     <row r="26" spans="1:18" ht="23.25">
       <c r="A26" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B26" s="9">
         <f>[25]Sheet1!$E$38</f>
@@ -2939,7 +2959,7 @@
     <row r="32" spans="1:18" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1239832</v>
+        <v>1239149</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -2948,7 +2968,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>210809</v>
+        <v>210126</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3006,7 +3026,7 @@
         <v>9992</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3014,7 +3034,7 @@
         <v>7610</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3022,7 +3042,7 @@
         <v>9234</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3030,7 +3050,7 @@
         <v>9236</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3038,7 +3058,7 @@
         <v>9234</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3046,7 +3066,7 @@
         <v>9408</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3054,7 +3074,7 @@
         <v>7516</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3062,7 +3082,7 @@
         <v>7517</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3070,7 +3090,7 @@
         <v>7518</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3078,7 +3098,7 @@
         <v>5539</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3086,7 +3106,7 @@
         <v>5540</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3094,7 +3114,7 @@
         <v>5541</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3102,7 +3122,7 @@
         <v>5620</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3110,7 +3130,7 @@
         <v>6428</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3118,7 +3138,7 @@
         <v>8885</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3126,7 +3146,7 @@
         <v>7667</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3134,7 +3154,7 @@
         <v>10604</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3142,7 +3162,7 @@
         <v>10097</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3150,7 +3170,7 @@
         <v>8596</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3158,7 +3178,7 @@
         <v>7636</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3216,7 +3236,7 @@
         <v>2120</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3233,7 +3253,7 @@
         <v>1970</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3250,7 +3270,7 @@
         <v>1830</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3267,7 +3287,7 @@
         <v>1220</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3284,7 +3304,7 @@
         <v>1320</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3317,7 +3337,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="13">
         <v>8</v>
@@ -3355,7 +3375,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="8">
         <v>8</v>
@@ -3381,7 +3401,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="8">
         <v>4</v>
@@ -3398,7 +3418,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="8"/>
@@ -3406,7 +3426,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="8">
         <v>6</v>
@@ -3416,7 +3436,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="8">
         <v>6</v>
@@ -3458,7 +3478,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="8">
         <v>4</v>
@@ -3470,7 +3490,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="8">
         <v>4</v>
@@ -3480,7 +3500,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="8">
         <v>4</v>
@@ -3542,7 +3562,7 @@
         <v>610</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3561,7 +3581,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="8">
         <v>20</v>
@@ -3573,7 +3593,7 @@
         <v>900</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3601,12 +3621,12 @@
         <v>775</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B38" s="8">
         <v>4</v>
@@ -3616,12 +3636,12 @@
     </row>
     <row r="39" spans="1:5">
       <c r="E39" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="E40" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3646,7 +3666,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1">
         <v>200000</v>
@@ -3654,7 +3674,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2">
         <v>198000</v>
@@ -3662,7 +3682,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3">
         <v>7200</v>
@@ -3676,36 +3696,36 @@
     </row>
     <row r="11" spans="1:2" ht="28.5">
       <c r="A11" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
         <v>223</v>
-      </c>
-      <c r="B12" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28.5">
       <c r="A18" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3735,7 +3755,7 @@
         <v>70</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>24</v>
@@ -3755,10 +3775,10 @@
         <v>81064</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N2">
         <f>B2</f>
@@ -3767,7 +3787,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="8">
         <f t="shared" ref="B3:B8" si="0">D3-C3</f>
@@ -3779,10 +3799,10 @@
         <v>11545</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N9" si="1">B3</f>
@@ -3803,10 +3823,10 @@
         <v>168597</v>
       </c>
       <c r="F4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N4">
         <f>B4</f>
@@ -3815,7 +3835,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
@@ -3829,10 +3849,10 @@
         <v>34368</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
@@ -3841,7 +3861,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
@@ -3852,10 +3872,10 @@
         <v>26956</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
@@ -3876,10 +3896,10 @@
         <v>87289</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
@@ -3902,10 +3922,10 @@
         <v>41009</v>
       </c>
       <c r="F8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N8">
         <f>B8</f>
@@ -3935,7 +3955,7 @@
     <row r="10" spans="1:14">
       <c r="A10" s="52"/>
       <c r="M10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N10">
         <v>25232</v>
@@ -3961,7 +3981,7 @@
     <row r="12" spans="1:14">
       <c r="A12" s="52"/>
       <c r="M12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N12">
         <f>SUM(N2:N10)</f>
@@ -3971,7 +3991,7 @@
     <row r="13" spans="1:14">
       <c r="A13" s="52"/>
       <c r="M13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N13">
         <f>SUM(9000+100000+11000)</f>
@@ -3981,7 +4001,7 @@
     <row r="14" spans="1:14">
       <c r="A14" s="52"/>
       <c r="M14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N14">
         <f>N12-N13</f>
@@ -3996,7 +4016,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17">
         <v>215000</v>
@@ -4007,7 +4027,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" s="7">
         <f>B11-C17-100000</f>
@@ -4016,7 +4036,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20">
         <f>SUM(31307+3000)</f>
@@ -4025,7 +4045,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C21" s="7">
         <f>C11-C20</f>
@@ -4043,7 +4063,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4565,10 +4585,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4583,12 +4603,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2">
         <v>50000</v>
@@ -4599,7 +4619,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4613,7 +4633,7 @@
         <v>45097</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4783,8 +4803,8 @@
         <v>96</v>
       </c>
       <c r="F21" s="8">
-        <f>B98</f>
-        <v>16154</v>
+        <f>B101</f>
+        <v>36154</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4821,7 +4841,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="11">
         <f>SUM(F21:F22)</f>
-        <v>122239</v>
+        <v>142239</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5443,13 +5463,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B82" s="13">
         <v>2026</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5540,7 +5560,7 @@
         <v>45266</v>
       </c>
       <c r="D90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5554,7 +5574,7 @@
         <v>45268</v>
       </c>
       <c r="D91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5570,59 +5590,92 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" s="11">
-        <f>SUM(B39:B92)</f>
-        <v>359631</v>
+        <v>70</v>
+      </c>
+      <c r="B93" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C93" s="14">
+        <v>45304</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B94" s="13">
-        <v>185956</v>
-      </c>
-      <c r="C94" t="s">
-        <v>156</v>
+        <v>5000</v>
+      </c>
+      <c r="C94" s="14">
+        <v>45318</v>
       </c>
     </row>
     <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>70</v>
+      </c>
       <c r="B95" s="13">
-        <v>76944</v>
-      </c>
-      <c r="C95" t="s">
-        <v>184</v>
+        <v>10000</v>
+      </c>
+      <c r="C95" s="14">
+        <v>45332</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" s="11">
-        <f>B93-B94-B95</f>
-        <v>96731</v>
+        <f>SUM(B39:B95)</f>
+        <v>379631</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="13">
+        <v>185956</v>
+      </c>
+      <c r="C97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" s="13">
+        <v>76944</v>
+      </c>
+      <c r="C98" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="11">
+        <f>B96-B97-B98</f>
+        <v>116731</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>254</v>
+      </c>
+      <c r="B100" s="13">
+        <v>80577</v>
+      </c>
+      <c r="C100" t="s">
         <v>255</v>
       </c>
-      <c r="B97" s="13">
-        <v>80577</v>
-      </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" s="11">
+        <f>B99-B100</f>
+        <v>36154</v>
+      </c>
+      <c r="C101" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="B98" s="11">
-        <f>B96-B97</f>
-        <v>16154</v>
-      </c>
-      <c r="C98" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5644,7 +5697,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5715,7 +5768,7 @@
         <v>2120</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -5733,7 +5786,7 @@
         <v>1970</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -5751,7 +5804,7 @@
         <v>1830</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -5769,7 +5822,7 @@
         <v>1220</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N7" s="8"/>
     </row>
@@ -5787,7 +5840,7 @@
         <v>1320</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N8" s="8"/>
     </row>
@@ -5953,7 +6006,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8">
@@ -5990,7 +6043,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="8">
         <v>2525</v>
@@ -6007,7 +6060,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="8"/>
@@ -6083,7 +6136,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" s="8">
         <v>6</v>
@@ -6151,7 +6204,7 @@
         <v>440</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -6186,7 +6239,7 @@
         <v>610</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L45" s="8"/>
     </row>
@@ -6207,7 +6260,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="8">
         <v>20</v>
@@ -6219,7 +6272,7 @@
         <v>900</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L47" s="8"/>
     </row>
@@ -6237,7 +6290,7 @@
         <v>960</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L48" s="8"/>
     </row>
@@ -6252,7 +6305,7 @@
         <v>795</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L49" s="8"/>
     </row>
@@ -6267,7 +6320,7 @@
         <v>495</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L50" s="8"/>
     </row>
@@ -7071,13 +7124,13 @@
     <row r="1" spans="1:20" ht="33.75">
       <c r="A1"/>
       <c r="B1" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>189</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>190</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
@@ -7085,26 +7138,26 @@
     <row r="2" spans="1:20">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="D2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="H2"/>
       <c r="T2" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="23.25">
@@ -7519,7 +7572,7 @@
         <v>0.48125000000000001</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F12" s="38">
         <v>0.45833333333333331</v>
@@ -7557,10 +7610,10 @@
         <v>0.65138888888888891</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F13" s="38">
         <v>0.5</v>
@@ -7596,10 +7649,10 @@
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F14" s="38">
         <v>0.95833333333333337</v>
@@ -8476,19 +8529,19 @@
   <sheetData>
     <row r="1" spans="2:8" ht="26.25">
       <c r="B1" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15.75">
       <c r="B2" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>196</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>197</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42" t="s">
@@ -8498,133 +8551,133 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3">
         <v>492</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G3">
         <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G4">
         <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5">
         <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5">
         <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6">
         <v>360</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6">
         <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7">
         <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8">
         <v>294</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8">
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E15">
         <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G15">
         <v>168</v>
       </c>
       <c r="H15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="265">
   <si>
     <t>AYUSH</t>
   </si>
@@ -473,9 +473,6 @@
   </si>
   <si>
     <t>SOHAM CHAMPA PAYMENT</t>
-  </si>
-  <si>
-    <t>]</t>
   </si>
   <si>
     <t>DINO</t>
@@ -1854,7 +1851,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1239149</v>
+            <v>1229861</v>
           </cell>
         </row>
       </sheetData>
@@ -2318,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2379,19 +2376,19 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J2" s="24">
-        <f>2706+126199+15796</f>
-        <v>144701</v>
+        <f>2706+126199+15796+150-50000-67274</f>
+        <v>27577</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>144701</v>
+        <v>27577</v>
       </c>
       <c r="M2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N2" s="11"/>
     </row>
@@ -2409,19 +2406,19 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J3" s="24">
-        <f>SUM(36474+89544+19810+4960+350-50000-50000-50000)</f>
-        <v>1138</v>
+        <f>SUM(36474+89544+19810+4960+350-50000-50000-50000+37965)</f>
+        <v>39103</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="8">
         <f>J3-K3</f>
-        <v>1138</v>
+        <v>39103</v>
       </c>
       <c r="M3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N3" s="8"/>
     </row>
@@ -2439,18 +2436,19 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" s="24">
-        <v>16297</v>
+        <f>SUM(16297+16704)</f>
+        <v>33001</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8">
         <f>J4</f>
-        <v>16297</v>
+        <v>33001</v>
       </c>
       <c r="M4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -2468,19 +2466,19 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J5" s="24">
-        <f>89244-23891</f>
-        <v>65353</v>
+        <f>89244-23891-65000</f>
+        <v>353</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8">
         <f>J5-K5</f>
-        <v>65353</v>
+        <v>353</v>
       </c>
       <c r="M5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -2498,7 +2496,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J6" s="24">
         <f>SUM(36824-20000)</f>
@@ -2510,7 +2508,7 @@
         <v>16824</v>
       </c>
       <c r="M6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -2528,7 +2526,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J7" s="24">
         <f>SUM(32870+100-14150-12800)</f>
@@ -2540,7 +2538,7 @@
         <v>6020</v>
       </c>
       <c r="M7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.25">
@@ -2557,7 +2555,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J8" s="24">
         <f>98768-49000</f>
@@ -2569,7 +2567,7 @@
         <v>49768</v>
       </c>
       <c r="M8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25">
@@ -2586,18 +2584,18 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J9" s="24">
-        <f>17530+50</f>
-        <v>17580</v>
+        <f>17530+50-6573</f>
+        <v>11007</v>
       </c>
       <c r="L9" s="8">
         <f>J9</f>
-        <v>17580</v>
+        <v>11007</v>
       </c>
       <c r="M9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="23.25">
@@ -2619,7 +2617,7 @@
       <c r="G10" s="23"/>
       <c r="H10" s="26"/>
       <c r="I10" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J10" s="24">
         <v>2320</v>
@@ -2677,7 +2675,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L12" s="55" t="s">
         <v>70</v>
@@ -2704,7 +2702,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="24">
         <f>SUM(J2:J11)</f>
-        <v>320001</v>
+        <v>185973</v>
       </c>
       <c r="K13" s="24">
         <f>SUM(K2:K9)</f>
@@ -2712,7 +2710,7 @@
       </c>
       <c r="L13" s="24">
         <f>SUM(L2:L9)</f>
-        <v>317681</v>
+        <v>183653</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="23.25">
@@ -2763,7 +2761,7 @@
       <c r="I16" s="23"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:18" ht="23.25">
+    <row r="17" spans="1:12" ht="23.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +2777,7 @@
       <c r="I17" s="23"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:18" ht="23.25">
+    <row r="18" spans="1:12" ht="23.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2795,7 +2793,7 @@
       <c r="I18" s="23"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:18" ht="23.25">
+    <row r="19" spans="1:12" ht="23.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2812,7 +2810,7 @@
       <c r="J19" s="11"/>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:18" ht="23.25">
+    <row r="20" spans="1:12" ht="23.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2830,7 +2828,7 @@
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
     </row>
-    <row r="21" spans="1:18" ht="23.25">
+    <row r="21" spans="1:12" ht="23.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -2846,7 +2844,7 @@
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:18" ht="23.25">
+    <row r="22" spans="1:12" ht="23.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2861,7 +2859,7 @@
       <c r="H22" s="23"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:18" ht="23.25">
+    <row r="23" spans="1:12" ht="23.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -2876,11 +2874,8 @@
       <c r="H23" s="23"/>
       <c r="I23" s="30"/>
       <c r="J23" s="24"/>
-      <c r="R23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="23.25">
+    </row>
+    <row r="24" spans="1:12" ht="23.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -2891,7 +2886,7 @@
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:18" ht="23.25">
+    <row r="25" spans="1:12" ht="23.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -2903,9 +2898,9 @@
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:18" ht="23.25">
+    <row r="26" spans="1:12" ht="23.25">
       <c r="A26" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B26" s="9">
         <f>[25]Sheet1!$E$38</f>
@@ -2915,7 +2910,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:18" ht="23.25">
+    <row r="27" spans="1:12" ht="23.25">
       <c r="A27" s="2" t="s">
         <v>71</v>
       </c>
@@ -2926,19 +2921,19 @@
       <c r="I27" s="8"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="1:18" ht="23.25">
+    <row r="28" spans="1:12" ht="23.25">
       <c r="A28" s="2"/>
       <c r="B28" s="9"/>
       <c r="I28" s="8"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:18" ht="23.25">
+    <row r="29" spans="1:12" ht="23.25">
       <c r="A29" s="2"/>
       <c r="B29" s="9"/>
       <c r="I29" s="11"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:18" ht="23.25">
+    <row r="30" spans="1:12" ht="23.25">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -2949,17 +2944,17 @@
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:18" ht="23.25">
+    <row r="31" spans="1:12" ht="23.25">
       <c r="B31" s="1">
         <f>SUM(B1:B30)</f>
         <v>1029023</v>
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:18" ht="23.25">
+    <row r="32" spans="1:12" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1239149</v>
+        <v>1229861</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -2968,7 +2963,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>210126</v>
+        <v>200838</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3026,7 +3021,7 @@
         <v>9992</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3034,7 +3029,7 @@
         <v>7610</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3042,7 +3037,7 @@
         <v>9234</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3050,7 +3045,7 @@
         <v>9236</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3058,7 +3053,7 @@
         <v>9234</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3066,7 +3061,7 @@
         <v>9408</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3074,7 +3069,7 @@
         <v>7516</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3082,7 +3077,7 @@
         <v>7517</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3090,7 +3085,7 @@
         <v>7518</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3098,7 +3093,7 @@
         <v>5539</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3106,7 +3101,7 @@
         <v>5540</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3114,7 +3109,7 @@
         <v>5541</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3122,7 +3117,7 @@
         <v>5620</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3130,7 +3125,7 @@
         <v>6428</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3138,7 +3133,7 @@
         <v>8885</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3146,7 +3141,7 @@
         <v>7667</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3154,7 +3149,7 @@
         <v>10604</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3162,7 +3157,7 @@
         <v>10097</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3170,7 +3165,7 @@
         <v>8596</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3178,7 +3173,7 @@
         <v>7636</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3236,7 +3231,7 @@
         <v>2120</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3253,7 +3248,7 @@
         <v>1970</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3270,7 +3265,7 @@
         <v>1830</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3287,7 +3282,7 @@
         <v>1220</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3304,12 +3299,12 @@
         <v>1320</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="8">
         <v>6</v>
@@ -3337,7 +3332,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="13">
         <v>8</v>
@@ -3361,7 +3356,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="8">
         <v>8</v>
@@ -3375,7 +3370,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="8">
         <v>8</v>
@@ -3401,7 +3396,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="8">
         <v>4</v>
@@ -3418,7 +3413,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="8"/>
@@ -3426,7 +3421,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="8">
         <v>6</v>
@@ -3436,7 +3431,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="8">
         <v>6</v>
@@ -3466,7 +3461,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B25" s="8">
         <v>4</v>
@@ -3478,7 +3473,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="8">
         <v>4</v>
@@ -3490,7 +3485,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" s="8">
         <v>4</v>
@@ -3500,7 +3495,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="8">
         <v>4</v>
@@ -3562,7 +3557,7 @@
         <v>610</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3581,7 +3576,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B35" s="8">
         <v>20</v>
@@ -3593,7 +3588,7 @@
         <v>900</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3621,12 +3616,12 @@
         <v>775</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B38" s="8">
         <v>4</v>
@@ -3636,12 +3631,12 @@
     </row>
     <row r="39" spans="1:5">
       <c r="E39" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="E40" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3666,7 +3661,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1">
         <v>200000</v>
@@ -3674,7 +3669,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2">
         <v>198000</v>
@@ -3682,7 +3677,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3">
         <v>7200</v>
@@ -3696,36 +3691,36 @@
     </row>
     <row r="11" spans="1:2" ht="28.5">
       <c r="A11" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" t="s">
         <v>222</v>
-      </c>
-      <c r="B12" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28.5">
       <c r="A18" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3755,7 +3750,7 @@
         <v>70</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>24</v>
@@ -3775,10 +3770,10 @@
         <v>81064</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N2">
         <f>B2</f>
@@ -3787,7 +3782,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="8">
         <f t="shared" ref="B3:B8" si="0">D3-C3</f>
@@ -3799,10 +3794,10 @@
         <v>11545</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N9" si="1">B3</f>
@@ -3823,10 +3818,10 @@
         <v>168597</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N4">
         <f>B4</f>
@@ -3835,7 +3830,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
@@ -3849,10 +3844,10 @@
         <v>34368</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
@@ -3861,7 +3856,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
@@ -3872,10 +3867,10 @@
         <v>26956</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
@@ -3896,10 +3891,10 @@
         <v>87289</v>
       </c>
       <c r="F7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
@@ -3908,7 +3903,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
@@ -3922,10 +3917,10 @@
         <v>41009</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N8">
         <f>B8</f>
@@ -3955,7 +3950,7 @@
     <row r="10" spans="1:14">
       <c r="A10" s="52"/>
       <c r="M10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N10">
         <v>25232</v>
@@ -3981,7 +3976,7 @@
     <row r="12" spans="1:14">
       <c r="A12" s="52"/>
       <c r="M12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N12">
         <f>SUM(N2:N10)</f>
@@ -3991,7 +3986,7 @@
     <row r="13" spans="1:14">
       <c r="A13" s="52"/>
       <c r="M13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N13">
         <f>SUM(9000+100000+11000)</f>
@@ -4001,7 +3996,7 @@
     <row r="14" spans="1:14">
       <c r="A14" s="52"/>
       <c r="M14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N14">
         <f>N12-N13</f>
@@ -4016,7 +4011,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17">
         <v>215000</v>
@@ -4027,7 +4022,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18" s="7">
         <f>B11-C17-100000</f>
@@ -4036,7 +4031,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20">
         <f>SUM(31307+3000)</f>
@@ -4045,7 +4040,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" s="7">
         <f>C11-C20</f>
@@ -4603,12 +4598,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2">
         <v>50000</v>
@@ -4619,7 +4614,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4633,7 +4628,7 @@
         <v>45097</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5463,13 +5458,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B82" s="13">
         <v>2026</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5560,7 +5555,7 @@
         <v>45266</v>
       </c>
       <c r="D90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5574,7 +5569,7 @@
         <v>45268</v>
       </c>
       <c r="D91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5638,7 +5633,7 @@
         <v>185956</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -5646,7 +5641,7 @@
         <v>76944</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -5660,13 +5655,13 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B100" s="13">
         <v>80577</v>
       </c>
       <c r="C100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -5675,7 +5670,7 @@
         <v>36154</v>
       </c>
       <c r="C101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5768,7 +5763,7 @@
         <v>2120</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -5786,7 +5781,7 @@
         <v>1970</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -5804,7 +5799,7 @@
         <v>1830</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -5822,7 +5817,7 @@
         <v>1220</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N7" s="8"/>
     </row>
@@ -5840,7 +5835,7 @@
         <v>1320</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N8" s="8"/>
     </row>
@@ -5861,7 +5856,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="8">
         <v>4</v>
@@ -5966,7 +5961,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="8">
         <v>4</v>
@@ -5980,7 +5975,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="8">
         <v>4</v>
@@ -5994,7 +5989,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="8">
         <v>4</v>
@@ -6006,7 +6001,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8">
@@ -6043,7 +6038,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="8">
         <v>2525</v>
@@ -6060,7 +6055,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="8"/>
@@ -6088,7 +6083,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="8">
         <v>4</v>
@@ -6100,7 +6095,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="8">
         <v>4</v>
@@ -6112,7 +6107,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="8">
         <v>4</v>
@@ -6124,7 +6119,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" s="8">
         <v>15</v>
@@ -6136,7 +6131,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B36" s="8">
         <v>6</v>
@@ -6168,7 +6163,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40" s="8">
         <v>4</v>
@@ -6204,7 +6199,7 @@
         <v>440</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -6239,7 +6234,7 @@
         <v>610</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L45" s="8"/>
     </row>
@@ -6260,7 +6255,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B47" s="8">
         <v>20</v>
@@ -6272,7 +6267,7 @@
         <v>900</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L47" s="8"/>
     </row>
@@ -6290,7 +6285,7 @@
         <v>960</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L48" s="8"/>
     </row>
@@ -6305,13 +6300,13 @@
         <v>795</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="8">
         <v>4</v>
@@ -6320,7 +6315,7 @@
         <v>495</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L50" s="8"/>
     </row>
@@ -6360,10 +6355,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="D1" s="11"/>
     </row>
@@ -6378,7 +6373,7 @@
         <v>633108</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(B2:B556)</f>
@@ -6393,7 +6388,7 @@
         <v>6800</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" s="32">
         <f>E2*1.1</f>
@@ -6408,7 +6403,7 @@
         <v>8245</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="8">
         <v>656560</v>
@@ -7124,13 +7119,13 @@
     <row r="1" spans="1:20" ht="33.75">
       <c r="A1"/>
       <c r="B1" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>188</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>189</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
@@ -7138,26 +7133,26 @@
     <row r="2" spans="1:20">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="D2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="H2"/>
       <c r="T2" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="23.25">
@@ -7572,7 +7567,7 @@
         <v>0.48125000000000001</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F12" s="38">
         <v>0.45833333333333331</v>
@@ -7610,10 +7605,10 @@
         <v>0.65138888888888891</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F13" s="38">
         <v>0.5</v>
@@ -7649,10 +7644,10 @@
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F14" s="38">
         <v>0.95833333333333337</v>
@@ -8133,7 +8128,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8141,7 +8136,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8149,7 +8144,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8157,7 +8152,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8165,7 +8160,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8173,7 +8168,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8181,7 +8176,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8189,67 +8184,67 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
         <v>172</v>
-      </c>
-      <c r="B9" t="s">
-        <v>173</v>
       </c>
       <c r="I9">
         <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s">
         <v>162</v>
-      </c>
-      <c r="B11" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -8529,19 +8524,19 @@
   <sheetData>
     <row r="1" spans="2:8" ht="26.25">
       <c r="B1" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15.75">
       <c r="B2" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>195</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42" t="s">
@@ -8551,133 +8546,133 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>492</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G3">
         <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4">
         <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4">
         <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5">
         <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5">
         <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6">
         <v>360</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6">
         <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7">
         <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8">
         <v>294</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8">
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E15">
         <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G15">
         <v>168</v>
       </c>
       <c r="H15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -1851,7 +1851,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1229861</v>
+            <v>1188240</v>
           </cell>
         </row>
       </sheetData>
@@ -2318,7 +2318,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2558,13 +2558,13 @@
         <v>257</v>
       </c>
       <c r="J8" s="24">
-        <f>98768-49000</f>
-        <v>49768</v>
+        <f>98768-49000-49000</f>
+        <v>768</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8">
         <f>J8-K8</f>
-        <v>49768</v>
+        <v>768</v>
       </c>
       <c r="M8" t="s">
         <v>251</v>
@@ -2702,7 +2702,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="24">
         <f>SUM(J2:J11)</f>
-        <v>185973</v>
+        <v>136973</v>
       </c>
       <c r="K13" s="24">
         <f>SUM(K2:K9)</f>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="L13" s="24">
         <f>SUM(L2:L9)</f>
-        <v>183653</v>
+        <v>134653</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="23.25">
@@ -2954,7 +2954,7 @@
     <row r="32" spans="1:12" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1229861</v>
+        <v>1188240</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>200838</v>
+        <v>159217</v>
       </c>
     </row>
     <row r="43" spans="1:2">

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
@@ -50,13 +50,14 @@
     <externalReference r:id="rId39"/>
     <externalReference r:id="rId40"/>
     <externalReference r:id="rId41"/>
+    <externalReference r:id="rId42"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="278">
   <si>
     <t>AYUSH</t>
   </si>
@@ -851,6 +852,45 @@
   </si>
   <si>
     <t>NOOR OK</t>
+  </si>
+  <si>
+    <t>FOR KANHAIYALAL</t>
+  </si>
+  <si>
+    <t>FOR NIYAMITIKARAN</t>
+  </si>
+  <si>
+    <t>IDBI SEARCH REPORT CHARGES</t>
+  </si>
+  <si>
+    <t>ICICI SEARCH REPORT CHARGES</t>
+  </si>
+  <si>
+    <t>CASH TO RISHI</t>
+  </si>
+  <si>
+    <t>FROM UPI (SAMEER)</t>
+  </si>
+  <si>
+    <t>LOGIN FEES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEQUE CLEARED OF ICICI </t>
+  </si>
+  <si>
+    <t>CHEQUE CLEARED OF IDBI</t>
+  </si>
+  <si>
+    <t>ICICI LOAN CHEQUE OF ICICI</t>
+  </si>
+  <si>
+    <t>CASH TO RISHI (LOAN PROCESS)</t>
+  </si>
+  <si>
+    <t>CASH RETURNED TO S.V</t>
+  </si>
+  <si>
+    <t>REST OF THE (2L AMOUNT FOR PURCHASING FROM V.C MONEY</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1944,7 @@
       <sheetData sheetId="0">
         <row r="38">
           <cell r="E38">
-            <v>134244</v>
+            <v>68743</v>
           </cell>
         </row>
       </sheetData>
@@ -2317,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2379,13 +2419,13 @@
         <v>264</v>
       </c>
       <c r="J2" s="24">
-        <f>2706+126199+15796+150-50000-67274</f>
-        <v>27577</v>
+        <f>2706+126199+15796+150-50000-67274-20000</f>
+        <v>7577</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="8">
         <f>J2-K2</f>
-        <v>27577</v>
+        <v>7577</v>
       </c>
       <c r="M2" t="s">
         <v>251</v>
@@ -2428,7 +2468,7 @@
       </c>
       <c r="B4" s="2">
         <f>[4]Sheet1!$E$38</f>
-        <v>134244</v>
+        <v>68743</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -2439,13 +2479,13 @@
         <v>260</v>
       </c>
       <c r="J4" s="24">
-        <f>SUM(16297+16704)</f>
-        <v>33001</v>
+        <f>SUM(16297+16704+27270-20000)</f>
+        <v>40271</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8">
         <f>J4</f>
-        <v>33001</v>
+        <v>40271</v>
       </c>
       <c r="M4" t="s">
         <v>251</v>
@@ -2499,13 +2539,13 @@
         <v>256</v>
       </c>
       <c r="J6" s="24">
-        <f>SUM(36824-20000)</f>
-        <v>16824</v>
+        <f>SUM(36824-20000+18130)</f>
+        <v>34954</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8">
         <f>J6</f>
-        <v>16824</v>
+        <v>34954</v>
       </c>
       <c r="M6" t="s">
         <v>251</v>
@@ -2529,13 +2569,13 @@
         <v>259</v>
       </c>
       <c r="J7" s="24">
-        <f>SUM(32870+100-14150-12800)</f>
-        <v>6020</v>
+        <f>SUM(32870+100-14150-12800+21135)</f>
+        <v>27155</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8">
         <f>J7-K7</f>
-        <v>6020</v>
+        <v>27155</v>
       </c>
       <c r="M7" t="s">
         <v>251</v>
@@ -2558,13 +2598,13 @@
         <v>257</v>
       </c>
       <c r="J8" s="24">
-        <f>98768-49000-49000</f>
-        <v>768</v>
+        <f>98768-49000-49000+44688+7080</f>
+        <v>52536</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8">
         <f>J8-K8</f>
-        <v>768</v>
+        <v>52536</v>
       </c>
       <c r="M8" t="s">
         <v>251</v>
@@ -2587,12 +2627,12 @@
         <v>262</v>
       </c>
       <c r="J9" s="24">
-        <f>17530+50-6573</f>
-        <v>11007</v>
+        <f>17530+50-6573-10000</f>
+        <v>1007</v>
       </c>
       <c r="L9" s="8">
         <f>J9</f>
-        <v>11007</v>
+        <v>1007</v>
       </c>
       <c r="M9" t="s">
         <v>174</v>
@@ -2609,7 +2649,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23">
         <f>SUM(B1,B3,B4,B5,B8,B9,B13,B18,B20,B21,B23,B24)</f>
-        <v>171834</v>
+        <v>106333</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>22</v>
@@ -2702,7 +2742,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="24">
         <f>SUM(J2:J11)</f>
-        <v>136973</v>
+        <v>205276</v>
       </c>
       <c r="K13" s="24">
         <f>SUM(K2:K9)</f>
@@ -2710,7 +2750,7 @@
       </c>
       <c r="L13" s="24">
         <f>SUM(L2:L9)</f>
-        <v>134653</v>
+        <v>202956</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="23.25">
@@ -2751,7 +2791,7 @@
       <c r="D16" s="23"/>
       <c r="E16" s="26">
         <f>SUM(E10:E13)</f>
-        <v>1028833</v>
+        <v>963332</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>24</v>
@@ -2947,7 +2987,7 @@
     <row r="31" spans="1:12" ht="23.25">
       <c r="B31" s="1">
         <f>SUM(B1:B30)</f>
-        <v>1029023</v>
+        <v>963522</v>
       </c>
       <c r="I31" s="7"/>
     </row>
@@ -2963,7 +3003,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>159217</v>
+        <v>224718</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4053,11 +4093,190 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1">
+        <v>50000</v>
+      </c>
+      <c r="C1" s="14">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="14">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3">
+        <v>40000</v>
+      </c>
+      <c r="C3" s="14">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4">
+        <v>1300</v>
+      </c>
+      <c r="C4" s="14">
+        <v>45301</v>
+      </c>
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5">
+        <v>1300</v>
+      </c>
+      <c r="C5" s="14">
+        <v>45317</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6">
+        <v>236</v>
+      </c>
+      <c r="C6" s="14">
+        <v>45315</v>
+      </c>
+      <c r="D6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7">
+        <v>118</v>
+      </c>
+      <c r="C7" s="14">
+        <v>45315</v>
+      </c>
+      <c r="D7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8">
+        <v>5900</v>
+      </c>
+      <c r="C8" s="14">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4882</v>
+      </c>
+      <c r="C9" s="22">
+        <v>45346</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="12">
+        <v>4764</v>
+      </c>
+      <c r="C10" s="14">
+        <v>45338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="12">
+        <v>530</v>
+      </c>
+      <c r="C11" s="14">
+        <v>45339</v>
+      </c>
+      <c r="D11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="12">
+        <v>40970</v>
+      </c>
+      <c r="C12" s="14">
+        <v>45362</v>
+      </c>
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="7">
+        <f>SUM(B1:B12)</f>
+        <v>200000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -4582,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4602,15 +4821,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2">
-        <v>50000</v>
-      </c>
-      <c r="C2" s="14">
-        <v>45218</v>
-      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
@@ -4814,7 +5025,7 @@
       </c>
       <c r="F22" s="8">
         <f>SUM(B8:B9,B12:B19,B23,B26,B20,B29:B30,B33,B36,B5,B2)</f>
-        <v>106085</v>
+        <v>56085</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4836,7 +5047,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="11">
         <f>SUM(F21:F22)</f>
-        <v>142239</v>
+        <v>92239</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5692,7 +5903,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="278">
   <si>
     <t>AYUSH</t>
   </si>
@@ -1249,6 +1249,21 @@
   <dxfs count="8">
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -1264,21 +1279,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1891,7 +1891,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1188240</v>
+            <v>1330340</v>
           </cell>
         </row>
       </sheetData>
@@ -2994,7 +2994,7 @@
     <row r="32" spans="1:12" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1188240</v>
+        <v>1330340</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>224718</v>
+        <v>366818</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4799,10 +4799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5009,8 +5009,8 @@
         <v>96</v>
       </c>
       <c r="F21" s="8">
-        <f>B101</f>
-        <v>36154</v>
+        <f>B104</f>
+        <v>61154</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5047,7 +5047,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="11">
         <f>SUM(F21:F22)</f>
-        <v>92239</v>
+        <v>117239</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5829,67 +5829,92 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" s="11">
-        <f>SUM(B39:B95)</f>
-        <v>379631</v>
+        <v>70</v>
+      </c>
+      <c r="B96" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C96" s="14">
+        <v>45369</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B97" s="13">
-        <v>185956</v>
-      </c>
-      <c r="C97" t="s">
-        <v>155</v>
+        <v>15000</v>
+      </c>
+      <c r="C97" s="14">
+        <v>45394</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="B98" s="13">
-        <v>76944</v>
-      </c>
-      <c r="C98" t="s">
-        <v>182</v>
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="11">
+        <f>SUM(B39:B97)</f>
+        <v>404631</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="13">
+        <v>185956</v>
+      </c>
+      <c r="C99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" s="13">
+        <v>76944</v>
+      </c>
+      <c r="C100" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" s="13"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="11">
-        <f>B96-B97-B98</f>
-        <v>116731</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="B102" s="11">
+        <f>B98-B99-B100</f>
+        <v>141731</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>253</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B103" s="13">
         <v>80577</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C103" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="B101" s="11">
-        <f>B99-B100</f>
-        <v>36154</v>
-      </c>
-      <c r="C101" t="s">
+    <row r="104" spans="1:3">
+      <c r="B104" s="11">
+        <f>B102-B103</f>
+        <v>61154</v>
+      </c>
+      <c r="C104" t="s">
         <v>255</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT YET">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NOT YET">
       <formula>NOT(ISERROR(SEARCH("NOT YET",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="RECIVED">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="RECIVED">
       <formula>NOT(ISERROR(SEARCH("RECIVED",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7291,10 +7316,10 @@
     <cfRule type="aboveAverage" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
@@ -51,13 +51,14 @@
     <externalReference r:id="rId40"/>
     <externalReference r:id="rId41"/>
     <externalReference r:id="rId42"/>
+    <externalReference r:id="rId43"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="269">
   <si>
     <t>AYUSH</t>
   </si>
@@ -767,36 +768,6 @@
     <t>amount we have in bank</t>
   </si>
   <si>
-    <t>novice</t>
-  </si>
-  <si>
-    <t>jugnu</t>
-  </si>
-  <si>
-    <t>toygallery</t>
-  </si>
-  <si>
-    <t>toworld</t>
-  </si>
-  <si>
-    <t>nisar</t>
-  </si>
-  <si>
-    <t>noor</t>
-  </si>
-  <si>
-    <t>toy villa</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>cash we have</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
     <t>CUSTOMER KA KUM</t>
   </si>
   <si>
@@ -891,6 +862,9 @@
   </si>
   <si>
     <t>REST OF THE (2L AMOUNT FOR PURCHASING FROM V.C MONEY</t>
+  </si>
+  <si>
+    <t>A2Z</t>
   </si>
 </sst>
 </file>
@@ -1249,21 +1223,6 @@
   <dxfs count="8">
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -1279,6 +1238,21 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1891,7 +1865,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1330340</v>
+            <v>1386903</v>
           </cell>
         </row>
       </sheetData>
@@ -2416,7 +2390,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="J2" s="24">
         <f>2706+126199+15796+150-50000-67274-20000</f>
@@ -2428,7 +2402,7 @@
         <v>7577</v>
       </c>
       <c r="M2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="N2" s="11"/>
     </row>
@@ -2446,7 +2420,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="J3" s="24">
         <f>SUM(36474+89544+19810+4960+350-50000-50000-50000+37965)</f>
@@ -2458,7 +2432,7 @@
         <v>39103</v>
       </c>
       <c r="M3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="N3" s="8"/>
     </row>
@@ -2476,7 +2450,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="J4" s="24">
         <f>SUM(16297+16704+27270-20000)</f>
@@ -2488,7 +2462,7 @@
         <v>40271</v>
       </c>
       <c r="M4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -2506,7 +2480,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J5" s="24">
         <f>89244-23891-65000</f>
@@ -2518,7 +2492,7 @@
         <v>353</v>
       </c>
       <c r="M5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -2536,7 +2510,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J6" s="24">
         <f>SUM(36824-20000+18130)</f>
@@ -2548,7 +2522,7 @@
         <v>34954</v>
       </c>
       <c r="M6" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -2566,7 +2540,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J7" s="24">
         <f>SUM(32870+100-14150-12800+21135)</f>
@@ -2578,7 +2552,7 @@
         <v>27155</v>
       </c>
       <c r="M7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.25">
@@ -2595,7 +2569,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J8" s="24">
         <f>98768-49000-49000+44688+7080</f>
@@ -2607,7 +2581,7 @@
         <v>52536</v>
       </c>
       <c r="M8" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25">
@@ -2624,7 +2598,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="J9" s="24">
         <f>17530+50-6573-10000</f>
@@ -2657,7 +2631,7 @@
       <c r="G10" s="23"/>
       <c r="H10" s="26"/>
       <c r="I10" s="23" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="J10" s="24">
         <v>2320</v>
@@ -2715,7 +2689,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L12" s="55" t="s">
         <v>70</v>
@@ -2994,7 +2968,7 @@
     <row r="32" spans="1:12" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1330340</v>
+        <v>1386903</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -3003,7 +2977,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>366818</v>
+        <v>423381</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3047,7 +3021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B22"/>
     </sheetView>
   </sheetViews>
@@ -3771,10 +3745,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3785,7 +3759,7 @@
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:6">
       <c r="B1" s="11" t="s">
         <v>70</v>
       </c>
@@ -3796,7 +3770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:6">
       <c r="A2" s="52" t="s">
         <v>71</v>
       </c>
@@ -3812,15 +3786,8 @@
       <c r="F2" t="s">
         <v>231</v>
       </c>
-      <c r="M2" t="s">
-        <v>236</v>
-      </c>
-      <c r="N2">
-        <f>B2</f>
-        <v>81064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="52" t="s">
         <v>228</v>
       </c>
@@ -3836,15 +3803,8 @@
       <c r="F3" t="s">
         <v>231</v>
       </c>
-      <c r="M3" t="s">
-        <v>237</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N9" si="1">B3</f>
-        <v>11545</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="52" t="s">
         <v>15</v>
       </c>
@@ -3860,15 +3820,8 @@
       <c r="F4" t="s">
         <v>231</v>
       </c>
-      <c r="M4" t="s">
-        <v>238</v>
-      </c>
-      <c r="N4">
-        <f>B4</f>
-        <v>168597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="52" t="s">
         <v>229</v>
       </c>
@@ -3886,15 +3839,8 @@
       <c r="F5" t="s">
         <v>231</v>
       </c>
-      <c r="M5" t="s">
-        <v>239</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>19317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="52" t="s">
         <v>230</v>
       </c>
@@ -3909,15 +3855,8 @@
       <c r="F6" t="s">
         <v>231</v>
       </c>
-      <c r="M6" t="s">
-        <v>240</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>26956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="52" t="s">
         <v>4</v>
       </c>
@@ -3933,15 +3872,8 @@
       <c r="F7" t="s">
         <v>231</v>
       </c>
-      <c r="M7" t="s">
-        <v>241</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>87289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="52" t="s">
         <v>154</v>
       </c>
@@ -3959,15 +3891,8 @@
       <c r="F8" t="s">
         <v>231</v>
       </c>
-      <c r="M8" t="s">
-        <v>242</v>
-      </c>
-      <c r="N8">
-        <f>B8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="52" t="s">
         <v>70</v>
       </c>
@@ -3979,24 +3904,11 @@
       <c r="D9" s="8">
         <v>200000</v>
       </c>
-      <c r="M9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="52"/>
-      <c r="M10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N10">
-        <v>25232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="23.25">
+    </row>
+    <row r="11" spans="1:6" ht="23.25">
       <c r="A11" s="52"/>
       <c r="B11" s="54">
         <f>SUM(B2:B10)</f>
@@ -4013,40 +3925,19 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:6">
       <c r="A12" s="52"/>
-      <c r="M12" t="s">
-        <v>243</v>
-      </c>
-      <c r="N12">
-        <f>SUM(N2:N10)</f>
-        <v>620000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="52"/>
-      <c r="M13" t="s">
-        <v>244</v>
-      </c>
-      <c r="N13">
-        <f>SUM(9000+100000+11000)</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="52"/>
-      <c r="M14" t="s">
-        <v>233</v>
-      </c>
-      <c r="N14">
-        <f>N12-N13</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="52"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:6">
       <c r="A16" s="52"/>
     </row>
     <row r="17" spans="2:4">
@@ -4098,7 +3989,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4111,7 +4002,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B1">
         <v>50000</v>
@@ -4122,7 +4013,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B2">
         <v>50000</v>
@@ -4133,7 +4024,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B3">
         <v>40000</v>
@@ -4144,7 +4035,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B4">
         <v>1300</v>
@@ -4153,12 +4044,12 @@
         <v>45301</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B5">
         <v>1300</v>
@@ -4167,12 +4058,12 @@
         <v>45317</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B6">
         <v>236</v>
@@ -4181,12 +4072,12 @@
         <v>45315</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B7">
         <v>118</v>
@@ -4195,12 +4086,12 @@
         <v>45315</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B8">
         <v>5900</v>
@@ -4211,7 +4102,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="12" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B9" s="12">
         <v>4882</v>
@@ -4223,7 +4114,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B10" s="12">
         <v>4764</v>
@@ -4240,12 +4131,12 @@
         <v>45339</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B12" s="12">
         <v>40970</v>
@@ -4254,7 +4145,7 @@
         <v>45362</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4269,6 +4160,64 @@
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4276,7 +4225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -4801,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4817,7 +4766,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4825,7 +4774,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4839,7 +4788,7 @@
         <v>45097</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5766,7 +5715,7 @@
         <v>45266</v>
       </c>
       <c r="D90" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5780,7 +5729,7 @@
         <v>45268</v>
       </c>
       <c r="D91" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5891,13 +5840,13 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B103" s="13">
         <v>80577</v>
       </c>
       <c r="C103" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -5906,15 +5855,15 @@
         <v>61154</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F22">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NOT YET">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT YET">
       <formula>NOT(ISERROR(SEARCH("NOT YET",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="RECIVED">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="RECIVED">
       <formula>NOT(ISERROR(SEARCH("RECIVED",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5928,7 +5877,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6577,7 +6526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -7316,10 +7265,10 @@
     <cfRule type="aboveAverage" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7332,7 +7281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -8348,7 +8297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B14"/>
     </sheetView>
   </sheetViews>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" firstSheet="2" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="282">
   <si>
     <t>AYUSH</t>
   </si>
@@ -865,6 +865,45 @@
   </si>
   <si>
     <t>A2Z</t>
+  </si>
+  <si>
+    <t>NISAR TOYS</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>PARTY</t>
+  </si>
+  <si>
+    <t>CASH WE HAVE</t>
+  </si>
+  <si>
+    <t>BANK WE HAVE</t>
+  </si>
+  <si>
+    <t>ZEE</t>
+  </si>
+  <si>
+    <t>TOY ZONE</t>
+  </si>
+  <si>
+    <t>EVERY DAY</t>
+  </si>
+  <si>
+    <t>DAYS LEFT</t>
+  </si>
+  <si>
+    <t>PYTM WE HAVE</t>
+  </si>
+  <si>
+    <t>still we need in account</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cash we need more</t>
   </si>
 </sst>
 </file>
@@ -877,7 +916,7 @@
     <numFmt numFmtId="166" formatCode="h\.mm"/>
     <numFmt numFmtId="167" formatCode="[$-14009]dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,8 +1077,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1049,6 +1101,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1085,7 +1142,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -1094,8 +1151,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1212,9 +1270,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1865,7 +1929,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1386903</v>
+            <v>1419624</v>
           </cell>
         </row>
       </sheetData>
@@ -2968,7 +3032,7 @@
     <row r="32" spans="1:12" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1386903</v>
+        <v>1419624</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -2977,7 +3041,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>423381</v>
+        <v>456102</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4165,59 +4229,267 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="D2" s="8">
+        <f>SUM(B2+C2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B4" s="8">
+        <v>38878</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <f>SUM(B4)</f>
+        <v>38878</v>
+      </c>
+      <c r="M4" s="58"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B5" s="8">
+        <v>54428</v>
+      </c>
+      <c r="C5" s="8">
+        <v>21715</v>
+      </c>
+      <c r="D5" s="8">
+        <f>SUM(B5+C5)</f>
+        <v>76143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B6" s="8">
+        <v>97685</v>
+      </c>
+      <c r="C6" s="8">
+        <v>35106</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(B6+C6)</f>
+        <v>132791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B7" s="8">
+        <v>19024</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <f>SUM(B7+C7)</f>
+        <v>19024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7" t="s">
         <v>154</v>
+      </c>
+      <c r="B8" s="8">
+        <v>39197</v>
+      </c>
+      <c r="C8" s="8">
+        <v>14537</v>
+      </c>
+      <c r="D8" s="8">
+        <f>C8+B8</f>
+        <v>53734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <f>SUM(B9+C9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="8">
+        <v>200000</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <f>B10</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4860</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <f>B11-C11</f>
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8">
+        <v>22196</v>
+      </c>
+      <c r="D12" s="8">
+        <f>C12+B12</f>
+        <v>22196</v>
+      </c>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
+        <f>B13+C13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="56"/>
+      <c r="B14" s="57">
+        <f>SUM(B2:B13)</f>
+        <v>454072</v>
+      </c>
+      <c r="C14" s="57">
+        <f>SUM(C2:C12)</f>
+        <v>93554</v>
+      </c>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7">
+        <f>SUM(D2:D13)</f>
+        <v>547626</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18">
+        <v>66228</v>
+      </c>
+      <c r="F18">
+        <f>D18-C14</f>
+        <v>-27326</v>
+      </c>
+      <c r="G18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19">
+        <f>SUM(90000+15000+53000)</f>
+        <v>158000</v>
+      </c>
+      <c r="F19">
+        <f>B14-D19</f>
+        <v>296072</v>
+      </c>
+      <c r="G19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="D21">
+        <f>SUM(D17-D18-D19-D20)</f>
+        <v>323398</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="C24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24">
+        <f ca="1">DATE(2024,5,13)-TODAY()</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="C25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25">
+        <f ca="1">D21/D24</f>
+        <v>64679.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
@@ -52,13 +52,14 @@
     <externalReference r:id="rId41"/>
     <externalReference r:id="rId42"/>
     <externalReference r:id="rId43"/>
+    <externalReference r:id="rId44"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="292">
   <si>
     <t>AYUSH</t>
   </si>
@@ -904,6 +905,36 @@
   </si>
   <si>
     <t xml:space="preserve"> cash we need more</t>
+  </si>
+  <si>
+    <t>PITAMBRA</t>
+  </si>
+  <si>
+    <t>CAR EMI</t>
+  </si>
+  <si>
+    <t>WE HAVE</t>
+  </si>
+  <si>
+    <t>k pending</t>
+  </si>
+  <si>
+    <t>p pending</t>
+  </si>
+  <si>
+    <t>nisar toy</t>
+  </si>
+  <si>
+    <t>nisar stationery</t>
+  </si>
+  <si>
+    <t>jugnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOY WORLD </t>
+  </si>
+  <si>
+    <t>VYAS DELHI</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1960,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1419624</v>
+            <v>1339053</v>
           </cell>
         </row>
       </sheetData>
@@ -3032,7 +3063,7 @@
     <row r="32" spans="1:12" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1419624</v>
+        <v>1339053</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -3041,7 +3072,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>456102</v>
+        <v>375531</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4229,10 +4260,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4240,9 +4271,10 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" s="11" t="s">
         <v>272</v>
       </c>
@@ -4255,8 +4287,14 @@
       <c r="D1" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="F1" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -4264,14 +4302,26 @@
         <f>SUM(B2+C2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="R2" t="s">
+        <v>287</v>
+      </c>
+      <c r="S2">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="R3" t="s">
+        <v>288</v>
+      </c>
+      <c r="S3">
+        <v>41408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
         <v>230</v>
       </c>
@@ -4284,66 +4334,82 @@
         <v>38878</v>
       </c>
       <c r="M4" s="58"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="R4" t="s">
+        <v>289</v>
+      </c>
+      <c r="S4">
+        <v>20730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="8">
-        <v>54428</v>
-      </c>
-      <c r="C5" s="8">
-        <v>21715</v>
-      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="8">
         <f>SUM(B5+C5)</f>
-        <v>76143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>21715</v>
+      </c>
+      <c r="R5" t="s">
+        <v>290</v>
+      </c>
+      <c r="S5">
+        <v>13960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="8">
-        <v>97685</v>
-      </c>
-      <c r="C6" s="8">
-        <v>35106</v>
-      </c>
+        <f>SUM(97685-49000)</f>
+        <v>48685</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="8">
         <f>SUM(B6+C6)</f>
-        <v>132791</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>48685</v>
+      </c>
+      <c r="G6">
+        <v>35106</v>
+      </c>
+      <c r="R6" t="s">
+        <v>291</v>
+      </c>
+      <c r="S6">
+        <v>28419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="8">
-        <v>19024</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8">
         <f>SUM(B7+C7)</f>
-        <v>19024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="8">
-        <v>39197</v>
-      </c>
-      <c r="C8" s="8">
-        <v>14537</v>
-      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="8">
         <f>C8+B8</f>
-        <v>53734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>14537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="7" t="s">
         <v>269</v>
       </c>
@@ -4354,47 +4420,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:19">
       <c r="A10" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="8">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8">
         <f>B10</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>250000</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="8">
-        <v>4860</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8">
         <f>B11-C11</f>
-        <v>4860</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="7" t="s">
         <v>276</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8">
-        <v>22196</v>
-      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="8">
         <f>C12+B12</f>
-        <v>22196</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4860</v>
       </c>
       <c r="K12" s="58"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="L12" t="s">
+        <v>283</v>
+      </c>
+      <c r="M12">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -4405,18 +4482,36 @@
         <v>0</v>
       </c>
       <c r="K13" s="58"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="7">
+        <f>SUM(M10:M12)</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="56"/>
       <c r="B14" s="57">
         <f>SUM(B2:B13)</f>
-        <v>454072</v>
+        <v>337563</v>
       </c>
       <c r="C14" s="57">
         <f>SUM(C2:C12)</f>
-        <v>93554</v>
+        <v>0</v>
       </c>
       <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="L15" t="s">
+        <v>284</v>
+      </c>
+      <c r="M15">
+        <v>23103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="M16">
+        <f>M13-M15</f>
+        <v>-7103</v>
+      </c>
     </row>
     <row r="17" spans="2:7">
       <c r="C17" t="s">
@@ -4424,7 +4519,7 @@
       </c>
       <c r="D17" s="7">
         <f>SUM(D2:D13)</f>
-        <v>547626</v>
+        <v>337563</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -4432,11 +4527,12 @@
         <v>274</v>
       </c>
       <c r="D18">
-        <v>66228</v>
+        <f>C14</f>
+        <v>0</v>
       </c>
       <c r="F18">
         <f>D18-C14</f>
-        <v>-27326</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
         <v>280</v>
@@ -4447,12 +4543,12 @@
         <v>273</v>
       </c>
       <c r="D19">
-        <f>SUM(90000+15000+53000)</f>
-        <v>158000</v>
+        <f>SUM(110000)</f>
+        <v>110000</v>
       </c>
       <c r="F19">
-        <f>B14-D19</f>
-        <v>296072</v>
+        <f>B14-D19+D20</f>
+        <v>279810</v>
       </c>
       <c r="G19" t="s">
         <v>281</v>
@@ -4462,11 +4558,15 @@
       <c r="B20" t="s">
         <v>279</v>
       </c>
+      <c r="D20">
+        <f>SUM(48895+3352)</f>
+        <v>52247</v>
+      </c>
     </row>
     <row r="21" spans="2:7">
       <c r="D21">
         <f>SUM(D17-D18-D19-D20)</f>
-        <v>323398</v>
+        <v>175316</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -4474,8 +4574,8 @@
         <v>278</v>
       </c>
       <c r="D24">
-        <f ca="1">DATE(2024,5,13)-TODAY()</f>
-        <v>5</v>
+        <f ca="1">DATE(2024,5,14)-TODAY()</f>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -4484,12 +4584,24 @@
       </c>
       <c r="D25">
         <f ca="1">D21/D24</f>
-        <v>64679.6</v>
+        <v>58438.666666666664</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="292">
   <si>
     <t>AYUSH</t>
   </si>
@@ -1318,6 +1318,21 @@
   <dxfs count="8">
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -1333,21 +1348,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1960,7 +1960,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1339053</v>
+            <v>1315784</v>
           </cell>
         </row>
       </sheetData>
@@ -3063,7 +3063,7 @@
     <row r="32" spans="1:12" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1339053</v>
+        <v>1315784</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>375531</v>
+        <v>352262</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4262,7 +4262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="D24">
         <f ca="1">DATE(2024,5,14)-TODAY()</f>
-        <v>3</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="D25">
         <f ca="1">D21/D24</f>
-        <v>58438.666666666664</v>
+        <v>-6261.2857142857147</v>
       </c>
     </row>
   </sheetData>
@@ -4607,10 +4607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4959,170 +4959,181 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B30" s="13">
-        <v>6000</v>
+        <v>10000</v>
+      </c>
+      <c r="C30" s="15">
+        <v>45433</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="13">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B32" s="13">
         <v>6838</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="13"/>
-    </row>
     <row r="33" spans="1:4">
-      <c r="B33" s="7">
-        <f>SUM(B2:B31)</f>
-        <v>214276</v>
-      </c>
+      <c r="B33" s="13"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="B34" s="12"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="11" t="s">
+      <c r="B34" s="7">
+        <f>SUM(B2:B32)</f>
+        <v>224276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D41" s="11" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="8">
-        <v>6985</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="8">
+        <v>6985</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C43" s="8">
         <f>SUM(55000+570+400+10000+5000+15000+10000+500+12000+2000+15000+15000+6000+16668+7350)</f>
         <v>170488</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C44" s="8">
         <f>8100+500+3360+2900+1328+200+500+1300</f>
         <v>18188</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="8">
-        <v>11200</v>
-      </c>
-    </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="8">
-        <v>3627</v>
-      </c>
-      <c r="D45" t="s">
-        <v>40</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="8">
+        <v>3627</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C47" s="8">
         <f>7000+5300</f>
         <v>12300</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C48" s="8">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="B48" s="4" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="11">
-        <f>SUM(C41:C47)</f>
+      <c r="C49" s="11">
+        <f>SUM(C42:C48)</f>
         <v>223488</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
-      <c r="C53" t="s">
+    <row r="54" spans="2:4">
+      <c r="C54" t="s">
         <v>44</v>
       </c>
-      <c r="D53">
-        <f>H73-I73</f>
+      <c r="D54">
+        <f>H74-I74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
-      <c r="C54" t="s">
+    <row r="55" spans="2:4">
+      <c r="C55" t="s">
         <v>43</v>
       </c>
-      <c r="D54">
-        <f>C48</f>
+      <c r="D55">
+        <f>C49</f>
         <v>223488</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
-      <c r="D55">
-        <f>D53-D54</f>
+    <row r="56" spans="2:4">
+      <c r="D56">
+        <f>D54-D55</f>
         <v>-223488</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
-      <c r="D56">
+    <row r="57" spans="2:4">
+      <c r="D57">
         <f>16500+800+600+20+230+5000</f>
         <v>23150</v>
       </c>
     </row>
-    <row r="57" spans="3:4">
-      <c r="C57" t="s">
+    <row r="58" spans="2:4">
+      <c r="C58" t="s">
         <v>46</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="8:9">
-      <c r="H73" s="7">
-        <f>SUM(H40:H72)</f>
+    <row r="74" spans="8:9">
+      <c r="H74" s="7">
+        <f>SUM(H41:H73)</f>
         <v>0</v>
       </c>
-      <c r="I73" s="7">
-        <f>SUM(I40:I72)</f>
+      <c r="I74" s="7">
+        <f>SUM(I41:I73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="8:9">
-      <c r="I74" s="7"/>
+    <row r="75" spans="8:9">
+      <c r="I75" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5132,10 +5143,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5342,8 +5353,8 @@
         <v>96</v>
       </c>
       <c r="F21" s="8">
-        <f>B104</f>
-        <v>61154</v>
+        <f>B106</f>
+        <v>73154</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5380,7 +5391,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="11">
         <f>SUM(F21:F22)</f>
-        <v>117239</v>
+        <v>129239</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6184,70 +6195,92 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="11">
-        <f>SUM(B39:B97)</f>
-        <v>404631</v>
+        <v>70</v>
+      </c>
+      <c r="B98" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C98" s="14">
+        <v>45433</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C99" s="14">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="11">
+        <f>SUM(B39:B99)</f>
+        <v>416631</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>101</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B101" s="13">
         <v>185956</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C101" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="B100" s="13">
+    <row r="102" spans="1:3">
+      <c r="B102" s="13">
         <v>76944</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="B101" s="13"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
+    <row r="103" spans="1:3">
+      <c r="B103" s="13"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="11">
-        <f>B98-B99-B100</f>
-        <v>141731</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="B104" s="11">
+        <f>B100-B101-B102</f>
+        <v>153731</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>243</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B105" s="13">
         <v>80577</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C105" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="B104" s="11">
-        <f>B102-B103</f>
-        <v>61154</v>
-      </c>
-      <c r="C104" t="s">
+    <row r="106" spans="1:3">
+      <c r="B106" s="11">
+        <f>B104-B105</f>
+        <v>73154</v>
+      </c>
+      <c r="C106" t="s">
         <v>245</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT YET">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NOT YET">
       <formula>NOT(ISERROR(SEARCH("NOT YET",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="RECIVED">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="RECIVED">
       <formula>NOT(ISERROR(SEARCH("RECIVED",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7649,10 +7682,10 @@
     <cfRule type="aboveAverage" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="293">
   <si>
     <t>AYUSH</t>
   </si>
@@ -935,6 +935,9 @@
   </si>
   <si>
     <t>VYAS DELHI</t>
+  </si>
+  <si>
+    <t>CASH TO ARUN</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +1963,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1315784</v>
+            <v>1732452</v>
           </cell>
         </row>
       </sheetData>
@@ -3063,7 +3066,7 @@
     <row r="32" spans="1:12" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1315784</v>
+        <v>1732452</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -3072,7 +3075,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>352262</v>
+        <v>768930</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4575,7 +4578,7 @@
       </c>
       <c r="D24">
         <f ca="1">DATE(2024,5,14)-TODAY()</f>
-        <v>-28</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -4584,7 +4587,7 @@
       </c>
       <c r="D25">
         <f ca="1">D21/D24</f>
-        <v>-6261.2857142857147</v>
+        <v>-2874.032786885246</v>
       </c>
     </row>
   </sheetData>
@@ -5143,10 +5146,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5353,8 +5356,8 @@
         <v>96</v>
       </c>
       <c r="F21" s="8">
-        <f>B106</f>
-        <v>73154</v>
+        <f>B108</f>
+        <v>87654</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5391,7 +5394,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="11">
         <f>SUM(F21:F22)</f>
-        <v>129239</v>
+        <v>143739</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6217,61 +6220,83 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="11">
-        <f>SUM(B39:B99)</f>
-        <v>416631</v>
+        <v>70</v>
+      </c>
+      <c r="B100" s="13">
+        <v>12000</v>
+      </c>
+      <c r="C100" s="14">
+        <v>45468</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" s="13">
+        <v>2500</v>
+      </c>
+      <c r="C101" s="14">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="11">
+        <f>SUM(B39:B101)</f>
+        <v>431131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B103" s="13">
         <v>185956</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C103" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="B102" s="13">
+    <row r="104" spans="1:3">
+      <c r="B104" s="13">
         <v>76944</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C104" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="B103" s="13"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
+    <row r="105" spans="1:3">
+      <c r="B105" s="13"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="11">
-        <f>B100-B101-B102</f>
-        <v>153731</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="B106" s="11">
+        <f>B102-B103-B104</f>
+        <v>168231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>243</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B107" s="13">
         <v>80577</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C107" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="B106" s="11">
-        <f>B104-B105</f>
-        <v>73154</v>
-      </c>
-      <c r="C106" t="s">
+    <row r="108" spans="1:3">
+      <c r="B108" s="11">
+        <f>B106-B107</f>
+        <v>87654</v>
+      </c>
+      <c r="C108" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6293,7 +6318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -6943,7 +6968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="293">
   <si>
     <t>AYUSH</t>
   </si>
@@ -367,9 +367,6 @@
     <t>TOTAL HISAB HONE KE BAAD</t>
   </si>
   <si>
-    <t>AB TOTAL LENA HAI</t>
-  </si>
-  <si>
     <t>cash</t>
   </si>
   <si>
@@ -790,15 +787,9 @@
     <t>RTGS</t>
   </si>
   <si>
-    <t>de diye 8-1-24 ko</t>
-  </si>
-  <si>
     <t>1june 23 se 30nov 23 tk</t>
   </si>
   <si>
-    <t>1 dec ko advance</t>
-  </si>
-  <si>
     <t>NISAR OK</t>
   </si>
   <si>
@@ -938,6 +929,15 @@
   </si>
   <si>
     <t>CASH TO ARUN</t>
+  </si>
+  <si>
+    <t>OIL CHANGE</t>
+  </si>
+  <si>
+    <t>DATE NOT SPECIFIC</t>
+  </si>
+  <si>
+    <t>GOODS ALL OVER</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1963,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1732452</v>
+            <v>1671453</v>
           </cell>
         </row>
       </sheetData>
@@ -2468,10 +2468,10 @@
         <v>24</v>
       </c>
       <c r="K1" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>128</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" thickTop="1">
@@ -2488,7 +2488,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J2" s="24">
         <f>2706+126199+15796+150-50000-67274-20000</f>
@@ -2500,7 +2500,7 @@
         <v>7577</v>
       </c>
       <c r="M2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N2" s="11"/>
     </row>
@@ -2518,7 +2518,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J3" s="24">
         <f>SUM(36474+89544+19810+4960+350-50000-50000-50000+37965)</f>
@@ -2530,7 +2530,7 @@
         <v>39103</v>
       </c>
       <c r="M3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N3" s="8"/>
     </row>
@@ -2548,7 +2548,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J4" s="24">
         <f>SUM(16297+16704+27270-20000)</f>
@@ -2560,7 +2560,7 @@
         <v>40271</v>
       </c>
       <c r="M4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -2578,7 +2578,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J5" s="24">
         <f>89244-23891-65000</f>
@@ -2590,7 +2590,7 @@
         <v>353</v>
       </c>
       <c r="M5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -2608,7 +2608,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J6" s="24">
         <f>SUM(36824-20000+18130)</f>
@@ -2620,7 +2620,7 @@
         <v>34954</v>
       </c>
       <c r="M6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -2638,7 +2638,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J7" s="24">
         <f>SUM(32870+100-14150-12800+21135)</f>
@@ -2650,7 +2650,7 @@
         <v>27155</v>
       </c>
       <c r="M7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.25">
@@ -2667,7 +2667,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J8" s="24">
         <f>98768-49000-49000+44688+7080</f>
@@ -2679,7 +2679,7 @@
         <v>52536</v>
       </c>
       <c r="M8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.25">
@@ -2696,7 +2696,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J9" s="24">
         <f>17530+50-6573-10000</f>
@@ -2707,7 +2707,7 @@
         <v>1007</v>
       </c>
       <c r="M9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="23.25">
@@ -2729,7 +2729,7 @@
       <c r="G10" s="23"/>
       <c r="H10" s="26"/>
       <c r="I10" s="23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J10" s="24">
         <v>2320</v>
@@ -2787,7 +2787,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L12" s="55" t="s">
         <v>70</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="26" spans="1:12" ht="23.25">
       <c r="A26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B26" s="9">
         <f>[25]Sheet1!$E$38</f>
@@ -3066,7 +3066,7 @@
     <row r="32" spans="1:12" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1732452</v>
+        <v>1671453</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>768930</v>
+        <v>707931</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>9992</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3141,7 +3141,7 @@
         <v>7610</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>9234</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>9236</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3165,7 +3165,7 @@
         <v>9234</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3173,7 +3173,7 @@
         <v>9408</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3181,7 +3181,7 @@
         <v>7516</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3189,7 +3189,7 @@
         <v>7517</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3197,7 +3197,7 @@
         <v>7518</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3205,7 +3205,7 @@
         <v>5539</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3213,7 +3213,7 @@
         <v>5540</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3221,7 +3221,7 @@
         <v>5541</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3229,7 +3229,7 @@
         <v>5620</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3237,7 +3237,7 @@
         <v>6428</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3245,7 +3245,7 @@
         <v>8885</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3253,7 +3253,7 @@
         <v>7667</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3261,7 +3261,7 @@
         <v>10604</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3269,7 +3269,7 @@
         <v>10097</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>8596</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>7636</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3308,7 +3308,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="25"/>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="8">
         <v>20</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="8">
         <v>20</v>
@@ -3343,12 +3343,12 @@
         <v>2120</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="8">
         <v>20</v>
@@ -3360,12 +3360,12 @@
         <v>1970</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="8">
         <v>20</v>
@@ -3377,12 +3377,12 @@
         <v>1830</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="8">
         <v>20</v>
@@ -3394,12 +3394,12 @@
         <v>1220</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="8">
         <v>20</v>
@@ -3411,12 +3411,12 @@
         <v>1320</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="8">
         <v>6</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="8"/>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="13">
         <v>8</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="8">
         <v>8</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="8">
         <v>8</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="8">
         <v>8</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="8"/>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="8">
         <v>4</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="8"/>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="8">
         <v>6</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="8">
         <v>6</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="8"/>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="8">
         <v>21</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" s="8">
         <v>4</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B26" s="8">
         <v>4</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="8">
         <v>4</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B28" s="8">
         <v>4</v>
@@ -3623,13 +3623,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="8">
         <v>40</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="8">
         <v>40</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" s="8">
         <v>20</v>
@@ -3669,12 +3669,12 @@
         <v>610</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="8">
         <v>20</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="8">
         <v>20</v>
@@ -3700,12 +3700,12 @@
         <v>900</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="8">
         <v>20</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="8">
         <v>8</v>
@@ -3728,12 +3728,12 @@
         <v>775</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B38" s="8">
         <v>4</v>
@@ -3743,12 +3743,12 @@
     </row>
     <row r="39" spans="1:5">
       <c r="E39" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="E40" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3773,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1">
         <v>200000</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2">
         <v>198000</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3">
         <v>7200</v>
@@ -3803,36 +3803,36 @@
     </row>
     <row r="11" spans="1:2" ht="28.5">
       <c r="A11" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" t="s">
         <v>221</v>
-      </c>
-      <c r="B12" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28.5">
       <c r="A18" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3862,7 @@
         <v>70</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>24</v>
@@ -3882,12 +3882,12 @@
         <v>81064</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="8">
         <f t="shared" ref="B3:B8" si="0">D3-C3</f>
@@ -3899,7 +3899,7 @@
         <v>11545</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3916,12 +3916,12 @@
         <v>168597</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
@@ -3935,12 +3935,12 @@
         <v>34368</v>
       </c>
       <c r="F5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
@@ -3951,7 +3951,7 @@
         <v>26956</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3968,12 +3968,12 @@
         <v>87289</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
@@ -3987,7 +3987,7 @@
         <v>41009</v>
       </c>
       <c r="F8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4040,7 +4040,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C17">
         <v>215000</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C18" s="7">
         <f>B11-C17-100000</f>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20">
         <f>SUM(31307+3000)</f>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="7">
         <f>C11-C20</f>
@@ -4100,7 +4100,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B1">
         <v>50000</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B2">
         <v>50000</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B3">
         <v>40000</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B4">
         <v>1300</v>
@@ -4142,12 +4142,12 @@
         <v>45301</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B5">
         <v>1300</v>
@@ -4156,12 +4156,12 @@
         <v>45317</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B6">
         <v>236</v>
@@ -4170,12 +4170,12 @@
         <v>45315</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B7">
         <v>118</v>
@@ -4184,12 +4184,12 @@
         <v>45315</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B8">
         <v>5900</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B9" s="12">
         <v>4882</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B10" s="12">
         <v>4764</v>
@@ -4229,12 +4229,12 @@
         <v>45339</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B12" s="12">
         <v>40970</v>
@@ -4243,7 +4243,7 @@
         <v>45362</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4279,22 +4279,22 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S2">
         <v>5250</v>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="R3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S3">
         <v>41408</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="8">
         <v>38878</v>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="M4" s="58"/>
       <c r="R4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S4">
         <v>20730</v>
@@ -4358,7 +4358,7 @@
         <v>21715</v>
       </c>
       <c r="R5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S5">
         <v>13960</v>
@@ -4381,7 +4381,7 @@
         <v>35106</v>
       </c>
       <c r="R6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S6">
         <v>28419</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -4450,12 +4450,12 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="K12" s="58"/>
       <c r="L12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M12">
         <v>16000</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="L15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M15">
         <v>23103</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18">
         <f>C14</f>
@@ -4538,12 +4538,12 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D19">
         <f>SUM(110000)</f>
@@ -4554,12 +4554,12 @@
         <v>279810</v>
       </c>
       <c r="G19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D20">
         <f>SUM(48895+3352)</f>
@@ -4574,20 +4574,20 @@
     </row>
     <row r="24" spans="2:7">
       <c r="C24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D24">
         <f ca="1">DATE(2024,5,14)-TODAY()</f>
-        <v>-61</v>
+        <v>-135</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="C25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D25">
         <f ca="1">D21/D24</f>
-        <v>-2874.032786885246</v>
+        <v>-1298.6370370370371</v>
       </c>
     </row>
   </sheetData>
@@ -4598,13 +4598,885 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="13">
+        <v>55000</v>
+      </c>
+      <c r="C2" s="21">
+        <v>44281</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1800</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="13">
+        <v>30</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="21">
+        <v>44653</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="13">
+        <v>120</v>
+      </c>
+      <c r="C7" s="21">
+        <v>44669</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="13">
+        <v>250</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="13">
+        <v>100</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1506</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="13">
+        <v>862</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="13">
+        <v>570</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="13">
+        <v>400</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C14" s="21">
+        <v>44706</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C15" s="21">
+        <v>44357</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C16" s="21">
+        <v>44794</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="21">
+        <v>44735</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="13">
+        <v>500</v>
+      </c>
+      <c r="C18" s="21">
+        <v>44743</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="13">
+        <v>12000</v>
+      </c>
+      <c r="C19" s="21">
+        <v>44767</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C20" s="21">
+        <v>44814</v>
+      </c>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C21" s="21">
+        <v>44827</v>
+      </c>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C22" s="21">
+        <v>44855</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="21">
+        <v>44875</v>
+      </c>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C24" s="21">
+        <v>44885</v>
+      </c>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C25" s="21">
+        <v>44916</v>
+      </c>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C26" s="21">
+        <v>44921</v>
+      </c>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="13">
+        <v>300</v>
+      </c>
+      <c r="C27" s="21">
+        <v>44925</v>
+      </c>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C28" s="21">
+        <v>44938</v>
+      </c>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="13">
+        <v>12000</v>
+      </c>
+      <c r="C29" s="21">
+        <v>44585</v>
+      </c>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="13">
+        <v>6000</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="13">
+        <v>6838</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1700</v>
+      </c>
+      <c r="C32" s="22">
+        <v>44967</v>
+      </c>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="13">
+        <v>3300</v>
+      </c>
+      <c r="C33" s="22">
+        <v>44973</v>
+      </c>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C34" s="14">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="13">
+        <v>3000</v>
+      </c>
+      <c r="C35" s="14">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C36" s="14">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="13">
+        <v>11000</v>
+      </c>
+      <c r="C37" s="14">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="13">
+        <v>229</v>
+      </c>
+      <c r="C38" s="14">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C39" s="14">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="13">
+        <v>100</v>
+      </c>
+      <c r="C40" s="14">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C41" s="14">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C42" s="14">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="13">
+        <v>150</v>
+      </c>
+      <c r="C43" s="14">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C44" s="14">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="13">
+        <v>2026</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="13">
+        <v>11000</v>
+      </c>
+      <c r="C46" s="14">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C47" s="14">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C48" s="14">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C49" s="14">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C50" s="14">
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C51" s="14">
+        <v>45213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="13">
+        <v>12000</v>
+      </c>
+      <c r="C52" s="14">
+        <v>45242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1300</v>
+      </c>
+      <c r="C53" s="14">
+        <v>45266</v>
+      </c>
+      <c r="D53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="13">
+        <v>550</v>
+      </c>
+      <c r="C54" s="14">
+        <v>45268</v>
+      </c>
+      <c r="D54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C55" s="14">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C56" s="14">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C57" s="14">
+        <v>45318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C58" s="14">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>290</v>
+      </c>
+      <c r="B59" s="13">
+        <v>300</v>
+      </c>
+      <c r="C59" s="14">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="13">
+        <v>250</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C61" s="14">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C62" s="14">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C63" s="14">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C64" s="14">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="13">
+        <v>12000</v>
+      </c>
+      <c r="C65" s="14">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>289</v>
+      </c>
+      <c r="B66" s="13">
+        <v>2500</v>
+      </c>
+      <c r="C66" s="14">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="13">
+        <v>12000</v>
+      </c>
+      <c r="C67" s="14">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="13">
+        <v>3000</v>
+      </c>
+      <c r="C68" s="14">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C69" s="14">
+        <v>45522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C70" s="14">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71" s="13">
+        <v>4810</v>
+      </c>
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="13">
+        <v>1450</v>
+      </c>
+      <c r="C72" s="14">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="11">
+        <f>SUM(B2:B72)</f>
+        <v>467941</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="13">
+        <v>185956</v>
+      </c>
+      <c r="C74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" s="13">
+        <v>76944</v>
+      </c>
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" s="13">
+        <v>80577</v>
+      </c>
+      <c r="C76" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78" s="13">
+        <f>B73-B74-B75-B76</f>
+        <v>124464</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4612,7 +5484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -5146,10 +6018,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:F108"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5160,11 +6032,12 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5172,7 +6045,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5186,7 +6059,7 @@
         <v>45097</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5356,8 +6229,8 @@
         <v>96</v>
       </c>
       <c r="F21" s="8">
-        <f>B108</f>
-        <v>87654</v>
+        <f>$B$115</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5394,7 +6267,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="11">
         <f>SUM(F21:F22)</f>
-        <v>143739</v>
+        <v>56085</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5505,800 +6378,394 @@
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="13">
-        <v>55000</v>
-      </c>
-      <c r="C39" s="21">
-        <v>44281</v>
-      </c>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="13">
-        <v>10000</v>
-      </c>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1800</v>
-      </c>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="13">
-        <v>30</v>
-      </c>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C43" s="21">
-        <v>44653</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="13">
-        <v>120</v>
-      </c>
-      <c r="C44" s="21">
-        <v>44669</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="13">
-        <v>250</v>
-      </c>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="13"/>
-      <c r="D45" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="13">
-        <v>100</v>
-      </c>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="13">
-        <v>1506</v>
-      </c>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="13">
-        <v>862</v>
-      </c>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="13">
-        <v>570</v>
-      </c>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="13">
-        <v>400</v>
-      </c>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C51" s="21">
-        <v>44706</v>
-      </c>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="13">
-        <v>5000</v>
-      </c>
-      <c r="C52" s="21">
-        <v>44357</v>
-      </c>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="13">
-        <v>15000</v>
-      </c>
-      <c r="C53" s="21">
-        <v>44794</v>
-      </c>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C54" s="21">
-        <v>44735</v>
-      </c>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="13">
-        <v>500</v>
-      </c>
-      <c r="C55" s="21">
-        <v>44743</v>
-      </c>
+      <c r="A55" s="22"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="13">
-        <v>12000</v>
-      </c>
-      <c r="C56" s="21">
-        <v>44767</v>
-      </c>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C57" s="21">
-        <v>44814</v>
-      </c>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="13">
-        <v>15000</v>
-      </c>
-      <c r="C58" s="21">
-        <v>44827</v>
-      </c>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="13">
-        <v>15000</v>
-      </c>
-      <c r="C59" s="21">
-        <v>44855</v>
-      </c>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C60" s="21">
-        <v>44875</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>99</v>
-      </c>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="13">
-        <v>5000</v>
-      </c>
-      <c r="C61" s="21">
-        <v>44885</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>99</v>
-      </c>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="13">
-        <v>5000</v>
-      </c>
-      <c r="C62" s="21">
-        <v>44916</v>
-      </c>
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C63" s="21">
-        <v>44921</v>
-      </c>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="13">
-        <v>300</v>
-      </c>
-      <c r="C64" s="21">
-        <v>44925</v>
-      </c>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="12"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C65" s="21">
-        <v>44938</v>
-      </c>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="13">
-        <v>12000</v>
-      </c>
-      <c r="C66" s="21">
-        <v>44585</v>
-      </c>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="12"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="13">
-        <v>6000</v>
-      </c>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" s="13">
-        <v>6838</v>
-      </c>
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B69" s="13">
-        <v>1700</v>
-      </c>
-      <c r="C69" s="22">
-        <v>44967</v>
-      </c>
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" s="13">
-        <v>3300</v>
-      </c>
-      <c r="C70" s="22">
-        <v>44973</v>
-      </c>
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B71" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C71" s="14">
-        <v>44981</v>
-      </c>
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="13">
-        <v>3000</v>
-      </c>
-      <c r="C72" s="14">
-        <v>44992</v>
-      </c>
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C73" s="14">
-        <v>45005</v>
-      </c>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="13">
-        <v>11000</v>
-      </c>
-      <c r="C74" s="14">
-        <v>45019</v>
-      </c>
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75" s="13">
-        <v>229</v>
-      </c>
-      <c r="C75" s="14">
-        <v>45023</v>
-      </c>
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="13">
-        <v>5000</v>
-      </c>
-      <c r="C76" s="14">
-        <v>45040</v>
-      </c>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" s="13">
-        <v>100</v>
-      </c>
-      <c r="C77" s="14">
-        <v>45062</v>
-      </c>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C78" s="14">
-        <v>45065</v>
-      </c>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C79" s="14">
-        <v>45079</v>
-      </c>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="13">
-        <v>150</v>
-      </c>
-      <c r="C80" s="14">
-        <v>45079</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C81" s="14">
-        <v>45093</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>180</v>
-      </c>
-      <c r="B82" s="13">
-        <v>2026</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="13">
-        <v>11000</v>
-      </c>
-      <c r="C83" s="14">
-        <v>45113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" s="13">
-        <v>5000</v>
-      </c>
-      <c r="C84" s="14">
-        <v>45132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="13">
-        <v>15000</v>
-      </c>
-      <c r="C85" s="14">
-        <v>45142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="13">
-        <v>5000</v>
-      </c>
-      <c r="C86" s="14">
-        <v>45160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>70</v>
-      </c>
-      <c r="B87" s="13">
-        <v>15000</v>
-      </c>
-      <c r="C87" s="14">
-        <v>45178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C88" s="14">
-        <v>45213</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="13">
-        <v>12000</v>
-      </c>
-      <c r="C89" s="14">
-        <v>45242</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90" s="13">
-        <v>1300</v>
-      </c>
-      <c r="C90" s="14">
-        <v>45266</v>
-      </c>
-      <c r="D90" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="13">
-        <v>550</v>
-      </c>
-      <c r="C91" s="14">
-        <v>45268</v>
-      </c>
-      <c r="D91" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C92" s="14">
-        <v>45276</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93" s="13">
-        <v>5000</v>
-      </c>
-      <c r="C93" s="14">
-        <v>45304</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>70</v>
-      </c>
-      <c r="B94" s="13">
-        <v>5000</v>
-      </c>
-      <c r="C94" s="14">
-        <v>45318</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>70</v>
-      </c>
-      <c r="B95" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C95" s="14">
-        <v>45332</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C96" s="14">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>70</v>
-      </c>
-      <c r="B97" s="13">
-        <v>15000</v>
-      </c>
-      <c r="C97" s="14">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" s="13">
-        <v>10000</v>
-      </c>
-      <c r="C98" s="14">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C99" s="14">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>70</v>
-      </c>
-      <c r="B100" s="13">
-        <v>12000</v>
-      </c>
-      <c r="C100" s="14">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>292</v>
-      </c>
-      <c r="B101" s="13">
-        <v>2500</v>
-      </c>
-      <c r="C101" s="14">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="11">
-        <f>SUM(B39:B101)</f>
-        <v>431131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="13">
-        <v>185956</v>
-      </c>
-      <c r="C103" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="B104" s="13">
-        <v>76944</v>
-      </c>
-      <c r="C104" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="13"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="13"/>
+      <c r="C103" s="14"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="13"/>
+      <c r="C104" s="14"/>
+    </row>
+    <row r="105" spans="2:7">
       <c r="B105" s="13"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>102</v>
-      </c>
-      <c r="B106" s="11">
-        <f>B102-B103-B104</f>
-        <v>168231</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>243</v>
-      </c>
-      <c r="B107" s="13">
-        <v>80577</v>
-      </c>
-      <c r="C107" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="B108" s="11">
-        <f>B106-B107</f>
-        <v>87654</v>
-      </c>
-      <c r="C108" t="s">
-        <v>245</v>
-      </c>
+      <c r="C105" s="14"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="11"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="13"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="13"/>
+      <c r="G112" s="13"/>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="13"/>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="11"/>
+      <c r="G114" s="11"/>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="13"/>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="11"/>
+      <c r="C116" s="14"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F22">
@@ -6318,7 +6785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -6333,17 +6800,17 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>133</v>
       </c>
       <c r="F1" s="26"/>
       <c r="K1" s="7"/>
@@ -6351,7 +6818,7 @@
     </row>
     <row r="2" spans="1:14" ht="18.75">
       <c r="A2" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="25"/>
@@ -6363,7 +6830,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="8">
         <v>20</v>
@@ -6378,7 +6845,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="8">
         <v>20</v>
@@ -6390,13 +6857,13 @@
         <v>2120</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="8">
         <v>20</v>
@@ -6408,13 +6875,13 @@
         <v>1970</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="8">
         <v>20</v>
@@ -6426,13 +6893,13 @@
         <v>1830</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="8">
         <v>20</v>
@@ -6444,13 +6911,13 @@
         <v>1220</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="8">
         <v>20</v>
@@ -6462,13 +6929,13 @@
         <v>1320</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="8">
         <v>4</v>
@@ -6483,7 +6950,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="8">
         <v>4</v>
@@ -6504,7 +6971,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="8"/>
@@ -6512,7 +6979,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="8">
         <v>4</v>
@@ -6526,7 +6993,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8">
@@ -6536,7 +7003,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8">
@@ -6546,7 +7013,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8">
@@ -6556,7 +7023,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8">
@@ -6566,7 +7033,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="8">
         <v>4</v>
@@ -6578,7 +7045,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8">
@@ -6588,7 +7055,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" s="8">
         <v>4</v>
@@ -6602,7 +7069,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="8">
         <v>4</v>
@@ -6616,7 +7083,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="8">
         <v>4</v>
@@ -6628,7 +7095,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8">
@@ -6646,7 +7113,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="8"/>
@@ -6654,7 +7121,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="8">
         <v>1825</v>
@@ -6665,7 +7132,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="8">
         <v>2525</v>
@@ -6682,7 +7149,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="8"/>
@@ -6690,7 +7157,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -6698,7 +7165,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="8">
         <v>4</v>
@@ -6710,7 +7177,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" s="8">
         <v>4</v>
@@ -6722,7 +7189,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33" s="8">
         <v>4</v>
@@ -6734,7 +7201,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="8">
         <v>4</v>
@@ -6746,7 +7213,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B35" s="8">
         <v>15</v>
@@ -6758,7 +7225,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" s="8">
         <v>6</v>
@@ -6770,7 +7237,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="8"/>
@@ -6778,7 +7245,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="8">
         <v>21</v>
@@ -6790,7 +7257,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="8">
         <v>4</v>
@@ -6808,13 +7275,13 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="8">
         <v>40</v>
@@ -6826,12 +7293,12 @@
         <v>440</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="8">
         <v>40</v>
@@ -6849,7 +7316,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" s="8">
         <v>20</v>
@@ -6861,13 +7328,13 @@
         <v>610</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" s="8">
         <v>20</v>
@@ -6882,7 +7349,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="8">
         <v>20</v>
@@ -6894,13 +7361,13 @@
         <v>900</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B48" s="8">
         <v>20</v>
@@ -6912,13 +7379,13 @@
         <v>960</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" s="8">
         <v>8</v>
@@ -6927,13 +7394,13 @@
         <v>795</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B50" s="8">
         <v>4</v>
@@ -6942,7 +7409,7 @@
         <v>495</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L50" s="8"/>
     </row>
@@ -6968,7 +7435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -6982,10 +7449,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="D1" s="11"/>
     </row>
@@ -7000,7 +7467,7 @@
         <v>633108</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(B2:B556)</f>
@@ -7015,7 +7482,7 @@
         <v>6800</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="32">
         <f>E2*1.1</f>
@@ -7030,7 +7497,7 @@
         <v>8245</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="8">
         <v>656560</v>
@@ -7746,13 +8213,13 @@
     <row r="1" spans="1:20" ht="33.75">
       <c r="A1"/>
       <c r="B1" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>187</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>188</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
@@ -7760,26 +8227,26 @@
     <row r="2" spans="1:20">
       <c r="A2"/>
       <c r="B2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>186</v>
-      </c>
       <c r="D2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>186</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="H2"/>
       <c r="T2" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="23.25">
@@ -8194,7 +8661,7 @@
         <v>0.48125000000000001</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F12" s="38">
         <v>0.45833333333333331</v>
@@ -8232,10 +8699,10 @@
         <v>0.65138888888888891</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F13" s="38">
         <v>0.5</v>
@@ -8271,10 +8738,10 @@
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="38">
         <v>0.95833333333333337</v>
@@ -8740,7 +9207,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8755,7 +9222,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8763,7 +9230,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8771,7 +9238,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8779,7 +9246,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8787,7 +9254,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8795,7 +9262,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8803,7 +9270,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8811,67 +9278,67 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
         <v>171</v>
-      </c>
-      <c r="B9" t="s">
-        <v>172</v>
       </c>
       <c r="I9">
         <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
         <v>161</v>
-      </c>
-      <c r="B11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -9151,155 +9618,155 @@
   <sheetData>
     <row r="1" spans="2:8" ht="26.25">
       <c r="B1" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15.75">
       <c r="B2" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>194</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>195</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3">
         <v>492</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3">
         <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4">
         <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4">
         <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5">
         <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5">
         <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6">
         <v>360</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6">
         <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7">
         <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8">
         <v>294</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G8">
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15">
         <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G15">
         <v>168</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/IMPORTANT/main.xlsx
+++ b/IMPORTANT/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11490" windowHeight="7980" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1321,21 +1321,6 @@
   <dxfs count="8">
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -1351,6 +1336,21 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1963,7 +1963,7 @@
       <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1671453</v>
+            <v>1454433</v>
           </cell>
         </row>
       </sheetData>
@@ -3066,7 +3066,7 @@
     <row r="32" spans="1:12" ht="23.25">
       <c r="B32" s="1">
         <f>[28]Sheet5!$G$1</f>
-        <v>1671453</v>
+        <v>1454433</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="21">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B34" s="5">
         <f>B32-B31</f>
-        <v>707931</v>
+        <v>490911</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="D24">
         <f ca="1">DATE(2024,5,14)-TODAY()</f>
-        <v>-135</v>
+        <v>-282</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="D25">
         <f ca="1">D21/D24</f>
-        <v>-1298.6370370370371</v>
+        <v>-621.6879432624113</v>
       </c>
     </row>
   </sheetData>
@@ -6020,7 +6020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -6769,10 +6769,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F7:F22">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NOT YET">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT YET">
       <formula>NOT(ISERROR(SEARCH("NOT YET",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="RECIVED">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="RECIVED">
       <formula>NOT(ISERROR(SEARCH("RECIVED",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6785,7 +6785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -8174,10 +8174,10 @@
     <cfRule type="aboveAverage" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
